--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D61EAF-829B-6E4B-AF14-517F2F69535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA2D520-20B9-6347-8F07-7B0A0778CB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="1161">
   <si>
     <t>Region</t>
   </si>
@@ -4776,211 +4776,6 @@
     <t>/fss4</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Pub Address" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"SSH Key Var Name" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NSGs" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DedicatedVMHost" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave this field empty if the instance does not need to be launched on dedicated vm host.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Source Details" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
-                                    Format - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>image::&lt;variable containing image ocid&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (or)  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bootVolume::&lt;variable  containing boot volume ocid&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>DRG Name</t>
   </si>
   <si>
@@ -7959,14 +7754,273 @@
   <si>
     <t>ADB workload</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently. CD3 Automation toolkit will not export instances launched by OKE.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Pub Address" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SSH Key Var Name" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NSGs" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DedicatedVMHost" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave this field empty if the instance does not need to be launched on dedicated vm host.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Source Details" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
+                                    Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image::&lt;variable containing image ocid&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (or) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>image::&lt;variable containing the market place image name</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (or)  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootVolume::&lt;variable  containing boot volume ocid&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>PaloAlto</t>
+  </si>
+  <si>
+    <t>PHXTCC-VCN_fwl-subnet</t>
+  </si>
+  <si>
+    <t>image::PaloAlto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8199,6 +8253,11 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -8503,9 +8562,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8516,58 +8575,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8583,12 +8642,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8597,11 +8656,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8613,33 +8672,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8648,100 +8707,100 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -8757,21 +8816,21 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8780,7 +8839,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8789,25 +8848,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8816,7 +8875,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8825,6 +8884,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -13221,7 +13281,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>
@@ -13351,7 +13411,7 @@
         <v>625</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>50</v>
@@ -13366,10 +13426,10 @@
         <v>35</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>23</v>
@@ -13403,7 +13463,7 @@
         <v>625</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>629</v>
@@ -13418,10 +13478,10 @@
         <v>35</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>23</v>
@@ -13455,7 +13515,7 @@
         <v>627</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>381</v>
@@ -13470,10 +13530,10 @@
         <v>35</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>23</v>
@@ -14214,7 +14274,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="113" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -14234,25 +14294,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>699</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>700</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>431</v>
@@ -14269,20 +14329,20 @@
         <v>626</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="58" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H3" s="58" t="s">
         <v>660</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J3" s="34"/>
     </row>
@@ -15742,7 +15802,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15771,7 +15831,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="122" t="s">
-        <v>696</v>
+        <v>1157</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -15781,7 +15841,7 @@
       <c r="G1" s="123"/>
       <c r="H1" s="124"/>
       <c r="I1" s="114" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J1" s="115"/>
       <c r="K1" s="115"/>
@@ -15827,16 +15887,16 @@
         <v>85</v>
       </c>
       <c r="K2" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>884</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>885</v>
-      </c>
       <c r="M2" s="29" t="s">
+        <v>889</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>890</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>891</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>95</v>
@@ -15868,19 +15928,19 @@
         <v>56</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>355</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G3" s="36" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I3" s="36" t="s">
         <v>451</v>
@@ -16036,7 +16096,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>56</v>
@@ -16057,13 +16117,13 @@
       <c r="I7" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="J7" s="98" t="s">
+      <c r="J7" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
       <c r="O7" s="63" t="s">
         <v>103</v>
       </c>
@@ -16076,6 +16136,52 @@
       </c>
       <c r="S7" s="63"/>
       <c r="T7" s="63"/>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G8" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J8" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="P10" s="77"/>
@@ -16094,49 +16200,49 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F500</xm:sqref>
+          <xm:sqref>F9:F500 F3:F6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0F00-000003000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q500 B3:B500</xm:sqref>
+          <xm:sqref>B9:B500 Q3:Q6 Q9:Q500 B3:B6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-000006000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S500</xm:sqref>
+          <xm:sqref>S9:S500 S3:S6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000C000000}">
           <x14:formula1>
             <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P500</xm:sqref>
+          <xm:sqref>P9:P500 P3:P6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option" xr:uid="{00000000-0002-0000-0F00-00000D000000}">
           <x14:formula1>
             <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G500</xm:sqref>
+          <xm:sqref>G9:G500 G3:G6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid Option" xr:uid="{00000000-0002-0000-0F00-00000E000000}">
           <x14:formula1>
             <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E500</xm:sqref>
+          <xm:sqref>E9:E500 E3:E6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid option selected" xr:uid="{00000000-0002-0000-0F00-00000F000000}">
           <x14:formula1>
             <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C500</xm:sqref>
+          <xm:sqref>C9:C500 C3:C6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region" xr:uid="{00000000-0002-0000-0F00-000010000000}">
           <x14:formula1>
             <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A500</xm:sqref>
+          <xm:sqref>A9:A500 A3:A6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16207,10 +16313,10 @@
         <v>109</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>96</v>
@@ -16261,7 +16367,7 @@
         <v>110</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I4" s="99" t="b">
         <v>1</v>
@@ -16573,7 +16679,7 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -16922,13 +17028,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>723</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>724</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>139</v>
@@ -16940,7 +17046,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>141</v>
@@ -17438,7 +17544,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -17473,16 +17579,16 @@
         <v>138</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>157</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>158</v>
@@ -17786,7 +17892,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="122" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="113" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -17828,10 +17934,10 @@
         <v>244</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>245</v>
@@ -18900,7 +19006,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -18922,19 +19028,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>245</v>
@@ -18943,7 +19049,7 @@
         <v>157</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>246</v>
@@ -18970,16 +19076,16 @@
     </row>
     <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>356</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E4" s="64" t="b">
         <v>0</v>
@@ -18987,13 +19093,13 @@
       <c r="F4" s="64"/>
       <c r="G4" s="64"/>
       <c r="H4" s="64" t="s">
+        <v>929</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>914</v>
+      </c>
+      <c r="J4" s="64" t="s">
         <v>930</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>915</v>
-      </c>
-      <c r="J4" s="64" t="s">
-        <v>931</v>
       </c>
       <c r="K4" s="64">
         <v>7003</v>
@@ -19002,34 +19108,34 @@
     </row>
     <row r="5" spans="1:12" s="96" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>356</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E5" s="64" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="64" t="s">
+        <v>932</v>
+      </c>
+      <c r="G5" s="64" t="s">
         <v>933</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="H5" s="64" t="s">
         <v>934</v>
       </c>
-      <c r="H5" s="64" t="s">
-        <v>935</v>
-      </c>
       <c r="I5" s="64" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K5" s="64">
         <v>53</v>
@@ -19045,13 +19151,13 @@
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
       <c r="H6" s="64" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K6" s="64">
         <v>22</v>
@@ -19371,7 +19477,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -19392,19 +19498,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>157</v>
       </c>
       <c r="E2" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>911</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>912</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>913</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>160</v>
@@ -19416,7 +19522,7 @@
         <v>466</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -19436,19 +19542,19 @@
     </row>
     <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B4" s="64" t="s">
         <v>356</v>
       </c>
       <c r="C4" s="64" t="s">
+        <v>913</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>914</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="E4" s="64" t="s">
         <v>915</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>916</v>
       </c>
       <c r="F4" s="64" t="b">
         <v>0</v>
@@ -19460,36 +19566,36 @@
         <v>7003</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J4" s="64">
         <v>10000</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>356</v>
       </c>
       <c r="C5" s="64" t="s">
+        <v>918</v>
+      </c>
+      <c r="D5" s="64" t="s">
         <v>919</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="E5" s="64" t="s">
         <v>920</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>921</v>
       </c>
       <c r="F5" s="64" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H5" s="64">
         <v>53</v>
@@ -19499,7 +19605,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19507,16 +19613,16 @@
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
       <c r="D6" s="64" t="s">
+        <v>923</v>
+      </c>
+      <c r="E6" s="64" t="s">
         <v>924</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>925</v>
       </c>
       <c r="F6" s="64" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H6" s="64">
         <v>22</v>
@@ -19526,7 +19632,7 @@
         <v>20000</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>
@@ -19565,7 +19671,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -19591,34 +19697,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>315</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H2" s="112" t="s">
         <v>316</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>1151</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>1152</v>
-      </c>
       <c r="L2" s="60" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M2" s="59" t="s">
         <v>321</v>
@@ -19661,14 +19767,14 @@
         <v>582</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="63" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G4" s="63"/>
       <c r="H4" s="106" t="s">
@@ -19794,31 +19900,31 @@
         <v>39</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F2" s="59" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="59" t="s">
+        <v>788</v>
+      </c>
+      <c r="H2" s="59" t="s">
         <v>789</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="I2" s="59" t="s">
         <v>790</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="J2" s="59" t="s">
         <v>791</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="K2" s="78" t="s">
         <v>792</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="L2" s="59" t="s">
         <v>793</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="M2" s="60" t="s">
         <v>794</v>
-      </c>
-      <c r="M2" s="60" t="s">
-        <v>795</v>
       </c>
       <c r="N2" s="59" t="s">
         <v>412</v>
@@ -19836,10 +19942,10 @@
         <v>415</v>
       </c>
       <c r="S2" s="59" t="s">
+        <v>795</v>
+      </c>
+      <c r="T2" s="59" t="s">
         <v>796</v>
-      </c>
-      <c r="T2" s="59" t="s">
-        <v>797</v>
       </c>
       <c r="U2" s="59" t="s">
         <v>95</v>
@@ -19851,7 +19957,7 @@
         <v>322</v>
       </c>
       <c r="X2" s="59" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Y2" s="59" t="s">
         <v>576</v>
@@ -19905,10 +20011,10 @@
         <v>56</v>
       </c>
       <c r="D4" s="64" t="s">
+        <v>829</v>
+      </c>
+      <c r="E4" s="105" t="s">
         <v>830</v>
-      </c>
-      <c r="E4" s="105" t="s">
-        <v>831</v>
       </c>
       <c r="F4" s="106" t="s">
         <v>339</v>
@@ -19931,7 +20037,7 @@
         <v>328</v>
       </c>
       <c r="N4" s="106" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O4" s="106" t="s">
         <v>329</v>
@@ -19980,10 +20086,10 @@
         <v>90</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F5" s="106" t="s">
         <v>342</v>
@@ -20008,7 +20114,7 @@
         <v>328</v>
       </c>
       <c r="N5" s="106" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O5" s="106" t="s">
         <v>344</v>
@@ -26094,7 +26200,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -26112,7 +26218,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>84</v>
@@ -26121,10 +26227,10 @@
         <v>85</v>
       </c>
       <c r="F2" s="78" t="s">
+        <v>808</v>
+      </c>
+      <c r="G2" s="78" t="s">
         <v>809</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>810</v>
       </c>
       <c r="H2" s="81" t="s">
         <v>431</v>
@@ -26156,7 +26262,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="106" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F4" s="64">
         <v>2</v>
@@ -32240,34 +32346,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D2" s="60" t="s">
+        <v>812</v>
+      </c>
+      <c r="E2" s="78" t="s">
         <v>813</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>814</v>
       </c>
       <c r="F2" s="78" t="s">
         <v>346</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I2" s="78" t="s">
         <v>412</v>
       </c>
       <c r="J2" s="78" t="s">
+        <v>814</v>
+      </c>
+      <c r="K2" s="78" t="s">
         <v>815</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="L2" s="78" t="s">
         <v>816</v>
-      </c>
-      <c r="L2" s="78" t="s">
-        <v>817</v>
       </c>
       <c r="M2" s="78" t="s">
         <v>95</v>
@@ -32279,7 +32385,7 @@
         <v>97</v>
       </c>
       <c r="P2" s="90" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q2" s="85" t="s">
         <v>431</v>
@@ -32323,13 +32429,13 @@
         <v>419</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G4" s="109">
         <v>4</v>
@@ -32338,7 +32444,7 @@
         <v>328</v>
       </c>
       <c r="I4" s="110" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J4" s="110" t="s">
         <v>424</v>
@@ -39190,10 +39296,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>938</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>939</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>940</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="36"/>
@@ -39281,10 +39387,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>703</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>704</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>705</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -39294,10 +39400,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>826</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>827</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>828</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="36"/>
@@ -39316,13 +39422,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>941</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>942</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>943</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -39331,13 +39437,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>943</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>944</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="D15" s="34" t="s">
         <v>945</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>946</v>
       </c>
       <c r="E15" s="36"/>
     </row>
@@ -39346,13 +39452,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>946</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>947</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="D16" s="34" t="s">
         <v>948</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>949</v>
       </c>
       <c r="E16" s="36"/>
     </row>
@@ -39361,13 +39467,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>949</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>950</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="D17" s="34" t="s">
         <v>951</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>952</v>
       </c>
       <c r="E17" s="36"/>
     </row>
@@ -39426,22 +39532,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C1" s="53" t="s">
         <v>420</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>348</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G1" s="54" t="s">
         <v>322</v>
@@ -39450,16 +39556,16 @@
         <v>321</v>
       </c>
       <c r="I1" s="80" t="s">
+        <v>792</v>
+      </c>
+      <c r="J1" s="80" t="s">
         <v>793</v>
       </c>
-      <c r="J1" s="80" t="s">
-        <v>794</v>
-      </c>
       <c r="K1" s="54" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -39491,7 +39597,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K2" s="36">
         <v>1</v>
@@ -39502,7 +39608,7 @@
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="79" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>422</v>
@@ -39529,7 +39635,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K3" s="36">
         <v>2</v>
@@ -39540,7 +39646,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="79" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>343</v>
@@ -39557,7 +39663,7 @@
         <v>468</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -39565,7 +39671,7 @@
         <v>339</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>423</v>
@@ -39579,7 +39685,7 @@
         <v>469</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -39588,7 +39694,7 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="36" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36" t="s">
@@ -39601,11 +39707,11 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="79" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36" t="s">
@@ -39618,11 +39724,11 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="79" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="36" t="s">
@@ -39656,7 +39762,7 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36" t="s">
@@ -39669,11 +39775,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="79" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36" t="s">
@@ -39690,11 +39796,11 @@
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F12" s="36"/>
       <c r="H12" s="36" t="s">
@@ -39707,7 +39813,7 @@
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -39722,7 +39828,7 @@
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -40256,91 +40362,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="68" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1" s="76" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="C1" s="76" t="s">
         <v>726</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="D1" s="76" t="s">
         <v>727</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="E1" s="76" t="s">
         <v>728</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="F1" s="76" t="s">
         <v>729</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>730</v>
       </c>
       <c r="G1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="76" t="s">
+        <v>730</v>
+      </c>
+      <c r="I1" s="76" t="s">
         <v>731</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="J1" s="76" t="s">
         <v>732</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="K1" s="76" t="s">
         <v>733</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="L1" s="76" t="s">
         <v>734</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="M1" s="76" t="s">
+        <v>782</v>
+      </c>
+      <c r="N1" s="76" t="s">
         <v>735</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="O1" s="76" t="s">
+        <v>736</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q1" s="76" t="s">
+        <v>738</v>
+      </c>
+      <c r="R1" s="76" t="s">
+        <v>739</v>
+      </c>
+      <c r="S1" s="76" t="s">
+        <v>740</v>
+      </c>
+      <c r="T1" s="76" t="s">
+        <v>784</v>
+      </c>
+      <c r="U1" s="76" t="s">
+        <v>741</v>
+      </c>
+      <c r="V1" s="67" t="s">
+        <v>742</v>
+      </c>
+      <c r="W1" s="67" t="s">
+        <v>743</v>
+      </c>
+      <c r="X1" s="67" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y1" s="76" t="s">
         <v>783</v>
-      </c>
-      <c r="N1" s="76" t="s">
-        <v>736</v>
-      </c>
-      <c r="O1" s="76" t="s">
-        <v>737</v>
-      </c>
-      <c r="P1" s="76" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q1" s="76" t="s">
-        <v>739</v>
-      </c>
-      <c r="R1" s="76" t="s">
-        <v>740</v>
-      </c>
-      <c r="S1" s="76" t="s">
-        <v>741</v>
-      </c>
-      <c r="T1" s="76" t="s">
-        <v>785</v>
-      </c>
-      <c r="U1" s="76" t="s">
-        <v>742</v>
-      </c>
-      <c r="V1" s="67" t="s">
-        <v>743</v>
-      </c>
-      <c r="W1" s="67" t="s">
-        <v>744</v>
-      </c>
-      <c r="X1" s="67" t="s">
-        <v>745</v>
-      </c>
-      <c r="Y1" s="76" t="s">
-        <v>784</v>
       </c>
       <c r="Z1" s="67" t="s">
         <v>85</v>
       </c>
       <c r="AA1" s="67" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB1" s="67" t="s">
         <v>746</v>
       </c>
-      <c r="AB1" s="67" t="s">
+      <c r="AC1" s="67" t="s">
         <v>747</v>
-      </c>
-      <c r="AC1" s="67" t="s">
-        <v>748</v>
       </c>
       <c r="AD1" s="67" t="s">
         <v>252</v>
@@ -40361,7 +40467,7 @@
         <v>257</v>
       </c>
       <c r="AJ1" s="67" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AK1" s="67" t="s">
         <v>317</v>
@@ -40393,7 +40499,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H2" s="70" t="s">
         <v>38</v>
@@ -40422,7 +40528,7 @@
         <v>78</v>
       </c>
       <c r="P2" s="71" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q2" s="70" t="s">
         <v>355</v>
@@ -40442,13 +40548,13 @@
         <v>Bastion</v>
       </c>
       <c r="V2" s="70" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="W2" s="70" t="s">
         <v>129</v>
       </c>
       <c r="X2" s="70" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Y2" s="70" t="b">
         <v>1</v>
@@ -40457,7 +40563,7 @@
         <v>147</v>
       </c>
       <c r="AA2" s="70" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AB2" s="70" t="s">
         <v>170</v>
@@ -40552,7 +40658,7 @@
         <v>90</v>
       </c>
       <c r="S3" s="70" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T3" s="70" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -40569,7 +40675,7 @@
         <v>127</v>
       </c>
       <c r="X3" s="70" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Y3" s="70" t="b">
         <v>0</v>
@@ -40581,7 +40687,7 @@
         <v>169</v>
       </c>
       <c r="AB3" s="70" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AC3" s="70" t="s">
         <v>172</v>
@@ -40605,7 +40711,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="70" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AK3" s="69" t="s">
         <v>320</v>
@@ -40633,7 +40739,7 @@
       </c>
       <c r="F4" s="70"/>
       <c r="G4" s="70" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70" t="s">
@@ -40663,7 +40769,7 @@
         <v>99</v>
       </c>
       <c r="S4" s="70" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="T4" s="70" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -40676,14 +40782,14 @@
       <c r="V4" s="70"/>
       <c r="W4" s="70"/>
       <c r="X4" s="70" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Y4" s="70"/>
       <c r="Z4" s="70" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA4" s="70" t="s">
         <v>761</v>
-      </c>
-      <c r="AA4" s="70" t="s">
-        <v>762</v>
       </c>
       <c r="AB4" s="70"/>
       <c r="AC4" s="70" t="s">
@@ -40730,7 +40836,7 @@
       </c>
       <c r="F5" s="70"/>
       <c r="G5" s="70" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H5" s="70"/>
       <c r="I5" s="70" t="s">
@@ -40748,7 +40854,7 @@
       </c>
       <c r="N5" s="70"/>
       <c r="O5" s="70" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P5" s="71"/>
       <c r="Q5" s="70"/>
@@ -40765,7 +40871,7 @@
       <c r="X5" s="70"/>
       <c r="Y5" s="70"/>
       <c r="Z5" s="70" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AA5" s="70"/>
       <c r="AB5" s="70"/>
@@ -40809,7 +40915,7 @@
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="70" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
@@ -40880,7 +40986,7 @@
       </c>
       <c r="F7" s="70"/>
       <c r="G7" s="70" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H7" s="70"/>
       <c r="I7" s="70"/>
@@ -40949,7 +41055,7 @@
       </c>
       <c r="F8" s="70"/>
       <c r="G8" s="70" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
@@ -41018,7 +41124,7 @@
       </c>
       <c r="F9" s="70"/>
       <c r="G9" s="70" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H9" s="70"/>
       <c r="I9" s="70"/>
@@ -41087,7 +41193,7 @@
       </c>
       <c r="F10" s="70"/>
       <c r="G10" s="70" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H10" s="70"/>
       <c r="I10" s="70"/>
@@ -41156,7 +41262,7 @@
       </c>
       <c r="F11" s="70"/>
       <c r="G11" s="70" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="70"/>
@@ -41225,7 +41331,7 @@
       </c>
       <c r="F12" s="70"/>
       <c r="G12" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="70"/>
@@ -41292,7 +41398,7 @@
       </c>
       <c r="F13" s="70"/>
       <c r="G13" s="70" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70"/>
@@ -41359,7 +41465,7 @@
       </c>
       <c r="F14" s="70"/>
       <c r="G14" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
@@ -41493,7 +41599,7 @@
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="70" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
@@ -41560,7 +41666,7 @@
       </c>
       <c r="F17" s="70"/>
       <c r="G17" s="70" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
@@ -41627,7 +41733,7 @@
       </c>
       <c r="F18" s="70"/>
       <c r="G18" s="70" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
@@ -41694,7 +41800,7 @@
       </c>
       <c r="F19" s="70"/>
       <c r="G19" s="70" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
@@ -41761,7 +41867,7 @@
       </c>
       <c r="F20" s="70"/>
       <c r="G20" s="70" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
@@ -41828,7 +41934,7 @@
       </c>
       <c r="F21" s="70"/>
       <c r="G21" s="70" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
@@ -41895,7 +42001,7 @@
       </c>
       <c r="F22" s="70"/>
       <c r="G22" s="70" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
@@ -41962,7 +42068,7 @@
       </c>
       <c r="F23" s="70"/>
       <c r="G23" s="70" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
@@ -42029,7 +42135,7 @@
       </c>
       <c r="F24" s="70"/>
       <c r="G24" s="70" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
@@ -43802,10 +43908,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -44339,7 +44445,7 @@
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -44359,7 +44465,7 @@
         <v>600</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -44371,7 +44477,7 @@
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -44383,7 +44489,7 @@
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -44395,7 +44501,7 @@
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -44407,7 +44513,7 @@
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -44419,7 +44525,7 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -44431,7 +44537,7 @@
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -44443,7 +44549,7 @@
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -44455,7 +44561,7 @@
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -44467,7 +44573,7 @@
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -44479,7 +44585,7 @@
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -44491,7 +44597,7 @@
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -44503,7 +44609,7 @@
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -44515,7 +44621,7 @@
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -44527,7 +44633,7 @@
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -44539,7 +44645,7 @@
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -44551,7 +44657,7 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -44563,7 +44669,7 @@
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -44575,7 +44681,7 @@
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -44587,7 +44693,7 @@
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
@@ -44599,7 +44705,7 @@
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
@@ -44611,7 +44717,7 @@
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
@@ -44623,7 +44729,7 @@
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -44635,7 +44741,7 @@
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -44647,7 +44753,7 @@
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -44659,7 +44765,7 @@
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="34" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -44671,7 +44777,7 @@
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -44683,7 +44789,7 @@
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
@@ -44695,7 +44801,7 @@
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
@@ -44707,7 +44813,7 @@
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
@@ -44719,7 +44825,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
@@ -44731,7 +44837,7 @@
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="34" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -44743,7 +44849,7 @@
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
@@ -44755,7 +44861,7 @@
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
       <c r="E38" s="34" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
@@ -44767,7 +44873,7 @@
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
       <c r="E39" s="34" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
@@ -44779,7 +44885,7 @@
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
       <c r="E40" s="34" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
@@ -44791,7 +44897,7 @@
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
       <c r="E41" s="34" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -44803,7 +44909,7 @@
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
       <c r="E42" s="34" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
@@ -44815,7 +44921,7 @@
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -44827,7 +44933,7 @@
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -44839,7 +44945,7 @@
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
@@ -45003,7 +45109,7 @@
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
@@ -45015,7 +45121,7 @@
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
       <c r="E59" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
@@ -45027,7 +45133,7 @@
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
@@ -45039,7 +45145,7 @@
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
@@ -45051,7 +45157,7 @@
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
@@ -45062,16 +45168,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>407</v>
       </c>
       <c r="D63" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="E63" s="34" t="s">
         <v>711</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>712</v>
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
@@ -45083,7 +45189,7 @@
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
       <c r="E64" s="34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
@@ -45095,7 +45201,7 @@
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
@@ -45107,7 +45213,7 @@
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
@@ -45118,16 +45224,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C67" s="34" t="s">
         <v>407</v>
       </c>
       <c r="D67" s="34" t="s">
+        <v>992</v>
+      </c>
+      <c r="E67" s="34" t="s">
         <v>993</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>994</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
@@ -45139,7 +45245,7 @@
       <c r="C68" s="34"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
@@ -45168,10 +45274,10 @@
         <v>407</v>
       </c>
       <c r="D70" s="34" t="s">
+        <v>995</v>
+      </c>
+      <c r="E70" s="34" t="s">
         <v>996</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>997</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
@@ -45183,7 +45289,7 @@
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
@@ -45195,7 +45301,7 @@
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
       <c r="E72" s="34" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
@@ -45207,7 +45313,7 @@
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
@@ -45219,7 +45325,7 @@
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
@@ -45231,7 +45337,7 @@
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
@@ -45243,7 +45349,7 @@
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
@@ -45255,7 +45361,7 @@
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
@@ -45267,7 +45373,7 @@
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
@@ -45279,7 +45385,7 @@
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
@@ -45291,7 +45397,7 @@
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
@@ -45303,7 +45409,7 @@
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
       <c r="E81" s="34" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
@@ -45315,7 +45421,7 @@
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
       <c r="E82" s="34" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
@@ -45327,7 +45433,7 @@
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
       <c r="E83" s="34" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
@@ -45339,7 +45445,7 @@
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="E84" s="34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
@@ -45351,7 +45457,7 @@
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
       <c r="E85" s="34" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -45363,7 +45469,7 @@
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="E86" s="34" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
@@ -45375,7 +45481,7 @@
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
       <c r="E87" s="34" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
@@ -45387,7 +45493,7 @@
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
       <c r="E88" s="34" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
@@ -45399,7 +45505,7 @@
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
       <c r="E89" s="34" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
@@ -45411,7 +45517,7 @@
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="34" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
@@ -45423,7 +45529,7 @@
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
       <c r="E91" s="34" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
@@ -45435,7 +45541,7 @@
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
       <c r="E92" s="34" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
@@ -45447,7 +45553,7 @@
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
       <c r="E93" s="34" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
@@ -45459,7 +45565,7 @@
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
       <c r="E94" s="34" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
@@ -45471,7 +45577,7 @@
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
       <c r="E95" s="34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
@@ -45483,7 +45589,7 @@
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
       <c r="E96" s="34" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
@@ -45495,7 +45601,7 @@
       <c r="C97" s="34"/>
       <c r="D97" s="34"/>
       <c r="E97" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
@@ -45507,7 +45613,7 @@
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
       <c r="E98" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="34"/>
@@ -45519,7 +45625,7 @@
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
       <c r="E99" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
@@ -45531,7 +45637,7 @@
       <c r="C100" s="34"/>
       <c r="D100" s="34"/>
       <c r="E100" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="34"/>
@@ -45543,7 +45649,7 @@
       <c r="C101" s="34"/>
       <c r="D101" s="34"/>
       <c r="E101" s="34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="34"/>
@@ -45563,7 +45669,7 @@
         <v>616</v>
       </c>
       <c r="E102" s="89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
@@ -45587,7 +45693,7 @@
       <c r="C104" s="34"/>
       <c r="D104" s="34"/>
       <c r="E104" s="34" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
@@ -45599,7 +45705,7 @@
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
       <c r="E105" s="34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
@@ -45611,7 +45717,7 @@
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
       <c r="E106" s="34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
@@ -45623,7 +45729,7 @@
       <c r="C107" s="34"/>
       <c r="D107" s="34"/>
       <c r="E107" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="34"/>
@@ -45635,7 +45741,7 @@
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
       <c r="E108" s="34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="34"/>
@@ -45647,7 +45753,7 @@
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
       <c r="E109" s="34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
@@ -45659,7 +45765,7 @@
       <c r="C110" s="34"/>
       <c r="D110" s="34"/>
       <c r="E110" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="34"/>
@@ -45671,7 +45777,7 @@
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
       <c r="E111" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
@@ -45683,7 +45789,7 @@
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="E112" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
@@ -45695,7 +45801,7 @@
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
       <c r="E113" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
@@ -45707,7 +45813,7 @@
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
       <c r="E114" s="34" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
@@ -45719,7 +45825,7 @@
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
       <c r="E115" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
@@ -45731,7 +45837,7 @@
       <c r="C116" s="34"/>
       <c r="D116" s="34"/>
       <c r="E116" s="34" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
@@ -45743,7 +45849,7 @@
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
       <c r="E117" s="34" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
@@ -45755,7 +45861,7 @@
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
       <c r="E118" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="34"/>
@@ -45767,7 +45873,7 @@
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
       <c r="E119" s="34" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="34"/>
@@ -45779,7 +45885,7 @@
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
       <c r="E120" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
@@ -45799,7 +45905,7 @@
         <v>619</v>
       </c>
       <c r="E121" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="34"/>
@@ -45811,7 +45917,7 @@
       <c r="C122" s="34"/>
       <c r="D122" s="34"/>
       <c r="E122" s="34" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="34"/>
@@ -45823,7 +45929,7 @@
       <c r="C123" s="34"/>
       <c r="D123" s="34"/>
       <c r="E123" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F123" s="34"/>
       <c r="G123" s="34"/>
@@ -45835,7 +45941,7 @@
       <c r="C124" s="34"/>
       <c r="D124" s="34"/>
       <c r="E124" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="34"/>
@@ -45847,7 +45953,7 @@
       <c r="C125" s="34"/>
       <c r="D125" s="34"/>
       <c r="E125" s="34" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="34"/>
@@ -45859,7 +45965,7 @@
       <c r="C126" s="34"/>
       <c r="D126" s="34"/>
       <c r="E126" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F126" s="34"/>
       <c r="G126" s="34"/>
@@ -45871,7 +45977,7 @@
       <c r="C127" s="34"/>
       <c r="D127" s="34"/>
       <c r="E127" s="34" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F127" s="34"/>
       <c r="G127" s="34"/>
@@ -45883,7 +45989,7 @@
       <c r="C128" s="34"/>
       <c r="D128" s="34"/>
       <c r="E128" s="34" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="34"/>
@@ -45895,7 +46001,7 @@
       <c r="C129" s="34"/>
       <c r="D129" s="34"/>
       <c r="E129" s="34" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="34"/>
@@ -45907,7 +46013,7 @@
       <c r="C130" s="34"/>
       <c r="D130" s="34"/>
       <c r="E130" s="34" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="34"/>
@@ -45919,7 +46025,7 @@
       <c r="C131" s="34"/>
       <c r="D131" s="34"/>
       <c r="E131" s="34" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="34"/>
@@ -45931,7 +46037,7 @@
       <c r="C132" s="34"/>
       <c r="D132" s="34"/>
       <c r="E132" s="34" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F132" s="34"/>
       <c r="G132" s="34"/>
@@ -45943,7 +46049,7 @@
       <c r="C133" s="34"/>
       <c r="D133" s="34"/>
       <c r="E133" s="34" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="34"/>
@@ -45955,7 +46061,7 @@
       <c r="C134" s="34"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="34"/>
@@ -45967,7 +46073,7 @@
       <c r="C135" s="34"/>
       <c r="D135" s="34"/>
       <c r="E135" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="34"/>
@@ -45979,7 +46085,7 @@
       <c r="C136" s="34"/>
       <c r="D136" s="34"/>
       <c r="E136" s="34" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="34"/>
@@ -45991,7 +46097,7 @@
       <c r="C137" s="34"/>
       <c r="D137" s="34"/>
       <c r="E137" s="34" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="34"/>
@@ -46003,7 +46109,7 @@
       <c r="C138" s="34"/>
       <c r="D138" s="34"/>
       <c r="E138" s="34" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="34"/>
@@ -46015,7 +46121,7 @@
       <c r="C139" s="34"/>
       <c r="D139" s="34"/>
       <c r="E139" s="34" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="34"/>
@@ -46027,7 +46133,7 @@
       <c r="C140" s="34"/>
       <c r="D140" s="34"/>
       <c r="E140" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F140" s="34"/>
       <c r="G140" s="34"/>
@@ -46039,7 +46145,7 @@
       <c r="C141" s="34"/>
       <c r="D141" s="34"/>
       <c r="E141" s="34" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F141" s="34"/>
       <c r="G141" s="34"/>
@@ -46051,7 +46157,7 @@
       <c r="C142" s="34"/>
       <c r="D142" s="34"/>
       <c r="E142" s="34" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F142" s="34"/>
       <c r="G142" s="34"/>
@@ -46063,7 +46169,7 @@
       <c r="C143" s="34"/>
       <c r="D143" s="34"/>
       <c r="E143" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F143" s="34"/>
       <c r="G143" s="34"/>
@@ -46075,7 +46181,7 @@
       <c r="C144" s="34"/>
       <c r="D144" s="34"/>
       <c r="E144" s="34" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F144" s="34"/>
       <c r="G144" s="34"/>
@@ -46087,7 +46193,7 @@
       <c r="C145" s="34"/>
       <c r="D145" s="34"/>
       <c r="E145" s="34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F145" s="34"/>
       <c r="G145" s="34"/>
@@ -46099,7 +46205,7 @@
       <c r="C146" s="34"/>
       <c r="D146" s="34"/>
       <c r="E146" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F146" s="34"/>
       <c r="G146" s="34"/>
@@ -46111,7 +46217,7 @@
       <c r="C147" s="34"/>
       <c r="D147" s="34"/>
       <c r="E147" s="34" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F147" s="34"/>
       <c r="G147" s="34"/>
@@ -46142,16 +46248,16 @@
         <v>5</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C149" s="34" t="s">
         <v>407</v>
       </c>
       <c r="D149" s="34" t="s">
+        <v>823</v>
+      </c>
+      <c r="E149" s="34" t="s">
         <v>824</v>
-      </c>
-      <c r="E149" s="34" t="s">
-        <v>825</v>
       </c>
       <c r="F149" s="34"/>
       <c r="G149" s="34"/>
@@ -46163,7 +46269,7 @@
       <c r="C150" s="34"/>
       <c r="D150" s="34"/>
       <c r="E150" s="34" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F150" s="34"/>
       <c r="G150" s="34"/>
@@ -46175,7 +46281,7 @@
       <c r="C151" s="34"/>
       <c r="D151" s="34"/>
       <c r="E151" s="34" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F151" s="34"/>
       <c r="G151" s="34"/>
@@ -46195,7 +46301,7 @@
         <v>621</v>
       </c>
       <c r="E152" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F152" s="34"/>
       <c r="G152" s="34"/>
@@ -46207,7 +46313,7 @@
       <c r="C153" s="34"/>
       <c r="D153" s="34"/>
       <c r="E153" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F153" s="34"/>
       <c r="G153" s="34"/>
@@ -46219,7 +46325,7 @@
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
       <c r="E154" s="34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F154" s="34"/>
       <c r="G154" s="34"/>
@@ -46231,7 +46337,7 @@
       <c r="C155" s="34"/>
       <c r="D155" s="34"/>
       <c r="E155" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F155" s="34"/>
       <c r="G155" s="34"/>
@@ -46243,7 +46349,7 @@
       <c r="C156" s="34"/>
       <c r="D156" s="34"/>
       <c r="E156" s="34" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F156" s="34"/>
       <c r="G156" s="34"/>
@@ -46255,7 +46361,7 @@
       <c r="C157" s="34"/>
       <c r="D157" s="34"/>
       <c r="E157" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F157" s="34"/>
       <c r="G157" s="34"/>
@@ -46267,7 +46373,7 @@
       <c r="C158" s="34"/>
       <c r="D158" s="34"/>
       <c r="E158" s="34" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F158" s="34"/>
       <c r="G158" s="34"/>
@@ -46279,7 +46385,7 @@
       <c r="C159" s="34"/>
       <c r="D159" s="34"/>
       <c r="E159" s="34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F159" s="34"/>
       <c r="G159" s="34"/>
@@ -46291,7 +46397,7 @@
       <c r="C160" s="34"/>
       <c r="D160" s="34"/>
       <c r="E160" s="34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F160" s="34"/>
       <c r="G160" s="34"/>
@@ -46303,7 +46409,7 @@
       <c r="C161" s="34"/>
       <c r="D161" s="34"/>
       <c r="E161" s="34" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F161" s="34"/>
       <c r="G161" s="34"/>
@@ -46315,7 +46421,7 @@
       <c r="C162" s="34"/>
       <c r="D162" s="34"/>
       <c r="E162" s="34" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F162" s="34"/>
       <c r="G162" s="34"/>
@@ -46327,7 +46433,7 @@
       <c r="C163" s="34"/>
       <c r="D163" s="34"/>
       <c r="E163" s="34" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F163" s="34"/>
       <c r="G163" s="34"/>
@@ -46339,7 +46445,7 @@
       <c r="C164" s="34"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F164" s="34"/>
       <c r="G164" s="34"/>
@@ -46351,7 +46457,7 @@
       <c r="C165" s="34"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
@@ -46363,7 +46469,7 @@
       <c r="C166" s="34"/>
       <c r="D166" s="34"/>
       <c r="E166" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="34"/>
@@ -46375,7 +46481,7 @@
       <c r="C167" s="34"/>
       <c r="D167" s="34"/>
       <c r="E167" s="34" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F167" s="34"/>
       <c r="G167" s="34"/>
@@ -46387,7 +46493,7 @@
       <c r="C168" s="34"/>
       <c r="D168" s="34"/>
       <c r="E168" s="34" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F168" s="34"/>
       <c r="G168" s="34"/>
@@ -46399,7 +46505,7 @@
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>
       <c r="E169" s="34" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F169" s="34"/>
       <c r="G169" s="34"/>
@@ -46411,7 +46517,7 @@
       <c r="C170" s="34"/>
       <c r="D170" s="34"/>
       <c r="E170" s="34" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F170" s="34"/>
       <c r="G170" s="34"/>
@@ -46423,7 +46529,7 @@
       <c r="C171" s="34"/>
       <c r="D171" s="34"/>
       <c r="E171" s="34" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F171" s="34"/>
       <c r="G171" s="34"/>
@@ -46435,7 +46541,7 @@
       <c r="C172" s="34"/>
       <c r="D172" s="34"/>
       <c r="E172" s="34" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F172" s="34"/>
       <c r="G172" s="34"/>
@@ -46447,7 +46553,7 @@
       <c r="C173" s="34"/>
       <c r="D173" s="34"/>
       <c r="E173" s="34" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F173" s="34"/>
       <c r="G173" s="34"/>
@@ -46459,7 +46565,7 @@
       <c r="C174" s="34"/>
       <c r="D174" s="34"/>
       <c r="E174" s="34" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F174" s="34"/>
       <c r="G174" s="34"/>
@@ -46471,7 +46577,7 @@
       <c r="C175" s="34"/>
       <c r="D175" s="34"/>
       <c r="E175" s="34" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F175" s="34"/>
       <c r="G175" s="34"/>
@@ -46483,7 +46589,7 @@
       <c r="C176" s="34"/>
       <c r="D176" s="34"/>
       <c r="E176" s="34" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F176" s="34"/>
       <c r="G176" s="34"/>
@@ -46495,7 +46601,7 @@
       <c r="C177" s="34"/>
       <c r="D177" s="34"/>
       <c r="E177" s="34" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F177" s="34"/>
       <c r="G177" s="34"/>
@@ -46507,7 +46613,7 @@
       <c r="C178" s="34"/>
       <c r="D178" s="34"/>
       <c r="E178" s="34" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
@@ -46519,7 +46625,7 @@
       <c r="C179" s="34"/>
       <c r="D179" s="34"/>
       <c r="E179" s="34" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
@@ -46531,7 +46637,7 @@
       <c r="C180" s="34"/>
       <c r="D180" s="34"/>
       <c r="E180" s="34" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
@@ -46543,7 +46649,7 @@
       <c r="C181" s="34"/>
       <c r="D181" s="34"/>
       <c r="E181" s="34" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F181" s="34"/>
       <c r="G181" s="34"/>
@@ -46555,7 +46661,7 @@
       <c r="C182" s="34"/>
       <c r="D182" s="34"/>
       <c r="E182" s="34" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F182" s="34"/>
       <c r="G182" s="34"/>
@@ -46567,7 +46673,7 @@
       <c r="C183" s="34"/>
       <c r="D183" s="34"/>
       <c r="E183" s="34" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F183" s="34"/>
       <c r="G183" s="34"/>
@@ -46579,7 +46685,7 @@
       <c r="C184" s="34"/>
       <c r="D184" s="34"/>
       <c r="E184" s="34" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F184" s="34"/>
       <c r="G184" s="34"/>
@@ -46591,7 +46697,7 @@
       <c r="C185" s="34"/>
       <c r="D185" s="34"/>
       <c r="E185" s="34" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F185" s="34"/>
       <c r="G185" s="34"/>
@@ -46603,7 +46709,7 @@
       <c r="C186" s="34"/>
       <c r="D186" s="34"/>
       <c r="E186" s="34" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
@@ -46615,7 +46721,7 @@
       <c r="C187" s="34"/>
       <c r="D187" s="34"/>
       <c r="E187" s="34" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F187" s="34"/>
       <c r="G187" s="34"/>
@@ -46627,7 +46733,7 @@
       <c r="C188" s="34"/>
       <c r="D188" s="34"/>
       <c r="E188" s="34" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F188" s="34"/>
       <c r="G188" s="34"/>
@@ -46639,7 +46745,7 @@
       <c r="C189" s="34"/>
       <c r="D189" s="34"/>
       <c r="E189" s="34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F189" s="34"/>
       <c r="G189" s="34"/>
@@ -46651,7 +46757,7 @@
       <c r="C190" s="34"/>
       <c r="D190" s="34"/>
       <c r="E190" s="34" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F190" s="34"/>
       <c r="G190" s="34"/>
@@ -46663,7 +46769,7 @@
       <c r="C191" s="34"/>
       <c r="D191" s="34"/>
       <c r="E191" s="34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F191" s="34"/>
       <c r="G191" s="34"/>
@@ -46711,7 +46817,7 @@
       <c r="C195" s="34"/>
       <c r="D195" s="34"/>
       <c r="E195" s="34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F195" s="34"/>
       <c r="G195" s="34"/>
@@ -46723,7 +46829,7 @@
       <c r="C196" s="65"/>
       <c r="D196" s="65"/>
       <c r="E196" s="65" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F196" s="34"/>
       <c r="G196" s="34"/>
@@ -46735,7 +46841,7 @@
       <c r="C197" s="36"/>
       <c r="D197" s="36"/>
       <c r="E197" s="34" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F197" s="65"/>
       <c r="G197" s="65"/>
@@ -46746,16 +46852,16 @@
         <v>5</v>
       </c>
       <c r="B198" s="89" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C198" s="34" t="s">
         <v>407</v>
       </c>
       <c r="D198" s="34" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E198" s="34" t="s">
         <v>1106</v>
-      </c>
-      <c r="E198" s="34" t="s">
-        <v>1107</v>
       </c>
       <c r="I198" s="88"/>
     </row>
@@ -46765,7 +46871,7 @@
       <c r="C199" s="36"/>
       <c r="D199" s="36"/>
       <c r="E199" s="34" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F199" s="36"/>
       <c r="G199" s="36"/>
@@ -46777,7 +46883,7 @@
       <c r="C200" s="36"/>
       <c r="D200" s="36"/>
       <c r="E200" s="34" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F200" s="36"/>
       <c r="G200" s="36"/>
@@ -46789,7 +46895,7 @@
       <c r="C201" s="36"/>
       <c r="D201" s="36"/>
       <c r="E201" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F201" s="36"/>
       <c r="G201" s="36"/>
@@ -46801,7 +46907,7 @@
       <c r="C202" s="36"/>
       <c r="D202" s="36"/>
       <c r="E202" s="34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F202" s="36"/>
       <c r="G202" s="36"/>
@@ -46813,7 +46919,7 @@
       <c r="C203" s="36"/>
       <c r="D203" s="36"/>
       <c r="E203" s="34" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F203" s="36"/>
       <c r="G203" s="36"/>
@@ -46825,7 +46931,7 @@
       <c r="C204" s="36"/>
       <c r="D204" s="36"/>
       <c r="E204" s="34" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F204" s="36"/>
       <c r="G204" s="36"/>
@@ -46837,7 +46943,7 @@
       <c r="C205" s="36"/>
       <c r="D205" s="36"/>
       <c r="E205" s="34" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F205" s="36"/>
       <c r="G205" s="36"/>
@@ -46849,7 +46955,7 @@
       <c r="C206" s="36"/>
       <c r="D206" s="36"/>
       <c r="E206" s="34" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F206" s="36"/>
       <c r="G206" s="36"/>
@@ -46861,7 +46967,7 @@
       <c r="C207" s="36"/>
       <c r="D207" s="36"/>
       <c r="E207" s="34" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F207" s="36"/>
       <c r="G207" s="36"/>
@@ -46873,7 +46979,7 @@
       <c r="C208" s="36"/>
       <c r="D208" s="36"/>
       <c r="E208" s="34" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F208" s="36"/>
       <c r="G208" s="36"/>
@@ -46885,7 +46991,7 @@
       <c r="C209" s="36"/>
       <c r="D209" s="36"/>
       <c r="E209" s="34" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F209" s="36"/>
       <c r="G209" s="36"/>
@@ -46897,7 +47003,7 @@
       <c r="C210" s="36"/>
       <c r="D210" s="36"/>
       <c r="E210" s="34" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F210" s="36"/>
       <c r="G210" s="36"/>
@@ -46909,7 +47015,7 @@
       <c r="C211" s="36"/>
       <c r="D211" s="36"/>
       <c r="E211" s="34" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F211" s="36"/>
       <c r="G211" s="36"/>
@@ -46921,7 +47027,7 @@
       <c r="C212" s="36"/>
       <c r="D212" s="36"/>
       <c r="E212" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F212" s="36"/>
       <c r="G212" s="36"/>
@@ -46933,7 +47039,7 @@
       <c r="C213" s="36"/>
       <c r="D213" s="36"/>
       <c r="E213" s="34" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F213" s="36"/>
       <c r="G213" s="36"/>
@@ -46945,7 +47051,7 @@
       <c r="C214" s="36"/>
       <c r="D214" s="36"/>
       <c r="E214" s="34" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F214" s="36"/>
       <c r="G214" s="36"/>
@@ -46957,7 +47063,7 @@
       <c r="C215" s="36"/>
       <c r="D215" s="36"/>
       <c r="E215" s="34" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F215" s="36"/>
       <c r="G215" s="36"/>
@@ -46969,7 +47075,7 @@
       <c r="C216" s="36"/>
       <c r="D216" s="36"/>
       <c r="E216" s="34" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F216" s="36"/>
       <c r="G216" s="36"/>
@@ -46981,7 +47087,7 @@
       <c r="C217" s="36"/>
       <c r="D217" s="36"/>
       <c r="E217" s="34" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F217" s="36"/>
       <c r="G217" s="36"/>
@@ -46993,7 +47099,7 @@
       <c r="C218" s="36"/>
       <c r="D218" s="36"/>
       <c r="E218" s="34" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F218" s="36"/>
       <c r="G218" s="36"/>
@@ -47005,7 +47111,7 @@
       <c r="C219" s="36"/>
       <c r="D219" s="36"/>
       <c r="E219" s="34" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F219" s="36"/>
       <c r="G219" s="36"/>
@@ -47017,7 +47123,7 @@
       <c r="C220" s="36"/>
       <c r="D220" s="36"/>
       <c r="E220" s="34" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F220" s="36"/>
       <c r="G220" s="36"/>
@@ -47029,7 +47135,7 @@
       <c r="C221" s="36"/>
       <c r="D221" s="36"/>
       <c r="E221" s="34" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F221" s="36"/>
       <c r="G221" s="36"/>
@@ -47041,7 +47147,7 @@
       <c r="C222" s="36"/>
       <c r="D222" s="36"/>
       <c r="E222" s="34" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F222" s="36"/>
       <c r="G222" s="36"/>
@@ -47053,7 +47159,7 @@
       <c r="C223" s="36"/>
       <c r="D223" s="36"/>
       <c r="E223" s="34" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F223" s="36"/>
       <c r="G223" s="36"/>
@@ -47065,7 +47171,7 @@
       <c r="C224" s="36"/>
       <c r="D224" s="36"/>
       <c r="E224" s="34" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F224" s="36"/>
       <c r="G224" s="36"/>
@@ -47077,7 +47183,7 @@
       <c r="C225" s="36"/>
       <c r="D225" s="36"/>
       <c r="E225" s="34" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F225" s="36"/>
       <c r="G225" s="36"/>
@@ -47100,16 +47206,16 @@
         <v>5</v>
       </c>
       <c r="B227" s="34" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C227" s="34" t="s">
         <v>407</v>
       </c>
       <c r="D227" s="34" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E227" s="34" t="s">
         <v>1136</v>
-      </c>
-      <c r="E227" s="34" t="s">
-        <v>1137</v>
       </c>
       <c r="F227" s="36"/>
       <c r="G227" s="36"/>
@@ -47121,7 +47227,7 @@
       <c r="C228" s="34"/>
       <c r="D228" s="34"/>
       <c r="E228" s="34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F228" s="36"/>
       <c r="G228" s="36"/>
@@ -47133,7 +47239,7 @@
       <c r="C229" s="34"/>
       <c r="D229" s="34"/>
       <c r="E229" s="34" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F229" s="36"/>
       <c r="G229" s="36"/>
@@ -47144,16 +47250,16 @@
         <v>5</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C230" s="34" t="s">
         <v>407</v>
       </c>
       <c r="D230" s="34" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E230" s="34" t="s">
         <v>1141</v>
-      </c>
-      <c r="E230" s="34" t="s">
-        <v>1142</v>
       </c>
       <c r="F230" s="36"/>
       <c r="G230" s="36"/>
@@ -47165,7 +47271,7 @@
       <c r="C231" s="34"/>
       <c r="D231" s="34"/>
       <c r="E231" s="34" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F231" s="36"/>
       <c r="G231" s="36"/>
@@ -47234,7 +47340,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -47242,7 +47348,7 @@
       <c r="E1" s="115"/>
       <c r="F1" s="116"/>
       <c r="G1" s="117" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1" s="118"/>
       <c r="I1" s="118"/>
@@ -47273,7 +47379,7 @@
         <v>298</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="35" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47313,7 +47419,7 @@
         <v>302</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -47430,7 +47536,7 @@
       </c>
       <c r="H9" s="63"/>
       <c r="I9" s="63" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -47506,10 +47612,10 @@
         <v>407</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>688</v>
@@ -47522,7 +47628,7 @@
       </c>
       <c r="H13" s="63"/>
       <c r="I13" s="63" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -47533,10 +47639,10 @@
         <v>407</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>690</v>
@@ -47549,7 +47655,7 @@
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="63" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
@@ -47616,7 +47722,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -47643,7 +47749,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>12</v>
@@ -47696,10 +47802,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="34"/>
@@ -47730,10 +47836,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="30"/>
@@ -47764,10 +47870,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="30"/>
@@ -47802,7 +47908,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F7" s="63" t="s">
         <v>23</v>
@@ -47814,13 +47920,13 @@
         <v>21</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K7" s="63" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L7" s="64" t="s">
         <v>449</v>
@@ -47852,10 +47958,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K8" s="63"/>
       <c r="L8" s="63"/>
@@ -47886,10 +47992,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -47928,14 +48034,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="113" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
       <c r="D1" s="113"/>
       <c r="E1" s="113"/>
       <c r="F1" s="119" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G1" s="119"/>
       <c r="H1" s="119"/>
@@ -47948,19 +48054,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>697</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>698</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="97" t="s">
         <v>699</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="G2" s="29" t="s">
         <v>700</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>701</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>431</v>
@@ -47977,16 +48083,16 @@
         <v>626</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H3" s="36"/>
     </row>
@@ -48030,7 +48136,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="113" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1" s="120"/>
     </row>
@@ -48047,7 +48153,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -48149,7 +48255,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="34"/>
@@ -48171,7 +48277,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
@@ -48193,7 +48299,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6AF07D-6F33-B34C-8C18-DD42F6508085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F8A60B-8495-4F4F-AF32-B4EE4CDDBE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -23,28 +23,28 @@
     <sheet name="VCN Info" sheetId="36" r:id="rId8"/>
     <sheet name="DHCP" sheetId="37" r:id="rId9"/>
     <sheet name="Subnets" sheetId="38" r:id="rId10"/>
-    <sheet name="DRGRouteRulesinOCI" sheetId="30" r:id="rId11"/>
-    <sheet name="RouteRulesinOCI" sheetId="9" r:id="rId12"/>
-    <sheet name="SecRulesinOCI" sheetId="10" r:id="rId13"/>
-    <sheet name="NSGs" sheetId="11" r:id="rId14"/>
-    <sheet name="DedicatedVMHosts" sheetId="12" r:id="rId15"/>
-    <sheet name="Instances" sheetId="13" r:id="rId16"/>
-    <sheet name="BlockVolumes" sheetId="14" r:id="rId17"/>
-    <sheet name="FSS" sheetId="15" r:id="rId18"/>
-    <sheet name="OKE" sheetId="45" r:id="rId19"/>
-    <sheet name="LB-Hostname-Certs" sheetId="16" r:id="rId20"/>
-    <sheet name="BackendSet-BackendServer" sheetId="17" r:id="rId21"/>
-    <sheet name="LB-Listener" sheetId="20" r:id="rId22"/>
-    <sheet name="RuleSet" sheetId="18" r:id="rId23"/>
-    <sheet name="PathRouteSet" sheetId="19" r:id="rId24"/>
-    <sheet name="NLB-Listeners" sheetId="40" r:id="rId25"/>
-    <sheet name="NLB-BackendSets-BackendServers" sheetId="39" r:id="rId26"/>
-    <sheet name="ADB" sheetId="41" r:id="rId27"/>
-    <sheet name="DBSystems-VM-BM" sheetId="24" r:id="rId28"/>
-    <sheet name="EXA-Infra" sheetId="33" r:id="rId29"/>
-    <sheet name="EXA-VMClusters" sheetId="26" r:id="rId30"/>
-    <sheet name="Database_Dropdown" sheetId="42" state="hidden" r:id="rId31"/>
-    <sheet name="drop_down_rule_set" sheetId="31" state="hidden" r:id="rId32"/>
+    <sheet name="drop_down_rule_set" sheetId="31" state="hidden" r:id="rId11"/>
+    <sheet name="DRGRouteRulesinOCI" sheetId="30" r:id="rId12"/>
+    <sheet name="RouteRulesinOCI" sheetId="9" r:id="rId13"/>
+    <sheet name="SecRulesinOCI" sheetId="10" r:id="rId14"/>
+    <sheet name="NSGs" sheetId="11" r:id="rId15"/>
+    <sheet name="DedicatedVMHosts" sheetId="12" r:id="rId16"/>
+    <sheet name="Instances" sheetId="13" r:id="rId17"/>
+    <sheet name="BlockVolumes" sheetId="14" r:id="rId18"/>
+    <sheet name="FSS" sheetId="15" r:id="rId19"/>
+    <sheet name="OKE" sheetId="45" r:id="rId20"/>
+    <sheet name="LB-Hostname-Certs" sheetId="16" r:id="rId21"/>
+    <sheet name="BackendSet-BackendServer" sheetId="17" r:id="rId22"/>
+    <sheet name="LB-Listener" sheetId="20" r:id="rId23"/>
+    <sheet name="RuleSet" sheetId="18" r:id="rId24"/>
+    <sheet name="PathRouteSet" sheetId="19" r:id="rId25"/>
+    <sheet name="NLB-Listeners" sheetId="40" r:id="rId26"/>
+    <sheet name="NLB-BackendSets-BackendServers" sheetId="39" r:id="rId27"/>
+    <sheet name="ADB" sheetId="41" r:id="rId28"/>
+    <sheet name="DBSystems-VM-BM" sheetId="24" r:id="rId29"/>
+    <sheet name="EXA-Infra" sheetId="33" r:id="rId30"/>
+    <sheet name="EXA-VMClusters" sheetId="26" r:id="rId31"/>
+    <sheet name="Database_Dropdown" sheetId="42" state="hidden" r:id="rId32"/>
     <sheet name="LB Rule Set Dropdown" sheetId="21" state="hidden" r:id="rId33"/>
     <sheet name="drop_down_rule_comp" sheetId="32" state="hidden" r:id="rId34"/>
   </sheets>
@@ -60,129 +60,129 @@
     <externalReference r:id="rId43"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Action_Values" localSheetId="22">'LB Rule Set Dropdown'!$A$2:$A$12</definedName>
-    <definedName name="Allowed_Methods" localSheetId="22">'LB Rule Set Dropdown'!$B$2:$B$41</definedName>
-    <definedName name="Attribute_Names" localSheetId="22">'LB Rule Set Dropdown'!$D$2:$D$5</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="26">Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="30">Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="10">[1]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="Action_Values" localSheetId="23">'LB Rule Set Dropdown'!$A$2:$A$12</definedName>
+    <definedName name="Allowed_Methods" localSheetId="23">'LB Rule Set Dropdown'!$B$2:$B$41</definedName>
+    <definedName name="Attribute_Names" localSheetId="23">'LB Rule Set Dropdown'!$D$2:$D$5</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="27">Database_Dropdown!#REF!</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="31">Database_Dropdown!#REF!</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="11">[1]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="6">[2]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="33">[3]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="31">[4]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="10">[4]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="26">[5]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="25">[5]Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="24">[5]Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="18">[6]Database_Dropdown!#REF!</definedName>
-    <definedName name="char_set" localSheetId="26">Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="30">Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="10">[1]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="19">[6]Database_Dropdown!#REF!</definedName>
+    <definedName name="char_set" localSheetId="27">Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="31">Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="11">[1]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="6">[2]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="33">[3]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="31">[4]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="10">[4]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="26">[5]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set" localSheetId="25">[5]Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="24">[5]Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="18">[6]Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="19">[6]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set">#REF!</definedName>
     <definedName name="D3D1000">'DBSystems-VM-BM'!$D$3</definedName>
-    <definedName name="db_sersion_drop" localSheetId="26">Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="30">Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="10">[1]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="27">Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="31">Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="11">[1]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="6">[2]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="33">[3]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="31">[4]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="10">[4]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="26">[5]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="25">[5]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="24">[5]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="18">[6]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="30">Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="10">[1]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="db_sersion_drop" localSheetId="19">[6]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="31">Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="11">[1]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="6">[2]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="33">[3]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="31">[4]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="10">[4]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="26">[5]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="25">[5]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="24">[5]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="18">[6]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="Header_Size" localSheetId="26">'[7]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="30">'[7]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="10">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="19">[6]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="Header_Size" localSheetId="27">'[7]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="31">'[7]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="11">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="6">'[2]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="33">'[3]Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="31">#REF!</definedName>
+    <definedName name="Header_Size" localSheetId="10">#REF!</definedName>
+    <definedName name="Header_Size" localSheetId="26">'[5]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="25">'[5]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="24">'[5]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="18">'[8]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="19">'[8]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="license_type_drop" localSheetId="26">Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="30">Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="10">[1]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="27">Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="31">Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="11">[1]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="6">[2]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="33">[3]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="license_type_drop" localSheetId="31">[4]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="10">[4]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="26">[5]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="license_type_drop" localSheetId="25">[5]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="24">[5]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="18">[6]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="19">[6]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="Match_Style" localSheetId="24">'LB Rule Set Dropdown'!$C$2:$C$6</definedName>
     <definedName name="Match_Style" localSheetId="23">'LB Rule Set Dropdown'!$C$2:$C$6</definedName>
-    <definedName name="Match_Style" localSheetId="22">'LB Rule Set Dropdown'!$C$2:$C$6</definedName>
-    <definedName name="nchar_set" localSheetId="26">Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="30">Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="10">[1]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="27">Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="31">Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="11">[1]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="6">[2]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="33">[3]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="31">[4]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="10">[4]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="26">[5]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set" localSheetId="25">[5]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="24">[5]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="18">[6]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="19">[6]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="26">'[7]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="30">'[7]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="10">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="27">'[7]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="31">'[7]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="11">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="6">'[2]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="33">'[3]Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="31">#REF!</definedName>
+    <definedName name="Response_Code" localSheetId="10">#REF!</definedName>
+    <definedName name="Response_Code" localSheetId="26">'[5]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="25">'[5]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="24">'[5]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="18">'[8]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="19">'[8]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Shape_Option" localSheetId="30">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="27">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="10">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="31">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="28">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="11">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="6">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="33">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="31">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="29">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="10">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="30">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="26">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="25">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="24">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="18">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="19">#REF!</definedName>
     <definedName name="Shape_Option_DB">[9]Database!$B$10:$J$10</definedName>
-    <definedName name="software_drop" localSheetId="26">Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="30">Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="10">[1]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="27">Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="31">Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="11">[1]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="6">[2]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="33">[3]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="31">[4]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="10">[4]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="26">[5]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="25">[5]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="24">[5]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="18">[6]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="VM_Shapes" localSheetId="30">Database_Dropdown!$A$2:$A$12</definedName>
-    <definedName name="VM_Shapes" localSheetId="10">#REF!</definedName>
+    <definedName name="software_drop" localSheetId="19">[6]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="VM_Shapes" localSheetId="31">Database_Dropdown!$A$2:$A$12</definedName>
+    <definedName name="VM_Shapes" localSheetId="11">#REF!</definedName>
     <definedName name="VM_Shapes" localSheetId="6">#REF!</definedName>
     <definedName name="VM_Shapes">'DBSystems-VM-BM'!$AB$393:$AB$403</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="26">Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="30">Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="10">[1]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="27">Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="31">Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="11">[1]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="6">[2]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="33">[3]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="31">[4]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="10">[4]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="26">[5]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="25">[5]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="24">[5]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="18">[6]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="workload_drop" localSheetId="26">Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="30">Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="10">[1]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="19">[6]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="workload_drop" localSheetId="27">Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="31">Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="11">[1]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="6">[2]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="33">[3]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="31">[4]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="10">[4]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="26">[5]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="25">[5]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="24">[5]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="18">[6]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="19">[6]Database_Dropdown!$D$2:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -13913,7 +13913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:R1"/>
     </sheetView>
   </sheetViews>
@@ -14907,6 +14907,3318 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:AN50"/>
+  <sheetViews>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="66" customWidth="1"/>
+    <col min="4" max="5" width="38.5" style="66" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="66" customWidth="1"/>
+    <col min="12" max="12" width="29.83203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="66" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="18" style="66" customWidth="1"/>
+    <col min="21" max="21" width="21.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.83203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" style="66" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.1640625" style="66" customWidth="1"/>
+    <col min="29" max="29" width="15.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="44.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.1640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="28.33203125" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="59" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>686</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>688</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>689</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>691</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>692</v>
+      </c>
+      <c r="J1" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="K1" s="67" t="s">
+        <v>694</v>
+      </c>
+      <c r="L1" s="67" t="s">
+        <v>695</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>742</v>
+      </c>
+      <c r="N1" s="67" t="s">
+        <v>696</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>697</v>
+      </c>
+      <c r="P1" s="67" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q1" s="67" t="s">
+        <v>699</v>
+      </c>
+      <c r="R1" s="67" t="s">
+        <v>700</v>
+      </c>
+      <c r="S1" s="67" t="s">
+        <v>701</v>
+      </c>
+      <c r="T1" s="67" t="s">
+        <v>744</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>702</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>703</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>704</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y1" s="67" t="s">
+        <v>743</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="58" t="s">
+        <v>706</v>
+      </c>
+      <c r="AB1" s="58" t="s">
+        <v>707</v>
+      </c>
+      <c r="AC1" s="58" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD1" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE1" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF1" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG1" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH1" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI1" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ1" s="58" t="s">
+        <v>709</v>
+      </c>
+      <c r="AK1" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="AL1" s="58" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AM1" s="58" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AN1" s="58" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="60">
+        <v>3</v>
+      </c>
+      <c r="B2" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A2,3,4,1,"VCNS")))</f>
+        <v>VCN::hub-vcn</v>
+      </c>
+      <c r="C2" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"VCNS")))</f>
+        <v>hub-vcn</v>
+      </c>
+      <c r="D2" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A2,4,4,1,"Subnets")))</f>
+        <v>hub-vcn_pvt-infra</v>
+      </c>
+      <c r="E2" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,9,4,1,"Subnets")))</f>
+        <v>pvt-infra-rt</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,4,4,1,"DHCP")))</f>
+        <v>dhcp-internal</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DRGs")))</f>
+        <v>DRG</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>633</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="R2" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="T2" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DedicatedVMHosts")))</f>
+        <v>VM1</v>
+      </c>
+      <c r="U2" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,4,4,1,"instances")))</f>
+        <v>Bastion</v>
+      </c>
+      <c r="V2" s="61" t="s">
+        <v>712</v>
+      </c>
+      <c r="W2" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="X2" s="61" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y2" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA2" s="61" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB2" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC2" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE2" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF2" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG2" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH2" s="61">
+        <v>301</v>
+      </c>
+      <c r="AI2" s="61">
+        <v>8</v>
+      </c>
+      <c r="AJ2" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK2" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="AL2" s="60" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AM2" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="60" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60">
+        <v>4</v>
+      </c>
+      <c r="B3" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A3,3,4,1,"VCNS")))</f>
+        <v>VCN::prod-vcn</v>
+      </c>
+      <c r="C3" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"VCNS")))</f>
+        <v>prod-vcn</v>
+      </c>
+      <c r="D3" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A3,4,4,1,"Subnets")))</f>
+        <v>hub-vcn_pub-infra</v>
+      </c>
+      <c r="E3" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,9,4,1,"Subnets")))</f>
+        <v>pub-infra-rt</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>710</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>607</v>
+      </c>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>636</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>388</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>715</v>
+      </c>
+      <c r="T3" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
+        <v>VM2</v>
+      </c>
+      <c r="U3" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V3" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="X3" s="61" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y3" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA3" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB3" s="61" t="s">
+        <v>717</v>
+      </c>
+      <c r="AC3" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD3" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE3" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF3" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG3" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH3" s="61">
+        <v>302</v>
+      </c>
+      <c r="AI3" s="61">
+        <v>16</v>
+      </c>
+      <c r="AJ3" s="61" t="s">
+        <v>717</v>
+      </c>
+      <c r="AK3" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL3" s="60" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AM3" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="60" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60">
+        <v>5</v>
+      </c>
+      <c r="B4" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A4,3,4,1,"VCNS")))</f>
+        <v>VCN::nonprod-vcn</v>
+      </c>
+      <c r="C4" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"VCNS")))</f>
+        <v>nonprod-vcn</v>
+      </c>
+      <c r="D4" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A4,4,4,1,"Subnets")))</f>
+        <v>prod-vcn_prod-dmz</v>
+      </c>
+      <c r="E4" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,9,4,1,"Subnets")))</f>
+        <v>prod-dmz-rt</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="M4" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="T4" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
+        <v>VM3</v>
+      </c>
+      <c r="U4" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA4" s="61" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD4" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE4" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF4" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG4" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH4" s="61">
+        <v>303</v>
+      </c>
+      <c r="AI4" s="61">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="60" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60">
+        <v>6</v>
+      </c>
+      <c r="B5" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A5,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C5" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D5" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A5,4,4,1,"Subnets")))</f>
+        <v>prod-vcn_prod-app</v>
+      </c>
+      <c r="E5" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,9,4,1,"Subnets")))</f>
+        <v>prod-app-rt</v>
+      </c>
+      <c r="F5" s="61"/>
+      <c r="G5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61" t="s">
+        <v>724</v>
+      </c>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61"/>
+      <c r="T5" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U5" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61" t="s">
+        <v>745</v>
+      </c>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE5" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF5" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61">
+        <v>307</v>
+      </c>
+      <c r="AI5" s="61">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="60">
+        <v>7</v>
+      </c>
+      <c r="B6" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A6,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C6" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D6" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A6,4,4,1,"Subnets")))</f>
+        <v>prod-vcn_prod-svc</v>
+      </c>
+      <c r="E6" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,9,4,1,"Subnets")))</f>
+        <v>prod-svc-rt</v>
+      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U6" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE6" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61">
+        <v>308</v>
+      </c>
+      <c r="AI6" s="61"/>
+    </row>
+    <row r="7" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="60">
+        <v>8</v>
+      </c>
+      <c r="B7" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A7,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C7" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D7" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A7,4,4,1,"Subnets")))</f>
+        <v>prod-vcn_prod-db</v>
+      </c>
+      <c r="E7" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,9,4,1,"Subnets")))</f>
+        <v>prod-db-rt</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" t="s">
+        <v>718</v>
+      </c>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U7" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE7" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+    </row>
+    <row r="8" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="60">
+        <v>9</v>
+      </c>
+      <c r="B8" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A8,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C8" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D8" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A8,4,4,1,"Subnets")))</f>
+        <v>nonprod-vcn_nonprod-dmz</v>
+      </c>
+      <c r="E8" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,9,4,1,"Subnets")))</f>
+        <v>nonprod-dmz-rt</v>
+      </c>
+      <c r="F8" s="61"/>
+      <c r="G8" t="s">
+        <v>723</v>
+      </c>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U8" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE8" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="61"/>
+      <c r="AI8" s="61"/>
+    </row>
+    <row r="9" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="60">
+        <v>10</v>
+      </c>
+      <c r="B9" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A9,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C9" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D9" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A9,4,4,1,"Subnets")))</f>
+        <v>nonprod-vcn_nonprod-app</v>
+      </c>
+      <c r="E9" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,9,4,1,"Subnets")))</f>
+        <v>nonprod-app-rt</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="G9" t="s">
+        <v>725</v>
+      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U9" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE9" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+    </row>
+    <row r="10" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="60">
+        <v>11</v>
+      </c>
+      <c r="B10" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A10,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C10" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D10" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A10,4,4,1,"Subnets")))</f>
+        <v>nonprod-vcn_nonprod-svc</v>
+      </c>
+      <c r="E10" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,9,4,1,"Subnets")))</f>
+        <v>nonprod-svc-rt</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U10" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE10" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+    </row>
+    <row r="11" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="60">
+        <v>12</v>
+      </c>
+      <c r="B11" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A11,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C11" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D11" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A11,4,4,1,"Subnets")))</f>
+        <v>nonprod-vcn_nonprod-db</v>
+      </c>
+      <c r="E11" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,9,4,1,"Subnets")))</f>
+        <v>nonprod-db-rt</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U11" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE11" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="61"/>
+      <c r="AI11" s="61"/>
+    </row>
+    <row r="12" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="60">
+        <v>13</v>
+      </c>
+      <c r="B12" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A12,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C12" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D12" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A12,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E12" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F12" s="61"/>
+      <c r="G12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U12" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+    </row>
+    <row r="13" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="60">
+        <v>14</v>
+      </c>
+      <c r="B13" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A13,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C13" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D13" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A13,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E13" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U13" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+    </row>
+    <row r="14" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="60">
+        <v>15</v>
+      </c>
+      <c r="B14" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A14,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C14" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D14" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A14,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E14" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U14" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61"/>
+    </row>
+    <row r="15" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="60">
+        <v>16</v>
+      </c>
+      <c r="B15" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A15,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C15" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D15" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A15,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E15" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F15" s="61"/>
+      <c r="G15" t="s">
+        <v>726</v>
+      </c>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U15" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+    </row>
+    <row r="16" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="60">
+        <v>17</v>
+      </c>
+      <c r="B16" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A16,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C16" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D16" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A16,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E16" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F16" s="61"/>
+      <c r="G16" t="s">
+        <v>727</v>
+      </c>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U16" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="61"/>
+    </row>
+    <row r="17" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="60">
+        <v>18</v>
+      </c>
+      <c r="B17" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A17,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C17" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D17" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A17,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E17" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F17" s="61"/>
+      <c r="G17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U17" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF17" s="64"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+    </row>
+    <row r="18" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60">
+        <v>19</v>
+      </c>
+      <c r="B18" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A18,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C18" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D18" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A18,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E18" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F18" s="61"/>
+      <c r="G18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U18" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+    </row>
+    <row r="19" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60">
+        <v>20</v>
+      </c>
+      <c r="B19" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A19,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C19" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D19" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A19,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E19" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U19" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+    </row>
+    <row r="20" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="60">
+        <v>21</v>
+      </c>
+      <c r="B20" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A20,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C20" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D20" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A20,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E20" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" t="s">
+        <v>728</v>
+      </c>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U20" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
+      <c r="AI20" s="61"/>
+    </row>
+    <row r="21" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="60">
+        <v>22</v>
+      </c>
+      <c r="B21" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A21,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C21" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D21" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A21,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E21" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F21" s="61"/>
+      <c r="G21" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U21" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+    </row>
+    <row r="22" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="60">
+        <v>23</v>
+      </c>
+      <c r="B22" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A22,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C22" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D22" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A22,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E22" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U22" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+    </row>
+    <row r="23" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="60">
+        <v>24</v>
+      </c>
+      <c r="B23" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A23,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C23" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D23" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A23,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E23" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F23" s="61"/>
+      <c r="G23" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U23" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+    </row>
+    <row r="24" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="60">
+        <v>25</v>
+      </c>
+      <c r="B24" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A24,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C24" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D24" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A24,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E24" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" t="s">
+        <v>729</v>
+      </c>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U24" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+    </row>
+    <row r="25" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="60">
+        <v>26</v>
+      </c>
+      <c r="B25" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A25,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C25" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D25" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A25,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E25" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F25" s="61"/>
+      <c r="G25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U25" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+    </row>
+    <row r="26" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="60">
+        <v>27</v>
+      </c>
+      <c r="B26" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A26,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C26" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D26" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A26,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E26" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" t="s">
+        <v>730</v>
+      </c>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U26" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="61"/>
+    </row>
+    <row r="27" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="60">
+        <v>28</v>
+      </c>
+      <c r="B27" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A27,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C27" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D27" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A27,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E27" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" t="s">
+        <v>731</v>
+      </c>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U27" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="61"/>
+      <c r="AD27" s="61"/>
+      <c r="AE27" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
+      <c r="AI27" s="61"/>
+    </row>
+    <row r="28" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="60">
+        <v>29</v>
+      </c>
+      <c r="B28" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A28,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C28" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D28" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A28,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E28" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" t="s">
+        <v>732</v>
+      </c>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U28" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+    </row>
+    <row r="29" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="60">
+        <v>30</v>
+      </c>
+      <c r="B29" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A29,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C29" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D29" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A29,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E29" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F29" s="61"/>
+      <c r="G29" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U29" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="61"/>
+    </row>
+    <row r="30" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="60">
+        <v>31</v>
+      </c>
+      <c r="B30" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A30,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C30" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D30" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A30,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E30" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F30" s="61"/>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U30" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="61"/>
+      <c r="AC30" s="61"/>
+      <c r="AD30" s="61"/>
+      <c r="AE30" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="61"/>
+      <c r="AH30" s="61"/>
+      <c r="AI30" s="61"/>
+    </row>
+    <row r="31" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="60">
+        <v>32</v>
+      </c>
+      <c r="B31" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A31,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C31" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D31" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A31,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E31" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F31" s="61"/>
+      <c r="G31" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U31" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="61"/>
+    </row>
+    <row r="32" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="60">
+        <v>33</v>
+      </c>
+      <c r="B32" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A32,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C32" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D32" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A32,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E32" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F32" s="61"/>
+      <c r="G32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U32" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+      <c r="AD32" s="61"/>
+      <c r="AE32" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="61"/>
+      <c r="AH32" s="61"/>
+      <c r="AI32" s="61"/>
+    </row>
+    <row r="33" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="60">
+        <v>34</v>
+      </c>
+      <c r="B33" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A33,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C33" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D33" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A33,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E33" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F33" s="61"/>
+      <c r="G33" t="s">
+        <v>733</v>
+      </c>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U33" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="61"/>
+      <c r="AD33" s="61"/>
+      <c r="AE33" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="61"/>
+    </row>
+    <row r="34" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="60">
+        <v>35</v>
+      </c>
+      <c r="B34" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A34,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C34" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D34" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A34,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E34" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F34" s="61"/>
+      <c r="G34" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U34" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="61"/>
+      <c r="AC34" s="61"/>
+      <c r="AD34" s="61"/>
+      <c r="AE34" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="61"/>
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="61"/>
+    </row>
+    <row r="35" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="60">
+        <v>36</v>
+      </c>
+      <c r="B35" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C35" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D35" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A35,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E35" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F35" s="61"/>
+      <c r="G35" t="s">
+        <v>734</v>
+      </c>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U35" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V35" s="61"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="61"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="61"/>
+      <c r="AC35" s="61"/>
+      <c r="AD35" s="61"/>
+      <c r="AE35" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="61"/>
+      <c r="AH35" s="61"/>
+      <c r="AI35" s="61"/>
+    </row>
+    <row r="36" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="60">
+        <v>37</v>
+      </c>
+      <c r="B36" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C36" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D36" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A36,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E36" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F36" s="61"/>
+      <c r="G36" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U36" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="61"/>
+    </row>
+    <row r="37" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="60">
+        <v>38</v>
+      </c>
+      <c r="B37" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C37" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D37" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A37,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E37" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F37" s="61"/>
+      <c r="G37" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U37" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V37" s="61"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="61"/>
+      <c r="AB37" s="61"/>
+      <c r="AC37" s="61"/>
+      <c r="AD37" s="61"/>
+      <c r="AE37" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="61"/>
+      <c r="AH37" s="61"/>
+      <c r="AI37" s="61"/>
+    </row>
+    <row r="38" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="60">
+        <v>39</v>
+      </c>
+      <c r="B38" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C38" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D38" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A38,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E38" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F38" s="61"/>
+      <c r="G38" t="s">
+        <v>735</v>
+      </c>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U38" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+      <c r="Y38" s="61"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
+      <c r="AE38" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF38" s="64"/>
+      <c r="AG38" s="61"/>
+      <c r="AH38" s="61"/>
+      <c r="AI38" s="61"/>
+    </row>
+    <row r="39" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="60">
+        <v>40</v>
+      </c>
+      <c r="B39" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C39" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D39" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A39,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E39" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F39" s="61"/>
+      <c r="G39" t="s">
+        <v>736</v>
+      </c>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U39" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V39" s="61"/>
+      <c r="W39" s="61"/>
+      <c r="X39" s="61"/>
+      <c r="Y39" s="61"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="61"/>
+      <c r="AE39" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF39" s="64"/>
+      <c r="AG39" s="61"/>
+      <c r="AH39" s="61"/>
+      <c r="AI39" s="61"/>
+    </row>
+    <row r="40" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="60">
+        <v>41</v>
+      </c>
+      <c r="B40" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C40" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D40" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A40,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E40" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="F40" s="61"/>
+      <c r="G40" t="s">
+        <v>737</v>
+      </c>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U40" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="V40" s="61"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="61"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
+      <c r="AE40" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF40" s="64"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+    </row>
+    <row r="41" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="60">
+        <v>42</v>
+      </c>
+      <c r="B41" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C41" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D41" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A41,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E41" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="G41" t="s">
+        <v>738</v>
+      </c>
+      <c r="K41" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M41" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T41" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U41" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+      <c r="AF41" s="65"/>
+    </row>
+    <row r="42" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="60">
+        <v>43</v>
+      </c>
+      <c r="B42" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C42" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D42" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A42,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E42" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="G42" t="s">
+        <v>739</v>
+      </c>
+      <c r="K42" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M42" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T42" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U42" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="60">
+        <v>44</v>
+      </c>
+      <c r="B43" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C43" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D43" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A43,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E43" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="G43" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M43" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T43" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U43" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="60">
+        <v>45</v>
+      </c>
+      <c r="B44" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C44" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D44" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A44,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E44" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K44" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M44" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T44" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U44" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="60">
+        <v>46</v>
+      </c>
+      <c r="B45" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C45" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D45" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A45,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E45" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K45" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M45" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T45" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U45" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="60">
+        <v>47</v>
+      </c>
+      <c r="B46" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C46" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D46" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A46,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E46" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K46" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M46" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T46" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U46" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="60">
+        <v>48</v>
+      </c>
+      <c r="B47" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C47" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D47" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A47,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E47" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K47" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M47" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T47" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U47" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="60">
+        <v>49</v>
+      </c>
+      <c r="B48" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C48" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D48" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A48,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E48" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K48" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M48" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T48" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U48" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="60">
+        <v>50</v>
+      </c>
+      <c r="B49" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="B49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C49" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="C49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="D49" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="D49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A49,4,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="E49" s="60" t="str" cm="1">
+        <f t="array" aca="1" ref="E49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,9,4,1,"Subnets")))</f>
+        <v/>
+      </c>
+      <c r="K49" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="K49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="M49" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="M49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="T49" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="T49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="U49" s="61" t="str" cm="1">
+        <f t="array" aca="1" ref="U49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"instances")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB50" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -15031,7 +18343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -15136,7 +18448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -15284,7 +18596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
@@ -16286,7 +19598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -16455,7 +19767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
@@ -16901,7 +20213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -17081,7 +20393,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K1048576 B3:B1048576</xm:sqref>
+          <xm:sqref>B3:B1048576 K3:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" error="Invalid Option" xr:uid="{7FE28386-C30A-4B4F-BE60-AB3F7011697E}">
           <x14:formula1>
@@ -17107,12 +20419,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I1" sqref="I1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17513,11 +20825,279 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="42" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="110" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="E12" s="55"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="55"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" prompt="Description about compartment." sqref="C3:C1048576" xr:uid="{22DD6F40-BB48-FE40-A9DE-E7DAE5282185}"/>
+    <dataValidation allowBlank="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="E3:E1048576" xr:uid="{827C955F-F985-BB46-8D1A-FB4FB701769C}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{624A66ED-AD74-E24A-BCF9-C88AEAD5838D}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2 A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{4574CD13-43ED-5C47-9756-7AE7AD04601B}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" prompt="Leave it empty or mention 'root', to create under 'root' compartment." xr:uid="{C8E8D18E-A622-0140-AA54-EC4C7C04EDDF}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A44B969-993D-C24C-97FB-83F9FF8AE3F3}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:AD1"/>
     </sheetView>
   </sheetViews>
@@ -17973,7 +21553,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$AM$2:$AM$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F1048576 I3:I1048576</xm:sqref>
+          <xm:sqref>I3:I1048576 F3:F1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{DBB9285F-1B7F-5547-B709-1007FBBE0436}">
           <x14:formula1>
@@ -18011,291 +21591,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="42" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
-        <v>434</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>572</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>575</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>577</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>578</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>354</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>355</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>356</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="55"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="E10" s="55"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>360</v>
-      </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>355</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="E12" s="55"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>363</v>
-      </c>
-      <c r="E13" s="55"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="E14" s="55"/>
-    </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>367</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>442</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" prompt="Description about compartment." sqref="C3:C1048576" xr:uid="{22DD6F40-BB48-FE40-A9DE-E7DAE5282185}"/>
-    <dataValidation allowBlank="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="E3:E1048576" xr:uid="{827C955F-F985-BB46-8D1A-FB4FB701769C}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" prompt="Specify your tenancy's Home Region for creating Compartments." xr:uid="{6E516CDA-44C6-374F-98AB-F6F4A9A42FA6}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$43</xm:f>
-          </x14:formula1>
-          <xm:sqref>A16:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{624A66ED-AD74-E24A-BCF9-C88AEAD5838D}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A15</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{4574CD13-43ED-5C47-9756-7AE7AD04601B}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B15</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" prompt="Leave it empty or mention 'root', to create under 'root' compartment." xr:uid="{C8E8D18E-A622-0140-AA54-EC4C7C04EDDF}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" prompt="Specify Compartment name." xr:uid="{2AD4A191-D1D5-6847-B252-F11D642EDA79}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B513,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>B16:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
@@ -18586,11 +21886,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
@@ -18941,7 +22241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -19208,12 +22508,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="D1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19936,7 +23236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -20091,7 +23391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BE0E41-537F-7246-83D7-FBECEAFB1B63}">
   <dimension ref="A1:R26"/>
   <sheetViews>
@@ -20589,7 +23889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933A3390-C62C-3046-8D43-EC033227D2C1}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -20774,7 +24074,7 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="C3:C1048576 D3:D1048576 E3:E1048576 F3:F1048576 G3:G1048576 H3:H1048576 I3:I1048576 J3:J1048576 K3:K1048576" xr:uid="{F069B350-8495-8C4C-BC1D-D41A2FB0ABCE}"/>
+    <dataValidation allowBlank="1" sqref="K3:K1048576 D3:D1048576 E3:E1048576 F3:F1048576 G3:G1048576 H3:H1048576 I3:I1048576 J3:J1048576 C3:C1048576" xr:uid="{F069B350-8495-8C4C-BC1D-D41A2FB0ABCE}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -20798,7 +24098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAC941B-7D7C-5A47-81A3-E57084FB1E9A}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -21015,11 +24315,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:AA996"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
@@ -24416,7 +27716,274 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="42" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="110" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>880</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>881</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>587</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>588</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>677</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>678</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>778</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>884</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>886</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>887</v>
+      </c>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>890</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>891</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>892</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>893</v>
+      </c>
+      <c r="E17" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" sqref="B3:B1048576 C3:C1048576 D3:D1048576" xr:uid="{C97D9B86-F16B-8449-A59F-50AA40363786}"/>
+    <dataValidation allowBlank="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="E3:E1048576" xr:uid="{81841EA8-4AD1-264D-80B5-AA47EF9C4083}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" prompt="Specify your tenancy's Home Region for creating IAM Groups." xr:uid="{C975351A-D11C-8F47-ABD7-C9CD2C369C84}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$43</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -24549,278 +28116,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="42" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="110" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>579</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>580</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>880</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>881</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>581</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>582</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>584</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>585</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>586</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>587</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>588</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="34"/>
-    </row>
-    <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>589</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>590</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-    </row>
-    <row r="10" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>656</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>657</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-    </row>
-    <row r="11" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>677</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>678</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>777</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>778</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>885</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>886</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>887</v>
-      </c>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>888</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>889</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>890</v>
-      </c>
-      <c r="E16" s="35"/>
-    </row>
-    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>891</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>892</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>893</v>
-      </c>
-      <c r="E17" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" sqref="B3:B1048576 C3:C1048576 D3:D1048576" xr:uid="{C97D9B86-F16B-8449-A59F-50AA40363786}"/>
-    <dataValidation allowBlank="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="E3:E1048576" xr:uid="{81841EA8-4AD1-264D-80B5-AA47EF9C4083}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" prompt="Specify your tenancy's Home Region for creating IAM Groups." xr:uid="{C975351A-D11C-8F47-ABD7-C9CD2C369C84}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$43</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScaleNormal="78" workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -25069,7 +28369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C348673-D319-4C4A-8F59-B5671FEBEF63}">
   <dimension ref="A1:M108"/>
   <sheetViews>
@@ -25876,3318 +29176,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:AN50"/>
-  <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.6640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="66" customWidth="1"/>
-    <col min="4" max="5" width="38.5" style="66" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" style="66" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="66" customWidth="1"/>
-    <col min="12" max="12" width="29.83203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" style="66" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="66" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="66" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" style="66" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="18" style="66" customWidth="1"/>
-    <col min="21" max="21" width="21.33203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.83203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18" style="66" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.1640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.6640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.1640625" style="66" customWidth="1"/>
-    <col min="29" max="29" width="15.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="44.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.1640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.33203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.1640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.1640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.1640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.33203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="28.33203125" style="66"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40" s="59" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
-        <v>685</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>686</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>687</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>688</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>689</v>
-      </c>
-      <c r="F1" s="67" t="s">
-        <v>690</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="67" t="s">
-        <v>691</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>692</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>693</v>
-      </c>
-      <c r="K1" s="67" t="s">
-        <v>694</v>
-      </c>
-      <c r="L1" s="67" t="s">
-        <v>695</v>
-      </c>
-      <c r="M1" s="67" t="s">
-        <v>742</v>
-      </c>
-      <c r="N1" s="67" t="s">
-        <v>696</v>
-      </c>
-      <c r="O1" s="67" t="s">
-        <v>697</v>
-      </c>
-      <c r="P1" s="67" t="s">
-        <v>698</v>
-      </c>
-      <c r="Q1" s="67" t="s">
-        <v>699</v>
-      </c>
-      <c r="R1" s="67" t="s">
-        <v>700</v>
-      </c>
-      <c r="S1" s="67" t="s">
-        <v>701</v>
-      </c>
-      <c r="T1" s="67" t="s">
-        <v>744</v>
-      </c>
-      <c r="U1" s="67" t="s">
-        <v>702</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>703</v>
-      </c>
-      <c r="W1" s="58" t="s">
-        <v>704</v>
-      </c>
-      <c r="X1" s="58" t="s">
-        <v>705</v>
-      </c>
-      <c r="Y1" s="67" t="s">
-        <v>743</v>
-      </c>
-      <c r="Z1" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA1" s="58" t="s">
-        <v>706</v>
-      </c>
-      <c r="AB1" s="58" t="s">
-        <v>707</v>
-      </c>
-      <c r="AC1" s="58" t="s">
-        <v>708</v>
-      </c>
-      <c r="AD1" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE1" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF1" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG1" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH1" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI1" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="AJ1" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="AK1" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="AL1" s="58" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AM1" s="58" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AN1" s="58" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60">
-        <v>3</v>
-      </c>
-      <c r="B2" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A2,3,4,1,"VCNS")))</f>
-        <v>VCN::hub-vcn</v>
-      </c>
-      <c r="C2" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"VCNS")))</f>
-        <v>hub-vcn</v>
-      </c>
-      <c r="D2" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A2,4,4,1,"Subnets")))</f>
-        <v>hub-vcn_pvt-infra</v>
-      </c>
-      <c r="E2" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A2,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,9,4,1,"Subnets")))</f>
-        <v>pvt-infra-rt</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,4,4,1,"DHCP")))</f>
-        <v>dhcp-internal</v>
-      </c>
-      <c r="L2" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DRGs")))</f>
-        <v>DRG</v>
-      </c>
-      <c r="N2" s="61" t="s">
-        <v>633</v>
-      </c>
-      <c r="O2" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="62" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q2" s="61" t="s">
-        <v>352</v>
-      </c>
-      <c r="R2" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="T2" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DedicatedVMHosts")))</f>
-        <v>VM1</v>
-      </c>
-      <c r="U2" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,4,4,1,"instances")))</f>
-        <v>Bastion</v>
-      </c>
-      <c r="V2" s="61" t="s">
-        <v>712</v>
-      </c>
-      <c r="W2" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="X2" s="61" t="s">
-        <v>713</v>
-      </c>
-      <c r="Y2" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA2" s="61" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB2" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC2" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD2" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE2" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF2" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG2" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH2" s="61">
-        <v>301</v>
-      </c>
-      <c r="AI2" s="61">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK2" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="AL2" s="60" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AM2" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="60" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60">
-        <v>4</v>
-      </c>
-      <c r="B3" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A3,3,4,1,"VCNS")))</f>
-        <v>VCN::prod-vcn</v>
-      </c>
-      <c r="C3" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"VCNS")))</f>
-        <v>prod-vcn</v>
-      </c>
-      <c r="D3" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A3,4,4,1,"Subnets")))</f>
-        <v>hub-vcn_pub-infra</v>
-      </c>
-      <c r="E3" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A3,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,9,4,1,"Subnets")))</f>
-        <v>pub-infra-rt</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>710</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>607</v>
-      </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N3" s="61" t="s">
-        <v>636</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>388</v>
-      </c>
-      <c r="P3" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="R3" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>715</v>
-      </c>
-      <c r="T3" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
-        <v>VM2</v>
-      </c>
-      <c r="U3" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V3" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="W3" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="X3" s="61" t="s">
-        <v>716</v>
-      </c>
-      <c r="Y3" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA3" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB3" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="AC3" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD3" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE3" s="61" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF3" s="63" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG3" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH3" s="61">
-        <v>302</v>
-      </c>
-      <c r="AI3" s="61">
-        <v>16</v>
-      </c>
-      <c r="AJ3" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="AK3" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL3" s="60" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AM3" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="60" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60">
-        <v>5</v>
-      </c>
-      <c r="B4" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A4,3,4,1,"VCNS")))</f>
-        <v>VCN::nonprod-vcn</v>
-      </c>
-      <c r="C4" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"VCNS")))</f>
-        <v>nonprod-vcn</v>
-      </c>
-      <c r="D4" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A4,4,4,1,"Subnets")))</f>
-        <v>prod-vcn_prod-dmz</v>
-      </c>
-      <c r="E4" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A4,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,9,4,1,"Subnets")))</f>
-        <v>prod-dmz-rt</v>
-      </c>
-      <c r="F4" s="61"/>
-      <c r="G4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="M4" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="R4" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="S4" s="61" t="s">
-        <v>719</v>
-      </c>
-      <c r="T4" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
-        <v>VM3</v>
-      </c>
-      <c r="U4" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61" t="s">
-        <v>720</v>
-      </c>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61" t="s">
-        <v>721</v>
-      </c>
-      <c r="AA4" s="61" t="s">
-        <v>722</v>
-      </c>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD4" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE4" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF4" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG4" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH4" s="61">
-        <v>303</v>
-      </c>
-      <c r="AI4" s="61">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="60" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60">
-        <v>6</v>
-      </c>
-      <c r="B5" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A5,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C5" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D5" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A5,4,4,1,"Subnets")))</f>
-        <v>prod-vcn_prod-app</v>
-      </c>
-      <c r="E5" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A5,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,9,4,1,"Subnets")))</f>
-        <v>prod-app-rt</v>
-      </c>
-      <c r="F5" s="61"/>
-      <c r="G5" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61" t="s">
-        <v>724</v>
-      </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="T5" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U5" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U5" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A5,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A5,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61" t="s">
-        <v>745</v>
-      </c>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE5" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF5" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61">
-        <v>307</v>
-      </c>
-      <c r="AI5" s="61">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60">
-        <v>7</v>
-      </c>
-      <c r="B6" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A6,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C6" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D6" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A6,4,4,1,"Subnets")))</f>
-        <v>prod-vcn_prod-svc</v>
-      </c>
-      <c r="E6" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A6,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,9,4,1,"Subnets")))</f>
-        <v>prod-svc-rt</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U6" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U6" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A6,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A6,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE6" s="61" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61">
-        <v>308</v>
-      </c>
-      <c r="AI6" s="61"/>
-    </row>
-    <row r="7" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60">
-        <v>8</v>
-      </c>
-      <c r="B7" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A7,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C7" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D7" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A7,4,4,1,"Subnets")))</f>
-        <v>prod-vcn_prod-db</v>
-      </c>
-      <c r="E7" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A7,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,9,4,1,"Subnets")))</f>
-        <v>prod-db-rt</v>
-      </c>
-      <c r="F7" s="61"/>
-      <c r="G7" t="s">
-        <v>718</v>
-      </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U7" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U7" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A7,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A7,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE7" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-    </row>
-    <row r="8" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60">
-        <v>9</v>
-      </c>
-      <c r="B8" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A8,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C8" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D8" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A8,4,4,1,"Subnets")))</f>
-        <v>nonprod-vcn_nonprod-dmz</v>
-      </c>
-      <c r="E8" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A8,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,9,4,1,"Subnets")))</f>
-        <v>nonprod-dmz-rt</v>
-      </c>
-      <c r="F8" s="61"/>
-      <c r="G8" t="s">
-        <v>723</v>
-      </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U8" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U8" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A8,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A8,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE8" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-    </row>
-    <row r="9" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60">
-        <v>10</v>
-      </c>
-      <c r="B9" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A9,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C9" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D9" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A9,4,4,1,"Subnets")))</f>
-        <v>nonprod-vcn_nonprod-app</v>
-      </c>
-      <c r="E9" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A9,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,9,4,1,"Subnets")))</f>
-        <v>nonprod-app-rt</v>
-      </c>
-      <c r="F9" s="61"/>
-      <c r="G9" t="s">
-        <v>725</v>
-      </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U9" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U9" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A9,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A9,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE9" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-    </row>
-    <row r="10" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60">
-        <v>11</v>
-      </c>
-      <c r="B10" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A10,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C10" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D10" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A10,4,4,1,"Subnets")))</f>
-        <v>nonprod-vcn_nonprod-svc</v>
-      </c>
-      <c r="E10" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A10,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,9,4,1,"Subnets")))</f>
-        <v>nonprod-svc-rt</v>
-      </c>
-      <c r="F10" s="61"/>
-      <c r="G10" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U10" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U10" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A10,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A10,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE10" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-    </row>
-    <row r="11" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60">
-        <v>12</v>
-      </c>
-      <c r="B11" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A11,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C11" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D11" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A11,4,4,1,"Subnets")))</f>
-        <v>nonprod-vcn_nonprod-db</v>
-      </c>
-      <c r="E11" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A11,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,9,4,1,"Subnets")))</f>
-        <v>nonprod-db-rt</v>
-      </c>
-      <c r="F11" s="61"/>
-      <c r="G11" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U11" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U11" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A11,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A11,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="61"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE11" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="61"/>
-    </row>
-    <row r="12" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60">
-        <v>13</v>
-      </c>
-      <c r="B12" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A12,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C12" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D12" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A12,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E12" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A12,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F12" s="61"/>
-      <c r="G12" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U12" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U12" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A12,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A12,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="61"/>
-    </row>
-    <row r="13" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60">
-        <v>14</v>
-      </c>
-      <c r="B13" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A13,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C13" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D13" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A13,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E13" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A13,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U13" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U13" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A13,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A13,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="61"/>
-    </row>
-    <row r="14" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60">
-        <v>15</v>
-      </c>
-      <c r="B14" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A14,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C14" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D14" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A14,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E14" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A14,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U14" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U14" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A14,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A14,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-    </row>
-    <row r="15" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60">
-        <v>16</v>
-      </c>
-      <c r="B15" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A15,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C15" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D15" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A15,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E15" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A15,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" t="s">
-        <v>726</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U15" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U15" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A15,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A15,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="61"/>
-      <c r="AH15" s="61"/>
-      <c r="AI15" s="61"/>
-    </row>
-    <row r="16" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60">
-        <v>17</v>
-      </c>
-      <c r="B16" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A16,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C16" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D16" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A16,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E16" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A16,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F16" s="61"/>
-      <c r="G16" t="s">
-        <v>727</v>
-      </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U16" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF16" s="64"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="61"/>
-    </row>
-    <row r="17" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60">
-        <v>18</v>
-      </c>
-      <c r="B17" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A17,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C17" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D17" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A17,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E17" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A17,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F17" s="61"/>
-      <c r="G17" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U17" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF17" s="64"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="61"/>
-    </row>
-    <row r="18" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="60">
-        <v>19</v>
-      </c>
-      <c r="B18" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A18,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C18" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D18" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A18,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E18" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A18,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F18" s="61"/>
-      <c r="G18" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U18" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-    </row>
-    <row r="19" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60">
-        <v>20</v>
-      </c>
-      <c r="B19" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A19,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C19" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D19" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A19,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E19" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A19,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U19" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="61"/>
-    </row>
-    <row r="20" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="60">
-        <v>21</v>
-      </c>
-      <c r="B20" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A20,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C20" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D20" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A20,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E20" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A20,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F20" s="61"/>
-      <c r="G20" t="s">
-        <v>728</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U20" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF20" s="64"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="61"/>
-    </row>
-    <row r="21" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60">
-        <v>22</v>
-      </c>
-      <c r="B21" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A21,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C21" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D21" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A21,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E21" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A21,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F21" s="61"/>
-      <c r="G21" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U21" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF21" s="64"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="61"/>
-    </row>
-    <row r="22" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60">
-        <v>23</v>
-      </c>
-      <c r="B22" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A22,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C22" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D22" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A22,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E22" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A22,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F22" s="61"/>
-      <c r="G22" t="s">
-        <v>1144</v>
-      </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U22" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF22" s="64"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="61"/>
-    </row>
-    <row r="23" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60">
-        <v>24</v>
-      </c>
-      <c r="B23" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A23,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C23" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D23" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A23,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E23" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A23,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F23" s="61"/>
-      <c r="G23" t="s">
-        <v>1145</v>
-      </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U23" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="AF23" s="64"/>
-      <c r="AG23" s="61"/>
-      <c r="AH23" s="61"/>
-      <c r="AI23" s="61"/>
-    </row>
-    <row r="24" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60">
-        <v>25</v>
-      </c>
-      <c r="B24" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A24,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C24" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D24" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A24,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E24" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A24,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F24" s="61"/>
-      <c r="G24" t="s">
-        <v>729</v>
-      </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U24" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="61"/>
-      <c r="AH24" s="61"/>
-      <c r="AI24" s="61"/>
-    </row>
-    <row r="25" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60">
-        <v>26</v>
-      </c>
-      <c r="B25" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A25,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C25" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D25" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A25,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E25" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A25,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U25" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF25" s="64"/>
-      <c r="AG25" s="61"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="61"/>
-    </row>
-    <row r="26" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="60">
-        <v>27</v>
-      </c>
-      <c r="B26" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A26,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C26" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D26" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A26,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E26" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A26,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" t="s">
-        <v>730</v>
-      </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U26" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="61"/>
-      <c r="AA26" s="61"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="61"/>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="61"/>
-      <c r="AH26" s="61"/>
-      <c r="AI26" s="61"/>
-    </row>
-    <row r="27" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60">
-        <v>28</v>
-      </c>
-      <c r="B27" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A27,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C27" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D27" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A27,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E27" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A27,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" t="s">
-        <v>731</v>
-      </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U27" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="61"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
-    </row>
-    <row r="28" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="60">
-        <v>29</v>
-      </c>
-      <c r="B28" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A28,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C28" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D28" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A28,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E28" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A28,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" t="s">
-        <v>732</v>
-      </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U28" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
-    </row>
-    <row r="29" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="60">
-        <v>30</v>
-      </c>
-      <c r="B29" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A29,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C29" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D29" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A29,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E29" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A29,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F29" s="61"/>
-      <c r="G29" t="s">
-        <v>1147</v>
-      </c>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U29" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V29" s="61"/>
-      <c r="W29" s="61"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="61"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="61"/>
-      <c r="AB29" s="61"/>
-      <c r="AC29" s="61"/>
-      <c r="AD29" s="61"/>
-      <c r="AE29" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="61"/>
-      <c r="AH29" s="61"/>
-      <c r="AI29" s="61"/>
-    </row>
-    <row r="30" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="60">
-        <v>31</v>
-      </c>
-      <c r="B30" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A30,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C30" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D30" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A30,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E30" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A30,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F30" s="61"/>
-      <c r="G30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U30" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V30" s="61"/>
-      <c r="W30" s="61"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61"/>
-      <c r="Z30" s="61"/>
-      <c r="AA30" s="61"/>
-      <c r="AB30" s="61"/>
-      <c r="AC30" s="61"/>
-      <c r="AD30" s="61"/>
-      <c r="AE30" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="61"/>
-      <c r="AH30" s="61"/>
-      <c r="AI30" s="61"/>
-    </row>
-    <row r="31" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60">
-        <v>32</v>
-      </c>
-      <c r="B31" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A31,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C31" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D31" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A31,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E31" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A31,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F31" s="61"/>
-      <c r="G31" t="s">
-        <v>1148</v>
-      </c>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U31" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="61"/>
-      <c r="AD31" s="61"/>
-      <c r="AE31" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="61"/>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="61"/>
-    </row>
-    <row r="32" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="60">
-        <v>33</v>
-      </c>
-      <c r="B32" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A32,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C32" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D32" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A32,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E32" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A32,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F32" s="61"/>
-      <c r="G32" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U32" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="61"/>
-      <c r="AA32" s="61"/>
-      <c r="AB32" s="61"/>
-      <c r="AC32" s="61"/>
-      <c r="AD32" s="61"/>
-      <c r="AE32" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="61"/>
-      <c r="AH32" s="61"/>
-      <c r="AI32" s="61"/>
-    </row>
-    <row r="33" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="60">
-        <v>34</v>
-      </c>
-      <c r="B33" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A33,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C33" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D33" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A33,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E33" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A33,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F33" s="61"/>
-      <c r="G33" t="s">
-        <v>733</v>
-      </c>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U33" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V33" s="61"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="61"/>
-      <c r="AA33" s="61"/>
-      <c r="AB33" s="61"/>
-      <c r="AC33" s="61"/>
-      <c r="AD33" s="61"/>
-      <c r="AE33" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="61"/>
-      <c r="AH33" s="61"/>
-      <c r="AI33" s="61"/>
-    </row>
-    <row r="34" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60">
-        <v>35</v>
-      </c>
-      <c r="B34" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A34,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C34" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D34" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A34,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E34" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A34,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F34" s="61"/>
-      <c r="G34" t="s">
-        <v>1150</v>
-      </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U34" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V34" s="61"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="61"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="61"/>
-      <c r="AA34" s="61"/>
-      <c r="AB34" s="61"/>
-      <c r="AC34" s="61"/>
-      <c r="AD34" s="61"/>
-      <c r="AE34" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="61"/>
-      <c r="AH34" s="61"/>
-      <c r="AI34" s="61"/>
-    </row>
-    <row r="35" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60">
-        <v>36</v>
-      </c>
-      <c r="B35" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C35" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D35" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A35,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E35" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F35" s="61"/>
-      <c r="G35" t="s">
-        <v>734</v>
-      </c>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U35" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V35" s="61"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="61"/>
-      <c r="Z35" s="61"/>
-      <c r="AA35" s="61"/>
-      <c r="AB35" s="61"/>
-      <c r="AC35" s="61"/>
-      <c r="AD35" s="61"/>
-      <c r="AE35" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="61"/>
-      <c r="AH35" s="61"/>
-      <c r="AI35" s="61"/>
-    </row>
-    <row r="36" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60">
-        <v>37</v>
-      </c>
-      <c r="B36" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C36" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D36" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A36,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E36" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F36" s="61"/>
-      <c r="G36" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U36" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="61"/>
-      <c r="AA36" s="61"/>
-      <c r="AB36" s="61"/>
-      <c r="AC36" s="61"/>
-      <c r="AD36" s="61"/>
-      <c r="AE36" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="61"/>
-      <c r="AH36" s="61"/>
-      <c r="AI36" s="61"/>
-    </row>
-    <row r="37" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="60">
-        <v>38</v>
-      </c>
-      <c r="B37" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C37" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D37" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A37,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E37" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F37" s="61"/>
-      <c r="G37" t="s">
-        <v>1152</v>
-      </c>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U37" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V37" s="61"/>
-      <c r="W37" s="61"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="61"/>
-      <c r="Z37" s="61"/>
-      <c r="AA37" s="61"/>
-      <c r="AB37" s="61"/>
-      <c r="AC37" s="61"/>
-      <c r="AD37" s="61"/>
-      <c r="AE37" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="61"/>
-      <c r="AH37" s="61"/>
-      <c r="AI37" s="61"/>
-    </row>
-    <row r="38" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="60">
-        <v>39</v>
-      </c>
-      <c r="B38" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C38" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D38" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A38,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E38" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F38" s="61"/>
-      <c r="G38" t="s">
-        <v>735</v>
-      </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U38" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V38" s="61"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="61"/>
-      <c r="Y38" s="61"/>
-      <c r="Z38" s="61"/>
-      <c r="AA38" s="61"/>
-      <c r="AB38" s="61"/>
-      <c r="AC38" s="61"/>
-      <c r="AD38" s="61"/>
-      <c r="AE38" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="61"/>
-      <c r="AH38" s="61"/>
-      <c r="AI38" s="61"/>
-    </row>
-    <row r="39" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="60">
-        <v>40</v>
-      </c>
-      <c r="B39" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C39" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D39" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A39,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E39" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F39" s="61"/>
-      <c r="G39" t="s">
-        <v>736</v>
-      </c>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U39" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V39" s="61"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="61"/>
-      <c r="Y39" s="61"/>
-      <c r="Z39" s="61"/>
-      <c r="AA39" s="61"/>
-      <c r="AB39" s="61"/>
-      <c r="AC39" s="61"/>
-      <c r="AD39" s="61"/>
-      <c r="AE39" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="AF39" s="64"/>
-      <c r="AG39" s="61"/>
-      <c r="AH39" s="61"/>
-      <c r="AI39" s="61"/>
-    </row>
-    <row r="40" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60">
-        <v>41</v>
-      </c>
-      <c r="B40" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C40" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D40" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A40,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E40" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="F40" s="61"/>
-      <c r="G40" t="s">
-        <v>737</v>
-      </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U40" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="V40" s="61"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="61"/>
-      <c r="Y40" s="61"/>
-      <c r="Z40" s="61"/>
-      <c r="AA40" s="61"/>
-      <c r="AC40" s="61"/>
-      <c r="AD40" s="61"/>
-      <c r="AE40" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF40" s="64"/>
-      <c r="AG40" s="61"/>
-      <c r="AH40" s="61"/>
-      <c r="AI40" s="61"/>
-    </row>
-    <row r="41" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="60">
-        <v>42</v>
-      </c>
-      <c r="B41" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C41" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D41" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A41,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E41" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="G41" t="s">
-        <v>738</v>
-      </c>
-      <c r="K41" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M41" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T41" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U41" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-      <c r="AF41" s="65"/>
-    </row>
-    <row r="42" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="60">
-        <v>43</v>
-      </c>
-      <c r="B42" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C42" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D42" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A42,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E42" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="G42" t="s">
-        <v>739</v>
-      </c>
-      <c r="K42" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M42" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T42" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U42" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="60">
-        <v>44</v>
-      </c>
-      <c r="B43" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C43" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D43" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A43,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E43" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="G43" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M43" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T43" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U43" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="60">
-        <v>45</v>
-      </c>
-      <c r="B44" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C44" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D44" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A44,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E44" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K44" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M44" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T44" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U44" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="60">
-        <v>46</v>
-      </c>
-      <c r="B45" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C45" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D45" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A45,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E45" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K45" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M45" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T45" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U45" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="60">
-        <v>47</v>
-      </c>
-      <c r="B46" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C46" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D46" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A46,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E46" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K46" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M46" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T46" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U46" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="60">
-        <v>48</v>
-      </c>
-      <c r="B47" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C47" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D47" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A47,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E47" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K47" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M47" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T47" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U47" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:35" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="60">
-        <v>49</v>
-      </c>
-      <c r="B48" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C48" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D48" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A48,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E48" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K48" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M48" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T48" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U48" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="60">
-        <v>50</v>
-      </c>
-      <c r="B49" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="B49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C49" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="C49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="D49" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="D49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"Subnets"))&amp;"_"&amp;INDIRECT(ADDRESS(A49,4,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="E49" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"Subnets")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,9,4,1,"Subnets")))</f>
-        <v/>
-      </c>
-      <c r="K49" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="K49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
-      <c r="M49" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="M49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
-      <c r="T49" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="T49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="U49" s="61" t="str" cm="1">
-        <f t="array" aca="1" ref="U49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"instances")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:28" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AB50" s="66"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32936,7 +32924,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33314,7 +33302,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G1" sqref="G1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33655,7 +33643,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8131C8-C7B2-4417-824F-F459E3AC8BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50CE8AA-1F46-437C-902C-0D9499774C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19771,8 +19771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:T1"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -19798,7 +19798,7 @@
     <col min="20" max="20" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="136" customHeight="1">
+    <row r="1" spans="1:20" ht="166.5" customHeight="1">
       <c r="A1" s="119" t="s">
         <v>1152</v>
       </c>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279469E-AEA3-BF4C-B5A8-DC16F64218BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B345EA-D6D5-CF4B-ABDE-8EC76533DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="760" windowWidth="29480" windowHeight="17640" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11166,7 +11166,7 @@
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11507,7 +11507,6 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -17597,7 +17596,7 @@
       <c r="T12" s="35"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="34"/>
@@ -41194,24 +41193,18 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" sqref="A2" xr:uid="{B3BE0C97-72D4-5442-AE0A-C555106ACAFA}"/>
-    <dataValidation allowBlank="1" sqref="F7:I1048576 A1:I1 F3:I4 C3:C1048576 F5:XFD6" xr:uid="{815EE11B-0910-FB46-B533-4DD1A4BD0CF9}"/>
+    <dataValidation allowBlank="1" sqref="F7:I1048576 A1:I1 F3:I4 C3:C1048576 F5:XFD6 E3:E1048576" xr:uid="{815EE11B-0910-FB46-B533-4DD1A4BD0CF9}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{E4C7DFAF-C22E-3C4D-B63A-C9A2C5B67411}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$43</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{3A24DF53-F215-EE49-B970-ADA83B980C81}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>E7:E1048576 E3:E4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" prompt="Specify Compartment name." xr:uid="{6FA12EC0-6BD2-4244-8370-751739D60423}">
           <x14:formula1>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B345EA-D6D5-CF4B-ABDE-8EC76533DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279469E-AEA3-BF4C-B5A8-DC16F64218BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="760" windowWidth="29480" windowHeight="17640" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11166,7 +11166,7 @@
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11507,6 +11507,7 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -17596,7 +17597,7 @@
       <c r="T12" s="35"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="139" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="34"/>
@@ -41193,18 +41194,24 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" sqref="A2" xr:uid="{B3BE0C97-72D4-5442-AE0A-C555106ACAFA}"/>
-    <dataValidation allowBlank="1" sqref="F7:I1048576 A1:I1 F3:I4 C3:C1048576 F5:XFD6 E3:E1048576" xr:uid="{815EE11B-0910-FB46-B533-4DD1A4BD0CF9}"/>
+    <dataValidation allowBlank="1" sqref="F7:I1048576 A1:I1 F3:I4 C3:C1048576 F5:XFD6" xr:uid="{815EE11B-0910-FB46-B533-4DD1A4BD0CF9}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{E4C7DFAF-C22E-3C4D-B63A-C9A2C5B67411}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$43</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{3A24DF53-F215-EE49-B970-ADA83B980C81}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E7:E1048576 E3:E4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" prompt="Specify Compartment name." xr:uid="{6FA12EC0-6BD2-4244-8370-751739D60423}">
           <x14:formula1>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279469E-AEA3-BF4C-B5A8-DC16F64218BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366FDE82-6E9D-6642-B58E-D2651E47736A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="760" windowWidth="29480" windowHeight="17640" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11166,7 +11166,7 @@
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11507,7 +11507,6 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -17597,7 +17596,7 @@
       <c r="T12" s="35"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="34"/>
@@ -41194,24 +41193,18 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" sqref="A2" xr:uid="{B3BE0C97-72D4-5442-AE0A-C555106ACAFA}"/>
-    <dataValidation allowBlank="1" sqref="F7:I1048576 A1:I1 F3:I4 C3:C1048576 F5:XFD6" xr:uid="{815EE11B-0910-FB46-B533-4DD1A4BD0CF9}"/>
+    <dataValidation allowBlank="1" sqref="F7:I1048576 A1:I1 F3:I4 C3:C1048576 F5:XFD6 E3:E1048576" xr:uid="{815EE11B-0910-FB46-B533-4DD1A4BD0CF9}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{E4C7DFAF-C22E-3C4D-B63A-C9A2C5B67411}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$43</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{3A24DF53-F215-EE49-B970-ADA83B980C81}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>E7:E1048576 E3:E4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" prompt="Specify Compartment name." xr:uid="{6FA12EC0-6BD2-4244-8370-751739D60423}">
           <x14:formula1>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366FDE82-6E9D-6642-B58E-D2651E47736A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D336AA-C02D-0E47-9526-C85272C2238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="760" windowWidth="29480" windowHeight="17640" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\orahub_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5663A487-BBA6-47CA-A1BF-BEC85E50AF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E185763-0195-4559-A2D2-F8FD27B46BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="1382">
   <si>
     <t>Region</t>
   </si>
@@ -4098,12 +4098,6 @@
     <t>allow group AppDevAdmins to use load-balancers in compartment Network</t>
   </si>
   <si>
-    <t>allow group AppDevAdmins to read vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to inspect keys in compartment Security</t>
-  </si>
-  <si>
     <t>allow group AppDevAdmins to manage instance-images in compartment Security</t>
   </si>
   <si>
@@ -4203,18 +4197,12 @@
     <t>allow group DatabaseAdmins to read vss-family in compartment Security</t>
   </si>
   <si>
-    <t>allow group DatabaseAdmins to read vaults in compartment Security</t>
-  </si>
-  <si>
     <t>allow group DatabaseAdmins to use bastion in compartment Security</t>
   </si>
   <si>
     <t>allow group DatabaseAdmins to manage bastion-session in compartment Security</t>
   </si>
   <si>
-    <t>allow group DatabaseAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
     <t>allow group IAMAdmins to inspect users in tenancy</t>
   </si>
   <si>
@@ -4528,12 +4516,6 @@
   </si>
   <si>
     <t>Database-kms-dynamic-group group to use keys in compartment managed-security-cmp.</t>
-  </si>
-  <si>
-    <t>allow dynamic-group Database-kms-dynamic-group to read vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow dynamic-group Database-kms-dynamic-group to use keys in compartment Security</t>
   </si>
   <si>
     <r>
@@ -5023,15 +5005,6 @@
     <t>allow group AppDevAdmins to read repos in tenancy</t>
   </si>
   <si>
-    <t>allow group AppDevAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
     <t>allow group Auditors to inspect all-resources in tenancy</t>
   </si>
   <si>
@@ -5107,12 +5080,6 @@
     <t>allow service osms to read instances in tenancy</t>
   </si>
   <si>
-    <t>allow group DatabaseAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
     <t>allow group IAMAdmins to manage policies in tenancy</t>
   </si>
   <si>
@@ -5120,15 +5087,6 @@
   </si>
   <si>
     <t>allow group IAMAdmins to manage identity-providers in tenancy where any {request.operation = 'AddIdpgroupMapping', request.operation = 'DeleteIdpgroupMapping'}</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to read usage-reports in tenancy</t>
   </si>
   <si>
     <t>define tenancy usage-report as ocid1.tenancy.oc1..aaaaaaaaned4fkpkisbwjlr56u7cj63lf3wffbilvqknstgtvzub7vhqkggq</t>
@@ -7756,13 +7714,7 @@
     </r>
   </si>
   <si>
-    <t>allow group DatabaseAdmins to to use vnics in compartment Database</t>
-  </si>
-  <si>
     <t>allow group DatabaseAdmins to manage private-ips in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to read keys in compartment Security</t>
   </si>
   <si>
     <r>
@@ -10130,6 +10082,289 @@
     </r>
   </si>
   <si>
+    <t>Plugin Vulnerability Scanning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Name) is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Description" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Description) is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Public Networks" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It is an optional field. Specify comma separated list of public CIDRs to be included.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"OCI Networks" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It is an optional field. Format: Specify comma separated list of VCN CIDR to be included. For ex: 10.0.2.0/18,10.0.3.0/18
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"User Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"First Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"User email" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an optional field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Group Names" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comma Separated groups assigned to user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Disable Capabilities" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify comma seperated list of capabilities to be disabled for user. For ex: can_use_api_keys, can_use_console_password, can_use_auth_tokens, can_use_customer_secret_keys, can_use_db_credentials, can_use_oauth2client_credentials, can_use_smtp_credentials. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>By default all these capabilities are enabled for a user.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(can_use_db_credentials, can_use_oauth2client_credentials cannot be disabled through CD3. It is currently not supported by terraform)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <t>User Description</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
 If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
@@ -10424,291 +10659,183 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>eg for 'Bastion', column name will be 'Plugin Bastion'</t>
-    </r>
-  </si>
-  <si>
-    <t>Plugin Vulnerability Scanning</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Name) is a mandatory field.
+      <t xml:space="preserve">eg for 'Bastion', column name will be 'Plugin Bastion'
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Description" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Description) is a mandatory field.
-</t>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Public Networks" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">It is an optional field. Specify comma separated list of public CIDRs to be included.
-</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please add column '</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"OCI Networks" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">It is an optional field. Format: Specify comma separated list of VCN CIDR to be included. For ex: 10.0.2.0/18,10.0.3.0/18
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <t>User Description</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"User Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"User Description" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"User email" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is an optional field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Group Names" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comma Separated groups assigned to user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Disable Capabilities" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify comma seperated list of capabilities to be disabled for user. For ex: can_use_api_keys, can_use_console_password, can_use_auth_tokens, can_use_customer_secret_keys, can_use_db_credentials, can_use_oauth2client_credentials, can_use_smtp_credentials. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>By default all these capabilities are enabled for a user.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(can_use_db_credentials, can_use_oauth2client_credentials cannot be disabled through CD3. It is currently not supported by terraform)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is Live Migration preferred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' and set the value to True to enable live migration for the instance. It will be enabled if it is compatible.</t>
+    </r>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage keys in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use key-delegate in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage secret-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage private-ips in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to manage cloudevents-rules in tenancy where target.rule.type='managed'</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to manage instances in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read compartments in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read repos in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read vnics in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read vnic-attachments in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service blockstorage, oke, streaming, Fssoc1Prod to use keys in tenancy</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage cloud-exadata-infrastructures in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage cloud-vmclusters in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use vnics in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use key-delegate in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage secret-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read cloud-exadata-infrastructures in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use cloud-vmclusters in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-nodes in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-homes in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage databases in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-backups in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage users in tenancy where all {request.operation != 'ListApiKeys',request.operation != 'ListAuthTokens',request.operation != 'ListCustomerSecretKeys',request.operation != 'UploadApiKey',request.operation != 'DeleteApiKey',request.operation != 'UpdateAuthToken',request.operation != 'CreateAuthToken',request.operation != 'DeleteAuthToken',request.operation != 'CreateSecretKey',request.operation != 'UpdateCustomerSecretKey',request.operation != 'DeleteCustomerSecretKey'}</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage keys in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to use key-delegate in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage secret-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to use key-delegate in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage private-ips in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use secret-family in compartment Database</t>
   </si>
   <si>
     <r>
@@ -10757,7 +10884,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11084,6 +11211,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF161513"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -11366,7 +11510,7 @@
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11645,6 +11789,12 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -16963,7 +17113,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1">
       <c r="A2" s="84" t="s">
-        <v>1356</v>
+        <v>1381</v>
       </c>
     </row>
   </sheetData>
@@ -16988,10 +17138,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="42" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B1" s="124"/>
+      <c r="A1" s="118" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1" s="126"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
@@ -17056,16 +17206,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="A1" s="118" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="43.5" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -17296,10 +17446,10 @@
     <col min="7" max="7" width="18.1796875" customWidth="1"/>
     <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.453125" customWidth="1"/>
-    <col min="11" max="12" width="11.26953125" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
+    <col min="11" max="12" width="11.36328125" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" customWidth="1"/>
     <col min="14" max="14" width="15.81640625" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" customWidth="1"/>
     <col min="16" max="16" width="11.81640625" customWidth="1"/>
     <col min="17" max="17" width="14.1796875" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
@@ -17307,30 +17457,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="205" customHeight="1">
-      <c r="A1" s="117" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="126" t="s">
-        <v>1304</v>
-      </c>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
+      <c r="A1" s="119" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="128" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
     </row>
     <row r="2" spans="1:20" s="42" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -17346,7 +17496,7 @@
         <v>312</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>11</v>
@@ -17989,13 +18139,13 @@
         <v>589</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="F14" s="55" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>51</v>
@@ -18005,11 +18155,11 @@
       </c>
       <c r="I14" s="55"/>
       <c r="J14" s="55" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="K14" s="55"/>
       <c r="L14" s="56" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="M14" s="56" t="s">
         <v>21</v>
@@ -18044,13 +18194,13 @@
         <v>589</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>51</v>
@@ -18060,7 +18210,7 @@
       </c>
       <c r="I15" s="55"/>
       <c r="J15" s="55" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
@@ -18476,33 +18626,33 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.36328125" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
+      <c r="A1" s="118" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -18611,21 +18761,21 @@
     <col min="6" max="6" width="31.81640625" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
+      <c r="A1" s="118" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
@@ -18715,29 +18865,29 @@
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.1796875" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
+      <c r="A1" s="118" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
@@ -18865,36 +19015,36 @@
     <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.81640625" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" customWidth="1"/>
     <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
+      <c r="A1" s="118" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="49" t="s">
@@ -19862,25 +20012,25 @@
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="30.6328125" customWidth="1"/>
     <col min="6" max="6" width="24.453125" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.6328125" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
     <col min="9" max="9" width="42.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="175" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
+      <c r="A1" s="118" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
@@ -19890,22 +20040,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>424</v>
@@ -19932,19 +20082,19 @@
         <v>353</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
       <c r="H4" s="34">
         <v>3600</v>
@@ -19959,19 +20109,19 @@
         <v>353</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>1211</v>
+        <v>1197</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>1212</v>
+        <v>1198</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>1213</v>
+        <v>1199</v>
       </c>
       <c r="H5" s="34">
         <v>300</v>
@@ -19986,19 +20136,19 @@
         <v>353</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>1214</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>1215</v>
+        <v>1201</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>1217</v>
+        <v>1203</v>
       </c>
       <c r="H6" s="34">
         <v>300</v>
@@ -20251,7 +20401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7C12F0-8060-EA44-87AE-DB3221A53550}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -20263,27 +20413,27 @@
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57.1796875" customWidth="1"/>
     <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="203.25" customHeight="1">
-      <c r="A1" s="128" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
+      <c r="A1" s="130" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
     </row>
     <row r="2" spans="1:11" ht="29">
       <c r="A2" s="28" t="s">
@@ -20299,22 +20449,22 @@
         <v>312</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>1218</v>
+        <v>1204</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>1219</v>
+        <v>1205</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>1221</v>
+        <v>1207</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>1222</v>
+        <v>1208</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>424</v>
@@ -20349,20 +20499,20 @@
         <v>586</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>1224</v>
+        <v>1210</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>1225</v>
+        <v>1211</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>592</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>1226</v>
+        <v>1212</v>
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="31" t="s">
-        <v>1227</v>
+        <v>1213</v>
       </c>
       <c r="K4" s="31"/>
     </row>
@@ -20380,16 +20530,16 @@
         <v>588</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>1224</v>
+        <v>1210</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>1228</v>
+        <v>1214</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>592</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>1229</v>
+        <v>1215</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -20451,19 +20601,19 @@
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="A1" s="118" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:7" s="42" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -20616,20 +20766,20 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.453125" customWidth="1"/>
     <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="42" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
+      <c r="A1" s="118" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="28" t="s">
@@ -20668,7 +20818,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>559</v>
@@ -20879,50 +21029,50 @@
     <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.81640625" customWidth="1"/>
     <col min="6" max="6" width="24.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.1796875" customWidth="1"/>
     <col min="11" max="11" width="14.1796875" customWidth="1"/>
     <col min="12" max="13" width="20.81640625" customWidth="1"/>
     <col min="14" max="15" width="21.81640625" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" customWidth="1"/>
+    <col min="16" max="16" width="15.6328125" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" customWidth="1"/>
+    <col min="19" max="19" width="8.36328125" customWidth="1"/>
     <col min="20" max="20" width="11.81640625" customWidth="1"/>
-    <col min="21" max="21" width="28.7265625" customWidth="1"/>
+    <col min="21" max="21" width="28.6328125" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="234.65" customHeight="1">
-      <c r="A1" s="130" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="117" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="121"/>
+    <row r="1" spans="1:23" ht="250" customHeight="1">
+      <c r="A1" s="132" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="119" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="116"/>
     </row>
     <row r="2" spans="1:23" s="42" customFormat="1" ht="52.5" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -20968,7 +21118,7 @@
         <v>811</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>93</v>
@@ -20986,7 +21136,7 @@
         <v>96</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>1230</v>
+        <v>1216</v>
       </c>
       <c r="V2" s="28" t="s">
         <v>424</v>
@@ -21112,7 +21262,7 @@
       </c>
       <c r="N5" s="55"/>
       <c r="O5" s="55" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="P5" s="55" t="s">
         <v>101</v>
@@ -21126,7 +21276,7 @@
         <v>89</v>
       </c>
       <c r="U5" s="56" t="s">
-        <v>1340</v>
+        <v>1324</v>
       </c>
       <c r="V5" s="55"/>
     </row>
@@ -21176,7 +21326,7 @@
       </c>
       <c r="T6" s="55"/>
       <c r="U6" s="56" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
       <c r="V6" s="55"/>
     </row>
@@ -21239,20 +21389,20 @@
         <v>56</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="E8" s="55" t="s">
         <v>99</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="G8" s="56" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="55" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="J8" s="99" t="s">
         <v>103</v>
@@ -21279,10 +21429,10 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:W1"/>
+    <mergeCell ref="I1:V1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="D3:D1048576 H3:P1048576 S3:T1048576 V3:V1048576 U2:U1048576 A1:W1 O2" xr:uid="{C831E88E-11FC-1748-A72B-DC9816C08210}"/>
+    <dataValidation allowBlank="1" sqref="D3:D1048576 H3:P1048576 S3:T1048576 V3:V1048576 U2:U1048576 O2 A1:W1" xr:uid="{C831E88E-11FC-1748-A72B-DC9816C08210}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21356,30 +21506,30 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
     <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="10" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="10" width="17.6328125" customWidth="1"/>
     <col min="12" max="12" width="18.453125" customWidth="1"/>
     <col min="13" max="13" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="127" customHeight="1">
-      <c r="A1" s="117" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="121"/>
+      <c r="A1" s="119" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="123"/>
     </row>
     <row r="2" spans="1:13" s="42" customFormat="1" ht="43.5">
       <c r="A2" s="28" t="s">
@@ -21392,7 +21542,7 @@
         <v>104</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>105</v>
@@ -21576,44 +21726,44 @@
   <cols>
     <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.1796875" customWidth="1"/>
     <col min="12" max="12" width="7.81640625" customWidth="1"/>
     <col min="13" max="13" width="8.453125" customWidth="1"/>
     <col min="14" max="14" width="17.1796875" customWidth="1"/>
-    <col min="15" max="15" width="15.7265625" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" customWidth="1"/>
     <col min="16" max="16" width="18.81640625" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="119.25" customHeight="1">
-      <c r="A1" s="133" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="136" t="s">
+      <c r="A1" s="135" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138" t="s">
         <v>438</v>
       </c>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -21977,74 +22127,74 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
     <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" customWidth="1"/>
     <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="22.1796875" customWidth="1"/>
     <col min="14" max="14" width="18.81640625" customWidth="1"/>
-    <col min="15" max="15" width="18.26953125" customWidth="1"/>
-    <col min="16" max="17" width="14.26953125" customWidth="1"/>
+    <col min="15" max="15" width="18.36328125" customWidth="1"/>
+    <col min="16" max="17" width="14.36328125" customWidth="1"/>
     <col min="18" max="18" width="11.1796875" customWidth="1"/>
     <col min="19" max="19" width="13.81640625" customWidth="1"/>
     <col min="20" max="20" width="14.1796875" customWidth="1"/>
     <col min="21" max="21" width="16.1796875" customWidth="1"/>
-    <col min="22" max="22" width="10.7265625" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" customWidth="1"/>
     <col min="23" max="23" width="10.81640625" customWidth="1"/>
     <col min="24" max="24" width="9.1796875" customWidth="1"/>
     <col min="25" max="25" width="16.81640625" customWidth="1"/>
-    <col min="26" max="26" width="22.7265625" customWidth="1"/>
+    <col min="26" max="26" width="22.6328125" customWidth="1"/>
     <col min="27" max="27" width="14.1796875" customWidth="1"/>
-    <col min="28" max="28" width="10.7265625" customWidth="1"/>
+    <col min="28" max="28" width="10.6328125" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
     <col min="30" max="30" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="145" customHeight="1">
-      <c r="A1" s="117" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="130" t="s">
-        <v>1296</v>
-      </c>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="132"/>
+      <c r="A1" s="119" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="132" t="s">
+        <v>1282</v>
+      </c>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="134"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="31" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -22054,40 +22204,40 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>1054</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>1055</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>1056</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>1057</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>1058</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>1059</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>1060</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>1061</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>1062</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>1064</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>1065</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>83</v>
@@ -22099,31 +22249,31 @@
         <v>434</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="S2" s="29" t="s">
         <v>807</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="V2" s="29" t="s">
         <v>82</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="Y2" s="29" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="Z2" s="29" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="AA2" s="29" t="s">
         <v>93</v>
@@ -22132,10 +22282,10 @@
         <v>424</v>
       </c>
       <c r="AC2" s="29" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="AD2" s="29" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1">
@@ -22180,49 +22330,49 @@
         <v>556</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="D4" s="100" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="E4" s="100" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="F4" s="100" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="H4" s="100" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="I4" s="56" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="100" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="K4" s="100" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="L4" s="100" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="M4" s="100" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="N4" s="100" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O4" s="100" t="s">
         <v>1076</v>
-      </c>
-      <c r="O4" s="100" t="s">
-        <v>1082</v>
       </c>
       <c r="P4" s="100">
         <v>32</v>
       </c>
       <c r="Q4" s="100" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="R4" s="100">
         <v>1</v>
@@ -22231,10 +22381,10 @@
         <v>64</v>
       </c>
       <c r="T4" s="100" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="U4" s="100" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="V4" s="100" t="s">
         <v>97</v>
@@ -22243,7 +22393,7 @@
       <c r="X4" s="100"/>
       <c r="Y4" s="100"/>
       <c r="Z4" s="101" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="AA4" s="100" t="s">
         <v>101</v>
@@ -22268,19 +22418,19 @@
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
       <c r="M5" s="56" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="O5" s="56" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="P5" s="56">
         <v>16</v>
       </c>
       <c r="Q5" s="56" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="R5" s="56">
         <v>2</v>
@@ -22290,7 +22440,7 @@
       </c>
       <c r="T5" s="56"/>
       <c r="U5" s="100" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="V5" s="56" t="s">
         <v>88</v>
@@ -22299,7 +22449,7 @@
       <c r="X5" s="56"/>
       <c r="Y5" s="56"/>
       <c r="Z5" s="55" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="AA5" s="56" t="s">
         <v>101</v>
@@ -22316,22 +22466,22 @@
         <v>556</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="F6" s="56" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="100" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="I6" s="56" t="b">
         <v>0</v>
@@ -22340,19 +22490,19 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
       <c r="M6" s="56" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="O6" s="56" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="P6" s="56">
         <v>32</v>
       </c>
       <c r="Q6" s="56" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="R6" s="56">
         <v>1</v>
@@ -22361,10 +22511,10 @@
         <v>64</v>
       </c>
       <c r="T6" s="100" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="U6" s="100" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="V6" s="56" t="s">
         <v>97</v>
@@ -22374,7 +22524,7 @@
       </c>
       <c r="X6" s="56"/>
       <c r="Y6" s="100" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="Z6" s="102"/>
       <c r="AA6" s="56" t="s">
@@ -22459,42 +22609,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
     <col min="5" max="6" width="19.1796875" customWidth="1"/>
     <col min="7" max="7" width="11.453125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
     <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.453125" customWidth="1"/>
     <col min="16" max="16" width="28.1796875" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
+      <c r="A1" s="118" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -22761,39 +22911,39 @@
     <col min="8" max="8" width="18.81640625" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" customWidth="1"/>
     <col min="10" max="10" width="11.81640625" customWidth="1"/>
-    <col min="11" max="12" width="14.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
-    <col min="15" max="15" width="23.7265625" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" customWidth="1"/>
+    <col min="11" max="12" width="14.6328125" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" customWidth="1"/>
+    <col min="15" max="15" width="23.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" customWidth="1"/>
     <col min="18" max="18" width="14.81640625" customWidth="1"/>
     <col min="22" max="22" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1">
-      <c r="A1" s="117" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="121"/>
+      <c r="A1" s="119" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="123"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1">
       <c r="A2" s="36" t="s">
@@ -22905,7 +23055,7 @@
         <v>166</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>167</v>
@@ -22965,7 +23115,7 @@
         <v>172</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="H5" s="55" t="s">
         <v>167</v>
@@ -23013,7 +23163,7 @@
         <v>175</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="H6" s="55" t="s">
         <v>167</v>
@@ -23117,29 +23267,29 @@
     <col min="8" max="9" width="12.453125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="122.25" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
+      <c r="A1" s="118" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -23380,10 +23530,10 @@
     <col min="2" max="2" width="8.81640625" customWidth="1"/>
     <col min="4" max="4" width="27.453125" customWidth="1"/>
     <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
     <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="19.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" customWidth="1"/>
     <col min="10" max="10" width="12.453125" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="13" max="13" width="15.1796875" customWidth="1"/>
@@ -23393,29 +23543,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>431</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="122" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="124" t="s">
         <v>443</v>
       </c>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="138"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="140"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -24025,7 +24175,7 @@
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
       <c r="J23" s="55" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
@@ -24107,21 +24257,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
     <col min="3" max="3" width="26.1796875" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="28.7265625" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="42" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -24257,41 +24407,41 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
     <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.453125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" customWidth="1"/>
+    <col min="9" max="10" width="8.6328125" customWidth="1"/>
     <col min="11" max="11" width="16.1796875" customWidth="1"/>
-    <col min="12" max="13" width="8.7265625" customWidth="1"/>
-    <col min="14" max="19" width="8.7265625" style="85"/>
+    <col min="12" max="13" width="8.6328125" customWidth="1"/>
+    <col min="14" max="19" width="8.6328125" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>825</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="121"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="123"/>
     </row>
     <row r="2" spans="1:13" ht="58" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -24797,18 +24947,18 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
     <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="42" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
+      <c r="A1" s="118" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
@@ -25059,33 +25209,33 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="10" width="12.26953125" customWidth="1"/>
+    <col min="3" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="10" width="12.36328125" customWidth="1"/>
     <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.7265625" customWidth="1"/>
+    <col min="12" max="15" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>825</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" ht="72.75" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -25282,24 +25432,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1">
-      <c r="A1" s="117" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="A1" s="119" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
     </row>
     <row r="2" spans="1:16" ht="43.5">
       <c r="A2" s="17" t="s">
@@ -25309,13 +25459,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>313</v>
@@ -25330,10 +25480,10 @@
         <v>729</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="L2" s="52" t="s">
         <v>734</v>
@@ -25379,14 +25529,14 @@
         <v>558</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>760</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="89" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="G4" s="55" t="s">
         <v>416</v>
@@ -25498,7 +25648,7 @@
     <col min="9" max="9" width="27.453125" customWidth="1"/>
     <col min="10" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" customWidth="1"/>
     <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23.1796875" customWidth="1"/>
@@ -25507,35 +25657,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="146.25" customHeight="1">
-      <c r="A1" s="117" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="121"/>
+      <c r="A1" s="119" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="123"/>
     </row>
     <row r="2" spans="1:27" s="50" customFormat="1" ht="43.5">
       <c r="A2" s="51" t="s">
@@ -28886,27 +29036,27 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1">
-      <c r="A1" s="117" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="A1" s="119" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="68" t="s">
@@ -28960,7 +29110,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="95" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="F4" s="56">
         <v>2</v>
@@ -29016,7 +29166,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -29025,7 +29175,7 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="106" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
@@ -29039,7 +29189,7 @@
     <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.1796875" style="54" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
@@ -29053,29 +29203,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="130" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
+      <c r="A1" s="132" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
       <c r="V1" s="73"/>
       <c r="W1" s="73"/>
       <c r="X1" s="73"/>
@@ -29116,16 +29266,16 @@
         <v>752</v>
       </c>
       <c r="K2" s="68" t="s">
-        <v>1345</v>
+        <v>1329</v>
       </c>
       <c r="L2" s="68" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
       <c r="M2" s="68" t="s">
-        <v>1347</v>
+        <v>1331</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>1348</v>
+        <v>1332</v>
       </c>
       <c r="O2" s="68" t="s">
         <v>753</v>
@@ -29221,7 +29371,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="95" t="s">
-        <v>1349</v>
+        <v>1333</v>
       </c>
       <c r="O4" s="95" t="b">
         <v>1</v>
@@ -29243,7 +29393,7 @@
     </row>
     <row r="11" spans="1:28">
       <c r="E11" s="1" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -29314,25 +29464,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="170.25" customHeight="1">
-      <c r="A1" s="139" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="140"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="141"/>
+      <c r="A1" s="141" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="143"/>
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" s="50" customFormat="1" ht="72.75" customHeight="1">
@@ -29343,43 +29493,43 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
       <c r="D2" s="111" t="s">
-        <v>1232</v>
+        <v>1218</v>
       </c>
       <c r="E2" s="111" t="s">
-        <v>1233</v>
+        <v>1219</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="G2" s="111" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>1237</v>
+        <v>1223</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="K2" s="113" t="s">
-        <v>1342</v>
+        <v>1326</v>
       </c>
       <c r="L2" s="114" t="s">
-        <v>1343</v>
+        <v>1327</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="P2" s="29" t="s">
         <v>93</v>
@@ -29449,71 +29599,71 @@
     <col min="2" max="2" width="10.453125" customWidth="1"/>
     <col min="3" max="3" width="19.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" customWidth="1"/>
     <col min="15" max="15" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1">
-      <c r="A1" s="130" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
+      <c r="A1" s="132" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
     </row>
     <row r="2" spans="1:15" s="42" customFormat="1" ht="43.5">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>1231</v>
       </c>
-      <c r="C2" s="111" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>1245</v>
-      </c>
       <c r="F2" s="29" t="s">
-        <v>1246</v>
+        <v>1232</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>1248</v>
+        <v>1234</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>1249</v>
+        <v>1235</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>1250</v>
+        <v>1236</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>1251</v>
+        <v>1237</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>1253</v>
+        <v>1239</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>1254</v>
+        <v>1240</v>
       </c>
       <c r="O2" s="50"/>
     </row>
@@ -29564,50 +29714,50 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="35" customWidth="1"/>
     <col min="3" max="3" width="12.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" style="35" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="38.26953125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="25.7265625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" style="35" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="38.36328125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="23.6328125" style="35" customWidth="1"/>
     <col min="13" max="13" width="13" style="35" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" style="34" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" style="34" customWidth="1"/>
     <col min="15" max="15" width="15.453125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" style="35" customWidth="1"/>
-    <col min="17" max="17" width="14.26953125" style="35" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" style="35" customWidth="1"/>
+    <col min="17" max="17" width="14.36328125" style="35" customWidth="1"/>
     <col min="18" max="18" width="12" style="35" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="35"/>
+    <col min="19" max="16384" width="8.6328125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="281.25" customHeight="1">
-      <c r="A1" s="142" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="144"/>
+      <c r="A1" s="144" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
     </row>
     <row r="2" spans="1:18" ht="43.5">
       <c r="A2" s="28" t="s">
@@ -29617,49 +29767,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>1252</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>1253</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>1254</v>
+      </c>
+      <c r="Q2" s="29" t="s">
         <v>1255</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>1259</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>1260</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>1262</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>1263</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>1264</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>1265</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>1266</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>1267</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>1268</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>1269</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>424</v>
@@ -29678,43 +29828,43 @@
         <v>556</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>1270</v>
+        <v>1256</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>1336</v>
+        <v>1320</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="M4" s="30" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>1278</v>
+        <v>1264</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
@@ -29727,40 +29877,40 @@
         <v>556</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>1270</v>
+        <v>1256</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>1336</v>
+        <v>1320</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>1298</v>
+        <v>1284</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
       <c r="M5" s="30" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
@@ -29774,22 +29924,22 @@
         <v>556</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="30"/>
@@ -29809,38 +29959,38 @@
         <v>556</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>1332</v>
+        <v>1316</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
       <c r="M7" s="30" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
@@ -29942,7 +30092,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
@@ -29952,7 +30102,7 @@
     <col min="8" max="8" width="15.81640625" customWidth="1"/>
     <col min="9" max="10" width="11.453125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29991,7 +30141,7 @@
         <v>728</v>
       </c>
       <c r="L1" s="46" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="M1" s="46"/>
     </row>
@@ -30090,7 +30240,7 @@
         <v>448</v>
       </c>
       <c r="L4" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -30112,7 +30262,7 @@
         <v>449</v>
       </c>
       <c r="L5" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -30227,7 +30377,7 @@
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="F12" s="35"/>
       <c r="H12" s="35" t="s">
@@ -30244,7 +30394,7 @@
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="F13" s="35"/>
       <c r="H13" s="35" t="s">
@@ -30756,7 +30906,7 @@
     <col min="2" max="2" width="35.1796875" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31072,7 +31222,7 @@
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="156.75" customHeight="1"/>
@@ -31080,41 +31230,41 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" customWidth="1"/>
-    <col min="5" max="6" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="6" width="23.6328125" customWidth="1"/>
     <col min="7" max="7" width="23.81640625" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="42" customFormat="1" ht="163" customHeight="1">
-      <c r="A1" s="117" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+    <row r="1" spans="1:7" s="42" customFormat="1" ht="156.75" customHeight="1">
+      <c r="A1" s="119" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
     </row>
     <row r="2" spans="1:7" ht="14.5">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1354</v>
+        <v>1338</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>424</v>
@@ -32047,23 +32197,23 @@
       <selection activeCell="AW20" sqref="AW20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="28.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.1796875" style="66" customWidth="1"/>
     <col min="5" max="5" width="38.453125" style="66" customWidth="1"/>
     <col min="6" max="6" width="26" style="66" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" style="66" customWidth="1"/>
     <col min="8" max="8" width="11.1796875" style="66" customWidth="1"/>
-    <col min="9" max="9" width="24.7265625" style="66" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" style="66" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" style="66" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="66" customWidth="1"/>
     <col min="11" max="11" width="33.81640625" style="66" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" style="66" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.453125" style="66" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.453125" style="66" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="66" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" style="66" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" style="66" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" style="66" customWidth="1"/>
     <col min="17" max="17" width="29.81640625" style="66" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.81640625" style="66" customWidth="1"/>
     <col min="19" max="19" width="9.453125" style="66" bestFit="1" customWidth="1"/>
@@ -32071,26 +32221,26 @@
     <col min="21" max="21" width="11" style="66" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" style="66" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="18" style="66" customWidth="1"/>
-    <col min="26" max="26" width="21.26953125" style="66" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.36328125" style="66" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.81640625" style="66" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.453125" style="66" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.81640625" style="66" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18" style="66" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.1796875" style="66" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.7265625" style="66" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.6328125" style="66" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="30.1796875" style="66" customWidth="1"/>
     <col min="34" max="34" width="15.453125" style="66" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="44.453125" style="66" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="22.1796875" style="66" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.26953125" style="66" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.36328125" style="66" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="28.1796875" style="66" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16.1796875" style="66" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.1796875" style="66" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="17.1796875" style="66" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.26953125" style="66" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="28.26953125" style="66"/>
-    <col min="47" max="47" width="33.26953125" style="66" customWidth="1"/>
-    <col min="48" max="16384" width="28.26953125" style="66"/>
+    <col min="42" max="42" width="12.36328125" style="66" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="28.36328125" style="66"/>
+    <col min="47" max="47" width="33.36328125" style="66" customWidth="1"/>
+    <col min="48" max="16384" width="28.36328125" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="59" customFormat="1" ht="148" customHeight="1">
@@ -32104,25 +32254,25 @@
         <v>669</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>1338</v>
+        <v>1322</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="H1" s="67" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="I1" s="67" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>1292</v>
+        <v>1278</v>
       </c>
       <c r="K1" s="67" t="s">
         <v>671</v>
@@ -32221,22 +32371,22 @@
         <v>315</v>
       </c>
       <c r="AQ1" s="58" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="AR1" s="58" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AS1" s="58" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="AT1" s="58" t="s">
-        <v>1339</v>
+        <v>1323</v>
       </c>
       <c r="AU1" s="58" t="s">
         <v>670</v>
       </c>
       <c r="AV1" s="58" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="60" customFormat="1">
@@ -32282,7 +32432,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="M2" s="61" t="s">
         <v>38</v>
@@ -32379,13 +32529,13 @@
         <v>317</v>
       </c>
       <c r="AQ2" s="60" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="AR2" s="60" t="b">
         <v>0</v>
       </c>
       <c r="AS2" s="60" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="AT2" s="60" t="str" cm="1">
         <f t="array" aca="1" ref="AT2:AT5" ca="1">_xlfn.UNIQUE(INDIRECT("B2:B"&amp;$G$5),FALSE,FALSE)</f>
@@ -32533,13 +32683,13 @@
         <v>318</v>
       </c>
       <c r="AQ3" s="60" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="AR3" s="60" t="b">
         <v>1</v>
       </c>
       <c r="AS3" s="60" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="AT3" s="60" t="str">
         <f ca="1"/>
@@ -32663,7 +32813,7 @@
         <v>32</v>
       </c>
       <c r="AS4" s="60" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="AT4" s="60" t="str">
         <f ca="1"/>
@@ -32715,7 +32865,7 @@
       </c>
       <c r="K5" s="61"/>
       <c r="L5" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="M5" s="61"/>
       <c r="N5" s="61" t="s">
@@ -32817,7 +32967,7 @@
       </c>
       <c r="K6" s="61"/>
       <c r="L6" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
@@ -33155,7 +33305,7 @@
       </c>
       <c r="K10" s="61"/>
       <c r="L10" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="M10" s="61"/>
       <c r="N10" s="61"/>
@@ -33239,7 +33389,7 @@
       </c>
       <c r="K11" s="61"/>
       <c r="L11" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="M11" s="61"/>
       <c r="N11" s="61"/>
@@ -33319,7 +33469,7 @@
       </c>
       <c r="K12" s="61"/>
       <c r="L12" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="M12" s="61"/>
       <c r="N12" s="61"/>
@@ -33393,7 +33543,7 @@
       </c>
       <c r="K13" s="61"/>
       <c r="L13" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="M13" s="61"/>
       <c r="N13" s="61"/>
@@ -33467,7 +33617,7 @@
       </c>
       <c r="K14" s="61"/>
       <c r="L14" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="M14" s="61"/>
       <c r="N14" s="61"/>
@@ -33689,7 +33839,7 @@
       </c>
       <c r="K17" s="61"/>
       <c r="L17" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="M17" s="61"/>
       <c r="N17" s="61"/>
@@ -33763,7 +33913,7 @@
       </c>
       <c r="K18" s="61"/>
       <c r="L18" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="M18" s="61"/>
       <c r="N18" s="61"/>
@@ -33837,7 +33987,7 @@
       </c>
       <c r="K19" s="61"/>
       <c r="L19" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="M19" s="61"/>
       <c r="N19" s="61"/>
@@ -33985,7 +34135,7 @@
       </c>
       <c r="K21" s="61"/>
       <c r="L21" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="M21" s="61"/>
       <c r="N21" s="61"/>
@@ -34059,7 +34209,7 @@
       </c>
       <c r="K22" s="61"/>
       <c r="L22" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="M22" s="61"/>
       <c r="N22" s="61"/>
@@ -34133,7 +34283,7 @@
       </c>
       <c r="K23" s="61"/>
       <c r="L23" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="M23" s="61"/>
       <c r="N23" s="61"/>
@@ -34281,7 +34431,7 @@
       </c>
       <c r="K25" s="61"/>
       <c r="L25" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="M25" s="61"/>
       <c r="N25" s="61"/>
@@ -34577,7 +34727,7 @@
       </c>
       <c r="K29" s="61"/>
       <c r="L29" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="M29" s="61"/>
       <c r="N29" s="61"/>
@@ -34725,7 +34875,7 @@
       </c>
       <c r="K31" s="61"/>
       <c r="L31" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="M31" s="61"/>
       <c r="N31" s="61"/>
@@ -34799,7 +34949,7 @@
       </c>
       <c r="K32" s="61"/>
       <c r="L32" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="M32" s="61"/>
       <c r="N32" s="61"/>
@@ -34947,7 +35097,7 @@
       </c>
       <c r="K34" s="61"/>
       <c r="L34" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="M34" s="61"/>
       <c r="N34" s="61"/>
@@ -35095,7 +35245,7 @@
       </c>
       <c r="K36" s="61"/>
       <c r="L36" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="M36" s="61"/>
       <c r="N36" s="61"/>
@@ -35169,7 +35319,7 @@
       </c>
       <c r="K37" s="61"/>
       <c r="L37" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="M37" s="61"/>
       <c r="N37" s="61"/>
@@ -38278,7 +38428,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.1796875" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="66" customWidth="1"/>
@@ -38293,10 +38443,10 @@
         <v>721</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -38789,18 +38939,18 @@
     <col min="3" max="3" width="17.1796875" customWidth="1"/>
     <col min="4" max="4" width="22.81640625" customWidth="1"/>
     <col min="5" max="5" width="25.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="42" customFormat="1" ht="134.25" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="120"/>
+      <c r="A1" s="118" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="122"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
@@ -38813,10 +38963,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>424</v>
@@ -38845,34 +38995,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
     <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="49.26953125" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" customWidth="1"/>
     <col min="6" max="7" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="42" customFormat="1" ht="112" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+    <row r="1" spans="1:8" s="42" customFormat="1" ht="102.75" customHeight="1">
+      <c r="A1" s="118" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1">
       <c r="A2" s="5" t="s">
@@ -38914,7 +39064,7 @@
         <v>643</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -38926,7 +39076,7 @@
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -39210,7 +39360,7 @@
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34" t="s">
-        <v>890</v>
+        <v>1340</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -39222,7 +39372,7 @@
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34" t="s">
-        <v>891</v>
+        <v>1341</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -39234,7 +39384,7 @@
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34" t="s">
-        <v>892</v>
+        <v>1342</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -39246,7 +39396,7 @@
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="34" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -39258,7 +39408,7 @@
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -39270,7 +39420,7 @@
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
@@ -39282,7 +39432,7 @@
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
@@ -39294,7 +39444,7 @@
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34" t="s">
-        <v>897</v>
+        <v>1343</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
@@ -39306,7 +39456,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
@@ -39318,7 +39468,7 @@
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="34" t="s">
-        <v>899</v>
+        <v>1344</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -39330,7 +39480,7 @@
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
@@ -39342,7 +39492,7 @@
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
       <c r="E38" s="34" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
@@ -39354,7 +39504,7 @@
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
       <c r="E39" s="34" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
@@ -39366,7 +39516,7 @@
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
       <c r="E40" s="34" t="s">
-        <v>1125</v>
+        <v>898</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
@@ -39378,31 +39528,31 @@
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
       <c r="E41" s="34" t="s">
-        <v>1126</v>
+        <v>1345</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
       <c r="H41" s="34"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="29">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
       <c r="E42" s="34" t="s">
-        <v>1127</v>
+        <v>899</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="29">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
-        <v>1128</v>
+        <v>900</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -39414,7 +39564,7 @@
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -39426,39 +39576,39 @@
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
     </row>
-    <row r="46" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A46" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="78" t="s">
-        <v>577</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>578</v>
-      </c>
+    <row r="46" spans="1:8">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="34" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+    <row r="47" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A47" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="78" t="s">
+        <v>577</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>578</v>
+      </c>
       <c r="E47" s="34" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -39470,7 +39620,7 @@
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
       <c r="E48" s="34" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -39482,7 +39632,7 @@
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
       <c r="E49" s="34" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="34"/>
@@ -39494,7 +39644,7 @@
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
       <c r="E50" s="34" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
@@ -39506,7 +39656,7 @@
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
       <c r="E51" s="34" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
@@ -39518,19 +39668,19 @@
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
       <c r="H52" s="34"/>
     </row>
-    <row r="53" spans="1:8" ht="29.25" customHeight="1">
+    <row r="53" spans="1:8">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
       <c r="E53" s="34" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
@@ -39542,7 +39692,7 @@
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
       <c r="E54" s="34" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
@@ -39554,7 +39704,7 @@
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -39566,19 +39716,19 @@
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
       <c r="E56" s="34" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
       <c r="H56" s="34"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" ht="29.25" customHeight="1">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
       <c r="E57" s="34" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
@@ -39590,7 +39740,7 @@
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
@@ -39602,7 +39752,7 @@
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
       <c r="E59" s="34" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
@@ -39614,7 +39764,7 @@
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
@@ -39626,7 +39776,7 @@
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
@@ -39638,127 +39788,119 @@
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
     </row>
-    <row r="63" spans="1:8" ht="29">
-      <c r="A63" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>661</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>1148</v>
-      </c>
+    <row r="63" spans="1:8">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="34" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
+    <row r="64" spans="1:8" ht="29">
+      <c r="A64" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>661</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>1139</v>
+      </c>
       <c r="E64" s="34" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
     </row>
-    <row r="65" spans="1:8" ht="203">
+    <row r="65" spans="1:8">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="203">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
       <c r="H66" s="34"/>
     </row>
-    <row r="67" spans="1:8" ht="58">
-      <c r="A67" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>903</v>
-      </c>
+    <row r="67" spans="1:8">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="34" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
     </row>
-    <row r="68" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
+    <row r="68" spans="1:8" ht="58">
+      <c r="A68" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>901</v>
+      </c>
       <c r="E68" s="34" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="29">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
       <c r="E69" s="34" t="s">
-        <v>1155</v>
+        <v>1346</v>
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
     </row>
-    <row r="70" spans="1:8" ht="87" customHeight="1">
-      <c r="A70" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="78" t="s">
-        <v>579</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>904</v>
-      </c>
+    <row r="70" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="34" t="s">
-        <v>905</v>
+        <v>1145</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
@@ -39770,7 +39912,7 @@
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34" t="s">
-        <v>906</v>
+        <v>1347</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
@@ -39782,7 +39924,7 @@
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
       <c r="E72" s="34" t="s">
-        <v>907</v>
+        <v>1348</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
@@ -39794,7 +39936,7 @@
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
-        <v>908</v>
+        <v>1349</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
@@ -39806,67 +39948,75 @@
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34" t="s">
-        <v>909</v>
+        <v>1350</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
     </row>
-    <row r="75" spans="1:8" ht="29">
+    <row r="75" spans="1:8" ht="29.25" customHeight="1">
       <c r="A75" s="34"/>
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34" t="s">
-        <v>910</v>
+        <v>1351</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
       <c r="H75" s="34"/>
     </row>
-    <row r="76" spans="1:8" ht="29.25" customHeight="1">
+    <row r="76" spans="1:8">
       <c r="A76" s="34"/>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34" t="s">
-        <v>911</v>
+        <v>1146</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
     </row>
-    <row r="77" spans="1:8" ht="29.25" customHeight="1">
+    <row r="77" spans="1:8" ht="29">
       <c r="A77" s="34"/>
       <c r="B77" s="34"/>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34" t="s">
-        <v>912</v>
-      </c>
-      <c r="F77" s="34"/>
+        <v>1352</v>
+      </c>
+      <c r="F77" s="117"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
     </row>
-    <row r="78" spans="1:8" ht="72.5">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
+    <row r="78" spans="1:8" ht="87" customHeight="1">
+      <c r="A78" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="78" t="s">
+        <v>579</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>902</v>
+      </c>
       <c r="E78" s="34" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
     </row>
-    <row r="79" spans="1:8" ht="101.5">
+    <row r="79" spans="1:8" ht="29.25" customHeight="1">
       <c r="A79" s="34"/>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
@@ -39878,7 +40028,7 @@
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
@@ -39890,7 +40040,7 @@
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
       <c r="E81" s="34" t="s">
-        <v>916</v>
+        <v>1353</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
@@ -39902,7 +40052,7 @@
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
       <c r="E82" s="34" t="s">
-        <v>917</v>
+        <v>1354</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
@@ -39914,7 +40064,7 @@
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
       <c r="E83" s="34" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
@@ -39926,139 +40076,139 @@
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="E84" s="34" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
       <c r="H84" s="34"/>
     </row>
-    <row r="85" spans="1:8" ht="29.25" customHeight="1">
+    <row r="85" spans="1:8" ht="29">
       <c r="A85" s="34"/>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
       <c r="E85" s="34" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
       <c r="H85" s="34"/>
     </row>
-    <row r="86" spans="1:8" ht="29">
+    <row r="86" spans="1:8" ht="29.25" customHeight="1">
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="E86" s="34" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
     </row>
-    <row r="87" spans="1:8" ht="29">
+    <row r="87" spans="1:8" ht="29.25" customHeight="1">
       <c r="A87" s="34"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
       <c r="E87" s="34" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
     </row>
-    <row r="88" spans="1:8" ht="29">
+    <row r="88" spans="1:8" ht="72.5">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
       <c r="E88" s="34" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
       <c r="H88" s="34"/>
     </row>
-    <row r="89" spans="1:8" ht="29">
+    <row r="89" spans="1:8" ht="101.5">
       <c r="A89" s="34"/>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
       <c r="E89" s="34" t="s">
-        <v>1306</v>
+        <v>912</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
       <c r="H89" s="34"/>
     </row>
-    <row r="90" spans="1:8" ht="29">
+    <row r="90" spans="1:8" ht="29.25" customHeight="1">
       <c r="A90" s="34"/>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="34" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
       <c r="H90" s="34"/>
     </row>
-    <row r="91" spans="1:8" ht="29">
+    <row r="91" spans="1:8" ht="29.25" customHeight="1">
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
       <c r="E91" s="34" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
     </row>
-    <row r="92" spans="1:8" ht="29">
+    <row r="92" spans="1:8" ht="29.25" customHeight="1">
       <c r="A92" s="34"/>
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
       <c r="E92" s="34" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
       <c r="H92" s="34"/>
     </row>
-    <row r="93" spans="1:8" ht="29">
+    <row r="93" spans="1:8" ht="29.25" customHeight="1">
       <c r="A93" s="34"/>
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
       <c r="E93" s="34" t="s">
-        <v>1307</v>
+        <v>916</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
       <c r="H93" s="34"/>
     </row>
-    <row r="94" spans="1:8" ht="29">
+    <row r="94" spans="1:8" ht="29.25" customHeight="1">
       <c r="A94" s="34"/>
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
       <c r="E94" s="34" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
       <c r="H94" s="34"/>
     </row>
-    <row r="95" spans="1:8" ht="29">
+    <row r="95" spans="1:8" ht="29.25" customHeight="1">
       <c r="A95" s="34"/>
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
       <c r="E95" s="34" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
@@ -40070,7 +40220,7 @@
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
       <c r="E96" s="34" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
@@ -40082,7 +40232,7 @@
       <c r="C97" s="34"/>
       <c r="D97" s="34"/>
       <c r="E97" s="34" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
@@ -40094,7 +40244,7 @@
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
       <c r="E98" s="34" t="s">
-        <v>1308</v>
+        <v>921</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="34"/>
@@ -40106,7 +40256,7 @@
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
       <c r="E99" s="34" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
@@ -40118,7 +40268,7 @@
       <c r="C100" s="34"/>
       <c r="D100" s="34"/>
       <c r="E100" s="34" t="s">
-        <v>932</v>
+        <v>1355</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="34"/>
@@ -40130,7 +40280,7 @@
       <c r="C101" s="34"/>
       <c r="D101" s="34"/>
       <c r="E101" s="34" t="s">
-        <v>1156</v>
+        <v>1356</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="34"/>
@@ -40142,7 +40292,7 @@
       <c r="C102" s="34"/>
       <c r="D102" s="34"/>
       <c r="E102" s="34" t="s">
-        <v>1157</v>
+        <v>1357</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
@@ -40154,27 +40304,19 @@
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
       <c r="E103" s="34" t="s">
-        <v>933</v>
+        <v>1358</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
       <c r="H103" s="34"/>
     </row>
-    <row r="104" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A104" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="78" t="s">
-        <v>580</v>
-      </c>
-      <c r="C104" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D104" s="34" t="s">
-        <v>581</v>
-      </c>
-      <c r="E104" s="78" t="s">
-        <v>1158</v>
+    <row r="104" spans="1:8" ht="29">
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34" t="s">
+        <v>923</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
@@ -40185,56 +40327,56 @@
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
-      <c r="E105" s="78" t="s">
-        <v>1159</v>
+      <c r="E105" s="34" t="s">
+        <v>924</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
       <c r="H105" s="34"/>
     </row>
-    <row r="106" spans="1:8" ht="29.25" customHeight="1">
+    <row r="106" spans="1:8" ht="29">
       <c r="A106" s="34"/>
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
       <c r="E106" s="34" t="s">
-        <v>934</v>
+        <v>1292</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
       <c r="H106" s="34"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" ht="29">
       <c r="A107" s="34"/>
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
       <c r="D107" s="34"/>
       <c r="E107" s="34" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="34"/>
       <c r="H107" s="34"/>
     </row>
-    <row r="108" spans="1:8" ht="29.25" customHeight="1">
+    <row r="108" spans="1:8" ht="29">
       <c r="A108" s="34"/>
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
       <c r="E108" s="34" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="34"/>
       <c r="H108" s="34"/>
     </row>
-    <row r="109" spans="1:8" ht="43.5">
+    <row r="109" spans="1:8" ht="29">
       <c r="A109" s="34"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
       <c r="E109" s="34" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
@@ -40246,43 +40388,43 @@
       <c r="C110" s="34"/>
       <c r="D110" s="34"/>
       <c r="E110" s="34" t="s">
-        <v>938</v>
+        <v>1359</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="34"/>
       <c r="H110" s="34"/>
     </row>
-    <row r="111" spans="1:8" ht="58">
+    <row r="111" spans="1:8" ht="29">
       <c r="A111" s="34"/>
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
       <c r="E111" s="34" t="s">
-        <v>1160</v>
+        <v>1360</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
       <c r="H111" s="34"/>
     </row>
-    <row r="112" spans="1:8" ht="29.25" customHeight="1">
+    <row r="112" spans="1:8" ht="29">
       <c r="A112" s="34"/>
       <c r="B112" s="34"/>
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="E112" s="34" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
       <c r="H112" s="34"/>
     </row>
-    <row r="113" spans="1:8" ht="29.25" customHeight="1">
+    <row r="113" spans="1:8" ht="29">
       <c r="A113" s="34"/>
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
       <c r="E113" s="34" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
@@ -40294,43 +40436,43 @@
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
       <c r="E114" s="34" t="s">
-        <v>941</v>
+        <v>1361</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
       <c r="H114" s="34"/>
     </row>
-    <row r="115" spans="1:8" ht="29.25" customHeight="1">
+    <row r="115" spans="1:8" ht="29">
       <c r="A115" s="34"/>
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
       <c r="E115" s="34" t="s">
-        <v>942</v>
+        <v>1362</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
       <c r="H115" s="34"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" ht="29">
       <c r="A116" s="34"/>
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
       <c r="D116" s="34"/>
       <c r="E116" s="34" t="s">
-        <v>943</v>
+        <v>919</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
       <c r="H116" s="34"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" ht="29">
       <c r="A117" s="34"/>
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
       <c r="E117" s="34" t="s">
-        <v>944</v>
+        <v>1363</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
@@ -40342,7 +40484,7 @@
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
       <c r="E118" s="34" t="s">
-        <v>945</v>
+        <v>1364</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="34"/>
@@ -40354,7 +40496,7 @@
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
       <c r="E119" s="34" t="s">
-        <v>946</v>
+        <v>1365</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="34"/>
@@ -40366,51 +40508,51 @@
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
       <c r="E120" s="34" t="s">
-        <v>947</v>
+        <v>1366</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
       <c r="H120" s="34"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" ht="29">
       <c r="A121" s="34"/>
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
       <c r="D121" s="34"/>
       <c r="E121" s="34" t="s">
-        <v>948</v>
+        <v>922</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="34"/>
       <c r="H121" s="34"/>
     </row>
-    <row r="122" spans="1:8" ht="29">
-      <c r="A122" s="34"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34" t="s">
-        <v>949</v>
+    <row r="122" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A122" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="78" t="s">
+        <v>580</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="E122" s="78" t="s">
+        <v>1147</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="34"/>
       <c r="H122" s="34"/>
     </row>
-    <row r="123" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A123" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="78" t="s">
-        <v>582</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D123" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="E123" s="34" t="s">
-        <v>950</v>
+    <row r="123" spans="1:8" ht="29">
+      <c r="A123" s="34"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="78" t="s">
+        <v>1148</v>
       </c>
       <c r="F123" s="34"/>
       <c r="G123" s="34"/>
@@ -40422,31 +40564,31 @@
       <c r="C124" s="34"/>
       <c r="D124" s="34"/>
       <c r="E124" s="34" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="34"/>
       <c r="H124" s="34"/>
     </row>
-    <row r="125" spans="1:8" ht="29.25" customHeight="1">
+    <row r="125" spans="1:8" ht="188.5">
       <c r="A125" s="34"/>
       <c r="B125" s="34"/>
       <c r="C125" s="34"/>
       <c r="D125" s="34"/>
       <c r="E125" s="34" t="s">
-        <v>952</v>
+        <v>1367</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="34"/>
       <c r="H125" s="34"/>
     </row>
-    <row r="126" spans="1:8" ht="29.25" customHeight="1">
+    <row r="126" spans="1:8">
       <c r="A126" s="34"/>
       <c r="B126" s="34"/>
       <c r="C126" s="34"/>
       <c r="D126" s="34"/>
       <c r="E126" s="34" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="F126" s="34"/>
       <c r="G126" s="34"/>
@@ -40458,43 +40600,43 @@
       <c r="C127" s="34"/>
       <c r="D127" s="34"/>
       <c r="E127" s="34" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="F127" s="34"/>
       <c r="G127" s="34"/>
       <c r="H127" s="34"/>
     </row>
-    <row r="128" spans="1:8" ht="29.25" customHeight="1">
+    <row r="128" spans="1:8" ht="43.5">
       <c r="A128" s="34"/>
       <c r="B128" s="34"/>
       <c r="C128" s="34"/>
       <c r="D128" s="34"/>
       <c r="E128" s="34" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="34"/>
       <c r="H128" s="34"/>
     </row>
-    <row r="129" spans="1:8" ht="29.25" customHeight="1">
+    <row r="129" spans="1:8" ht="29">
       <c r="A129" s="34"/>
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
       <c r="D129" s="34"/>
       <c r="E129" s="34" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="34"/>
       <c r="H129" s="34"/>
     </row>
-    <row r="130" spans="1:8" ht="29.25" customHeight="1">
+    <row r="130" spans="1:8" ht="58">
       <c r="A130" s="34"/>
       <c r="B130" s="34"/>
       <c r="C130" s="34"/>
       <c r="D130" s="34"/>
       <c r="E130" s="34" t="s">
-        <v>957</v>
+        <v>1149</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="34"/>
@@ -40506,19 +40648,19 @@
       <c r="C131" s="34"/>
       <c r="D131" s="34"/>
       <c r="E131" s="34" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="34"/>
       <c r="H131" s="34"/>
     </row>
-    <row r="132" spans="1:8" ht="29">
+    <row r="132" spans="1:8" ht="29.25" customHeight="1">
       <c r="A132" s="34"/>
       <c r="B132" s="34"/>
       <c r="C132" s="34"/>
       <c r="D132" s="34"/>
       <c r="E132" s="34" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
       <c r="F132" s="34"/>
       <c r="G132" s="34"/>
@@ -40530,91 +40672,91 @@
       <c r="C133" s="34"/>
       <c r="D133" s="34"/>
       <c r="E133" s="34" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="34"/>
       <c r="H133" s="34"/>
     </row>
-    <row r="134" spans="1:8" ht="29">
+    <row r="134" spans="1:8" ht="29.25" customHeight="1">
       <c r="A134" s="34"/>
       <c r="B134" s="34"/>
       <c r="C134" s="34"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="34"/>
       <c r="H134" s="34"/>
     </row>
-    <row r="135" spans="1:8" ht="29">
+    <row r="135" spans="1:8">
       <c r="A135" s="34"/>
       <c r="B135" s="34"/>
       <c r="C135" s="34"/>
       <c r="D135" s="34"/>
       <c r="E135" s="34" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="34"/>
       <c r="H135" s="34"/>
     </row>
-    <row r="136" spans="1:8" ht="72.5">
+    <row r="136" spans="1:8">
       <c r="A136" s="34"/>
       <c r="B136" s="34"/>
       <c r="C136" s="34"/>
       <c r="D136" s="34"/>
       <c r="E136" s="34" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="34"/>
       <c r="H136" s="34"/>
     </row>
-    <row r="137" spans="1:8" ht="58">
+    <row r="137" spans="1:8" ht="29">
       <c r="A137" s="34"/>
       <c r="B137" s="34"/>
       <c r="C137" s="34"/>
       <c r="D137" s="34"/>
       <c r="E137" s="34" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="34"/>
       <c r="H137" s="34"/>
     </row>
-    <row r="138" spans="1:8" ht="105.75" customHeight="1">
+    <row r="138" spans="1:8" ht="29">
       <c r="A138" s="34"/>
       <c r="B138" s="34"/>
       <c r="C138" s="34"/>
       <c r="D138" s="34"/>
       <c r="E138" s="34" t="s">
-        <v>965</v>
+        <v>942</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="34"/>
       <c r="H138" s="34"/>
     </row>
-    <row r="139" spans="1:8" ht="29">
+    <row r="139" spans="1:8">
       <c r="A139" s="34"/>
       <c r="B139" s="34"/>
       <c r="C139" s="34"/>
       <c r="D139" s="34"/>
       <c r="E139" s="34" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="34"/>
       <c r="H139" s="34"/>
     </row>
-    <row r="140" spans="1:8" ht="29">
+    <row r="140" spans="1:8">
       <c r="A140" s="34"/>
       <c r="B140" s="34"/>
       <c r="C140" s="34"/>
       <c r="D140" s="34"/>
       <c r="E140" s="34" t="s">
-        <v>967</v>
+        <v>944</v>
       </c>
       <c r="F140" s="34"/>
       <c r="G140" s="34"/>
@@ -40626,123 +40768,123 @@
       <c r="C141" s="34"/>
       <c r="D141" s="34"/>
       <c r="E141" s="34" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F141" s="34"/>
       <c r="G141" s="34"/>
       <c r="H141" s="34"/>
     </row>
-    <row r="142" spans="1:8" ht="29">
-      <c r="A142" s="34"/>
-      <c r="B142" s="34"/>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
+    <row r="142" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A142" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="78" t="s">
+        <v>582</v>
+      </c>
+      <c r="C142" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D142" s="34" t="s">
+        <v>583</v>
+      </c>
       <c r="E142" s="34" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="F142" s="34"/>
       <c r="G142" s="34"/>
       <c r="H142" s="34"/>
     </row>
-    <row r="143" spans="1:8" ht="29">
+    <row r="143" spans="1:8" ht="29.25" customHeight="1">
       <c r="A143" s="34"/>
       <c r="B143" s="34"/>
       <c r="C143" s="34"/>
       <c r="D143" s="34"/>
       <c r="E143" s="34" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="F143" s="34"/>
       <c r="G143" s="34"/>
       <c r="H143" s="34"/>
     </row>
-    <row r="144" spans="1:8" ht="29">
+    <row r="144" spans="1:8" ht="29.25" customHeight="1">
       <c r="A144" s="34"/>
       <c r="B144" s="34"/>
       <c r="C144" s="34"/>
       <c r="D144" s="34"/>
       <c r="E144" s="34" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="F144" s="34"/>
       <c r="G144" s="34"/>
       <c r="H144" s="34"/>
     </row>
-    <row r="145" spans="1:8" ht="29">
+    <row r="145" spans="1:8" ht="29.25" customHeight="1">
       <c r="A145" s="34"/>
       <c r="B145" s="34"/>
       <c r="C145" s="34"/>
       <c r="D145" s="34"/>
       <c r="E145" s="34" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="F145" s="34"/>
       <c r="G145" s="34"/>
       <c r="H145" s="34"/>
     </row>
-    <row r="146" spans="1:8" ht="29">
+    <row r="146" spans="1:8" ht="29.25" customHeight="1">
       <c r="A146" s="34"/>
       <c r="B146" s="34"/>
       <c r="C146" s="34"/>
       <c r="D146" s="34"/>
       <c r="E146" s="34" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="F146" s="34"/>
       <c r="G146" s="34"/>
       <c r="H146" s="34"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" ht="29.25" customHeight="1">
       <c r="A147" s="34"/>
       <c r="B147" s="34"/>
       <c r="C147" s="34"/>
       <c r="D147" s="34"/>
       <c r="E147" s="34" t="s">
-        <v>1161</v>
+        <v>951</v>
       </c>
       <c r="F147" s="34"/>
       <c r="G147" s="34"/>
       <c r="H147" s="34"/>
     </row>
-    <row r="148" spans="1:8" ht="29">
+    <row r="148" spans="1:8" ht="29.25" customHeight="1">
       <c r="A148" s="34"/>
       <c r="B148" s="34"/>
       <c r="C148" s="34"/>
       <c r="D148" s="34"/>
       <c r="E148" s="34" t="s">
-        <v>1162</v>
+        <v>952</v>
       </c>
       <c r="F148" s="34"/>
       <c r="G148" s="34"/>
       <c r="H148" s="34"/>
     </row>
-    <row r="149" spans="1:8" ht="29">
+    <row r="149" spans="1:8" ht="29.25" customHeight="1">
       <c r="A149" s="34"/>
       <c r="B149" s="34"/>
       <c r="C149" s="34"/>
       <c r="D149" s="34"/>
       <c r="E149" s="34" t="s">
-        <v>1163</v>
+        <v>953</v>
       </c>
       <c r="F149" s="34"/>
       <c r="G149" s="34"/>
       <c r="H149" s="34"/>
     </row>
-    <row r="150" spans="1:8" ht="43.5">
-      <c r="A150" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="34" t="s">
-        <v>755</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D150" s="34" t="s">
-        <v>756</v>
-      </c>
-      <c r="E150" s="103" t="s">
-        <v>1164</v>
+    <row r="150" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A150" s="34"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="34"/>
+      <c r="D150" s="34"/>
+      <c r="E150" s="34" t="s">
+        <v>954</v>
       </c>
       <c r="F150" s="34"/>
       <c r="G150" s="34"/>
@@ -40754,7 +40896,7 @@
       <c r="C151" s="34"/>
       <c r="D151" s="34"/>
       <c r="E151" s="34" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="F151" s="34"/>
       <c r="G151" s="34"/>
@@ -40766,7 +40908,7 @@
       <c r="C152" s="34"/>
       <c r="D152" s="34"/>
       <c r="E152" s="34" t="s">
-        <v>1165</v>
+        <v>956</v>
       </c>
       <c r="F152" s="34"/>
       <c r="G152" s="34"/>
@@ -40778,303 +40920,311 @@
       <c r="C153" s="34"/>
       <c r="D153" s="34"/>
       <c r="E153" s="34" t="s">
-        <v>1166</v>
+        <v>957</v>
       </c>
       <c r="F153" s="34"/>
       <c r="G153" s="34"/>
       <c r="H153" s="34"/>
     </row>
-    <row r="154" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A154" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="78" t="s">
-        <v>584</v>
-      </c>
-      <c r="C154" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D154" s="34" t="s">
-        <v>585</v>
-      </c>
+    <row r="154" spans="1:8" ht="29">
+      <c r="A154" s="34"/>
+      <c r="B154" s="34"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="34"/>
       <c r="E154" s="34" t="s">
-        <v>1167</v>
+        <v>958</v>
       </c>
       <c r="F154" s="34"/>
       <c r="G154" s="34"/>
       <c r="H154" s="34"/>
     </row>
-    <row r="155" spans="1:8" ht="29.25" customHeight="1">
+    <row r="155" spans="1:8" ht="72.5">
       <c r="A155" s="34"/>
       <c r="B155" s="34"/>
       <c r="C155" s="34"/>
       <c r="D155" s="34"/>
       <c r="E155" s="34" t="s">
-        <v>1168</v>
+        <v>959</v>
       </c>
       <c r="F155" s="34"/>
       <c r="G155" s="34"/>
       <c r="H155" s="34"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" ht="58">
       <c r="A156" s="34"/>
       <c r="B156" s="34"/>
       <c r="C156" s="34"/>
       <c r="D156" s="34"/>
       <c r="E156" s="34" t="s">
-        <v>1169</v>
+        <v>960</v>
       </c>
       <c r="F156" s="34"/>
       <c r="G156" s="34"/>
       <c r="H156" s="34"/>
     </row>
-    <row r="157" spans="1:8" ht="29.25" customHeight="1">
+    <row r="157" spans="1:8" ht="105.75" customHeight="1">
       <c r="A157" s="34"/>
       <c r="B157" s="34"/>
       <c r="C157" s="34"/>
       <c r="D157" s="34"/>
       <c r="E157" s="34" t="s">
-        <v>1170</v>
+        <v>961</v>
       </c>
       <c r="F157" s="34"/>
       <c r="G157" s="34"/>
       <c r="H157" s="34"/>
     </row>
-    <row r="158" spans="1:8" ht="29.25" customHeight="1">
+    <row r="158" spans="1:8" ht="29">
       <c r="A158" s="34"/>
       <c r="B158" s="34"/>
       <c r="C158" s="34"/>
       <c r="D158" s="34"/>
       <c r="E158" s="34" t="s">
-        <v>1171</v>
+        <v>962</v>
       </c>
       <c r="F158" s="34"/>
       <c r="G158" s="34"/>
       <c r="H158" s="34"/>
     </row>
-    <row r="159" spans="1:8" ht="29.25" customHeight="1">
+    <row r="159" spans="1:8" ht="29">
       <c r="A159" s="34"/>
       <c r="B159" s="34"/>
       <c r="C159" s="34"/>
       <c r="D159" s="34"/>
       <c r="E159" s="34" t="s">
-        <v>1172</v>
+        <v>963</v>
       </c>
       <c r="F159" s="34"/>
       <c r="G159" s="34"/>
       <c r="H159" s="34"/>
     </row>
-    <row r="160" spans="1:8" ht="29.25" customHeight="1">
+    <row r="160" spans="1:8" ht="29">
       <c r="A160" s="34"/>
       <c r="B160" s="34"/>
       <c r="C160" s="34"/>
       <c r="D160" s="34"/>
       <c r="E160" s="34" t="s">
-        <v>1173</v>
+        <v>950</v>
       </c>
       <c r="F160" s="34"/>
       <c r="G160" s="34"/>
       <c r="H160" s="34"/>
     </row>
-    <row r="161" spans="1:8" ht="29.25" customHeight="1">
+    <row r="161" spans="1:8" ht="29">
       <c r="A161" s="34"/>
       <c r="B161" s="34"/>
       <c r="C161" s="34"/>
       <c r="D161" s="34"/>
       <c r="E161" s="34" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="F161" s="34"/>
       <c r="G161" s="34"/>
       <c r="H161" s="34"/>
     </row>
-    <row r="162" spans="1:8" ht="29.25" customHeight="1">
+    <row r="162" spans="1:8" ht="29">
       <c r="A162" s="34"/>
       <c r="B162" s="34"/>
       <c r="C162" s="34"/>
       <c r="D162" s="34"/>
       <c r="E162" s="34" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="F162" s="34"/>
       <c r="G162" s="34"/>
       <c r="H162" s="34"/>
     </row>
-    <row r="163" spans="1:8" ht="72.5">
+    <row r="163" spans="1:8" ht="29">
       <c r="A163" s="34"/>
       <c r="B163" s="34"/>
       <c r="C163" s="34"/>
       <c r="D163" s="34"/>
       <c r="E163" s="34" t="s">
-        <v>975</v>
+        <v>1368</v>
       </c>
       <c r="F163" s="34"/>
       <c r="G163" s="34"/>
       <c r="H163" s="34"/>
     </row>
-    <row r="164" spans="1:8" ht="58">
+    <row r="164" spans="1:8" ht="29">
       <c r="A164" s="34"/>
       <c r="B164" s="34"/>
       <c r="C164" s="34"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34" t="s">
-        <v>976</v>
+        <v>1369</v>
       </c>
       <c r="F164" s="34"/>
       <c r="G164" s="34"/>
       <c r="H164" s="34"/>
     </row>
-    <row r="165" spans="1:8" ht="29.25" customHeight="1">
+    <row r="165" spans="1:8" ht="29">
       <c r="A165" s="34"/>
       <c r="B165" s="34"/>
       <c r="C165" s="34"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34" t="s">
-        <v>977</v>
+        <v>1370</v>
       </c>
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
       <c r="H165" s="34"/>
     </row>
-    <row r="166" spans="1:8" ht="29.25" customHeight="1">
+    <row r="166" spans="1:8" ht="29">
       <c r="A166" s="34"/>
       <c r="B166" s="34"/>
       <c r="C166" s="34"/>
       <c r="D166" s="34"/>
       <c r="E166" s="34" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="34"/>
       <c r="H166" s="34"/>
     </row>
-    <row r="167" spans="1:8" ht="29.25" customHeight="1">
+    <row r="167" spans="1:8" ht="29">
       <c r="A167" s="34"/>
       <c r="B167" s="34"/>
       <c r="C167" s="34"/>
       <c r="D167" s="34"/>
       <c r="E167" s="34" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="F167" s="34"/>
       <c r="G167" s="34"/>
       <c r="H167" s="34"/>
     </row>
-    <row r="168" spans="1:8" ht="29.25" customHeight="1">
+    <row r="168" spans="1:8" ht="29">
       <c r="A168" s="34"/>
       <c r="B168" s="34"/>
       <c r="C168" s="34"/>
       <c r="D168" s="34"/>
       <c r="E168" s="34" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="F168" s="34"/>
       <c r="G168" s="34"/>
       <c r="H168" s="34"/>
     </row>
-    <row r="169" spans="1:8" ht="29.25" customHeight="1">
+    <row r="169" spans="1:8" ht="29">
       <c r="A169" s="34"/>
       <c r="B169" s="34"/>
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>
       <c r="E169" s="34" t="s">
-        <v>981</v>
+        <v>1371</v>
       </c>
       <c r="F169" s="34"/>
       <c r="G169" s="34"/>
       <c r="H169" s="34"/>
     </row>
-    <row r="170" spans="1:8" ht="29.25" customHeight="1">
+    <row r="170" spans="1:8" ht="29">
       <c r="A170" s="34"/>
       <c r="B170" s="34"/>
       <c r="C170" s="34"/>
       <c r="D170" s="34"/>
       <c r="E170" s="34" t="s">
-        <v>982</v>
+        <v>1372</v>
       </c>
       <c r="F170" s="34"/>
       <c r="G170" s="34"/>
       <c r="H170" s="34"/>
     </row>
-    <row r="171" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A171" s="34"/>
-      <c r="B171" s="34"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34"/>
-      <c r="E171" s="34" t="s">
-        <v>983</v>
+    <row r="171" spans="1:8" ht="43.5">
+      <c r="A171" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="E171" s="103" t="s">
+        <v>1150</v>
       </c>
       <c r="F171" s="34"/>
       <c r="G171" s="34"/>
       <c r="H171" s="34"/>
     </row>
-    <row r="172" spans="1:8" ht="29.25" customHeight="1">
+    <row r="172" spans="1:8" ht="29">
       <c r="A172" s="34"/>
       <c r="B172" s="34"/>
       <c r="C172" s="34"/>
       <c r="D172" s="34"/>
       <c r="E172" s="34" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="F172" s="34"/>
       <c r="G172" s="34"/>
       <c r="H172" s="34"/>
     </row>
-    <row r="173" spans="1:8" ht="29.25" customHeight="1">
+    <row r="173" spans="1:8" ht="29">
       <c r="A173" s="34"/>
       <c r="B173" s="34"/>
       <c r="C173" s="34"/>
       <c r="D173" s="34"/>
       <c r="E173" s="34" t="s">
-        <v>985</v>
+        <v>1151</v>
       </c>
       <c r="F173" s="34"/>
       <c r="G173" s="34"/>
       <c r="H173" s="34"/>
     </row>
-    <row r="174" spans="1:8" ht="29.25" customHeight="1">
+    <row r="174" spans="1:8" ht="29">
       <c r="A174" s="34"/>
       <c r="B174" s="34"/>
       <c r="C174" s="34"/>
       <c r="D174" s="34"/>
       <c r="E174" s="34" t="s">
-        <v>986</v>
+        <v>1152</v>
       </c>
       <c r="F174" s="34"/>
       <c r="G174" s="34"/>
       <c r="H174" s="34"/>
     </row>
-    <row r="175" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A175" s="34"/>
-      <c r="B175" s="34"/>
-      <c r="C175" s="34"/>
-      <c r="D175" s="34"/>
+    <row r="175" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A175" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="78" t="s">
+        <v>584</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D175" s="34" t="s">
+        <v>585</v>
+      </c>
       <c r="E175" s="34" t="s">
-        <v>987</v>
+        <v>1153</v>
       </c>
       <c r="F175" s="34"/>
       <c r="G175" s="34"/>
       <c r="H175" s="34"/>
     </row>
-    <row r="176" spans="1:8" ht="29">
+    <row r="176" spans="1:8" ht="29.25" customHeight="1">
       <c r="A176" s="34"/>
       <c r="B176" s="34"/>
       <c r="C176" s="34"/>
       <c r="D176" s="34"/>
       <c r="E176" s="34" t="s">
-        <v>988</v>
+        <v>1154</v>
       </c>
       <c r="F176" s="34"/>
       <c r="G176" s="34"/>
       <c r="H176" s="34"/>
     </row>
-    <row r="177" spans="1:8" ht="29">
+    <row r="177" spans="1:8">
       <c r="A177" s="34"/>
       <c r="B177" s="34"/>
       <c r="C177" s="34"/>
       <c r="D177" s="34"/>
       <c r="E177" s="34" t="s">
-        <v>989</v>
+        <v>1155</v>
       </c>
       <c r="F177" s="34"/>
       <c r="G177" s="34"/>
@@ -41086,7 +41236,7 @@
       <c r="C178" s="34"/>
       <c r="D178" s="34"/>
       <c r="E178" s="34" t="s">
-        <v>990</v>
+        <v>1156</v>
       </c>
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
@@ -41098,7 +41248,7 @@
       <c r="C179" s="34"/>
       <c r="D179" s="34"/>
       <c r="E179" s="34" t="s">
-        <v>991</v>
+        <v>1157</v>
       </c>
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
@@ -41110,127 +41260,127 @@
       <c r="C180" s="34"/>
       <c r="D180" s="34"/>
       <c r="E180" s="34" t="s">
-        <v>992</v>
+        <v>1158</v>
       </c>
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
       <c r="H180" s="34"/>
     </row>
-    <row r="181" spans="1:8" ht="29">
+    <row r="181" spans="1:8" ht="29.25" customHeight="1">
       <c r="A181" s="34"/>
       <c r="B181" s="34"/>
       <c r="C181" s="34"/>
       <c r="D181" s="34"/>
       <c r="E181" s="34" t="s">
-        <v>993</v>
+        <v>1159</v>
       </c>
       <c r="F181" s="34"/>
       <c r="G181" s="34"/>
       <c r="H181" s="34"/>
     </row>
-    <row r="182" spans="1:8" ht="29">
+    <row r="182" spans="1:8" ht="29.25" customHeight="1">
       <c r="A182" s="34"/>
       <c r="B182" s="34"/>
       <c r="C182" s="34"/>
       <c r="D182" s="34"/>
       <c r="E182" s="34" t="s">
-        <v>994</v>
+        <v>969</v>
       </c>
       <c r="F182" s="34"/>
       <c r="G182" s="34"/>
       <c r="H182" s="34"/>
     </row>
-    <row r="183" spans="1:8" ht="29">
+    <row r="183" spans="1:8" ht="29.25" customHeight="1">
       <c r="A183" s="34"/>
       <c r="B183" s="34"/>
       <c r="C183" s="34"/>
       <c r="D183" s="34"/>
       <c r="E183" s="34" t="s">
-        <v>995</v>
+        <v>970</v>
       </c>
       <c r="F183" s="34"/>
       <c r="G183" s="34"/>
       <c r="H183" s="34"/>
     </row>
-    <row r="184" spans="1:8" ht="29">
+    <row r="184" spans="1:8" ht="72.5">
       <c r="A184" s="34"/>
       <c r="B184" s="34"/>
       <c r="C184" s="34"/>
       <c r="D184" s="34"/>
       <c r="E184" s="34" t="s">
-        <v>996</v>
+        <v>971</v>
       </c>
       <c r="F184" s="34"/>
       <c r="G184" s="34"/>
       <c r="H184" s="34"/>
     </row>
-    <row r="185" spans="1:8" ht="29">
+    <row r="185" spans="1:8" ht="58">
       <c r="A185" s="34"/>
       <c r="B185" s="34"/>
       <c r="C185" s="34"/>
       <c r="D185" s="34"/>
       <c r="E185" s="34" t="s">
-        <v>997</v>
+        <v>972</v>
       </c>
       <c r="F185" s="34"/>
       <c r="G185" s="34"/>
       <c r="H185" s="34"/>
     </row>
-    <row r="186" spans="1:8" ht="29">
+    <row r="186" spans="1:8" ht="29.25" customHeight="1">
       <c r="A186" s="34"/>
       <c r="B186" s="34"/>
       <c r="C186" s="34"/>
       <c r="D186" s="34"/>
       <c r="E186" s="34" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
       <c r="H186" s="34"/>
     </row>
-    <row r="187" spans="1:8" ht="29">
+    <row r="187" spans="1:8" ht="29.25" customHeight="1">
       <c r="A187" s="34"/>
       <c r="B187" s="34"/>
       <c r="C187" s="34"/>
       <c r="D187" s="34"/>
       <c r="E187" s="34" t="s">
-        <v>999</v>
+        <v>974</v>
       </c>
       <c r="F187" s="34"/>
       <c r="G187" s="34"/>
       <c r="H187" s="34"/>
     </row>
-    <row r="188" spans="1:8" ht="29">
+    <row r="188" spans="1:8" ht="29.25" customHeight="1">
       <c r="A188" s="34"/>
       <c r="B188" s="34"/>
       <c r="C188" s="34"/>
       <c r="D188" s="34"/>
       <c r="E188" s="34" t="s">
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="F188" s="34"/>
       <c r="G188" s="34"/>
       <c r="H188" s="34"/>
     </row>
-    <row r="189" spans="1:8" ht="29">
+    <row r="189" spans="1:8" ht="29.25" customHeight="1">
       <c r="A189" s="34"/>
       <c r="B189" s="34"/>
       <c r="C189" s="34"/>
       <c r="D189" s="34"/>
       <c r="E189" s="34" t="s">
-        <v>1001</v>
+        <v>976</v>
       </c>
       <c r="F189" s="34"/>
       <c r="G189" s="34"/>
       <c r="H189" s="34"/>
     </row>
-    <row r="190" spans="1:8" ht="29">
+    <row r="190" spans="1:8" ht="29.25" customHeight="1">
       <c r="A190" s="34"/>
       <c r="B190" s="34"/>
       <c r="C190" s="34"/>
       <c r="D190" s="34"/>
       <c r="E190" s="34" t="s">
-        <v>1174</v>
+        <v>977</v>
       </c>
       <c r="F190" s="34"/>
       <c r="G190" s="34"/>
@@ -41242,7 +41392,7 @@
       <c r="C191" s="34"/>
       <c r="D191" s="34"/>
       <c r="E191" s="34" t="s">
-        <v>1175</v>
+        <v>978</v>
       </c>
       <c r="F191" s="34"/>
       <c r="G191" s="34"/>
@@ -41254,513 +41404,819 @@
       <c r="C192" s="34"/>
       <c r="D192" s="34"/>
       <c r="E192" s="34" t="s">
-        <v>1176</v>
+        <v>979</v>
       </c>
       <c r="F192" s="34"/>
       <c r="G192" s="34"/>
       <c r="H192" s="34"/>
     </row>
-    <row r="193" spans="1:9" ht="29.25" customHeight="1">
+    <row r="193" spans="1:8" ht="29.25" customHeight="1">
       <c r="A193" s="34"/>
       <c r="B193" s="34"/>
       <c r="C193" s="34"/>
       <c r="D193" s="34"/>
       <c r="E193" s="34" t="s">
-        <v>1177</v>
+        <v>980</v>
       </c>
       <c r="F193" s="34"/>
       <c r="G193" s="34"/>
       <c r="H193" s="34"/>
     </row>
-    <row r="194" spans="1:9" ht="29.25" customHeight="1">
+    <row r="194" spans="1:8" ht="29.25" customHeight="1">
       <c r="A194" s="34"/>
       <c r="B194" s="34"/>
       <c r="C194" s="34"/>
       <c r="D194" s="34"/>
       <c r="E194" s="34" t="s">
-        <v>1178</v>
+        <v>981</v>
       </c>
       <c r="F194" s="34"/>
       <c r="G194" s="34"/>
       <c r="H194" s="34"/>
     </row>
-    <row r="195" spans="1:9" ht="29">
+    <row r="195" spans="1:8" ht="29.25" customHeight="1">
       <c r="A195" s="34"/>
       <c r="B195" s="34"/>
       <c r="C195" s="34"/>
       <c r="D195" s="34"/>
       <c r="E195" s="34" t="s">
-        <v>1179</v>
+        <v>982</v>
       </c>
       <c r="F195" s="34"/>
       <c r="G195" s="34"/>
       <c r="H195" s="34"/>
     </row>
-    <row r="196" spans="1:9" s="35" customFormat="1" ht="29">
+    <row r="196" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A196" s="34"/>
+      <c r="B196" s="34"/>
+      <c r="C196" s="34"/>
+      <c r="D196" s="34"/>
       <c r="E196" s="34" t="s">
-        <v>1180</v>
-      </c>
-      <c r="I196" s="77"/>
-    </row>
-    <row r="197" spans="1:9" ht="58">
-      <c r="A197" s="34" t="s">
+        <v>983</v>
+      </c>
+      <c r="F196" s="34"/>
+      <c r="G196" s="34"/>
+      <c r="H196" s="34"/>
+    </row>
+    <row r="197" spans="1:8" ht="29">
+      <c r="A197" s="34"/>
+      <c r="B197" s="34"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="34"/>
+      <c r="E197" s="34" t="s">
+        <v>984</v>
+      </c>
+      <c r="F197" s="34"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="34"/>
+    </row>
+    <row r="198" spans="1:8" ht="29">
+      <c r="A198" s="34"/>
+      <c r="B198" s="34"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="34"/>
+      <c r="E198" s="34" t="s">
+        <v>985</v>
+      </c>
+      <c r="F198" s="34"/>
+      <c r="G198" s="34"/>
+      <c r="H198" s="34"/>
+    </row>
+    <row r="199" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A199" s="34"/>
+      <c r="B199" s="34"/>
+      <c r="C199" s="34"/>
+      <c r="D199" s="34"/>
+      <c r="E199" s="34" t="s">
+        <v>986</v>
+      </c>
+      <c r="F199" s="34"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="34"/>
+    </row>
+    <row r="200" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A200" s="34"/>
+      <c r="B200" s="34"/>
+      <c r="C200" s="34"/>
+      <c r="D200" s="34"/>
+      <c r="E200" s="34" t="s">
+        <v>987</v>
+      </c>
+      <c r="F200" s="34"/>
+      <c r="G200" s="34"/>
+      <c r="H200" s="34"/>
+    </row>
+    <row r="201" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A201" s="34"/>
+      <c r="B201" s="34"/>
+      <c r="C201" s="34"/>
+      <c r="D201" s="34"/>
+      <c r="E201" s="34" t="s">
+        <v>988</v>
+      </c>
+      <c r="F201" s="34"/>
+      <c r="G201" s="34"/>
+      <c r="H201" s="34"/>
+    </row>
+    <row r="202" spans="1:8" ht="29">
+      <c r="A202" s="34"/>
+      <c r="B202" s="34"/>
+      <c r="C202" s="34"/>
+      <c r="D202" s="34"/>
+      <c r="E202" s="34" t="s">
+        <v>989</v>
+      </c>
+      <c r="F202" s="34"/>
+      <c r="G202" s="34"/>
+      <c r="H202" s="34"/>
+    </row>
+    <row r="203" spans="1:8" ht="29">
+      <c r="A203" s="34"/>
+      <c r="B203" s="34"/>
+      <c r="C203" s="34"/>
+      <c r="D203" s="34"/>
+      <c r="E203" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="F203" s="34"/>
+      <c r="G203" s="34"/>
+      <c r="H203" s="34"/>
+    </row>
+    <row r="204" spans="1:8" ht="29">
+      <c r="A204" s="34"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="34"/>
+      <c r="E204" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="F204" s="34"/>
+      <c r="G204" s="34"/>
+      <c r="H204" s="34"/>
+    </row>
+    <row r="205" spans="1:8" ht="29">
+      <c r="A205" s="34"/>
+      <c r="B205" s="34"/>
+      <c r="C205" s="34"/>
+      <c r="D205" s="34"/>
+      <c r="E205" s="34" t="s">
+        <v>992</v>
+      </c>
+      <c r="F205" s="34"/>
+      <c r="G205" s="34"/>
+      <c r="H205" s="34"/>
+    </row>
+    <row r="206" spans="1:8" ht="29">
+      <c r="A206" s="34"/>
+      <c r="B206" s="34"/>
+      <c r="C206" s="34"/>
+      <c r="D206" s="34"/>
+      <c r="E206" s="34" t="s">
+        <v>993</v>
+      </c>
+      <c r="F206" s="34"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="34"/>
+    </row>
+    <row r="207" spans="1:8" ht="29">
+      <c r="A207" s="34"/>
+      <c r="B207" s="34"/>
+      <c r="C207" s="34"/>
+      <c r="D207" s="34"/>
+      <c r="E207" s="34" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F207" s="34"/>
+      <c r="G207" s="34"/>
+      <c r="H207" s="34"/>
+    </row>
+    <row r="208" spans="1:8" ht="29">
+      <c r="A208" s="34"/>
+      <c r="B208" s="34"/>
+      <c r="C208" s="34"/>
+      <c r="D208" s="34"/>
+      <c r="E208" s="34" t="s">
+        <v>994</v>
+      </c>
+      <c r="F208" s="34"/>
+      <c r="G208" s="34"/>
+      <c r="H208" s="34"/>
+    </row>
+    <row r="209" spans="1:9" ht="29">
+      <c r="A209" s="34"/>
+      <c r="B209" s="34"/>
+      <c r="C209" s="34"/>
+      <c r="D209" s="34"/>
+      <c r="E209" s="34" t="s">
+        <v>995</v>
+      </c>
+      <c r="F209" s="34"/>
+      <c r="G209" s="34"/>
+      <c r="H209" s="34"/>
+    </row>
+    <row r="210" spans="1:9" ht="29">
+      <c r="A210" s="34"/>
+      <c r="B210" s="34"/>
+      <c r="C210" s="34"/>
+      <c r="D210" s="34"/>
+      <c r="E210" s="34" t="s">
+        <v>996</v>
+      </c>
+      <c r="F210" s="34"/>
+      <c r="G210" s="34"/>
+      <c r="H210" s="34"/>
+    </row>
+    <row r="211" spans="1:9" ht="29">
+      <c r="A211" s="34"/>
+      <c r="B211" s="34"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="34"/>
+      <c r="E211" s="34" t="s">
+        <v>997</v>
+      </c>
+      <c r="F211" s="34"/>
+      <c r="G211" s="34"/>
+      <c r="H211" s="34"/>
+    </row>
+    <row r="212" spans="1:9" ht="29">
+      <c r="A212" s="34"/>
+      <c r="B212" s="34"/>
+      <c r="C212" s="34"/>
+      <c r="D212" s="34"/>
+      <c r="E212" s="34" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F212" s="34"/>
+      <c r="G212" s="34"/>
+      <c r="H212" s="34"/>
+    </row>
+    <row r="213" spans="1:9" ht="29">
+      <c r="A213" s="34"/>
+      <c r="B213" s="34"/>
+      <c r="C213" s="34"/>
+      <c r="D213" s="34"/>
+      <c r="E213" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F213" s="34"/>
+      <c r="G213" s="34"/>
+      <c r="H213" s="34"/>
+    </row>
+    <row r="214" spans="1:9" ht="29">
+      <c r="A214" s="34"/>
+      <c r="B214" s="34"/>
+      <c r="C214" s="34"/>
+      <c r="D214" s="34"/>
+      <c r="E214" s="34" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F214" s="34"/>
+      <c r="G214" s="34"/>
+      <c r="H214" s="34"/>
+    </row>
+    <row r="215" spans="1:9" ht="29">
+      <c r="A215" s="34"/>
+      <c r="B215" s="34"/>
+      <c r="C215" s="34"/>
+      <c r="D215" s="34"/>
+      <c r="E215" s="34" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F215" s="34"/>
+      <c r="G215" s="34"/>
+      <c r="H215" s="34"/>
+    </row>
+    <row r="216" spans="1:9" ht="29">
+      <c r="A216" s="34"/>
+      <c r="B216" s="34"/>
+      <c r="C216" s="34"/>
+      <c r="D216" s="34"/>
+      <c r="E216" s="34" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F216" s="34"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="34"/>
+    </row>
+    <row r="217" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A217" s="34"/>
+      <c r="B217" s="34"/>
+      <c r="C217" s="34"/>
+      <c r="D217" s="34"/>
+      <c r="E217" s="34" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F217" s="34"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="34"/>
+    </row>
+    <row r="218" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A218" s="34"/>
+      <c r="B218" s="34"/>
+      <c r="C218" s="34"/>
+      <c r="D218" s="34"/>
+      <c r="E218" s="34" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F218" s="34"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="34"/>
+    </row>
+    <row r="219" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A219" s="34"/>
+      <c r="B219" s="34"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="34"/>
+      <c r="E219" s="34" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F219" s="34"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="34"/>
+    </row>
+    <row r="220" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A220" s="34"/>
+      <c r="B220" s="34"/>
+      <c r="C220" s="34"/>
+      <c r="D220" s="34"/>
+      <c r="E220" s="34" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F220" s="34"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="34"/>
+    </row>
+    <row r="221" spans="1:9" ht="29">
+      <c r="A221" s="34"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="34"/>
+      <c r="E221" s="34" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F221" s="34"/>
+      <c r="G221" s="34"/>
+      <c r="H221" s="34"/>
+    </row>
+    <row r="222" spans="1:9" s="35" customFormat="1" ht="29">
+      <c r="E222" s="34" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I222" s="77"/>
+    </row>
+    <row r="223" spans="1:9" ht="58">
+      <c r="A223" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B197" s="78" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C197" s="34" t="s">
+      <c r="B223" s="78" t="s">
+        <v>998</v>
+      </c>
+      <c r="C223" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="D197" s="34" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E197" s="34" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F197" s="35"/>
-      <c r="G197" s="35"/>
-      <c r="H197" s="35"/>
-    </row>
-    <row r="198" spans="1:9" ht="29">
-      <c r="A198" s="35"/>
-      <c r="B198" s="35"/>
-      <c r="C198" s="35"/>
-      <c r="D198" s="35"/>
-      <c r="E198" s="34" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F198" s="35"/>
-      <c r="G198" s="35"/>
-      <c r="H198" s="35"/>
-    </row>
-    <row r="199" spans="1:9" ht="58">
-      <c r="A199" s="35"/>
-      <c r="B199" s="35"/>
-      <c r="C199" s="35"/>
-      <c r="D199" s="35"/>
-      <c r="E199" s="34" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F199" s="35"/>
-      <c r="G199" s="35"/>
-      <c r="H199" s="35"/>
-    </row>
-    <row r="200" spans="1:9" ht="29">
-      <c r="A200" s="35"/>
-      <c r="B200" s="35"/>
-      <c r="C200" s="35"/>
-      <c r="D200" s="35"/>
-      <c r="E200" s="34" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F200" s="35"/>
-      <c r="G200" s="35"/>
-      <c r="H200" s="35"/>
-    </row>
-    <row r="201" spans="1:9" ht="72.5">
-      <c r="A201" s="35"/>
-      <c r="B201" s="35"/>
-      <c r="C201" s="35"/>
-      <c r="D201" s="35"/>
-      <c r="E201" s="34" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F201" s="35"/>
-      <c r="G201" s="35"/>
-      <c r="H201" s="35"/>
-    </row>
-    <row r="202" spans="1:9" ht="29">
-      <c r="A202" s="35"/>
-      <c r="B202" s="35"/>
-      <c r="C202" s="35"/>
-      <c r="D202" s="35"/>
-      <c r="E202" s="34" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F202" s="35"/>
-      <c r="G202" s="35"/>
-      <c r="H202" s="35"/>
-    </row>
-    <row r="203" spans="1:9" ht="116">
-      <c r="A203" s="35"/>
-      <c r="B203" s="35"/>
-      <c r="C203" s="35"/>
-      <c r="D203" s="35"/>
-      <c r="E203" s="34" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F203" s="35"/>
-      <c r="G203" s="35"/>
-      <c r="H203" s="35"/>
-    </row>
-    <row r="204" spans="1:9" ht="29">
-      <c r="A204" s="35"/>
-      <c r="B204" s="35"/>
-      <c r="C204" s="35"/>
-      <c r="D204" s="35"/>
-      <c r="E204" s="34" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F204" s="35"/>
-      <c r="G204" s="35"/>
-      <c r="H204" s="35"/>
-    </row>
-    <row r="205" spans="1:9" ht="29">
-      <c r="A205" s="35"/>
-      <c r="B205" s="35"/>
-      <c r="C205" s="35"/>
-      <c r="D205" s="35"/>
-      <c r="E205" s="34" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F205" s="35"/>
-      <c r="G205" s="35"/>
-      <c r="H205" s="35"/>
-    </row>
-    <row r="206" spans="1:9" ht="58">
-      <c r="A206" s="35"/>
-      <c r="B206" s="35"/>
-      <c r="C206" s="35"/>
-      <c r="D206" s="35"/>
-      <c r="E206" s="34" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F206" s="35"/>
-      <c r="G206" s="35"/>
-      <c r="H206" s="35"/>
-    </row>
-    <row r="207" spans="1:9" ht="29">
-      <c r="A207" s="35"/>
-      <c r="B207" s="35"/>
-      <c r="C207" s="35"/>
-      <c r="D207" s="35"/>
-      <c r="E207" s="34" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F207" s="35"/>
-      <c r="G207" s="35"/>
-      <c r="H207" s="35"/>
-    </row>
-    <row r="208" spans="1:9" ht="72.5">
-      <c r="A208" s="35"/>
-      <c r="B208" s="35"/>
-      <c r="C208" s="35"/>
-      <c r="D208" s="35"/>
-      <c r="E208" s="34" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F208" s="35"/>
-      <c r="G208" s="35"/>
-      <c r="H208" s="35"/>
-    </row>
-    <row r="209" spans="1:8" ht="29">
-      <c r="A209" s="35"/>
-      <c r="B209" s="35"/>
-      <c r="C209" s="35"/>
-      <c r="D209" s="35"/>
-      <c r="E209" s="34" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F209" s="35"/>
-      <c r="G209" s="35"/>
-      <c r="H209" s="35"/>
-    </row>
-    <row r="210" spans="1:8" ht="116">
-      <c r="A210" s="35"/>
-      <c r="B210" s="35"/>
-      <c r="C210" s="35"/>
-      <c r="D210" s="35"/>
-      <c r="E210" s="34" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F210" s="35"/>
-      <c r="G210" s="35"/>
-      <c r="H210" s="35"/>
-    </row>
-    <row r="211" spans="1:8" ht="29">
-      <c r="A211" s="35"/>
-      <c r="B211" s="35"/>
-      <c r="C211" s="35"/>
-      <c r="D211" s="35"/>
-      <c r="E211" s="34" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F211" s="35"/>
-      <c r="G211" s="35"/>
-      <c r="H211" s="35"/>
-    </row>
-    <row r="212" spans="1:8" ht="29">
-      <c r="A212" s="35"/>
-      <c r="B212" s="35"/>
-      <c r="C212" s="35"/>
-      <c r="D212" s="35"/>
-      <c r="E212" s="34" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F212" s="35"/>
-      <c r="G212" s="35"/>
-      <c r="H212" s="35"/>
-    </row>
-    <row r="213" spans="1:8" ht="58">
-      <c r="A213" s="35"/>
-      <c r="B213" s="35"/>
-      <c r="C213" s="35"/>
-      <c r="D213" s="35"/>
-      <c r="E213" s="34" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F213" s="35"/>
-      <c r="G213" s="35"/>
-      <c r="H213" s="35"/>
-    </row>
-    <row r="214" spans="1:8" ht="29">
-      <c r="A214" s="35"/>
-      <c r="B214" s="35"/>
-      <c r="C214" s="35"/>
-      <c r="D214" s="35"/>
-      <c r="E214" s="34" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F214" s="35"/>
-      <c r="G214" s="35"/>
-      <c r="H214" s="35"/>
-    </row>
-    <row r="215" spans="1:8" ht="72.5">
-      <c r="A215" s="35"/>
-      <c r="B215" s="35"/>
-      <c r="C215" s="35"/>
-      <c r="D215" s="35"/>
-      <c r="E215" s="34" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F215" s="35"/>
-      <c r="G215" s="35"/>
-      <c r="H215" s="35"/>
-    </row>
-    <row r="216" spans="1:8" ht="29">
-      <c r="A216" s="35"/>
-      <c r="B216" s="35"/>
-      <c r="C216" s="35"/>
-      <c r="D216" s="35"/>
-      <c r="E216" s="34" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F216" s="35"/>
-      <c r="G216" s="35"/>
-      <c r="H216" s="35"/>
-    </row>
-    <row r="217" spans="1:8" ht="116">
-      <c r="A217" s="35"/>
-      <c r="B217" s="35"/>
-      <c r="C217" s="35"/>
-      <c r="D217" s="35"/>
-      <c r="E217" s="34" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F217" s="35"/>
-      <c r="G217" s="35"/>
-      <c r="H217" s="35"/>
-    </row>
-    <row r="218" spans="1:8" ht="29">
-      <c r="A218" s="35"/>
-      <c r="B218" s="35"/>
-      <c r="C218" s="35"/>
-      <c r="D218" s="35"/>
-      <c r="E218" s="34" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F218" s="35"/>
-      <c r="G218" s="35"/>
-      <c r="H218" s="35"/>
-    </row>
-    <row r="219" spans="1:8" ht="29">
-      <c r="A219" s="35"/>
-      <c r="B219" s="35"/>
-      <c r="C219" s="35"/>
-      <c r="D219" s="35"/>
-      <c r="E219" s="34" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F219" s="35"/>
-      <c r="G219" s="35"/>
-      <c r="H219" s="35"/>
-    </row>
-    <row r="220" spans="1:8" ht="58">
-      <c r="A220" s="35"/>
-      <c r="B220" s="35"/>
-      <c r="C220" s="35"/>
-      <c r="D220" s="35"/>
-      <c r="E220" s="34" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F220" s="35"/>
-      <c r="G220" s="35"/>
-      <c r="H220" s="35"/>
-    </row>
-    <row r="221" spans="1:8" ht="29">
-      <c r="A221" s="35"/>
-      <c r="B221" s="35"/>
-      <c r="C221" s="35"/>
-      <c r="D221" s="35"/>
-      <c r="E221" s="34" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F221" s="35"/>
-      <c r="G221" s="35"/>
-      <c r="H221" s="35"/>
-    </row>
-    <row r="222" spans="1:8" ht="72.5">
-      <c r="A222" s="35"/>
-      <c r="B222" s="35"/>
-      <c r="C222" s="35"/>
-      <c r="D222" s="35"/>
-      <c r="E222" s="34" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F222" s="35"/>
-      <c r="G222" s="35"/>
-      <c r="H222" s="35"/>
-    </row>
-    <row r="223" spans="1:8" ht="29">
-      <c r="A223" s="35"/>
-      <c r="B223" s="35"/>
-      <c r="C223" s="35"/>
-      <c r="D223" s="35"/>
+      <c r="D223" s="34" t="s">
+        <v>999</v>
+      </c>
       <c r="E223" s="34" t="s">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="F223" s="35"/>
       <c r="G223" s="35"/>
       <c r="H223" s="35"/>
     </row>
-    <row r="224" spans="1:8" ht="188.5">
+    <row r="224" spans="1:9" ht="29">
       <c r="A224" s="35"/>
       <c r="B224" s="35"/>
       <c r="C224" s="35"/>
       <c r="D224" s="35"/>
       <c r="E224" s="34" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
       <c r="F224" s="35"/>
       <c r="G224" s="35"/>
       <c r="H224" s="35"/>
     </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="35" t="s">
-        <v>4</v>
-      </c>
+    <row r="225" spans="1:8" ht="58">
+      <c r="A225" s="35"/>
       <c r="B225" s="35"/>
       <c r="C225" s="35"/>
       <c r="D225" s="35"/>
-      <c r="E225" s="35"/>
+      <c r="E225" s="34" t="s">
+        <v>1002</v>
+      </c>
       <c r="F225" s="35"/>
       <c r="G225" s="35"/>
       <c r="H225" s="35"/>
     </row>
-    <row r="226" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A226" s="34" t="s">
+    <row r="226" spans="1:8" ht="29">
+      <c r="A226" s="35"/>
+      <c r="B226" s="35"/>
+      <c r="C226" s="35"/>
+      <c r="D226" s="35"/>
+      <c r="E226" s="34" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F226" s="35"/>
+      <c r="G226" s="35"/>
+      <c r="H226" s="35"/>
+    </row>
+    <row r="227" spans="1:8" ht="72.5">
+      <c r="A227" s="35"/>
+      <c r="B227" s="35"/>
+      <c r="C227" s="35"/>
+      <c r="D227" s="35"/>
+      <c r="E227" s="34" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F227" s="35"/>
+      <c r="G227" s="35"/>
+      <c r="H227" s="35"/>
+    </row>
+    <row r="228" spans="1:8" ht="29">
+      <c r="A228" s="35"/>
+      <c r="B228" s="35"/>
+      <c r="C228" s="35"/>
+      <c r="D228" s="35"/>
+      <c r="E228" s="34" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F228" s="35"/>
+      <c r="G228" s="35"/>
+      <c r="H228" s="35"/>
+    </row>
+    <row r="229" spans="1:8" ht="116">
+      <c r="A229" s="35"/>
+      <c r="B229" s="35"/>
+      <c r="C229" s="35"/>
+      <c r="D229" s="35"/>
+      <c r="E229" s="34" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F229" s="35"/>
+      <c r="G229" s="35"/>
+      <c r="H229" s="35"/>
+    </row>
+    <row r="230" spans="1:8" ht="29">
+      <c r="A230" s="35"/>
+      <c r="B230" s="35"/>
+      <c r="C230" s="35"/>
+      <c r="D230" s="35"/>
+      <c r="E230" s="34" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F230" s="35"/>
+      <c r="G230" s="35"/>
+      <c r="H230" s="35"/>
+    </row>
+    <row r="231" spans="1:8" ht="29">
+      <c r="A231" s="35"/>
+      <c r="B231" s="35"/>
+      <c r="C231" s="35"/>
+      <c r="D231" s="35"/>
+      <c r="E231" s="34" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F231" s="35"/>
+      <c r="G231" s="35"/>
+      <c r="H231" s="35"/>
+    </row>
+    <row r="232" spans="1:8" ht="58">
+      <c r="A232" s="35"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="35"/>
+      <c r="D232" s="35"/>
+      <c r="E232" s="34" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F232" s="35"/>
+      <c r="G232" s="35"/>
+      <c r="H232" s="35"/>
+    </row>
+    <row r="233" spans="1:8" ht="29">
+      <c r="A233" s="35"/>
+      <c r="B233" s="35"/>
+      <c r="C233" s="35"/>
+      <c r="D233" s="35"/>
+      <c r="E233" s="34" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F233" s="35"/>
+      <c r="G233" s="35"/>
+      <c r="H233" s="35"/>
+    </row>
+    <row r="234" spans="1:8" ht="72.5">
+      <c r="A234" s="35"/>
+      <c r="B234" s="35"/>
+      <c r="C234" s="35"/>
+      <c r="D234" s="35"/>
+      <c r="E234" s="34" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F234" s="35"/>
+      <c r="G234" s="35"/>
+      <c r="H234" s="35"/>
+    </row>
+    <row r="235" spans="1:8" ht="29">
+      <c r="A235" s="35"/>
+      <c r="B235" s="35"/>
+      <c r="C235" s="35"/>
+      <c r="D235" s="35"/>
+      <c r="E235" s="34" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F235" s="35"/>
+      <c r="G235" s="35"/>
+      <c r="H235" s="35"/>
+    </row>
+    <row r="236" spans="1:8" ht="116">
+      <c r="A236" s="35"/>
+      <c r="B236" s="35"/>
+      <c r="C236" s="35"/>
+      <c r="D236" s="35"/>
+      <c r="E236" s="34" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F236" s="35"/>
+      <c r="G236" s="35"/>
+      <c r="H236" s="35"/>
+    </row>
+    <row r="237" spans="1:8" ht="29">
+      <c r="A237" s="35"/>
+      <c r="B237" s="35"/>
+      <c r="C237" s="35"/>
+      <c r="D237" s="35"/>
+      <c r="E237" s="34" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F237" s="35"/>
+      <c r="G237" s="35"/>
+      <c r="H237" s="35"/>
+    </row>
+    <row r="238" spans="1:8" ht="29">
+      <c r="A238" s="35"/>
+      <c r="B238" s="35"/>
+      <c r="C238" s="35"/>
+      <c r="D238" s="35"/>
+      <c r="E238" s="34" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F238" s="35"/>
+      <c r="G238" s="35"/>
+      <c r="H238" s="35"/>
+    </row>
+    <row r="239" spans="1:8" ht="58">
+      <c r="A239" s="35"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="35"/>
+      <c r="D239" s="35"/>
+      <c r="E239" s="34" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F239" s="35"/>
+      <c r="G239" s="35"/>
+      <c r="H239" s="35"/>
+    </row>
+    <row r="240" spans="1:8" ht="29">
+      <c r="A240" s="35"/>
+      <c r="B240" s="35"/>
+      <c r="C240" s="35"/>
+      <c r="D240" s="35"/>
+      <c r="E240" s="34" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F240" s="35"/>
+      <c r="G240" s="35"/>
+      <c r="H240" s="35"/>
+    </row>
+    <row r="241" spans="1:8" ht="72.5">
+      <c r="A241" s="35"/>
+      <c r="B241" s="35"/>
+      <c r="C241" s="35"/>
+      <c r="D241" s="35"/>
+      <c r="E241" s="34" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F241" s="35"/>
+      <c r="G241" s="35"/>
+      <c r="H241" s="35"/>
+    </row>
+    <row r="242" spans="1:8" ht="29">
+      <c r="A242" s="35"/>
+      <c r="B242" s="35"/>
+      <c r="C242" s="35"/>
+      <c r="D242" s="35"/>
+      <c r="E242" s="34" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F242" s="35"/>
+      <c r="G242" s="35"/>
+      <c r="H242" s="35"/>
+    </row>
+    <row r="243" spans="1:8" ht="116">
+      <c r="A243" s="35"/>
+      <c r="B243" s="35"/>
+      <c r="C243" s="35"/>
+      <c r="D243" s="35"/>
+      <c r="E243" s="34" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F243" s="35"/>
+      <c r="G243" s="35"/>
+      <c r="H243" s="35"/>
+    </row>
+    <row r="244" spans="1:8" ht="29">
+      <c r="A244" s="35"/>
+      <c r="B244" s="35"/>
+      <c r="C244" s="35"/>
+      <c r="D244" s="35"/>
+      <c r="E244" s="34" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F244" s="35"/>
+      <c r="G244" s="35"/>
+      <c r="H244" s="35"/>
+    </row>
+    <row r="245" spans="1:8" ht="29">
+      <c r="A245" s="35"/>
+      <c r="B245" s="35"/>
+      <c r="C245" s="35"/>
+      <c r="D245" s="35"/>
+      <c r="E245" s="34" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F245" s="35"/>
+      <c r="G245" s="35"/>
+      <c r="H245" s="35"/>
+    </row>
+    <row r="246" spans="1:8" ht="58">
+      <c r="A246" s="35"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="35"/>
+      <c r="D246" s="35"/>
+      <c r="E246" s="34" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F246" s="35"/>
+      <c r="G246" s="35"/>
+      <c r="H246" s="35"/>
+    </row>
+    <row r="247" spans="1:8" ht="29">
+      <c r="A247" s="35"/>
+      <c r="B247" s="35"/>
+      <c r="C247" s="35"/>
+      <c r="D247" s="35"/>
+      <c r="E247" s="34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F247" s="35"/>
+      <c r="G247" s="35"/>
+      <c r="H247" s="35"/>
+    </row>
+    <row r="248" spans="1:8" ht="72.5">
+      <c r="A248" s="35"/>
+      <c r="B248" s="35"/>
+      <c r="C248" s="35"/>
+      <c r="D248" s="35"/>
+      <c r="E248" s="34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F248" s="35"/>
+      <c r="G248" s="35"/>
+      <c r="H248" s="35"/>
+    </row>
+    <row r="249" spans="1:8" ht="29">
+      <c r="A249" s="35"/>
+      <c r="B249" s="35"/>
+      <c r="C249" s="35"/>
+      <c r="D249" s="35"/>
+      <c r="E249" s="34" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F249" s="35"/>
+      <c r="G249" s="35"/>
+      <c r="H249" s="35"/>
+    </row>
+    <row r="250" spans="1:8" ht="188.5">
+      <c r="A250" s="35"/>
+      <c r="B250" s="35"/>
+      <c r="C250" s="35"/>
+      <c r="D250" s="35"/>
+      <c r="E250" s="34" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F250" s="35"/>
+      <c r="G250" s="35"/>
+      <c r="H250" s="35"/>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" s="35"/>
+      <c r="C251" s="35"/>
+      <c r="D251" s="35"/>
+      <c r="E251" s="35"/>
+      <c r="F251" s="35"/>
+      <c r="G251" s="35"/>
+      <c r="H251" s="35"/>
+    </row>
+    <row r="252" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A252" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="34" t="s">
+      <c r="B252" s="34" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C252" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D252" s="34" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E252" s="34" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F252" s="34"/>
+      <c r="G252" s="34"/>
+      <c r="H252" s="34"/>
+    </row>
+    <row r="253" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A253" s="34"/>
+      <c r="B253" s="34"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="34"/>
+      <c r="E253" s="34" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F253" s="34"/>
+      <c r="G253" s="34"/>
+      <c r="H253" s="34"/>
+    </row>
+    <row r="254" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A254" s="34"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="34"/>
+      <c r="D254" s="34"/>
+      <c r="E254" s="34" t="s">
         <v>1032</v>
       </c>
-      <c r="C226" s="34" t="s">
+      <c r="F254" s="34"/>
+      <c r="G254" s="34"/>
+      <c r="H254" s="34"/>
+    </row>
+    <row r="255" spans="1:8" ht="116.25" customHeight="1">
+      <c r="A255" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="34" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C255" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="D226" s="34" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E226" s="34" t="s">
+      <c r="D255" s="34" t="s">
         <v>1034</v>
       </c>
-      <c r="F226" s="34"/>
-      <c r="G226" s="34"/>
-      <c r="H226" s="34"/>
-    </row>
-    <row r="227" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A227" s="34"/>
-      <c r="B227" s="34"/>
-      <c r="C227" s="34"/>
-      <c r="D227" s="34"/>
-      <c r="E227" s="34" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F227" s="34"/>
-      <c r="G227" s="34"/>
-      <c r="H227" s="34"/>
-    </row>
-    <row r="228" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A228" s="34"/>
-      <c r="B228" s="34"/>
-      <c r="C228" s="34"/>
-      <c r="D228" s="34"/>
-      <c r="E228" s="34" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F228" s="34"/>
-      <c r="G228" s="34"/>
-      <c r="H228" s="34"/>
-    </row>
-    <row r="229" spans="1:8" ht="116.25" customHeight="1">
-      <c r="A229" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B229" s="34" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C229" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D229" s="34" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E229" s="34" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F229" s="34"/>
-      <c r="G229" s="34"/>
-      <c r="H229" s="34"/>
-    </row>
-    <row r="230" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A230" s="34"/>
-      <c r="B230" s="34"/>
-      <c r="C230" s="34"/>
-      <c r="D230" s="34"/>
-      <c r="E230" s="34" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F230" s="34"/>
-      <c r="G230" s="34"/>
-      <c r="H230" s="34"/>
+      <c r="E255" s="34" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F255" s="34"/>
+      <c r="G255" s="34"/>
+      <c r="H255" s="34"/>
+    </row>
+    <row r="256" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A256" s="34"/>
+      <c r="B256" s="34"/>
+      <c r="C256" s="34"/>
+      <c r="D256" s="34"/>
+      <c r="E256" s="34" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F256" s="34"/>
+      <c r="G256" s="34"/>
+      <c r="H256" s="34"/>
+    </row>
+    <row r="257" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A257" s="34"/>
+      <c r="B257" s="34"/>
+      <c r="C257" s="34"/>
+      <c r="D257" s="34"/>
+      <c r="E257" s="34" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F257" s="34"/>
+      <c r="G257" s="34"/>
+      <c r="H257" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:A2 B1:B1048576 D1:XFD1048576 C1:C2" xr:uid="{01441EBF-9E20-304C-B9EF-F6EE3487DD42}"/>
+    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 E78:F1048576 E1:E68 E70:E76 F1:F76 D1:D1048576 G1:XFD1048576 B1:B1048576" xr:uid="{D0ED730D-D2A3-C240-A7FF-53F7524A84FB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" prompt="Specify your tenancy's Home Region for creating IAM Groups." xr:uid="{6F25511B-170B-854B-9B23-246A2ECA0961}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$43</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" prompt="Specify Compartment name." xr:uid="{E3494CC5-D285-4342-B548-73643B074F06}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -41777,28 +42233,28 @@
     <col min="1" max="1" width="8.81640625" style="3"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
     <col min="6" max="6" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" customWidth="1"/>
     <col min="8" max="8" width="31.81640625" customWidth="1"/>
     <col min="9" max="9" width="41.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="168" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>722</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="122" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H1" s="123"/>
-      <c r="I1" s="124"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="124" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1" s="125"/>
+      <c r="I1" s="126"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="39" t="s">
@@ -42162,9 +42618,9 @@
     <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
     <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
     <col min="8" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="22.453125" customWidth="1"/>
@@ -42173,22 +42629,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="196" customHeight="1">
-      <c r="A1" s="117" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="117" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="121"/>
+      <c r="A1" s="119" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="119" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" s="42" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -42491,34 +42947,34 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.1796875" customWidth="1"/>
     <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="8.7265625" customWidth="1"/>
+    <col min="10" max="19" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="125" t="s">
-        <v>1323</v>
-      </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
+      <c r="A1" s="118" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="127" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="28" t="s">
@@ -42534,7 +42990,7 @@
         <v>653</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>654</v>
@@ -42598,13 +43054,13 @@
         <v>587</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>1325</v>
+        <v>1309</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1326</v>
+        <v>1310</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>1327</v>
+        <v>1311</v>
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
@@ -42618,16 +43074,16 @@
         <v>353</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>1329</v>
+        <v>1313</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\orahub_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E185763-0195-4559-A2D2-F8FD27B46BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F48EB-1447-405F-A491-2CB339F5DC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17431,8 +17431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -20402,7 +20402,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -20505,7 +20505,7 @@
         <v>1211</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>592</v>
+        <v>801</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>1212</v>
@@ -32550,7 +32550,7 @@
         <v>pvt-infra</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="60" customFormat="1" ht="26">
+    <row r="3" spans="1:48" s="60" customFormat="1">
       <c r="A3" s="60">
         <v>4</v>
       </c>
@@ -38435,7 +38435,7 @@
     <col min="3" max="4" width="20.1796875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42">
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" s="58" t="s">
         <v>667</v>
       </c>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE90FE82-3A4F-1446-8B65-F178C6416444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D9D95C-B026-5A48-A0C0-41219504B68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D9D95C-B026-5A48-A0C0-41219504B68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79C60F6-4C2C-B446-B2DA-61DDA14A37E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6820" yWindow="760" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="1391">
   <si>
     <t>Region</t>
   </si>
@@ -10733,9 +10733,6 @@
     <t>allow group AppDevAdmins to read logging-family in compartment Security</t>
   </si>
   <si>
-    <t>allow service cloudguard to manage cloudevents-rules in tenancy where target.rule.type='managed'</t>
-  </si>
-  <si>
     <t>Allow service vulnerability-scanning-service to manage instances in tenancy</t>
   </si>
   <si>
@@ -10776,12 +10773,6 @@
   </si>
   <si>
     <t>allow group DatabaseAdmins to read logging-family in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to read cloud-exadata-infrastructures in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to use cloud-vmclusters in compartment Database</t>
   </si>
   <si>
     <t>allow group DatabaseAdmins to manage db-nodes in compartment Database</t>
@@ -10851,7 +10842,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CD3 Automation Toolkit</t>
+      <t>CD3-OCI Automation Toolkit</t>
     </r>
     <r>
       <rPr>
@@ -10872,12 +10863,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Release - v12
-Introduced new service - Network Sources, 
-Enhancements - Added support for multiple Exa VM Clusters, OCVS Standard Shapes, 
-NLB fix, Instance Terraform
-</t>
-    </r>
+      <t>Release - v2024.1.0</t>
+    </r>
+  </si>
+  <si>
+    <t>Basic-Access-Policy</t>
+  </si>
+  <si>
+    <t>Policy to allow basic access</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>OKE-Clusters-Policy</t>
+  </si>
+  <si>
+    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
+  </si>
+  <si>
+    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
   </si>
 </sst>
 </file>
@@ -16524,6 +16547,9 @@
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Release-Info"/>
       <sheetName val="Compartments"/>
@@ -17079,7 +17105,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
   </sheetData>
@@ -38961,7 +38987,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I257"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -38978,7 +39004,7 @@
     <col min="8" max="8" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="42" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="42" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
         <v>1291</v>
       </c>
@@ -39772,125 +39798,133 @@
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
     </row>
-    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>661</v>
+        <v>1379</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>401</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>1139</v>
+        <v>1380</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>1140</v>
+        <v>1381</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
     </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="34"/>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34" t="s">
-        <v>1141</v>
+        <v>1382</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
     </row>
-    <row r="66" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="34"/>
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="s">
-        <v>1142</v>
+        <v>1383</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
       <c r="H66" s="34"/>
     </row>
-    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="34"/>
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34" t="s">
-        <v>1143</v>
+        <v>1384</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
     </row>
-    <row r="68" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>1116</v>
+        <v>661</v>
       </c>
       <c r="C68" s="34" t="s">
         <v>401</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>901</v>
+        <v>1139</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
     </row>
-    <row r="69" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
       <c r="E69" s="34" t="s">
-        <v>1346</v>
+        <v>1141</v>
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
     </row>
-    <row r="70" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
       <c r="D70" s="34"/>
       <c r="E70" s="34" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
     </row>
-    <row r="71" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34" t="s">
-        <v>1347</v>
+        <v>1143</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
     </row>
-    <row r="72" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
+    <row r="72" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A72" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>901</v>
+      </c>
       <c r="E72" s="34" t="s">
-        <v>1348</v>
+        <v>1144</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
@@ -39902,7 +39936,7 @@
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
-        <v>1349</v>
+        <v>1145</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
@@ -39914,7 +39948,7 @@
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
@@ -39926,87 +39960,87 @@
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
       <c r="H75" s="34"/>
     </row>
-    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="34"/>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34" t="s">
-        <v>1146</v>
+        <v>1348</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
     </row>
-    <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="34"/>
       <c r="B77" s="34"/>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F77" s="117"/>
+        <v>1349</v>
+      </c>
+      <c r="F77" s="34"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
     </row>
-    <row r="78" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="78" t="s">
-        <v>579</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>902</v>
-      </c>
+    <row r="78" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="34" t="s">
-        <v>903</v>
+        <v>1350</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
     </row>
-    <row r="79" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="34"/>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34" t="s">
-        <v>904</v>
+        <v>1146</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
       <c r="H79" s="34"/>
     </row>
-    <row r="80" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="34"/>
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34" t="s">
-        <v>905</v>
-      </c>
-      <c r="F80" s="34"/>
+        <v>1351</v>
+      </c>
+      <c r="F80" s="117"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
     </row>
-    <row r="81" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
+    <row r="81" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="78" t="s">
+        <v>579</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D81" s="34" t="s">
+        <v>902</v>
+      </c>
       <c r="E81" s="34" t="s">
-        <v>1353</v>
+        <v>903</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
@@ -40018,7 +40052,7 @@
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
       <c r="E82" s="34" t="s">
-        <v>1354</v>
+        <v>904</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
@@ -40030,7 +40064,7 @@
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
       <c r="E83" s="34" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
@@ -40041,20 +40075,20 @@
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
-      <c r="E84" s="34" t="s">
-        <v>907</v>
+      <c r="E84" s="31" t="s">
+        <v>1352</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
       <c r="H84" s="34"/>
     </row>
-    <row r="85" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="34"/>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
-      <c r="E85" s="34" t="s">
-        <v>908</v>
+      <c r="E85" s="31" t="s">
+        <v>1353</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -40065,8 +40099,8 @@
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
-      <c r="E86" s="34" t="s">
-        <v>909</v>
+      <c r="E86" s="31" t="s">
+        <v>906</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
@@ -40077,32 +40111,32 @@
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
-      <c r="E87" s="34" t="s">
-        <v>910</v>
+      <c r="E87" s="31" t="s">
+        <v>907</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
     </row>
-    <row r="88" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="34"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
-      <c r="E88" s="34" t="s">
-        <v>911</v>
+      <c r="E88" s="31" t="s">
+        <v>908</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
       <c r="H88" s="34"/>
     </row>
-    <row r="89" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="34"/>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
-      <c r="E89" s="34" t="s">
-        <v>912</v>
+      <c r="E89" s="31" t="s">
+        <v>909</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
@@ -40113,32 +40147,32 @@
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
-      <c r="E90" s="34" t="s">
-        <v>913</v>
+      <c r="E90" s="31" t="s">
+        <v>910</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
       <c r="H90" s="34"/>
     </row>
-    <row r="91" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A91" s="34"/>
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
-      <c r="E91" s="34" t="s">
-        <v>914</v>
+      <c r="E91" s="31" t="s">
+        <v>911</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
     </row>
-    <row r="92" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="34"/>
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
-      <c r="E92" s="34" t="s">
-        <v>915</v>
+      <c r="E92" s="31" t="s">
+        <v>912</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
@@ -40149,8 +40183,8 @@
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
-      <c r="E93" s="34" t="s">
-        <v>916</v>
+      <c r="E93" s="31" t="s">
+        <v>913</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
@@ -40161,8 +40195,8 @@
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
-      <c r="E94" s="34" t="s">
-        <v>917</v>
+      <c r="E94" s="31" t="s">
+        <v>914</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
@@ -40173,44 +40207,44 @@
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
-      <c r="E95" s="34" t="s">
-        <v>918</v>
+      <c r="E95" s="31" t="s">
+        <v>915</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
     </row>
-    <row r="96" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="34"/>
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
-      <c r="E96" s="34" t="s">
-        <v>919</v>
+      <c r="E96" s="31" t="s">
+        <v>916</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
       <c r="H96" s="34"/>
     </row>
-    <row r="97" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="34"/>
       <c r="B97" s="34"/>
       <c r="C97" s="34"/>
       <c r="D97" s="34"/>
-      <c r="E97" s="34" t="s">
-        <v>920</v>
+      <c r="E97" s="31" t="s">
+        <v>917</v>
       </c>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
       <c r="H97" s="34"/>
     </row>
-    <row r="98" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="34"/>
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
-      <c r="E98" s="34" t="s">
-        <v>921</v>
+      <c r="E98" s="31" t="s">
+        <v>918</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="34"/>
@@ -40221,8 +40255,8 @@
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
-      <c r="E99" s="34" t="s">
-        <v>922</v>
+      <c r="E99" s="31" t="s">
+        <v>919</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
@@ -40233,8 +40267,8 @@
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
       <c r="D100" s="34"/>
-      <c r="E100" s="34" t="s">
-        <v>1355</v>
+      <c r="E100" s="31" t="s">
+        <v>920</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="34"/>
@@ -40245,8 +40279,8 @@
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
       <c r="D101" s="34"/>
-      <c r="E101" s="34" t="s">
-        <v>1356</v>
+      <c r="E101" s="31" t="s">
+        <v>921</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="34"/>
@@ -40257,8 +40291,8 @@
       <c r="B102" s="34"/>
       <c r="C102" s="34"/>
       <c r="D102" s="34"/>
-      <c r="E102" s="34" t="s">
-        <v>1357</v>
+      <c r="E102" s="31" t="s">
+        <v>922</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
@@ -40269,8 +40303,8 @@
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
-      <c r="E103" s="34" t="s">
-        <v>1358</v>
+      <c r="E103" s="31" t="s">
+        <v>1354</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
@@ -40281,8 +40315,8 @@
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
       <c r="D104" s="34"/>
-      <c r="E104" s="34" t="s">
-        <v>923</v>
+      <c r="E104" s="31" t="s">
+        <v>1355</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
@@ -40293,8 +40327,8 @@
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
-      <c r="E105" s="34" t="s">
-        <v>924</v>
+      <c r="E105" s="31" t="s">
+        <v>1356</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
@@ -40305,8 +40339,8 @@
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
-      <c r="E106" s="34" t="s">
-        <v>1292</v>
+      <c r="E106" s="31" t="s">
+        <v>1357</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
@@ -40317,8 +40351,8 @@
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
       <c r="D107" s="34"/>
-      <c r="E107" s="34" t="s">
-        <v>925</v>
+      <c r="E107" s="31" t="s">
+        <v>923</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="34"/>
@@ -40329,8 +40363,8 @@
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
-      <c r="E108" s="34" t="s">
-        <v>926</v>
+      <c r="E108" s="31" t="s">
+        <v>924</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="34"/>
@@ -40341,8 +40375,8 @@
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
-      <c r="E109" s="34" t="s">
-        <v>927</v>
+      <c r="E109" s="31" t="s">
+        <v>1292</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
@@ -40353,8 +40387,8 @@
       <c r="B110" s="34"/>
       <c r="C110" s="34"/>
       <c r="D110" s="34"/>
-      <c r="E110" s="34" t="s">
-        <v>1359</v>
+      <c r="E110" s="31" t="s">
+        <v>925</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="34"/>
@@ -40365,8 +40399,8 @@
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
-      <c r="E111" s="34" t="s">
-        <v>1360</v>
+      <c r="E111" s="31" t="s">
+        <v>926</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
@@ -40377,8 +40411,8 @@
       <c r="B112" s="34"/>
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
-      <c r="E112" s="34" t="s">
-        <v>928</v>
+      <c r="E112" s="31" t="s">
+        <v>927</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
@@ -40389,8 +40423,8 @@
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
-      <c r="E113" s="34" t="s">
-        <v>929</v>
+      <c r="E113" s="31" t="s">
+        <v>1358</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
@@ -40401,8 +40435,8 @@
       <c r="B114" s="34"/>
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
-      <c r="E114" s="34" t="s">
-        <v>1361</v>
+      <c r="E114" s="31" t="s">
+        <v>1359</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
@@ -40413,8 +40447,8 @@
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
-      <c r="E115" s="34" t="s">
-        <v>1362</v>
+      <c r="E115" s="31" t="s">
+        <v>928</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
@@ -40425,8 +40459,8 @@
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
       <c r="D116" s="34"/>
-      <c r="E116" s="34" t="s">
-        <v>919</v>
+      <c r="E116" s="31" t="s">
+        <v>929</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
@@ -40438,7 +40472,7 @@
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
       <c r="E117" s="34" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
@@ -40450,7 +40484,7 @@
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
       <c r="E118" s="34" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="34"/>
@@ -40462,7 +40496,7 @@
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
       <c r="E119" s="34" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="34"/>
@@ -40474,7 +40508,7 @@
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
       <c r="E120" s="34" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
@@ -40485,7 +40519,7 @@
       <c r="B121" s="34"/>
       <c r="C121" s="34"/>
       <c r="D121" s="34"/>
-      <c r="E121" s="34" t="s">
+      <c r="E121" s="31" t="s">
         <v>922</v>
       </c>
       <c r="F121" s="34"/>
@@ -40542,7 +40576,7 @@
       <c r="C125" s="34"/>
       <c r="D125" s="34"/>
       <c r="E125" s="34" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="34"/>
@@ -40692,7 +40726,7 @@
       <c r="G137" s="34"/>
       <c r="H137" s="34"/>
     </row>
-    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="34"/>
       <c r="B138" s="34"/>
       <c r="C138" s="34"/>
@@ -41006,7 +41040,7 @@
       <c r="C163" s="34"/>
       <c r="D163" s="34"/>
       <c r="E163" s="34" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="F163" s="34"/>
       <c r="G163" s="34"/>
@@ -41018,7 +41052,7 @@
       <c r="C164" s="34"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="F164" s="34"/>
       <c r="G164" s="34"/>
@@ -41030,7 +41064,7 @@
       <c r="C165" s="34"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
@@ -41078,7 +41112,7 @@
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>
       <c r="E169" s="34" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="F169" s="34"/>
       <c r="G169" s="34"/>
@@ -41090,7 +41124,7 @@
       <c r="C170" s="34"/>
       <c r="D170" s="34"/>
       <c r="E170" s="34" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="F170" s="34"/>
       <c r="G170" s="34"/>
@@ -41156,7 +41190,7 @@
       <c r="A175" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="78" t="s">
+      <c r="B175" s="34" t="s">
         <v>584</v>
       </c>
       <c r="C175" s="34" t="s">
@@ -41550,7 +41584,7 @@
       <c r="C207" s="34"/>
       <c r="D207" s="34"/>
       <c r="E207" s="34" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="F207" s="34"/>
       <c r="G207" s="34"/>
@@ -41610,7 +41644,7 @@
       <c r="C212" s="34"/>
       <c r="D212" s="34"/>
       <c r="E212" s="34" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="F212" s="34"/>
       <c r="G212" s="34"/>
@@ -41622,7 +41656,7 @@
       <c r="C213" s="34"/>
       <c r="D213" s="34"/>
       <c r="E213" s="34" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="F213" s="34"/>
       <c r="G213" s="34"/>
@@ -41634,7 +41668,7 @@
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
       <c r="E214" s="34" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="F214" s="34"/>
       <c r="G214" s="34"/>
@@ -41646,7 +41680,7 @@
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
       <c r="E215" s="34" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="F215" s="34"/>
       <c r="G215" s="34"/>
@@ -42074,89 +42108,89 @@
       <c r="G250" s="35"/>
       <c r="H250" s="35"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A251" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B251" s="35"/>
-      <c r="C251" s="35"/>
-      <c r="D251" s="35"/>
-      <c r="E251" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="B251" s="35" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C251" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="D251" s="34" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E251" s="34" t="s">
+        <v>1387</v>
+      </c>
       <c r="F251" s="35"/>
       <c r="G251" s="35"/>
       <c r="H251" s="35"/>
     </row>
-    <row r="252" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B252" s="34" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C252" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D252" s="34" t="s">
-        <v>1029</v>
-      </c>
+    <row r="252" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A252" s="35"/>
+      <c r="B252" s="35"/>
+      <c r="C252" s="35"/>
+      <c r="D252" s="34"/>
       <c r="E252" s="34" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F252" s="34"/>
-      <c r="G252" s="34"/>
-      <c r="H252" s="34"/>
-    </row>
-    <row r="253" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="34"/>
-      <c r="B253" s="34"/>
-      <c r="C253" s="34"/>
+        <v>1388</v>
+      </c>
+      <c r="F252" s="35"/>
+      <c r="G252" s="35"/>
+      <c r="H252" s="35"/>
+    </row>
+    <row r="253" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A253" s="35"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="35"/>
       <c r="D253" s="34"/>
       <c r="E253" s="34" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F253" s="34"/>
-      <c r="G253" s="34"/>
-      <c r="H253" s="34"/>
-    </row>
-    <row r="254" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="34"/>
-      <c r="B254" s="34"/>
-      <c r="C254" s="34"/>
+        <v>1389</v>
+      </c>
+      <c r="F253" s="35"/>
+      <c r="G253" s="35"/>
+      <c r="H253" s="35"/>
+    </row>
+    <row r="254" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A254" s="35"/>
+      <c r="B254" s="35"/>
+      <c r="C254" s="35"/>
       <c r="D254" s="34"/>
       <c r="E254" s="34" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F254" s="34"/>
-      <c r="G254" s="34"/>
-      <c r="H254" s="34"/>
-    </row>
-    <row r="255" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="34" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F254" s="35"/>
+      <c r="G254" s="35"/>
+      <c r="H254" s="35"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" s="35"/>
+      <c r="C255" s="35"/>
+      <c r="D255" s="35"/>
+      <c r="E255" s="35"/>
+      <c r="F255" s="35"/>
+      <c r="G255" s="35"/>
+      <c r="H255" s="35"/>
+    </row>
+    <row r="256" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B255" s="34" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C255" s="34" t="s">
+      <c r="B256" s="34" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C256" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="D255" s="34" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E255" s="34" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F255" s="34"/>
-      <c r="G255" s="34"/>
-      <c r="H255" s="34"/>
-    </row>
-    <row r="256" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="34"/>
-      <c r="B256" s="34"/>
-      <c r="C256" s="34"/>
-      <c r="D256" s="34"/>
+      <c r="D256" s="34" t="s">
+        <v>1029</v>
+      </c>
       <c r="E256" s="34" t="s">
-        <v>1379</v>
+        <v>1030</v>
       </c>
       <c r="F256" s="34"/>
       <c r="G256" s="34"/>
@@ -42168,18 +42202,165 @@
       <c r="C257" s="34"/>
       <c r="D257" s="34"/>
       <c r="E257" s="34" t="s">
-        <v>1380</v>
+        <v>1031</v>
       </c>
       <c r="F257" s="34"/>
       <c r="G257" s="34"/>
       <c r="H257" s="34"/>
+    </row>
+    <row r="258" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="34"/>
+      <c r="B258" s="34"/>
+      <c r="C258" s="34"/>
+      <c r="D258" s="34"/>
+      <c r="E258" s="34" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F258" s="34"/>
+      <c r="G258" s="34"/>
+      <c r="H258" s="34"/>
+    </row>
+    <row r="259" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="34" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C259" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D259" s="34" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E259" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F259" s="34"/>
+      <c r="G259" s="34"/>
+      <c r="H259" s="34"/>
+    </row>
+    <row r="260" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="34"/>
+      <c r="B260" s="34"/>
+      <c r="C260" s="34"/>
+      <c r="D260" s="34"/>
+      <c r="E260" s="34" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F260" s="34"/>
+      <c r="G260" s="34"/>
+      <c r="H260" s="34"/>
+    </row>
+    <row r="261" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="34"/>
+      <c r="B261" s="34"/>
+      <c r="C261" s="34"/>
+      <c r="D261" s="34"/>
+      <c r="E261" s="34" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F261" s="34"/>
+      <c r="G261" s="34"/>
+      <c r="H261" s="34"/>
+    </row>
+    <row r="263" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="35"/>
+      <c r="B263" s="35"/>
+      <c r="C263" s="35"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="34"/>
+      <c r="F263" s="35"/>
+      <c r="G263" s="35"/>
+      <c r="H263" s="35"/>
+    </row>
+    <row r="264" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="35"/>
+      <c r="B264" s="35"/>
+      <c r="C264" s="35"/>
+      <c r="D264" s="34"/>
+      <c r="E264" s="34"/>
+      <c r="F264" s="35"/>
+      <c r="G264" s="35"/>
+      <c r="H264" s="35"/>
+    </row>
+    <row r="265" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="35"/>
+      <c r="B265" s="35"/>
+      <c r="C265" s="35"/>
+      <c r="D265" s="34"/>
+      <c r="E265" s="34"/>
+      <c r="F265" s="35"/>
+      <c r="G265" s="35"/>
+      <c r="H265" s="35"/>
+    </row>
+    <row r="266" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="35"/>
+      <c r="B266" s="35"/>
+      <c r="C266" s="35"/>
+      <c r="D266" s="34"/>
+      <c r="E266" s="34"/>
+      <c r="F266" s="35"/>
+      <c r="G266" s="35"/>
+      <c r="H266" s="35"/>
+    </row>
+    <row r="267" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="35"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="35"/>
+      <c r="D267" s="34"/>
+      <c r="E267" s="34"/>
+      <c r="F267" s="35"/>
+      <c r="G267" s="35"/>
+      <c r="H267" s="35"/>
+    </row>
+    <row r="268" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="35"/>
+      <c r="B268" s="35"/>
+      <c r="C268" s="35"/>
+      <c r="D268" s="34"/>
+      <c r="E268" s="34"/>
+      <c r="F268" s="35"/>
+      <c r="G268" s="35"/>
+      <c r="H268" s="35"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="35"/>
+      <c r="B269" s="35"/>
+      <c r="C269" s="35"/>
+      <c r="D269" s="34"/>
+      <c r="E269" s="34"/>
+      <c r="F269" s="35"/>
+      <c r="G269" s="35"/>
+      <c r="H269" s="35"/>
+    </row>
+    <row r="270" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="35"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="35"/>
+      <c r="D270" s="34"/>
+      <c r="E270" s="34"/>
+      <c r="F270" s="35"/>
+      <c r="G270" s="35"/>
+      <c r="H270" s="35"/>
+    </row>
+    <row r="271" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="35"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="35"/>
+      <c r="D271" s="34"/>
+      <c r="E271" s="34"/>
+      <c r="F271" s="35"/>
+      <c r="G271" s="35"/>
+      <c r="H271" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 E78:F1048576 E1:E68 E70:E76 F1:F76 D1:D1048576 G1:XFD1048576 B1:B1048576" xr:uid="{D0ED730D-D2A3-C240-A7FF-53F7524A84FB}"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 D263:XFD1048576 E1:E63 E68:E79 F1:F79 D1:D262 B1:B1048576 G1:XFD262 F81:F262 E81:E250 E255:E262" xr:uid="{DE12FAC0-E66F-D747-AC5E-94B6B1CD17FA}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E64:E67 E251:E254" xr:uid="{28F252A0-4D90-F14A-ACD2-8A814CFD408B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79C60F6-4C2C-B446-B2DA-61DDA14A37E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39598E82-37E1-2345-90C2-58A2412AC712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="760" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -10829,6 +10829,42 @@
     <t>allow dynamic-group Database-kms-dynamic-group to use secret-family in compartment Database</t>
   </si>
   <si>
+    <t>Basic-Access-Policy</t>
+  </si>
+  <si>
+    <t>Policy to allow basic access</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>OKE-Clusters-Policy</t>
+  </si>
+  <si>
+    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
+  </si>
+  <si>
+    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
 </t>
@@ -10842,7 +10878,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CD3-OCI Automation Toolkit</t>
+      <t>CD3 Automation Toolkit</t>
     </r>
     <r>
       <rPr>
@@ -10863,44 +10899,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.1.0</t>
-    </r>
-  </si>
-  <si>
-    <t>Basic-Access-Policy</t>
-  </si>
-  <si>
-    <t>Policy to allow basic access</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>OKE-Clusters-Policy</t>
-  </si>
-  <si>
-    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
-  </si>
-  <si>
-    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
+      <t>Release - v2024.2.0</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -17105,7 +17105,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
     </row>
   </sheetData>
@@ -39803,16 +39803,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>401</v>
       </c>
       <c r="D64" s="34" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E64" s="34" t="s">
         <v>1380</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>1381</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
@@ -39824,7 +39824,7 @@
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
@@ -39836,7 +39836,7 @@
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
@@ -39848,7 +39848,7 @@
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
@@ -42113,16 +42113,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="35" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C251" s="35" t="s">
         <v>401</v>
       </c>
       <c r="D251" s="34" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E251" s="34" t="s">
         <v>1386</v>
-      </c>
-      <c r="E251" s="34" t="s">
-        <v>1387</v>
       </c>
       <c r="F251" s="35"/>
       <c r="G251" s="35"/>
@@ -42134,7 +42134,7 @@
       <c r="C252" s="35"/>
       <c r="D252" s="34"/>
       <c r="E252" s="34" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F252" s="35"/>
       <c r="G252" s="35"/>
@@ -42146,7 +42146,7 @@
       <c r="C253" s="35"/>
       <c r="D253" s="34"/>
       <c r="E253" s="34" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F253" s="35"/>
       <c r="G253" s="35"/>
@@ -42158,7 +42158,7 @@
       <c r="C254" s="35"/>
       <c r="D254" s="34"/>
       <c r="E254" s="34" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F254" s="35"/>
       <c r="G254" s="35"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39598E82-37E1-2345-90C2-58A2412AC712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C8282E-6C08-974C-81FF-6FE70370BDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15980" windowHeight="17680" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -17089,7 +17089,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -17116,10 +17116,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17179,6 +17182,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17421,10 +17427,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18612,10 +18621,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18737,10 +18749,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18842,10 +18857,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18990,10 +19008,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19992,10 +20013,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA413705-847B-6E4F-9F9B-CE8784FFABC1}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20391,10 +20415,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7C12F0-8060-EA44-87AE-DB3221A53550}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20580,10 +20607,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20749,10 +20779,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21007,10 +21040,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21487,10 +21523,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21708,10 +21747,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22113,6 +22155,9 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A44B969-993D-C24C-97FB-83F9FF8AE3F3}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -22593,10 +22638,13 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22888,10 +22936,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23243,10 +23294,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23511,10 +23565,13 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24241,10 +24298,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24396,10 +24456,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BE0E41-537F-7246-83D7-FBECEAFB1B63}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24928,10 +24991,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25195,10 +25261,13 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933A3390-C62C-3046-8D43-EC033227D2C1}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25404,10 +25473,13 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAC941B-7D7C-5A47-81A3-E57084FB1E9A}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25621,10 +25693,13 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AA996"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29022,10 +29097,13 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29155,10 +29233,13 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="78" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29440,10 +29521,13 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2897B182-54F2-194A-9B0D-ED12985CF8AD}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29580,10 +29664,13 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783FF196-9133-5043-859F-A2C95A1A10AB}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29700,6 +29787,9 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B571C7C5-7BA7-1146-859E-960B753F70D5}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -31211,10 +31301,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A15AC4-231B-E24B-9231-25D1F24B46F9}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="156.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -38918,6 +39011,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5489ADD-68C6-334D-9323-15AA57AD40CF}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38987,10 +39083,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -42369,6 +42468,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42753,10 +42855,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43088,10 +43193,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C8282E-6C08-974C-81FF-6FE70370BDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC868D0D-EDD3-7546-893F-02D3C03E1E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15980" windowHeight="17680" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -4748,164 +4748,6 @@
     <t>AppDev&amp;TCCInstance:80</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Allowed values for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Network Type" - FLANNEL_OVERLAY </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OCI_VCN_IP_NATIVE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enter subnet name as :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;vcn-name&gt;_&lt;subnet-name&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">or the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ocid
-"API Endpoint Pub Address" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Represents whether public address needs to be assigned to the control plane or not(TRUE|FALSE).</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"SSH Key Var Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Columns with nsgs accept comma seperated list of NSG names or ocids that needs to be part of the particular component, leave it blank if it doesnot need to be part of any NSG. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>prod-vcn-lbr-nsg</t>
   </si>
   <si>
@@ -9813,8 +9655,584 @@
     <t>dbServer-2, dbServer-3</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+    <t>Plugin Vulnerability Scanning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Name) is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Description" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Description) is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Public Networks" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It is an optional field. Specify comma separated list of public CIDRs to be included.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"OCI Networks" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It is an optional field. Format: Specify comma separated list of VCN CIDR to be included. For ex: 10.0.2.0/18,10.0.3.0/18
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"User Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"First Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"User email" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an optional field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Group Names" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comma Separated groups assigned to user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Disable Capabilities" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify comma seperated list of capabilities to be disabled for user. For ex: can_use_api_keys, can_use_console_password, can_use_auth_tokens, can_use_customer_secret_keys, can_use_db_credentials, can_use_oauth2client_credentials, can_use_smtp_credentials. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>By default all these capabilities are enabled for a user.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(can_use_db_credentials, can_use_oauth2client_credentials cannot be disabled through CD3. It is currently not supported by terraform)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <t>User Description</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
+"Create_Is PV Encryption In Transit Enabled" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use this attribute for setting the parameter while launching a new instance. Specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Defaults to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">when left empty.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Update_Is PV Encryption In Transit Enabled"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Use this attribute for setting the parameter for an existing instance. Leave it empty while launching a new instance.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                               </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Backup Policy" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
+                                   Values can be either of the following: Gold | Silver | Bronze
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom Policy Compartment Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"NSGs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"DedicatedVMHost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Leave this field empty if the instance does not need to be launched on dedicated vm host.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Plugin Vulnerability Scanning" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use this column to enable or disable the 'Vulnerability Scanning' plugin for this instance. Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enabled or Disabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Enable/Disable 
+other plugins by adding new columns with name as - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Plugin &lt;Plugin_Name_As_It_Appears_In_Console&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eg for 'Bastion', column name will be 'Plugin Bastion'
 </t>
     </r>
     <r>
@@ -9823,6 +10241,251 @@
         <i/>
         <u/>
         <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please add column '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is Live Migration preferred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' and set the value to True to enable live migration for the instance. It will be enabled if it is compatible.</t>
+    </r>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage keys in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use key-delegate in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage secret-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage private-ips in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to manage instances in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read compartments in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read repos in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read vnics in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read vnic-attachments in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service blockstorage, oke, streaming, Fssoc1Prod to use keys in tenancy</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage cloud-exadata-infrastructures in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage cloud-vmclusters in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use vnics in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use key-delegate in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage secret-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-nodes in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-homes in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage databases in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-backups in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage users in tenancy where all {request.operation != 'ListApiKeys',request.operation != 'ListAuthTokens',request.operation != 'ListCustomerSecretKeys',request.operation != 'UploadApiKey',request.operation != 'DeleteApiKey',request.operation != 'UpdateAuthToken',request.operation != 'CreateAuthToken',request.operation != 'DeleteAuthToken',request.operation != 'CreateSecretKey',request.operation != 'UpdateCustomerSecretKey',request.operation != 'DeleteCustomerSecretKey'}</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage keys in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to use key-delegate in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage secret-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to use key-delegate in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage private-ips in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use secret-family in compartment Database</t>
+  </si>
+  <si>
+    <t>Basic-Access-Policy</t>
+  </si>
+  <si>
+    <t>Policy to allow basic access</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>OKE-Clusters-Policy</t>
+  </si>
+  <si>
+    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
+  </si>
+  <si>
+    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -9901,7 +10564,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
+      <t xml:space="preserve"> Accepts SSH Key value or the name of the key defined under variable  instance_ssh_keys in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
 </t>
     </r>
     <r>
@@ -10082,26 +10745,22 @@
     </r>
   </si>
   <si>
-    <t>Plugin Vulnerability Scanning</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Name) is a mandatory field.
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Allowed values for </t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -10109,21 +10768,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"Description" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Description) is a mandatory field.
+      <t xml:space="preserve">"Network Type" - FLANNEL_OVERLAY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OCI_VCN_IP_NATIVE
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enter subnet name as :</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -10131,18 +10811,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"Public Networks" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">It is an optional field. Specify comma separated list of public CIDRs to be included.
-</t>
+      <t xml:space="preserve"> &lt;vcn-name&gt;_&lt;subnet-name&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or the </t>
     </r>
     <r>
       <rPr>
@@ -10153,18 +10832,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"OCI Networks" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">It is an optional field. Format: Specify comma separated list of VCN CIDR to be included. For ex: 10.0.2.0/18,10.0.3.0/18
-</t>
+      <t xml:space="preserve">ocid
+"API Endpoint Pub Address" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Represents whether public address needs to be assigned to the control plane or not(TRUE|FALSE).</t>
     </r>
     <r>
       <rPr>
@@ -10175,47 +10854,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"User Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field.
-</t>
+      <t xml:space="preserve">
+"SSH Key Var Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accepts SSH Key value or the name name of the key defined under variable  oke_ssh_keys in variables_&lt;region&gt;.tf filecontaining SSH key; Multiple keys should be separated by \n</t>
     </r>
     <r>
       <rPr>
@@ -10226,651 +10876,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">"First Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"User email" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is an optional field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Group Names" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comma Separated groups assigned to user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Disable Capabilities" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify comma seperated list of capabilities to be disabled for user. For ex: can_use_api_keys, can_use_console_password, can_use_auth_tokens, can_use_customer_secret_keys, can_use_db_credentials, can_use_oauth2client_credentials, can_use_smtp_credentials. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>By default all these capabilities are enabled for a user.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(can_use_db_credentials, can_use_oauth2client_credentials cannot be disabled through CD3. It is currently not supported by terraform)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <t>User Description</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
-"Create_Is PV Encryption In Transit Enabled" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Use this attribute for setting the parameter while launching a new instance. Specify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Defaults to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">false </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">when left empty.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Update_Is PV Encryption In Transit Enabled"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Use this attribute for setting the parameter for an existing instance. Leave it empty while launching a new instance.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                               </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Backup Policy" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
-                                   Values can be either of the following: Gold | Silver | Bronze
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Custom Policy Compartment Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"NSGs"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"DedicatedVMHost"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Leave this field empty if the instance does not need to be launched on dedicated vm host.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Plugin Vulnerability Scanning" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Use this column to enable or disable the 'Vulnerability Scanning' plugin for this instance. Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enabled or Disabled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Enable/Disable 
-other plugins by adding new columns with name as - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Plugin &lt;Plugin_Name_As_It_Appears_In_Console&gt;" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eg for 'Bastion', column name will be 'Plugin Bastion'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Note </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Please add column '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Is Live Migration preferred</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' and set the value to True to enable live migration for the instance. It will be enabled if it is compatible.</t>
-    </r>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to manage keys in compartment AppDev</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to use key-delegate in compartment AppDev</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to manage secret-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to manage private-ips in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to use vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to read logging-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow service vulnerability-scanning-service to manage instances in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service vulnerability-scanning-service to read compartments in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service vulnerability-scanning-service to read repos in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service vulnerability-scanning-service to read vnics in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service vulnerability-scanning-service to read vnic-attachments in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service blockstorage, oke, streaming, Fssoc1Prod to use keys in tenancy</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage cloud-exadata-infrastructures in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage cloud-vmclusters in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to use vnics in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage keys in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to use key-delegate in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage secret-family in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to use vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to read logging-family in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage db-nodes in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage db-homes in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage databases in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage db-backups in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group IAMAdmins to manage users in tenancy where all {request.operation != 'ListApiKeys',request.operation != 'ListAuthTokens',request.operation != 'ListCustomerSecretKeys',request.operation != 'UploadApiKey',request.operation != 'DeleteApiKey',request.operation != 'UpdateAuthToken',request.operation != 'CreateAuthToken',request.operation != 'DeleteAuthToken',request.operation != 'CreateSecretKey',request.operation != 'UpdateCustomerSecretKey',request.operation != 'DeleteCustomerSecretKey'}</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to manage keys in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to use key-delegate in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to manage secret-family in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to use vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to read logging-family in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to use key-delegate in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to manage private-ips in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read keys in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read keys in compartment AppDev</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read keys in compartment Database</t>
-  </si>
-  <si>
-    <t>allow dynamic-group Database-kms-dynamic-group to use vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow dynamic-group Database-kms-dynamic-group to use keys in compartment Database</t>
-  </si>
-  <si>
-    <t>allow dynamic-group Database-kms-dynamic-group to use secret-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Basic-Access-Policy</t>
-  </si>
-  <si>
-    <t>Policy to allow basic access</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>OKE-Clusters-Policy</t>
-  </si>
-  <si>
-    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
-  </si>
-  <si>
-    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Columns with nsgs accept comma seperated list of NSG names or ocids that needs to be part of the particular component, leave it blank if it doesnot need to be part of any NSG. </t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -10878,28 +10898,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release - v2024.2.0</t>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -17105,7 +17105,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
   </sheetData>
@@ -17134,7 +17134,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="42" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B1" s="126"/>
     </row>
@@ -17205,7 +17205,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -17459,7 +17459,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -17470,7 +17470,7 @@
       <c r="H1" s="120"/>
       <c r="I1" s="123"/>
       <c r="J1" s="128" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K1" s="128"/>
       <c r="L1" s="128"/>
@@ -17497,7 +17497,7 @@
         <v>312</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>11</v>
@@ -18140,13 +18140,13 @@
         <v>589</v>
       </c>
       <c r="D14" s="55" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F14" s="55" t="s">
         <v>1181</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>1182</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>51</v>
@@ -18156,11 +18156,11 @@
       </c>
       <c r="I14" s="55"/>
       <c r="J14" s="55" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="K14" s="55"/>
       <c r="L14" s="56" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="M14" s="56" t="s">
         <v>21</v>
@@ -18195,13 +18195,13 @@
         <v>589</v>
       </c>
       <c r="D15" s="55" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F15" s="55" t="s">
         <v>1184</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>1185</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>51</v>
@@ -18211,7 +18211,7 @@
       </c>
       <c r="I15" s="55"/>
       <c r="J15" s="55" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
@@ -18646,7 +18646,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -18773,7 +18773,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -18880,7 +18880,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -19037,7 +19037,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -20037,7 +20037,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1" s="129"/>
       <c r="C1" s="129"/>
@@ -20056,22 +20056,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>1186</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>1187</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>1188</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>1189</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>1190</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>1191</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>424</v>
@@ -20098,19 +20098,19 @@
         <v>353</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1192</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>1193</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>1194</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="G4" s="34" t="s">
         <v>1195</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>1196</v>
       </c>
       <c r="H4" s="34">
         <v>3600</v>
@@ -20125,19 +20125,19 @@
         <v>353</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>1192</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>1193</v>
-      </c>
       <c r="E5" s="34" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>1197</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="G5" s="34" t="s">
         <v>1198</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>1199</v>
       </c>
       <c r="H5" s="34">
         <v>300</v>
@@ -20152,19 +20152,19 @@
         <v>353</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>1200</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="34" t="s">
         <v>1201</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="34" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>1202</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>1203</v>
       </c>
       <c r="H6" s="34">
         <v>300</v>
@@ -20441,7 +20441,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="130" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1" s="131"/>
       <c r="C1" s="131"/>
@@ -20468,22 +20468,22 @@
         <v>312</v>
       </c>
       <c r="E2" s="28" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>1204</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>1205</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>1206</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>1207</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>1208</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>1209</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>424</v>
@@ -20518,20 +20518,20 @@
         <v>586</v>
       </c>
       <c r="E4" s="34" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>1210</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>1211</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>801</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="31" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K4" s="31"/>
     </row>
@@ -20549,16 +20549,16 @@
         <v>588</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>592</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -20628,7 +20628,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -20799,7 +20799,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="42" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -20843,7 +20843,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>559</v>
@@ -21046,7 +21046,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21075,7 +21075,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1334</v>
+        <v>1389</v>
       </c>
       <c r="B1" s="133"/>
       <c r="C1" s="133"/>
@@ -21085,7 +21085,7 @@
       <c r="G1" s="133"/>
       <c r="H1" s="134"/>
       <c r="I1" s="119" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="J1" s="120"/>
       <c r="K1" s="120"/>
@@ -21146,7 +21146,7 @@
         <v>811</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>93</v>
@@ -21164,7 +21164,7 @@
         <v>96</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="V2" s="28" t="s">
         <v>424</v>
@@ -21290,7 +21290,7 @@
       </c>
       <c r="N5" s="55"/>
       <c r="O5" s="55" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="P5" s="55" t="s">
         <v>101</v>
@@ -21304,7 +21304,7 @@
         <v>89</v>
       </c>
       <c r="U5" s="56" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="V5" s="55"/>
     </row>
@@ -21354,7 +21354,7 @@
       </c>
       <c r="T6" s="55"/>
       <c r="U6" s="56" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="V6" s="55"/>
     </row>
@@ -21547,7 +21547,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="127" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -21573,7 +21573,7 @@
         <v>104</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>105</v>
@@ -21778,7 +21778,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="135" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -22199,7 +22199,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>1088</v>
+        <v>1390</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -22215,7 +22215,7 @@
       <c r="M1" s="120"/>
       <c r="N1" s="123"/>
       <c r="O1" s="132" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="P1" s="133"/>
       <c r="Q1" s="133"/>
@@ -22394,7 +22394,7 @@
         <v>1074</v>
       </c>
       <c r="L4" s="100" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="M4" s="100" t="s">
         <v>1075</v>
@@ -22409,7 +22409,7 @@
         <v>32</v>
       </c>
       <c r="Q4" s="100" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R4" s="100">
         <v>1</v>
@@ -22418,7 +22418,7 @@
         <v>64</v>
       </c>
       <c r="T4" s="100" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="U4" s="100" t="s">
         <v>1077</v>
@@ -22467,7 +22467,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="56" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R5" s="56">
         <v>2</v>
@@ -22539,7 +22539,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="56" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R6" s="56">
         <v>1</v>
@@ -22548,7 +22548,7 @@
         <v>64</v>
       </c>
       <c r="T6" s="100" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="U6" s="100" t="s">
         <v>1077</v>
@@ -22665,7 +22665,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -22964,7 +22964,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -23318,7 +23318,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -24224,7 +24224,7 @@
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
       <c r="J23" s="55" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
@@ -25011,7 +25011,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="42" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -25497,7 +25497,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -25725,7 +25725,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -29118,7 +29118,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -29180,7 +29180,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="95" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F4" s="56">
         <v>2</v>
@@ -29277,7 +29277,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1" s="133"/>
       <c r="C1" s="133"/>
@@ -29339,16 +29339,16 @@
         <v>752</v>
       </c>
       <c r="K2" s="68" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L2" s="68" t="s">
         <v>1329</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="M2" s="68" t="s">
         <v>1330</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="N2" s="68" t="s">
         <v>1331</v>
-      </c>
-      <c r="N2" s="68" t="s">
-        <v>1332</v>
       </c>
       <c r="O2" s="68" t="s">
         <v>753</v>
@@ -29444,7 +29444,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="95" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="O4" s="95" t="b">
         <v>1</v>
@@ -29466,7 +29466,7 @@
     </row>
     <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
   </sheetData>
@@ -29541,7 +29541,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1" s="142"/>
       <c r="C1" s="142"/>
@@ -29569,43 +29569,43 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D2" s="111" t="s">
         <v>1217</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="E2" s="111" t="s">
         <v>1218</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="F2" s="29" t="s">
         <v>1219</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="111" t="s">
         <v>1220</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="H2" s="29" t="s">
         <v>1221</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="29" t="s">
         <v>1222</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>1223</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="K2" s="113" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L2" s="114" t="s">
+        <v>1326</v>
+      </c>
+      <c r="M2" s="29" t="s">
         <v>1224</v>
       </c>
-      <c r="K2" s="113" t="s">
-        <v>1326</v>
-      </c>
-      <c r="L2" s="114" t="s">
-        <v>1327</v>
-      </c>
-      <c r="M2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>1225</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>1226</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>1227</v>
       </c>
       <c r="P2" s="29" t="s">
         <v>93</v>
@@ -29685,7 +29685,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1" s="133"/>
       <c r="C1" s="133"/>
@@ -29706,43 +29706,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C2" s="111" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>1229</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>1230</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>1231</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>1232</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>1233</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="29" t="s">
         <v>1234</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>1235</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>1236</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>1237</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>1238</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>1239</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>1240</v>
       </c>
       <c r="O2" s="50"/>
     </row>
@@ -29821,7 +29821,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="281.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="144" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1" s="145"/>
       <c r="C1" s="145"/>
@@ -29849,49 +29849,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>1241</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>1242</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>1243</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>1244</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>1245</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>1246</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>1247</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="29" t="s">
         <v>1248</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="28" t="s">
         <v>1249</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="29" t="s">
         <v>1250</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>1251</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>1252</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>1253</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>1254</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>1255</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>424</v>
@@ -29910,43 +29910,43 @@
         <v>556</v>
       </c>
       <c r="C4" s="35" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>1256</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="E4" s="35" t="s">
         <v>1257</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="35" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>1258</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G4" s="35" t="s">
+      <c r="H4" s="35" t="s">
         <v>1259</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="I4" s="31" t="s">
+        <v>1319</v>
+      </c>
+      <c r="J4" s="30" t="s">
         <v>1260</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>1320</v>
-      </c>
-      <c r="J4" s="30" t="s">
+      <c r="K4" s="30" t="s">
         <v>1261</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="L4" s="30" t="s">
         <v>1262</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>1263</v>
       </c>
       <c r="M4" s="30" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="31" t="s">
+        <v>1263</v>
+      </c>
+      <c r="O4" s="30" t="s">
         <v>1264</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>1265</v>
       </c>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
@@ -29959,40 +29959,40 @@
         <v>556</v>
       </c>
       <c r="C5" s="35" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>1256</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="35" t="s">
         <v>1257</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="35" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>1258</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="H5" s="35" t="s">
         <v>1259</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>1260</v>
-      </c>
       <c r="I5" s="31" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="K5" s="30" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>1266</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>1267</v>
       </c>
       <c r="M5" s="30" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
@@ -30006,22 +30006,22 @@
         <v>556</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D6" s="35" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>1257</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="35" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>1258</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G6" s="35" t="s">
+      <c r="H6" s="35" t="s">
         <v>1259</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>1260</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="30"/>
@@ -30041,38 +30041,38 @@
         <v>556</v>
       </c>
       <c r="C7" s="35" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>1316</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>1258</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>1259</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>1260</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>1317</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="M7" s="30" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
@@ -30459,7 +30459,7 @@
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F12" s="35"/>
       <c r="H12" s="35" t="s">
@@ -30476,7 +30476,7 @@
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F13" s="35"/>
       <c r="H13" s="35" t="s">
@@ -31323,7 +31323,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="42" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -31337,19 +31337,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1172</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>1173</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>1174</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1175</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>424</v>
@@ -32339,25 +32339,25 @@
         <v>669</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E1" s="67" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F1" s="67" t="s">
         <v>1273</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="G1" s="67" t="s">
         <v>1274</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="H1" s="67" t="s">
         <v>1275</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="I1" s="67" t="s">
         <v>1276</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="J1" s="67" t="s">
         <v>1277</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>1278</v>
       </c>
       <c r="K1" s="67" t="s">
         <v>671</v>
@@ -32459,19 +32459,19 @@
         <v>1050</v>
       </c>
       <c r="AR1" s="58" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AS1" s="58" t="s">
         <v>1092</v>
       </c>
-      <c r="AS1" s="58" t="s">
-        <v>1093</v>
-      </c>
       <c r="AT1" s="58" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AU1" s="58" t="s">
         <v>670</v>
       </c>
       <c r="AV1" s="58" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="60" customFormat="1" x14ac:dyDescent="0.2">
@@ -32517,7 +32517,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="M2" s="61" t="s">
         <v>38</v>
@@ -32774,7 +32774,7 @@
         <v>1</v>
       </c>
       <c r="AS3" s="60" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AT3" s="60" t="str">
         <f ca="1"/>
@@ -32950,7 +32950,7 @@
       </c>
       <c r="K5" s="61"/>
       <c r="L5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="M5" s="61"/>
       <c r="N5" s="61" t="s">
@@ -33052,7 +33052,7 @@
       </c>
       <c r="K6" s="61"/>
       <c r="L6" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
@@ -33390,7 +33390,7 @@
       </c>
       <c r="K10" s="61"/>
       <c r="L10" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="M10" s="61"/>
       <c r="N10" s="61"/>
@@ -33474,7 +33474,7 @@
       </c>
       <c r="K11" s="61"/>
       <c r="L11" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="M11" s="61"/>
       <c r="N11" s="61"/>
@@ -33554,7 +33554,7 @@
       </c>
       <c r="K12" s="61"/>
       <c r="L12" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="M12" s="61"/>
       <c r="N12" s="61"/>
@@ -33628,7 +33628,7 @@
       </c>
       <c r="K13" s="61"/>
       <c r="L13" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="M13" s="61"/>
       <c r="N13" s="61"/>
@@ -33702,7 +33702,7 @@
       </c>
       <c r="K14" s="61"/>
       <c r="L14" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="M14" s="61"/>
       <c r="N14" s="61"/>
@@ -33924,7 +33924,7 @@
       </c>
       <c r="K17" s="61"/>
       <c r="L17" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="M17" s="61"/>
       <c r="N17" s="61"/>
@@ -33998,7 +33998,7 @@
       </c>
       <c r="K18" s="61"/>
       <c r="L18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="M18" s="61"/>
       <c r="N18" s="61"/>
@@ -34072,7 +34072,7 @@
       </c>
       <c r="K19" s="61"/>
       <c r="L19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="M19" s="61"/>
       <c r="N19" s="61"/>
@@ -34220,7 +34220,7 @@
       </c>
       <c r="K21" s="61"/>
       <c r="L21" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="M21" s="61"/>
       <c r="N21" s="61"/>
@@ -34294,7 +34294,7 @@
       </c>
       <c r="K22" s="61"/>
       <c r="L22" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="M22" s="61"/>
       <c r="N22" s="61"/>
@@ -34368,7 +34368,7 @@
       </c>
       <c r="K23" s="61"/>
       <c r="L23" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="M23" s="61"/>
       <c r="N23" s="61"/>
@@ -34516,7 +34516,7 @@
       </c>
       <c r="K25" s="61"/>
       <c r="L25" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="M25" s="61"/>
       <c r="N25" s="61"/>
@@ -34812,7 +34812,7 @@
       </c>
       <c r="K29" s="61"/>
       <c r="L29" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="M29" s="61"/>
       <c r="N29" s="61"/>
@@ -34960,7 +34960,7 @@
       </c>
       <c r="K31" s="61"/>
       <c r="L31" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="M31" s="61"/>
       <c r="N31" s="61"/>
@@ -35034,7 +35034,7 @@
       </c>
       <c r="K32" s="61"/>
       <c r="L32" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="M32" s="61"/>
       <c r="N32" s="61"/>
@@ -35182,7 +35182,7 @@
       </c>
       <c r="K34" s="61"/>
       <c r="L34" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="M34" s="61"/>
       <c r="N34" s="61"/>
@@ -35330,7 +35330,7 @@
       </c>
       <c r="K36" s="61"/>
       <c r="L36" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="M36" s="61"/>
       <c r="N36" s="61"/>
@@ -35404,7 +35404,7 @@
       </c>
       <c r="K37" s="61"/>
       <c r="L37" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="M37" s="61"/>
       <c r="N37" s="61"/>
@@ -38528,10 +38528,10 @@
         <v>721</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -39032,7 +39032,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="42" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B1" s="121"/>
       <c r="C1" s="121"/>
@@ -39051,10 +39051,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>1176</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>1177</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>424</v>
@@ -39105,7 +39105,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
@@ -39155,7 +39155,7 @@
         <v>643</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -39167,7 +39167,7 @@
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -39451,7 +39451,7 @@
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -39463,7 +39463,7 @@
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -39475,7 +39475,7 @@
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -39535,7 +39535,7 @@
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
@@ -39559,7 +39559,7 @@
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="34" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -39619,7 +39619,7 @@
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
       <c r="E41" s="34" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -39655,7 +39655,7 @@
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -39667,7 +39667,7 @@
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
@@ -39679,7 +39679,7 @@
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
       <c r="E46" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
@@ -39699,7 +39699,7 @@
         <v>578</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -39711,7 +39711,7 @@
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
       <c r="E48" s="34" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -39723,7 +39723,7 @@
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
       <c r="E49" s="34" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="34"/>
@@ -39735,7 +39735,7 @@
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
       <c r="E50" s="34" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
@@ -39747,7 +39747,7 @@
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
       <c r="E51" s="34" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
@@ -39759,7 +39759,7 @@
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
@@ -39771,7 +39771,7 @@
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
       <c r="E53" s="34" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
@@ -39783,7 +39783,7 @@
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
       <c r="E54" s="34" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
@@ -39795,7 +39795,7 @@
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -39807,7 +39807,7 @@
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
       <c r="E56" s="34" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
@@ -39819,7 +39819,7 @@
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
       <c r="E57" s="34" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
@@ -39831,7 +39831,7 @@
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
@@ -39843,7 +39843,7 @@
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
       <c r="E59" s="34" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
@@ -39855,7 +39855,7 @@
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
@@ -39867,7 +39867,7 @@
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
@@ -39879,7 +39879,7 @@
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
@@ -39891,7 +39891,7 @@
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
       <c r="E63" s="34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
@@ -39902,16 +39902,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>401</v>
       </c>
       <c r="D64" s="34" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
@@ -39923,7 +39923,7 @@
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
@@ -39935,7 +39935,7 @@
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
@@ -39947,7 +39947,7 @@
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
@@ -39964,10 +39964,10 @@
         <v>401</v>
       </c>
       <c r="D68" s="34" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E68" s="34" t="s">
         <v>1139</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>1140</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
@@ -39979,7 +39979,7 @@
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
       <c r="E69" s="34" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
@@ -39991,7 +39991,7 @@
       <c r="C70" s="34"/>
       <c r="D70" s="34"/>
       <c r="E70" s="34" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
@@ -40003,7 +40003,7 @@
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
@@ -40014,7 +40014,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C72" s="34" t="s">
         <v>401</v>
@@ -40023,7 +40023,7 @@
         <v>901</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
@@ -40035,7 +40035,7 @@
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
@@ -40047,7 +40047,7 @@
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
@@ -40059,7 +40059,7 @@
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
@@ -40071,7 +40071,7 @@
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
@@ -40083,7 +40083,7 @@
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
@@ -40095,7 +40095,7 @@
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
@@ -40107,7 +40107,7 @@
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
@@ -40119,7 +40119,7 @@
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F80" s="117"/>
       <c r="G80" s="34"/>
@@ -40175,7 +40175,7 @@
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="E84" s="31" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
@@ -40187,7 +40187,7 @@
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
       <c r="E85" s="31" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -40403,7 +40403,7 @@
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
       <c r="E103" s="31" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
@@ -40415,7 +40415,7 @@
       <c r="C104" s="34"/>
       <c r="D104" s="34"/>
       <c r="E104" s="31" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
@@ -40427,7 +40427,7 @@
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
       <c r="E105" s="31" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
@@ -40439,7 +40439,7 @@
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
       <c r="E106" s="31" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
@@ -40475,7 +40475,7 @@
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
       <c r="E109" s="31" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
@@ -40523,7 +40523,7 @@
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
       <c r="E113" s="31" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
@@ -40535,7 +40535,7 @@
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
       <c r="E114" s="31" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
@@ -40571,7 +40571,7 @@
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
       <c r="E117" s="34" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
@@ -40583,7 +40583,7 @@
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
       <c r="E118" s="34" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="34"/>
@@ -40595,7 +40595,7 @@
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
       <c r="E119" s="34" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="34"/>
@@ -40607,7 +40607,7 @@
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
       <c r="E120" s="34" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
@@ -40639,7 +40639,7 @@
         <v>581</v>
       </c>
       <c r="E122" s="78" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="34"/>
@@ -40651,7 +40651,7 @@
       <c r="C123" s="34"/>
       <c r="D123" s="34"/>
       <c r="E123" s="78" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F123" s="34"/>
       <c r="G123" s="34"/>
@@ -40675,7 +40675,7 @@
       <c r="C125" s="34"/>
       <c r="D125" s="34"/>
       <c r="E125" s="34" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="34"/>
@@ -40735,7 +40735,7 @@
       <c r="C130" s="34"/>
       <c r="D130" s="34"/>
       <c r="E130" s="34" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="34"/>
@@ -41139,7 +41139,7 @@
       <c r="C163" s="34"/>
       <c r="D163" s="34"/>
       <c r="E163" s="34" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F163" s="34"/>
       <c r="G163" s="34"/>
@@ -41151,7 +41151,7 @@
       <c r="C164" s="34"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="F164" s="34"/>
       <c r="G164" s="34"/>
@@ -41163,7 +41163,7 @@
       <c r="C165" s="34"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
@@ -41211,7 +41211,7 @@
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>
       <c r="E169" s="34" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="F169" s="34"/>
       <c r="G169" s="34"/>
@@ -41223,7 +41223,7 @@
       <c r="C170" s="34"/>
       <c r="D170" s="34"/>
       <c r="E170" s="34" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F170" s="34"/>
       <c r="G170" s="34"/>
@@ -41243,7 +41243,7 @@
         <v>756</v>
       </c>
       <c r="E171" s="103" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F171" s="34"/>
       <c r="G171" s="34"/>
@@ -41267,7 +41267,7 @@
       <c r="C173" s="34"/>
       <c r="D173" s="34"/>
       <c r="E173" s="34" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F173" s="34"/>
       <c r="G173" s="34"/>
@@ -41279,7 +41279,7 @@
       <c r="C174" s="34"/>
       <c r="D174" s="34"/>
       <c r="E174" s="34" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F174" s="34"/>
       <c r="G174" s="34"/>
@@ -41299,7 +41299,7 @@
         <v>585</v>
       </c>
       <c r="E175" s="34" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F175" s="34"/>
       <c r="G175" s="34"/>
@@ -41311,7 +41311,7 @@
       <c r="C176" s="34"/>
       <c r="D176" s="34"/>
       <c r="E176" s="34" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F176" s="34"/>
       <c r="G176" s="34"/>
@@ -41323,7 +41323,7 @@
       <c r="C177" s="34"/>
       <c r="D177" s="34"/>
       <c r="E177" s="34" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F177" s="34"/>
       <c r="G177" s="34"/>
@@ -41335,7 +41335,7 @@
       <c r="C178" s="34"/>
       <c r="D178" s="34"/>
       <c r="E178" s="34" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
@@ -41347,7 +41347,7 @@
       <c r="C179" s="34"/>
       <c r="D179" s="34"/>
       <c r="E179" s="34" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
@@ -41359,7 +41359,7 @@
       <c r="C180" s="34"/>
       <c r="D180" s="34"/>
       <c r="E180" s="34" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
@@ -41371,7 +41371,7 @@
       <c r="C181" s="34"/>
       <c r="D181" s="34"/>
       <c r="E181" s="34" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F181" s="34"/>
       <c r="G181" s="34"/>
@@ -41683,7 +41683,7 @@
       <c r="C207" s="34"/>
       <c r="D207" s="34"/>
       <c r="E207" s="34" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F207" s="34"/>
       <c r="G207" s="34"/>
@@ -41743,7 +41743,7 @@
       <c r="C212" s="34"/>
       <c r="D212" s="34"/>
       <c r="E212" s="34" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F212" s="34"/>
       <c r="G212" s="34"/>
@@ -41755,7 +41755,7 @@
       <c r="C213" s="34"/>
       <c r="D213" s="34"/>
       <c r="E213" s="34" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F213" s="34"/>
       <c r="G213" s="34"/>
@@ -41767,7 +41767,7 @@
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
       <c r="E214" s="34" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F214" s="34"/>
       <c r="G214" s="34"/>
@@ -41779,7 +41779,7 @@
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
       <c r="E215" s="34" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F215" s="34"/>
       <c r="G215" s="34"/>
@@ -41791,7 +41791,7 @@
       <c r="C216" s="34"/>
       <c r="D216" s="34"/>
       <c r="E216" s="34" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F216" s="34"/>
       <c r="G216" s="34"/>
@@ -41803,7 +41803,7 @@
       <c r="C217" s="34"/>
       <c r="D217" s="34"/>
       <c r="E217" s="34" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F217" s="34"/>
       <c r="G217" s="34"/>
@@ -41815,7 +41815,7 @@
       <c r="C218" s="34"/>
       <c r="D218" s="34"/>
       <c r="E218" s="34" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F218" s="34"/>
       <c r="G218" s="34"/>
@@ -41827,7 +41827,7 @@
       <c r="C219" s="34"/>
       <c r="D219" s="34"/>
       <c r="E219" s="34" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F219" s="34"/>
       <c r="G219" s="34"/>
@@ -41839,7 +41839,7 @@
       <c r="C220" s="34"/>
       <c r="D220" s="34"/>
       <c r="E220" s="34" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F220" s="34"/>
       <c r="G220" s="34"/>
@@ -41851,7 +41851,7 @@
       <c r="C221" s="34"/>
       <c r="D221" s="34"/>
       <c r="E221" s="34" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F221" s="34"/>
       <c r="G221" s="34"/>
@@ -41859,7 +41859,7 @@
     </row>
     <row r="222" spans="1:9" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E222" s="34" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="I222" s="77"/>
     </row>
@@ -42212,16 +42212,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="35" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C251" s="35" t="s">
         <v>401</v>
       </c>
       <c r="D251" s="34" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E251" s="34" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F251" s="35"/>
       <c r="G251" s="35"/>
@@ -42233,7 +42233,7 @@
       <c r="C252" s="35"/>
       <c r="D252" s="34"/>
       <c r="E252" s="34" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F252" s="35"/>
       <c r="G252" s="35"/>
@@ -42245,7 +42245,7 @@
       <c r="C253" s="35"/>
       <c r="D253" s="34"/>
       <c r="E253" s="34" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="F253" s="35"/>
       <c r="G253" s="35"/>
@@ -42257,7 +42257,7 @@
       <c r="C254" s="35"/>
       <c r="D254" s="34"/>
       <c r="E254" s="34" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F254" s="35"/>
       <c r="G254" s="35"/>
@@ -42333,7 +42333,7 @@
         <v>1034</v>
       </c>
       <c r="E259" s="34" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F259" s="34"/>
       <c r="G259" s="34"/>
@@ -42345,7 +42345,7 @@
       <c r="C260" s="34"/>
       <c r="D260" s="34"/>
       <c r="E260" s="34" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F260" s="34"/>
       <c r="G260" s="34"/>
@@ -42357,7 +42357,7 @@
       <c r="C261" s="34"/>
       <c r="D261" s="34"/>
       <c r="E261" s="34" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F261" s="34"/>
       <c r="G261" s="34"/>
@@ -42500,7 +42500,7 @@
       <c r="E1" s="120"/>
       <c r="F1" s="123"/>
       <c r="G1" s="124" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1" s="125"/>
       <c r="I1" s="126"/>
@@ -42882,7 +42882,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="196" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -42890,7 +42890,7 @@
       <c r="E1" s="120"/>
       <c r="F1" s="123"/>
       <c r="G1" s="119" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1" s="120"/>
       <c r="I1" s="120"/>
@@ -43226,7 +43226,7 @@
       <c r="E1" s="118"/>
       <c r="F1" s="118"/>
       <c r="G1" s="127" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1" s="127"/>
       <c r="I1" s="127"/>
@@ -43245,7 +43245,7 @@
         <v>653</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>654</v>
@@ -43309,13 +43309,13 @@
         <v>587</v>
       </c>
       <c r="D5" s="34" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>1309</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>1310</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>1311</v>
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
@@ -43329,16 +43329,16 @@
         <v>353</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>1312</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>1313</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>1314</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>1315</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5434B0B0-2ED7-6B4A-B368-E7F2DA66C0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D694A32-1E5D-F04E-A872-53BEE2388F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1380" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5080" yWindow="800" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mansatory for Autotune Type - PERFORMANCE_BASED or BOTH</t>
+          <t>Mandatory for Autotune Type - PERFORMANCE_BASED or BOTH</t>
         </r>
       </text>
     </comment>
@@ -318,40 +318,6 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Suruchi</author>
-  </authors>
-  <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{67DE4F7C-C44B-6949-8FCD-060A7E1D3A77}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter OCID of the snapshot policy to be attached to the FSS.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -596,7 +562,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Suruchi</author>
@@ -658,7 +624,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Suruchi</author>
@@ -12550,182 +12516,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
-Freeform and Defined Tags - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If specified, Applies to FSS object only and not to other components like Mount Target.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Enter subnet name as : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">vcn-name&gt;_&lt;subnet-name&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source Snapshot:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Accepts OCID of the source snapshot  or the name of the key defined under variable  fss_source_ocids in variables_&lt;region&gt;.tf file</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Replication Information: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Format - TargetFSS(OCID or Name)::ReplicationInterval::ReplicationName. Multiple replication values are seperated by newline in the same cell(\n is not supported). Ensure Target FSS for replication must not have exports created.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <u/>
@@ -12789,6 +12579,204 @@
   </si>
   <si>
     <t>onlyFSS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
+Freeform and Defined Tags - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If specified, Applies to FSS object only and not to other components like Mount Target.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Enter subnet name as : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vcn-name&gt;_&lt;subnet-name&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source Snapshot:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Accepts OCID of the source snapshot  or the name of the key defined under variable  fss_source_ocids in variables_&lt;region&gt;.tf file
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Snapshot Policy - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accepts OCID of the snapshot policy or the name in format: &lt;snaphot_policy_compartment_name&gt;@&lt;snaphost_policy_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Replication Information: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Format - TargetFSS(OCID or Name)::ReplicationInterval::ReplicationName. Multiple replication values are seperated by newline in the same cell(\n is not supported). Ensure Target FSS for replication must not have exports created.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -24241,7 +24229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -24273,9 +24261,9 @@
     <col min="22" max="22" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="157" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -24289,7 +24277,7 @@
       <c r="K1" s="138"/>
       <c r="L1" s="141"/>
       <c r="M1" s="153" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="N1" s="154"/>
       <c r="O1" s="154"/>
@@ -24301,7 +24289,7 @@
       <c r="U1" s="154"/>
       <c r="V1" s="155"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -24672,7 +24660,7 @@
         <v>88</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E11" s="56" t="s">
         <v>392</v>
@@ -24711,7 +24699,7 @@
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
       <c r="I12" s="55" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
@@ -24733,12 +24721,11 @@
     <mergeCell ref="M1:V1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" sqref="B2:C2 A1:A2 E2 D2:D1048576 F2:L1048576 M1:S1048576 U1:XFD1048576" xr:uid="{B7978928-5A58-224D-8649-C886C075337D}"/>
+    <dataValidation allowBlank="1" sqref="M1:S1048576 U1:XFD1048576 D3:D1048576 F3:L1048576 B2:L2 A1:A2" xr:uid="{B7978928-5A58-224D-8649-C886C075337D}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{0E7A10E6-DADC-0C41-AA06-BB8741B7876C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D694A32-1E5D-F04E-A872-53BEE2388F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7D14E4-4CC4-FC49-9AF7-9E17EB91AA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="800" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="1514">
   <si>
     <t>Region</t>
   </si>
@@ -10655,9 +10655,6 @@
   </si>
   <si>
     <t>Quota Policy</t>
-  </si>
-  <si>
-    <t>ashburn</t>
   </si>
   <si>
     <t>OracleAnalyticsQuota</t>
@@ -19043,7 +19040,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
   </sheetData>
@@ -19081,7 +19078,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -24022,7 +24019,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -24074,16 +24071,16 @@
         <v>434</v>
       </c>
       <c r="K2" s="29" t="s">
+        <v>1427</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>1428</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>1429</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>1430</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>1431</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>811</v>
@@ -24149,19 +24146,19 @@
         <v>813</v>
       </c>
       <c r="J4" s="107" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K4" s="107" t="s">
         <v>1432</v>
-      </c>
-      <c r="K4" s="107" t="s">
-        <v>1433</v>
       </c>
       <c r="L4" s="107">
         <v>100</v>
       </c>
       <c r="M4" s="107" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N4" s="107" t="s">
         <v>1434</v>
-      </c>
-      <c r="N4" s="107" t="s">
-        <v>1435</v>
       </c>
       <c r="O4" s="88" t="b">
         <v>1</v>
@@ -24179,7 +24176,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>398</v>
@@ -24263,7 +24260,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -24277,7 +24274,7 @@
       <c r="K1" s="138"/>
       <c r="L1" s="141"/>
       <c r="M1" s="153" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="N1" s="154"/>
       <c r="O1" s="154"/>
@@ -24318,13 +24315,13 @@
         <v>113</v>
       </c>
       <c r="J2" s="29" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>1437</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>1438</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>1439</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>114</v>
@@ -24348,10 +24345,10 @@
         <v>120</v>
       </c>
       <c r="T2" s="29" t="s">
+        <v>1439</v>
+      </c>
+      <c r="U2" s="29" t="s">
         <v>1440</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>1441</v>
       </c>
       <c r="V2" s="29" t="s">
         <v>424</v>
@@ -24660,7 +24657,7 @@
         <v>88</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E11" s="56" t="s">
         <v>392</v>
@@ -24699,7 +24696,7 @@
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
       <c r="I12" s="55" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
@@ -27423,13 +27420,13 @@
         <v>828</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E4" s="56" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G4" s="56" t="b">
         <v>1</v>
@@ -27904,10 +27901,10 @@
         <v>827</v>
       </c>
       <c r="G2" s="29" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>1442</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>1443</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>158</v>
@@ -27971,7 +27968,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -28005,7 +28002,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28022,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="56" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H6" s="56" t="s">
         <v>1446</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>1447</v>
       </c>
       <c r="I6" s="56">
         <v>53</v>
@@ -28035,7 +28032,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
   </sheetData>
@@ -32213,49 +32210,49 @@
         <v>555</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>1449</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>1450</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>1451</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="34" t="s">
         <v>1452</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>1453</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>1454</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="K3" s="34">
         <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M3" t="s">
         <v>1456</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1457</v>
       </c>
       <c r="N3" s="34">
         <v>3</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="P3" s="34" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="R3" s="30"/>
     </row>
@@ -32267,18 +32264,18 @@
         <v>555</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1460</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>1461</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>1453</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>1454</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>56</v>
@@ -32295,7 +32292,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="P4" s="34" t="b">
         <v>0</v>
@@ -32383,7 +32380,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="150" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -32449,43 +32446,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>1464</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>1465</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>1466</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="34" t="s">
         <v>1467</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>1468</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="I3" s="34" t="s">
         <v>1469</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="J3" s="34" t="s">
         <v>1470</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="34" t="s">
         <v>1471</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>1472</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="34" t="s">
         <v>1473</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="34" t="s">
         <v>1474</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>1475</v>
       </c>
       <c r="O3" s="130"/>
     </row>
@@ -32494,41 +32491,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1464</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>1465</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>1467</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="H4" s="34" t="s">
         <v>1468</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>1469</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="J4" s="34" t="s">
         <v>1470</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="K4" s="34" t="s">
         <v>1471</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="34" t="s">
         <v>1472</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="M4" s="34" t="s">
         <v>1473</v>
       </c>
-      <c r="M4" s="34" t="s">
-        <v>1474</v>
-      </c>
       <c r="N4" s="34" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="O4" s="130"/>
     </row>
@@ -33964,7 +33961,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -33973,7 +33970,7 @@
       <c r="F1" s="136"/>
       <c r="G1" s="136"/>
       <c r="H1" s="146" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="I1" s="136"/>
       <c r="J1" s="136"/>
@@ -33988,46 +33985,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C2" s="132" t="s">
         <v>1481</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="D2" s="17" t="s">
         <v>1482</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>1483</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J2" s="133" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>1490</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>1491</v>
+      </c>
+      <c r="M2" s="134" t="s">
+        <v>1492</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>1484</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>1486</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>1487</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>1488</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>1489</v>
-      </c>
-      <c r="J2" s="133" t="s">
-        <v>1490</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>1491</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>1492</v>
-      </c>
-      <c r="M2" s="134" t="s">
+      <c r="O2" s="17" t="s">
         <v>1493</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>1485</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -34057,23 +34054,23 @@
         <v>560</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1495</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>1496</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34" t="s">
         <v>560</v>
       </c>
       <c r="G4" s="34" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>1497</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>1498</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>1499</v>
       </c>
       <c r="J4" s="135">
         <v>256</v>
@@ -34094,19 +34091,19 @@
         <v>555</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>1500</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="I5" s="34" t="s">
         <v>1501</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>1502</v>
       </c>
       <c r="J5" s="135">
         <v>384</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="135"/>
@@ -34121,10 +34118,10 @@
         <v>560</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>1504</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>1505</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>5</v>
@@ -34133,13 +34130,13 @@
         <v>560</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="J6" s="135">
         <v>128</v>
@@ -34164,13 +34161,13 @@
         <v>555</v>
       </c>
       <c r="G7" s="34" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>1500</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>1501</v>
-      </c>
       <c r="I7" s="34" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="J7" s="135">
         <v>3072</v>
@@ -34191,19 +34188,19 @@
         <v>557</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="J8" s="135">
         <v>521</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="L8" s="34" t="b">
         <v>1</v>
@@ -46947,7 +46944,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46986,16 +46983,16 @@
     </row>
     <row r="3" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>1395</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="C3" s="66" t="s">
         <v>1396</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="D3" s="34" t="s">
         <v>1397</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>1398</v>
       </c>
       <c r="E3" s="35"/>
     </row>
@@ -47018,7 +47015,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47039,7 +47036,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="42" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -47066,34 +47063,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="114" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E2" s="115" t="s">
         <v>1400</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="F2" s="115" t="s">
         <v>1401</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="G2" s="115" t="s">
         <v>1402</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="H2" s="116" t="s">
         <v>1403</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="I2" s="117" t="s">
         <v>1404</v>
       </c>
-      <c r="I2" s="117" t="s">
+      <c r="J2" s="117" t="s">
         <v>1405</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="K2" s="115" t="s">
         <v>1406</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="L2" s="115" t="s">
         <v>1407</v>
       </c>
-      <c r="L2" s="115" t="s">
+      <c r="M2" s="115" t="s">
         <v>1408</v>
-      </c>
-      <c r="M2" s="115" t="s">
-        <v>1409</v>
       </c>
       <c r="N2" s="118" t="s">
         <v>424</v>
@@ -47101,32 +47098,32 @@
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>1410</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="34" t="s">
         <v>1411</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>1412</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>401</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G3" s="34">
         <v>10</v>
       </c>
       <c r="H3" s="119"/>
       <c r="I3" s="120" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J3" s="120" t="s">
         <v>1414</v>
-      </c>
-      <c r="J3" s="120" t="s">
-        <v>1415</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
@@ -47135,22 +47132,22 @@
     </row>
     <row r="4" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>1416</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>1417</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>1418</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>1419</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>1420</v>
       </c>
       <c r="G4" s="34">
         <v>100</v>
@@ -47161,7 +47158,7 @@
       <c r="I4" s="120"/>
       <c r="J4" s="120"/>
       <c r="K4" s="34" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="L4" s="121"/>
       <c r="M4" s="34"/>
@@ -47179,13 +47176,13 @@
       <c r="I5" s="120"/>
       <c r="J5" s="120"/>
       <c r="K5" s="34" t="s">
+        <v>1421</v>
+      </c>
+      <c r="L5" s="35" t="s">
         <v>1422</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="M5" s="34" t="s">
         <v>1423</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>1424</v>
       </c>
       <c r="N5" s="122"/>
     </row>
@@ -47201,10 +47198,10 @@
       <c r="I6" s="120"/>
       <c r="J6" s="120"/>
       <c r="K6" s="34" t="s">
+        <v>1424</v>
+      </c>
+      <c r="L6" s="35" t="s">
         <v>1425</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>1426</v>
       </c>
       <c r="M6" s="34"/>
       <c r="N6" s="122"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7D14E4-4CC4-FC49-9AF7-9E17EB91AA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AE2969-80A4-6648-8D5B-9B5E237FEC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10671,265 +10671,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Region" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Home Region only</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Scope" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compartment or Tag</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Target" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compartment Name or {tagNamespace}.{tagKey}.{tagValue}. Note- It should be a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cost Tracking Tag.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Schedule" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MONTH or  SINGLE_USE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Amount" - T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>he amount of the budget expressed as a whole number in the currency of the customer’s rate card</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Start Day" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The number of days offset from the first day of the month, at which the budget processing period starts. eg. 18. Mandatory for schedule type - MONTH</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Budget Start Date"/"Budget End Date" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg. 2024-05-20. Mandatory for schedule type - SINGLE_USE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Alert Rules" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;ACTUAL/FORECAST&gt;::&lt;Threshold value %/Threshold Amount&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Alert Recipients": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> comma seperated email addresses
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -12761,6 +12502,254 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Region" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Home Region only</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Scope" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compartment or Tag</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Target" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compartment Name or {tagNamespace}.{tagKey}.{tagValue}.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Schedule" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MONTH or  SINGLE_USE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Amount" - T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he amount of the budget expressed as a whole number in the currency of the customer’s rate card</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Start Day" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The number of days offset from the first day of the month, at which the budget processing period starts. eg. 18. Mandatory for schedule type - MONTH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Budget Start Date"/"Budget End Date" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg. 2024-05-20. Mandatory for schedule type - SINGLE_USE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Alert Rules" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;ACTUAL/FORECAST&gt;::&lt;Threshold value %/Threshold Amount&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Alert Recipients": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> comma seperated email addresses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -19040,7 +19029,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
   </sheetData>
@@ -19078,7 +19067,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -24019,7 +24008,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -24071,16 +24060,16 @@
         <v>434</v>
       </c>
       <c r="K2" s="29" t="s">
+        <v>1426</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>1427</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>1428</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>1429</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>1430</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>811</v>
@@ -24146,19 +24135,19 @@
         <v>813</v>
       </c>
       <c r="J4" s="107" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K4" s="107" t="s">
         <v>1431</v>
-      </c>
-      <c r="K4" s="107" t="s">
-        <v>1432</v>
       </c>
       <c r="L4" s="107">
         <v>100</v>
       </c>
       <c r="M4" s="107" t="s">
+        <v>1432</v>
+      </c>
+      <c r="N4" s="107" t="s">
         <v>1433</v>
-      </c>
-      <c r="N4" s="107" t="s">
-        <v>1434</v>
       </c>
       <c r="O4" s="88" t="b">
         <v>1</v>
@@ -24176,7 +24165,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>398</v>
@@ -24260,7 +24249,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -24274,7 +24263,7 @@
       <c r="K1" s="138"/>
       <c r="L1" s="141"/>
       <c r="M1" s="153" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="N1" s="154"/>
       <c r="O1" s="154"/>
@@ -24315,13 +24304,13 @@
         <v>113</v>
       </c>
       <c r="J2" s="29" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>1436</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>1437</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>1438</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>114</v>
@@ -24345,10 +24334,10 @@
         <v>120</v>
       </c>
       <c r="T2" s="29" t="s">
+        <v>1438</v>
+      </c>
+      <c r="U2" s="29" t="s">
         <v>1439</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>1440</v>
       </c>
       <c r="V2" s="29" t="s">
         <v>424</v>
@@ -24657,7 +24646,7 @@
         <v>88</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E11" s="56" t="s">
         <v>392</v>
@@ -24696,7 +24685,7 @@
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
       <c r="I12" s="55" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
@@ -27420,13 +27409,13 @@
         <v>828</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E4" s="56" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G4" s="56" t="b">
         <v>1</v>
@@ -27901,10 +27890,10 @@
         <v>827</v>
       </c>
       <c r="G2" s="29" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>1441</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>1442</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>158</v>
@@ -27968,7 +27957,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -28002,7 +27991,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28019,10 +28008,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="56" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H6" s="56" t="s">
         <v>1445</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>1446</v>
       </c>
       <c r="I6" s="56">
         <v>53</v>
@@ -28032,7 +28021,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
   </sheetData>
@@ -32210,49 +32199,49 @@
         <v>555</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>1448</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>1449</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>1450</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="34" t="s">
         <v>1451</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>1452</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>1453</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="K3" s="34">
         <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="M3" t="s">
         <v>1455</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1456</v>
       </c>
       <c r="N3" s="34">
         <v>3</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="P3" s="34" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="R3" s="30"/>
     </row>
@@ -32264,18 +32253,18 @@
         <v>555</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1459</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>1460</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>1452</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>1453</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>56</v>
@@ -32292,7 +32281,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="P4" s="34" t="b">
         <v>0</v>
@@ -32380,7 +32369,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="150" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -32446,43 +32435,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>1463</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>1464</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>1465</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="34" t="s">
         <v>1466</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>1467</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="I3" s="34" t="s">
         <v>1468</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="J3" s="34" t="s">
         <v>1469</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="34" t="s">
         <v>1470</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>1471</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="34" t="s">
         <v>1472</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="34" t="s">
         <v>1473</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>1474</v>
       </c>
       <c r="O3" s="130"/>
     </row>
@@ -32491,41 +32480,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1463</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>1464</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>1466</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="H4" s="34" t="s">
         <v>1467</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>1468</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="J4" s="34" t="s">
         <v>1469</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="K4" s="34" t="s">
         <v>1470</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="34" t="s">
         <v>1471</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="M4" s="34" t="s">
         <v>1472</v>
       </c>
-      <c r="M4" s="34" t="s">
-        <v>1473</v>
-      </c>
       <c r="N4" s="34" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="O4" s="130"/>
     </row>
@@ -33961,7 +33950,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -33970,7 +33959,7 @@
       <c r="F1" s="136"/>
       <c r="G1" s="136"/>
       <c r="H1" s="146" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I1" s="136"/>
       <c r="J1" s="136"/>
@@ -33985,46 +33974,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C2" s="132" t="s">
         <v>1480</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="D2" s="17" t="s">
         <v>1481</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>1482</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J2" s="133" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>1489</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M2" s="134" t="s">
+        <v>1491</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>1483</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>1486</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>1487</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>1488</v>
-      </c>
-      <c r="J2" s="133" t="s">
-        <v>1489</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>1490</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>1491</v>
-      </c>
-      <c r="M2" s="134" t="s">
+      <c r="O2" s="17" t="s">
         <v>1492</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>1484</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -34054,23 +34043,23 @@
         <v>560</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1494</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>1495</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34" t="s">
         <v>560</v>
       </c>
       <c r="G4" s="34" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>1496</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>1497</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>1498</v>
       </c>
       <c r="J4" s="135">
         <v>256</v>
@@ -34091,19 +34080,19 @@
         <v>555</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>1499</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="I5" s="34" t="s">
         <v>1500</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>1501</v>
       </c>
       <c r="J5" s="135">
         <v>384</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="135"/>
@@ -34118,10 +34107,10 @@
         <v>560</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>1503</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>1504</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>5</v>
@@ -34130,13 +34119,13 @@
         <v>560</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="J6" s="135">
         <v>128</v>
@@ -34161,13 +34150,13 @@
         <v>555</v>
       </c>
       <c r="G7" s="34" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>1499</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>1500</v>
-      </c>
       <c r="I7" s="34" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="J7" s="135">
         <v>3072</v>
@@ -34188,19 +34177,19 @@
         <v>557</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="J8" s="135">
         <v>521</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="L8" s="34" t="b">
         <v>1</v>
@@ -47036,7 +47025,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="42" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1398</v>
+        <v>1513</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -47063,34 +47052,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="114" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E2" s="115" t="s">
         <v>1399</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="F2" s="115" t="s">
         <v>1400</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="G2" s="115" t="s">
         <v>1401</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="H2" s="116" t="s">
         <v>1402</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="I2" s="117" t="s">
         <v>1403</v>
       </c>
-      <c r="I2" s="117" t="s">
+      <c r="J2" s="117" t="s">
         <v>1404</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="K2" s="115" t="s">
         <v>1405</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="L2" s="115" t="s">
         <v>1406</v>
       </c>
-      <c r="L2" s="115" t="s">
+      <c r="M2" s="115" t="s">
         <v>1407</v>
-      </c>
-      <c r="M2" s="115" t="s">
-        <v>1408</v>
       </c>
       <c r="N2" s="118" t="s">
         <v>424</v>
@@ -47101,29 +47090,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>1409</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="34" t="s">
         <v>1410</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>1411</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>401</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G3" s="34">
         <v>10</v>
       </c>
       <c r="H3" s="119"/>
       <c r="I3" s="120" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J3" s="120" t="s">
         <v>1413</v>
-      </c>
-      <c r="J3" s="120" t="s">
-        <v>1414</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
@@ -47135,19 +47124,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>1415</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>1416</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>1417</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>1418</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>1419</v>
       </c>
       <c r="G4" s="34">
         <v>100</v>
@@ -47158,7 +47147,7 @@
       <c r="I4" s="120"/>
       <c r="J4" s="120"/>
       <c r="K4" s="34" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="L4" s="121"/>
       <c r="M4" s="34"/>
@@ -47176,13 +47165,13 @@
       <c r="I5" s="120"/>
       <c r="J5" s="120"/>
       <c r="K5" s="34" t="s">
+        <v>1420</v>
+      </c>
+      <c r="L5" s="35" t="s">
         <v>1421</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="M5" s="34" t="s">
         <v>1422</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>1423</v>
       </c>
       <c r="N5" s="122"/>
     </row>
@@ -47198,10 +47187,10 @@
       <c r="I6" s="120"/>
       <c r="J6" s="120"/>
       <c r="K6" s="34" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L6" s="35" t="s">
         <v>1424</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>1425</v>
       </c>
       <c r="M6" s="34"/>
       <c r="N6" s="122"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB8D85B-AC1E-1C44-A674-BC70D7B056B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EC3B3B-EE8A-2045-87E7-40AD2055AD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="760" windowWidth="28860" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17560" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -5947,9 +5947,6 @@
     </r>
   </si>
   <si>
-    <t>Subnet Names</t>
-  </si>
-  <si>
     <t>VLAN Names</t>
   </si>
   <si>
@@ -12834,6 +12831,9 @@
       </rPr>
       <t xml:space="preserve">											</t>
     </r>
+  </si>
+  <si>
+    <t>subnet names</t>
   </si>
 </sst>
 </file>
@@ -19101,7 +19101,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>
@@ -19139,7 +19139,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -19147,7 +19147,7 @@
       <c r="E1" s="138"/>
       <c r="F1" s="141"/>
       <c r="G1" s="137" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1" s="138"/>
       <c r="I1" s="138"/>
@@ -19483,7 +19483,7 @@
       <c r="E1" s="136"/>
       <c r="F1" s="136"/>
       <c r="G1" s="145" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1" s="145"/>
       <c r="I1" s="145"/>
@@ -19502,7 +19502,7 @@
         <v>645</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>646</v>
@@ -19566,13 +19566,13 @@
         <v>579</v>
       </c>
       <c r="D5" s="34" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>1269</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>1270</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>1271</v>
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
@@ -19586,16 +19586,16 @@
         <v>347</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>1272</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="35" t="s">
         <v>1273</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>1274</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>1275</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
@@ -19659,7 +19659,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="42" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1" s="144"/>
     </row>
@@ -19730,7 +19730,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -19984,7 +19984,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -19995,7 +19995,7 @@
       <c r="H1" s="138"/>
       <c r="I1" s="141"/>
       <c r="J1" s="146" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="K1" s="146"/>
       <c r="L1" s="146"/>
@@ -21171,7 +21171,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -21298,7 +21298,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -21405,7 +21405,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -21562,7 +21562,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -22960,7 +22960,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="42" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -23414,7 +23414,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -23600,7 +23600,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="150" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -23610,7 +23610,7 @@
       <c r="G1" s="151"/>
       <c r="H1" s="152"/>
       <c r="I1" s="137" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="J1" s="138"/>
       <c r="K1" s="138"/>
@@ -23644,7 +23644,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>89</v>
@@ -23671,7 +23671,7 @@
         <v>801</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>92</v>
@@ -23712,7 +23712,7 @@
         <v>346</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G3" s="35" t="b">
         <v>0</v>
@@ -23796,7 +23796,7 @@
         <v>346</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="G5" s="56" t="b">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>88</v>
       </c>
       <c r="U5" s="56" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="V5" s="55"/>
     </row>
@@ -23850,7 +23850,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G6" s="56" t="b">
         <v>0</v>
@@ -23879,7 +23879,7 @@
       </c>
       <c r="T6" s="55"/>
       <c r="U6" s="56" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="V6" s="55"/>
     </row>
@@ -23900,7 +23900,7 @@
         <v>346</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G7" s="56" t="b">
         <v>0</v>
@@ -23948,7 +23948,7 @@
         <v>98</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G8" s="56" t="b">
         <v>0</v>
@@ -23991,7 +23991,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{2A70F389-B6E2-6040-9697-05BC43BB0E26}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$43</xm:f>
@@ -24034,6 +24034,12 @@
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{01E947D3-B2F7-3E43-A3C8-36A10A7CEE33}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$I$2:$I$"&amp;drop_down_rule_set!$G$3+1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -24074,7 +24080,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -24105,7 +24111,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>104</v>
@@ -24126,16 +24132,16 @@
         <v>427</v>
       </c>
       <c r="K2" s="29" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>1398</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>1399</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>1400</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>1401</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>802</v>
@@ -24201,19 +24207,19 @@
         <v>804</v>
       </c>
       <c r="J4" s="107" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K4" s="107" t="s">
         <v>1402</v>
-      </c>
-      <c r="K4" s="107" t="s">
-        <v>1403</v>
       </c>
       <c r="L4" s="107">
         <v>100</v>
       </c>
       <c r="M4" s="107" t="s">
+        <v>1403</v>
+      </c>
+      <c r="N4" s="107" t="s">
         <v>1404</v>
-      </c>
-      <c r="N4" s="107" t="s">
-        <v>1405</v>
       </c>
       <c r="O4" s="88" t="b">
         <v>1</v>
@@ -24231,7 +24237,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>391</v>
@@ -24333,7 +24339,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -24347,7 +24353,7 @@
       <c r="K1" s="138"/>
       <c r="L1" s="141"/>
       <c r="M1" s="153" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="N1" s="154"/>
       <c r="O1" s="154"/>
@@ -24373,7 +24379,7 @@
         <v>108</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>109</v>
@@ -24388,13 +24394,13 @@
         <v>111</v>
       </c>
       <c r="J2" s="29" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>1407</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>1408</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>1409</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>112</v>
@@ -24418,10 +24424,10 @@
         <v>118</v>
       </c>
       <c r="T2" s="29" t="s">
+        <v>1409</v>
+      </c>
+      <c r="U2" s="29" t="s">
         <v>1410</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>1411</v>
       </c>
       <c r="V2" s="29" t="s">
         <v>417</v>
@@ -24469,7 +24475,7 @@
         <v>119</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="55" t="s">
@@ -24573,7 +24579,7 @@
         <v>119</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
@@ -24611,7 +24617,7 @@
         <v>127</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="55"/>
@@ -24653,7 +24659,7 @@
         <v>130</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
@@ -24695,7 +24701,7 @@
         <v>132</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="55"/>
@@ -24730,10 +24736,10 @@
         <v>87</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="55"/>
@@ -24769,7 +24775,7 @@
       <c r="G12" s="55"/>
       <c r="H12" s="55"/>
       <c r="I12" s="55" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
@@ -24798,7 +24804,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{CDB555EC-9198-D547-9B3B-6BE541CC8D65}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$43</xm:f>
@@ -24810,6 +24816,12 @@
             <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{D7A2BA9E-CACA-964D-BA7C-6839F1BB1340}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$I$2:$I$"&amp;drop_down_rule_set!$G$3+1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -24866,7 +24878,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -24883,7 +24895,7 @@
       <c r="N1" s="138"/>
       <c r="O1" s="141"/>
       <c r="P1" s="150" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="Q1" s="151"/>
       <c r="R1" s="151"/>
@@ -24916,7 +24928,7 @@
         <v>1030</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>1031</v>
@@ -24928,10 +24940,10 @@
         <v>1033</v>
       </c>
       <c r="H2" s="29" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>1505</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>1506</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>1034</v>
@@ -24946,7 +24958,7 @@
         <v>1037</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>1038</v>
@@ -24970,13 +24982,13 @@
         <v>1040</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="W2" s="29" t="s">
         <v>81</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Y2" s="29" t="s">
         <v>1041</v>
@@ -24985,7 +24997,7 @@
         <v>1042</v>
       </c>
       <c r="AA2" s="29" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="AB2" s="29" t="s">
         <v>1043</v>
@@ -25003,13 +25015,13 @@
         <v>1045</v>
       </c>
       <c r="AG2" s="29" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AH2" s="29" t="s">
         <v>1351</v>
       </c>
-      <c r="AH2" s="29" t="s">
-        <v>1352</v>
-      </c>
       <c r="AI2" s="29" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25062,10 +25074,10 @@
         <v>1046</v>
       </c>
       <c r="D4" s="99" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E4" s="99" t="s">
         <v>1353</v>
-      </c>
-      <c r="E4" s="99" t="s">
-        <v>1354</v>
       </c>
       <c r="F4" s="99" t="s">
         <v>1048</v>
@@ -25074,10 +25086,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="99" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I4" s="99" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="J4" s="56" t="b">
         <v>0</v>
@@ -25092,10 +25104,10 @@
         <v>1061</v>
       </c>
       <c r="N4" s="99" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="O4" s="99" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="P4" s="99">
         <v>1</v>
@@ -25116,13 +25128,13 @@
         <v>1063</v>
       </c>
       <c r="V4" s="99" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="W4" s="99" t="s">
         <v>96</v>
       </c>
       <c r="X4" s="99" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Y4" s="99"/>
       <c r="Z4" s="99"/>
@@ -25157,10 +25169,10 @@
       <c r="L5" s="56"/>
       <c r="M5" s="56"/>
       <c r="N5" s="56" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="O5" s="99" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="P5" s="56">
         <v>2</v>
@@ -25179,13 +25191,13 @@
       </c>
       <c r="U5" s="56"/>
       <c r="V5" s="99" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="W5" s="56" t="s">
         <v>87</v>
       </c>
       <c r="X5" s="99" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="Y5" s="56"/>
       <c r="Z5" s="56"/>
@@ -25214,10 +25226,10 @@
         <v>1056</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F6" s="56" t="s">
         <v>1057</v>
@@ -25226,10 +25238,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="99" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I6" s="99" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="J6" s="56" t="b">
         <v>0</v>
@@ -25238,10 +25250,10 @@
       <c r="L6" s="56"/>
       <c r="M6" s="56"/>
       <c r="N6" s="56" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="O6" s="99" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="P6" s="56">
         <v>1</v>
@@ -25262,20 +25274,20 @@
         <v>1063</v>
       </c>
       <c r="V6" s="99" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="W6" s="56" t="s">
         <v>96</v>
       </c>
       <c r="X6" s="99" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="Y6" s="56">
         <v>2</v>
       </c>
       <c r="Z6" s="56"/>
       <c r="AA6" s="99" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AB6" s="101"/>
       <c r="AC6" s="56" t="s">
@@ -25287,7 +25299,7 @@
       <c r="AG6" s="55"/>
       <c r="AH6" s="55"/>
       <c r="AI6" s="56" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
@@ -25304,7 +25316,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{B4512FB1-A8C1-D542-AE29-57F513856689}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$43</xm:f>
@@ -25316,6 +25328,12 @@
             <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{951F9EB0-B1DF-CD47-BB37-D65EDC2CDB2A}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$I$2:$I$"&amp;drop_down_rule_set!$G$3+1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:I1048576 V3:V1048576 AA3:AA1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -25352,7 +25370,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -25393,7 +25411,7 @@
         <v>658</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>135</v>
@@ -25468,7 +25486,7 @@
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
       <c r="G4" s="56" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H4" s="56" t="b">
         <v>1</v>
@@ -25542,7 +25560,7 @@
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
       <c r="G6" s="56" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H6" s="56" t="b">
         <v>0</v>
@@ -25584,7 +25602,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{494FC35A-EDF7-A84C-9F77-5EA4C54C2CB6}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$43</xm:f>
@@ -25608,6 +25626,12 @@
             <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{BD9DC81A-4685-3D4F-97EF-29B4B100CF06}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$I$2:$I$"&amp;drop_down_rule_set!$G$3+1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -25645,7 +25669,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -25999,7 +26023,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -27423,7 +27447,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="146" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -27437,7 +27461,7 @@
         <v>134</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>1181</v>
@@ -27459,10 +27483,10 @@
         <v>392</v>
       </c>
       <c r="C4" s="56" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>1490</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -27473,10 +27497,10 @@
         <v>392</v>
       </c>
       <c r="C5" s="56" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>1492</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>1493</v>
       </c>
     </row>
   </sheetData>
@@ -27546,7 +27570,7 @@
         <v>815</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>828</v>
@@ -27608,13 +27632,13 @@
         <v>818</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E4" s="56" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G4" s="56" t="b">
         <v>1</v>
@@ -27646,7 +27670,7 @@
         <v>822</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E5" s="56" t="b">
         <v>1</v>
@@ -28029,7 +28053,7 @@
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{80D61409-BEFA-B047-A598-36E48D011B88}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$L$2:$L$43</xm:f>
@@ -28041,6 +28065,12 @@
             <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{8B63B1D9-10E7-8E40-A14A-A266BFD93B0D}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$I$2:$I$"&amp;drop_down_rule_set!$G$3+1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28107,10 +28137,10 @@
         <v>817</v>
       </c>
       <c r="G2" s="29" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>1412</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>1413</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>155</v>
@@ -28174,7 +28204,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="56" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -28208,7 +28238,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28225,10 +28255,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="56" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H6" s="56" t="s">
         <v>1416</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>1417</v>
       </c>
       <c r="I6" s="56">
         <v>53</v>
@@ -28238,7 +28268,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
   </sheetData>
@@ -28284,6 +28314,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
@@ -28296,7 +28327,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -28325,7 +28356,7 @@
         <v>1019</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>1020</v>
@@ -28384,7 +28415,7 @@
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>313</v>
       </c>
@@ -28395,7 +28426,7 @@
         <v>1023</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="89" t="s">
@@ -28478,11 +28509,11 @@
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8833E4D4-D203-CB49-A28A-9CE367AA58A8}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{E09CFEC6-B538-D740-90C4-ABC1500CC692}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$I$2:$I$"&amp;drop_down_rule_set!$G$3+1)</xm:f>
           </x14:formula1>
-          <xm:sqref>D3 D5:D1048576</xm:sqref>
+          <xm:sqref>D3:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28524,7 +28555,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -28564,7 +28595,7 @@
         <v>81</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>719</v>
@@ -28678,7 +28709,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E4" s="93" t="s">
         <v>751</v>
@@ -28753,7 +28784,7 @@
         <v>87</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E5" s="103" t="s">
         <v>753</v>
@@ -31876,11 +31907,11 @@
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9DFA1224-0060-634D-A707-2A9BCE8872C5}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{662F0621-9271-6E41-BE34-20A74C7C03D1}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$I$2:$I$"&amp;drop_down_rule_set!$G$3+1)</xm:f>
           </x14:formula1>
-          <xm:sqref>D3 D6:D1048576</xm:sqref>
+          <xm:sqref>D3:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{DE248157-A181-134D-82D9-615D0DF6BE0D}">
           <x14:formula1>
@@ -31917,7 +31948,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -32037,7 +32068,7 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScaleNormal="78" workbookViewId="0">
       <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
@@ -32076,7 +32107,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="150" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -32120,10 +32151,10 @@
         <v>742</v>
       </c>
       <c r="E2" s="68" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F2" s="68" t="s">
         <v>1514</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1515</v>
       </c>
       <c r="G2" s="68" t="s">
         <v>721</v>
@@ -32138,16 +32169,16 @@
         <v>743</v>
       </c>
       <c r="K2" s="68" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L2" s="68" t="s">
         <v>1288</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="M2" s="68" t="s">
         <v>1289</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="N2" s="68" t="s">
         <v>1290</v>
-      </c>
-      <c r="N2" s="68" t="s">
-        <v>1291</v>
       </c>
       <c r="O2" s="68" t="s">
         <v>744</v>
@@ -32216,10 +32247,10 @@
         <v>763</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="G4" s="55">
         <v>4</v>
@@ -32243,7 +32274,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="O4" s="94" t="b">
         <v>1</v>
@@ -32306,11 +32337,11 @@
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98D0A57B-44F2-5B4E-AA72-F514BFC40463}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{2F48A7A3-3EBF-3A47-9886-7CCA7449134B}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$I$2:$I$"&amp;drop_down_rule_set!$G$3+1)</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:F3 E5:F1048576</xm:sqref>
+          <xm:sqref>E3:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -32325,7 +32356,7 @@
   </sheetPr>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
@@ -32349,7 +32380,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -32381,7 +32412,7 @@
         <v>1189</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E2" s="127" t="s">
         <v>1190</v>
@@ -32405,10 +32436,10 @@
         <v>1196</v>
       </c>
       <c r="L2" s="128" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M2" s="129" t="s">
         <v>1286</v>
-      </c>
-      <c r="M2" s="129" t="s">
-        <v>1287</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>1197</v>
@@ -32434,49 +32465,49 @@
         <v>548</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>1419</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>1420</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>1421</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="34" t="s">
         <v>1422</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>1423</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>1424</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="K3" s="34">
         <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M3" t="s">
         <v>1426</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1427</v>
       </c>
       <c r="N3" s="34">
         <v>3</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="P3" s="34" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="R3" s="30"/>
     </row>
@@ -32488,18 +32519,18 @@
         <v>548</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1430</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>1431</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>1423</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>1424</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>55</v>
@@ -32516,7 +32547,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="P4" s="34" t="b">
         <v>0</v>
@@ -32622,7 +32653,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="150" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -32646,7 +32677,7 @@
         <v>1189</v>
       </c>
       <c r="C2" s="127" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>1200</v>
@@ -32688,43 +32719,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D3" s="34" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>1433</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>1434</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="34" t="s">
         <v>1435</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>1436</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="I3" s="34" t="s">
         <v>1437</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="J3" s="34" t="s">
         <v>1438</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="34" t="s">
         <v>1439</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>1440</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="34" t="s">
         <v>1441</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="34" t="s">
         <v>1442</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>1443</v>
       </c>
       <c r="O3" s="130"/>
     </row>
@@ -32733,41 +32764,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>1435</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="H4" s="34" t="s">
         <v>1436</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>1437</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="J4" s="34" t="s">
         <v>1438</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="K4" s="34" t="s">
         <v>1439</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="34" t="s">
         <v>1440</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="M4" s="34" t="s">
         <v>1441</v>
       </c>
-      <c r="M4" s="34" t="s">
-        <v>1442</v>
-      </c>
       <c r="N4" s="34" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="O4" s="130"/>
     </row>
@@ -32815,6 +32846,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{1A81BA09-FA82-C848-890F-00F81333A7C5}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$I$2:$I$"&amp;drop_down_rule_set!$G$3+1)</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -32842,7 +32885,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="42" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -32859,7 +32902,7 @@
         <v>1144</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1145</v>
@@ -33829,7 +33872,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="281.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="161" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B1" s="162"/>
       <c r="C1" s="162"/>
@@ -33936,7 +33979,7 @@
         <v>1230</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>1231</v>
@@ -33985,10 +34028,10 @@
         <v>1230</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="K5" s="30" t="s">
         <v>1236</v>
@@ -34049,7 +34092,7 @@
         <v>548</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>1227</v>
@@ -34067,20 +34110,20 @@
         <v>1230</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30" t="s">
         <v>1232</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M7" s="30" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="31" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
@@ -34203,7 +34246,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -34212,7 +34255,7 @@
       <c r="F1" s="136"/>
       <c r="G1" s="136"/>
       <c r="H1" s="146" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I1" s="136"/>
       <c r="J1" s="136"/>
@@ -34227,46 +34270,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C2" s="132" t="s">
         <v>1448</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="D2" s="17" t="s">
         <v>1449</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>1450</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J2" s="133" t="s">
+        <v>1456</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>1457</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>1458</v>
+      </c>
+      <c r="M2" s="134" t="s">
+        <v>1459</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>1451</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>1455</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>1456</v>
-      </c>
-      <c r="J2" s="133" t="s">
-        <v>1457</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>1458</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>1459</v>
-      </c>
-      <c r="M2" s="134" t="s">
+      <c r="O2" s="17" t="s">
         <v>1460</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>1452</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -34296,23 +34339,23 @@
         <v>553</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1462</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>1463</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34" t="s">
         <v>553</v>
       </c>
       <c r="G4" s="34" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>1464</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>1465</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>1466</v>
       </c>
       <c r="J4" s="135">
         <v>256</v>
@@ -34333,19 +34376,19 @@
         <v>548</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>1467</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="I5" s="34" t="s">
         <v>1468</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>1469</v>
       </c>
       <c r="J5" s="135">
         <v>384</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="135"/>
@@ -34360,10 +34403,10 @@
         <v>553</v>
       </c>
       <c r="C6" s="34" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>1471</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>1472</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>5</v>
@@ -34372,13 +34415,13 @@
         <v>553</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="J6" s="135">
         <v>128</v>
@@ -34403,13 +34446,13 @@
         <v>548</v>
       </c>
       <c r="G7" s="34" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H7" s="34" t="s">
         <v>1467</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>1468</v>
-      </c>
       <c r="I7" s="34" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="J7" s="135">
         <v>3072</v>
@@ -34430,19 +34473,19 @@
         <v>550</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="J8" s="135">
         <v>521</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="L8" s="34" t="b">
         <v>1</v>
@@ -36603,20 +36646,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:AV201"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AW20" sqref="AW20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.1640625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="38.5" style="66" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" style="66" customWidth="1"/>
     <col min="6" max="6" width="26" style="66" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" style="66" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" style="66" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" style="66" customWidth="1"/>
     <col min="11" max="11" width="33.83203125" style="66" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="66" bestFit="1" customWidth="1"/>
@@ -36664,25 +36705,25 @@
         <v>661</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E1" s="67" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F1" s="67" t="s">
         <v>1243</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="G1" s="67" t="s">
         <v>1244</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="H1" s="67" t="s">
         <v>1245</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="I1" s="67" t="s">
         <v>1246</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="J1" s="67" t="s">
         <v>1247</v>
-      </c>
-      <c r="J1" s="67" t="s">
-        <v>1248</v>
       </c>
       <c r="K1" s="67" t="s">
         <v>663</v>
@@ -36790,13 +36831,13 @@
         <v>1065</v>
       </c>
       <c r="AT1" s="58" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AU1" s="58" t="s">
         <v>662</v>
       </c>
       <c r="AV1" s="58" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="60" customFormat="1" x14ac:dyDescent="0.2">
@@ -36816,8 +36857,8 @@
         <v>hub-vcn</v>
       </c>
       <c r="E2" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">_xlfn.IFNA(IF($H2+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H2+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H2+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H2+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>hub-vcn_pvt-infra</v>
+        <f t="array" aca="1" ref="E2" ca="1">_xlfn.IFNA(IF($H2 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H2 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H2 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H2 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H2 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@hub-vcn::pvt-infra</v>
       </c>
       <c r="F2" s="60" t="str">
         <f ca="1">_xlfn.IFNA(IF($H2+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H2+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H2+2&amp;":$E$"&amp;$G$2),0))),"")</f>
@@ -36832,7 +36873,7 @@
       </c>
       <c r="I2" s="60" t="str" cm="1">
         <f t="array" aca="1" ref="I2:I11" ca="1">_xlfn.UNIQUE(INDIRECT("E2:E"&amp;$G$2),FALSE,FALSE)</f>
-        <v>hub-vcn_pvt-infra</v>
+        <v>Network@hub-vcn::pvt-infra</v>
       </c>
       <c r="J2" s="60" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">_xlfn.UNIQUE(INDIRECT("F2:F"&amp;$G$2),FALSE,FALSE)</f>
@@ -36977,8 +37018,8 @@
         <v>prod-vcn</v>
       </c>
       <c r="E3" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H3+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>hub-vcn_pub-infra</v>
+        <f t="array" aca="1" ref="E3" ca="1">_xlfn.IFNA(IF($H3 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H3 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H3 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H3 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H3 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@hub-vcn::pub-infra</v>
       </c>
       <c r="F3" s="60" t="str">
         <f t="shared" ref="F3:F66" ca="1" si="0">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
@@ -36993,7 +37034,7 @@
       </c>
       <c r="I3" s="60" t="str">
         <f ca="1"/>
-        <v>hub-vcn_pub-infra</v>
+        <v>Network@hub-vcn::pub-infra</v>
       </c>
       <c r="K3" s="61" t="s">
         <v>23</v>
@@ -37131,8 +37172,8 @@
         <v>nonprod-vcn</v>
       </c>
       <c r="E4" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E4" ca="1">_xlfn.IFNA(IF($H4+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H4+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H4+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H4+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>prod-vcn_prod-dmz</v>
+        <f t="array" aca="1" ref="E4" ca="1">_xlfn.IFNA(IF($H4 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H4 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H4 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H4 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H4 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@prod-vcn::prod-dmz</v>
       </c>
       <c r="F4" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37147,7 +37188,7 @@
       </c>
       <c r="I4" s="60" t="str">
         <f ca="1"/>
-        <v>prod-vcn_prod-dmz</v>
+        <v>Network@prod-vcn::prod-dmz</v>
       </c>
       <c r="K4" s="61"/>
       <c r="L4" t="s">
@@ -37255,8 +37296,8 @@
         <v/>
       </c>
       <c r="E5" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">_xlfn.IFNA(IF($H5+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H5+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H5+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H5+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>prod-vcn_prod-app</v>
+        <f t="array" aca="1" ref="E5" ca="1">_xlfn.IFNA(IF($H5 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H5 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H5 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H5 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H5 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@prod-vcn::prod-app</v>
       </c>
       <c r="F5" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37271,7 +37312,7 @@
       </c>
       <c r="I5" s="60" t="str">
         <f ca="1"/>
-        <v>prod-vcn_prod-app</v>
+        <v>Network@prod-vcn::prod-app</v>
       </c>
       <c r="K5" s="61"/>
       <c r="L5" t="s">
@@ -37357,8 +37398,8 @@
         <v/>
       </c>
       <c r="E6" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">_xlfn.IFNA(IF($H6+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H6+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H6+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H6+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>prod-vcn_prod-svc</v>
+        <f t="array" aca="1" ref="E6" ca="1">_xlfn.IFNA(IF($H6 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H6 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H6 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H6 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H6 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@prod-vcn::prod-svc</v>
       </c>
       <c r="F6" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37373,7 +37414,7 @@
       </c>
       <c r="I6" s="60" t="str">
         <f ca="1"/>
-        <v>prod-vcn_prod-svc</v>
+        <v>Network@prod-vcn::prod-svc</v>
       </c>
       <c r="K6" s="61"/>
       <c r="L6" t="s">
@@ -37447,8 +37488,8 @@
         <v/>
       </c>
       <c r="E7" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">_xlfn.IFNA(IF($H7+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H7+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H7+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H7+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>prod-vcn_prod-db</v>
+        <f t="array" aca="1" ref="E7" ca="1">_xlfn.IFNA(IF($H7 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H7 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H7 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H7 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H7 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@prod-vcn::prod-db</v>
       </c>
       <c r="F7" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37459,7 +37500,7 @@
       </c>
       <c r="I7" s="60" t="str">
         <f ca="1"/>
-        <v>prod-vcn_prod-db</v>
+        <v>Network@prod-vcn::prod-db</v>
       </c>
       <c r="K7" s="61"/>
       <c r="L7" t="s">
@@ -37531,8 +37572,8 @@
         <v/>
       </c>
       <c r="E8" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">_xlfn.IFNA(IF($H8+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H8+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H8+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H8+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>nonprod-vcn_nonprod-dmz</v>
+        <f t="array" aca="1" ref="E8" ca="1">_xlfn.IFNA(IF($H8 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H8 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H8 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H8 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H8 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@nonprod-vcn::nonprod-dmz</v>
       </c>
       <c r="F8" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37543,7 +37584,7 @@
       </c>
       <c r="I8" s="60" t="str">
         <f ca="1"/>
-        <v>nonprod-vcn_nonprod-dmz</v>
+        <v>Network@nonprod-vcn::nonprod-dmz</v>
       </c>
       <c r="K8" s="61"/>
       <c r="L8" t="s">
@@ -37615,8 +37656,8 @@
         <v/>
       </c>
       <c r="E9" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E9" ca="1">_xlfn.IFNA(IF($H9+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H9+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H9+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H9+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>nonprod-vcn_nonprod-app</v>
+        <f t="array" aca="1" ref="E9" ca="1">_xlfn.IFNA(IF($H9 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H9 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H9 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H9 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H9 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@nonprod-vcn::nonprod-app</v>
       </c>
       <c r="F9" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37627,7 +37668,7 @@
       </c>
       <c r="I9" s="60" t="str">
         <f ca="1"/>
-        <v>nonprod-vcn_nonprod-app</v>
+        <v>Network@nonprod-vcn::nonprod-app</v>
       </c>
       <c r="K9" s="61"/>
       <c r="L9" t="s">
@@ -37699,8 +37740,8 @@
         <v/>
       </c>
       <c r="E10" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E10" ca="1">_xlfn.IFNA(IF($H10+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H10+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H10+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H10+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>nonprod-vcn_nonprod-svc</v>
+        <f t="array" aca="1" ref="E10" ca="1">_xlfn.IFNA(IF($H10 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H10 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H10 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H10 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H10 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@nonprod-vcn::nonprod-svc</v>
       </c>
       <c r="F10" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37711,7 +37752,7 @@
       </c>
       <c r="I10" s="60" t="str">
         <f ca="1"/>
-        <v>nonprod-vcn_nonprod-svc</v>
+        <v>Network@nonprod-vcn::nonprod-svc</v>
       </c>
       <c r="K10" s="61"/>
       <c r="L10" t="s">
@@ -37783,8 +37824,8 @@
         <v/>
       </c>
       <c r="E11" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E11" ca="1">_xlfn.IFNA(IF($H11+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H11+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H11+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H11+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>nonprod-vcn_nonprod-db</v>
+        <f t="array" aca="1" ref="E11" ca="1">_xlfn.IFNA(IF($H11 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H11 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H11 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H11 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H11 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@nonprod-vcn::nonprod-db</v>
       </c>
       <c r="F11" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37795,7 +37836,7 @@
       </c>
       <c r="I11" s="60" t="str">
         <f ca="1"/>
-        <v>nonprod-vcn_nonprod-db</v>
+        <v>Network@nonprod-vcn::nonprod-db</v>
       </c>
       <c r="K11" s="61"/>
       <c r="L11" t="s">
@@ -37867,8 +37908,8 @@
         <v/>
       </c>
       <c r="E12" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E12" ca="1">_xlfn.IFNA(IF($H12+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H12+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H12+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H12+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v>nonprod-vcn_nonprod-db</v>
+        <f t="array" aca="1" ref="E12" ca="1">_xlfn.IFNA(IF($H12 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H12 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H12 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H12 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H12 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
+        <v>Network@nonprod-vcn::nonprod-db</v>
       </c>
       <c r="F12" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -37941,7 +37982,7 @@
         <v/>
       </c>
       <c r="E13" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E13" ca="1">_xlfn.IFNA(IF($H13+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H13+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H13+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H13+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="array" aca="1" ref="E13" ca="1">_xlfn.IFNA(IF($H13 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H13 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H13 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H13 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H13 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F13" s="60" t="str">
@@ -38015,7 +38056,7 @@
         <v/>
       </c>
       <c r="E14" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E14" ca="1">_xlfn.IFNA(IF($H14+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H14+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H14+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H14+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="array" aca="1" ref="E14" ca="1">_xlfn.IFNA(IF($H14 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H14 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H14 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H14 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H14 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F14" s="60" t="str">
@@ -38089,7 +38130,7 @@
         <v/>
       </c>
       <c r="E15" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E15" ca="1">_xlfn.IFNA(IF($H15+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H15+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H15+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H15+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="array" aca="1" ref="E15" ca="1">_xlfn.IFNA(IF($H15 + 1 &gt; $G$2, "", INDEX(INDIRECT("SubnetsVLANs!$B$" &amp; $H15 + 2 &amp; ":$B$" &amp; $G$2) &amp; "@" &amp; INDIRECT("SubnetsVLANs!$C$" &amp; $H15 + 2 &amp; ":$C$" &amp; $G$2) &amp; "::" &amp; INDIRECT("SubnetsVLANs!$D$" &amp; $H15 + 2 &amp; ":$D$" &amp; $G$2), MATCH("Subnet*", INDIRECT("SubnetsVLANs!$E$" &amp; $H15 + 2 &amp; ":$E$" &amp; $G$2), 0))), "")</f>
         <v/>
       </c>
       <c r="F15" s="60" t="str">
@@ -38162,10 +38203,6 @@
         <f t="array" aca="1" ref="C16" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A16,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A16,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E16" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">_xlfn.IFNA(IF($H16+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H16+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H16+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H16+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F16" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38236,10 +38273,6 @@
         <f t="array" aca="1" ref="C17" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A17,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A17,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E17" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E17" ca="1">_xlfn.IFNA(IF($H17+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H17+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H17+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H17+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F17" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38310,10 +38343,6 @@
         <f t="array" aca="1" ref="C18" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A18,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A18,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E18" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E18" ca="1">_xlfn.IFNA(IF($H18+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H18+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H18+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H18+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F18" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38384,10 +38413,6 @@
         <f t="array" aca="1" ref="C19" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A19,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A19,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E19" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E19" ca="1">_xlfn.IFNA(IF($H19+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H19+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H19+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H19+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F19" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38458,10 +38483,6 @@
         <f t="array" aca="1" ref="C20" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A20,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A20,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E20" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E20" ca="1">_xlfn.IFNA(IF($H20+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H20+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H20+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H20+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F20" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38532,10 +38553,6 @@
         <f t="array" aca="1" ref="C21" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A21,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A21,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E21" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E21" ca="1">_xlfn.IFNA(IF($H21+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H21+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H21+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H21+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F21" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38606,10 +38623,6 @@
         <f t="array" aca="1" ref="C22" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A22,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A22,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E22" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E22" ca="1">_xlfn.IFNA(IF($H22+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H22+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H22+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H22+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F22" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38680,10 +38693,6 @@
         <f t="array" aca="1" ref="C23" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A23,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A23,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E23" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E23" ca="1">_xlfn.IFNA(IF($H23+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H23+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H23+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H23+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F23" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38754,10 +38763,6 @@
         <f t="array" aca="1" ref="C24" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A24,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A24,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E24" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E24" ca="1">_xlfn.IFNA(IF($H24+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H24+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H24+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H24+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F24" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38828,10 +38833,6 @@
         <f t="array" aca="1" ref="C25" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A25,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A25,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E25" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E25" ca="1">_xlfn.IFNA(IF($H25+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H25+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H25+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H25+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F25" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38902,10 +38903,6 @@
         <f t="array" aca="1" ref="C26" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A26,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A26,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E26" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E26" ca="1">_xlfn.IFNA(IF($H26+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H26+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H26+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H26+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F26" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -38976,10 +38973,6 @@
         <f t="array" aca="1" ref="C27" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A27,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A27,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E27" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E27" ca="1">_xlfn.IFNA(IF($H27+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H27+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H27+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H27+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F27" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39050,10 +39043,6 @@
         <f t="array" aca="1" ref="C28" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A28,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A28,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E28" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E28" ca="1">_xlfn.IFNA(IF($H28+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H28+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H28+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H28+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F28" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39124,10 +39113,6 @@
         <f t="array" aca="1" ref="C29" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A29,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A29,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E29" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E29" ca="1">_xlfn.IFNA(IF($H29+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H29+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H29+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H29+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F29" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39198,10 +39183,6 @@
         <f t="array" aca="1" ref="C30" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A30,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A30,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E30" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E30" ca="1">_xlfn.IFNA(IF($H30+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H30+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H30+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H30+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F30" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39272,10 +39253,6 @@
         <f t="array" aca="1" ref="C31" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A31,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A31,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E31" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E31" ca="1">_xlfn.IFNA(IF($H31+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H31+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H31+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H31+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F31" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39346,10 +39323,6 @@
         <f t="array" aca="1" ref="C32" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A32,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A32,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E32" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E32" ca="1">_xlfn.IFNA(IF($H32+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H32+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H32+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H32+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F32" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39420,10 +39393,6 @@
         <f t="array" aca="1" ref="C33" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A33,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A33,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E33" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E33" ca="1">_xlfn.IFNA(IF($H33+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H33+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H33+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H33+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F33" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39494,10 +39463,6 @@
         <f t="array" aca="1" ref="C34" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A34,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A34,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E34" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E34" ca="1">_xlfn.IFNA(IF($H34+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H34+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H34+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H34+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F34" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39568,10 +39533,6 @@
         <f t="array" aca="1" ref="C35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E35" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E35" ca="1">_xlfn.IFNA(IF($H35+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H35+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H35+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H35+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F35" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39642,10 +39603,6 @@
         <f t="array" aca="1" ref="C36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E36" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E36" ca="1">_xlfn.IFNA(IF($H36+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H36+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H36+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H36+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F36" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39716,10 +39673,6 @@
         <f t="array" aca="1" ref="C37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E37" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E37" ca="1">_xlfn.IFNA(IF($H37+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H37+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H37+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H37+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F37" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39790,10 +39743,6 @@
         <f t="array" aca="1" ref="C38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E38" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E38" ca="1">_xlfn.IFNA(IF($H38+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H38+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H38+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H38+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F38" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39864,10 +39813,6 @@
         <f t="array" aca="1" ref="C39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E39" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E39" ca="1">_xlfn.IFNA(IF($H39+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H39+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H39+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H39+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F39" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -39938,10 +39883,6 @@
         <f t="array" aca="1" ref="C40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E40" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E40" ca="1">_xlfn.IFNA(IF($H40+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H40+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H40+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H40+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F40" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -40011,10 +39952,6 @@
         <f t="array" aca="1" ref="C41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E41" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E41" ca="1">_xlfn.IFNA(IF($H41+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H41+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H41+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H41+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F41" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -40059,10 +39996,6 @@
         <f t="array" aca="1" ref="C42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E42" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E42" ca="1">_xlfn.IFNA(IF($H42+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H42+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H42+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H42+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F42" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -40106,10 +40039,6 @@
         <f t="array" aca="1" ref="C43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E43" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E43" ca="1">_xlfn.IFNA(IF($H43+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H43+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H43+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H43+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F43" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -40153,10 +40082,6 @@
         <f t="array" aca="1" ref="C44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E44" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E44" ca="1">_xlfn.IFNA(IF($H44+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H44+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H44+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H44+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F44" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -40197,10 +40122,6 @@
         <f t="array" aca="1" ref="C45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E45" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E45" ca="1">_xlfn.IFNA(IF($H45+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H45+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H45+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H45+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F45" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -40241,10 +40162,6 @@
         <f t="array" aca="1" ref="C46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E46" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E46" ca="1">_xlfn.IFNA(IF($H46+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H46+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H46+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H46+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F46" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -40285,10 +40202,6 @@
         <f t="array" aca="1" ref="C47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E47" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E47" ca="1">_xlfn.IFNA(IF($H47+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H47+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H47+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H47+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F47" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -40329,10 +40242,6 @@
         <f t="array" aca="1" ref="C48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
         <v/>
       </c>
-      <c r="E48" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E48" ca="1">_xlfn.IFNA(IF($H48+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H48+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H48+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H48+2&amp;":$E$"&amp;$G$2),0))),"")</f>
-        <v/>
-      </c>
       <c r="F48" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -40371,10 +40280,6 @@
       </c>
       <c r="C49" s="60" t="str" cm="1">
         <f t="array" aca="1" ref="C49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="E49" s="60" t="str" cm="1">
-        <f t="array" aca="1" ref="E49" ca="1">_xlfn.IFNA(IF($H49+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$C$"&amp;$H49+2&amp;":$C$"&amp;$G$2)&amp;"_"&amp;INDIRECT("SubnetsVLANs!$D$"&amp;$H49+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H49+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="F49" s="60" t="str">
@@ -42853,10 +42758,10 @@
         <v>713</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -43357,7 +43262,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="42" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -43430,7 +43335,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -43776,7 +43681,7 @@
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -43788,7 +43693,7 @@
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -43800,7 +43705,7 @@
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -43860,7 +43765,7 @@
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
@@ -43884,7 +43789,7 @@
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="34" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -43944,7 +43849,7 @@
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
       <c r="E41" s="34" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -44227,16 +44132,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>394</v>
       </c>
       <c r="D64" s="34" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E64" s="34" t="s">
         <v>1336</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>1337</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
@@ -44248,7 +44153,7 @@
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
@@ -44260,7 +44165,7 @@
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
@@ -44272,7 +44177,7 @@
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
       <c r="E67" s="34" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
@@ -44372,7 +44277,7 @@
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
@@ -44384,7 +44289,7 @@
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
@@ -44396,7 +44301,7 @@
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
@@ -44408,7 +44313,7 @@
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
@@ -44420,7 +44325,7 @@
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
@@ -44444,7 +44349,7 @@
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F80" s="112"/>
       <c r="G80" s="34"/>
@@ -44500,7 +44405,7 @@
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="E84" s="31" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
@@ -44512,7 +44417,7 @@
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
       <c r="E85" s="31" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -44728,7 +44633,7 @@
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
       <c r="E103" s="31" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
@@ -44740,7 +44645,7 @@
       <c r="C104" s="34"/>
       <c r="D104" s="34"/>
       <c r="E104" s="31" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
@@ -44752,7 +44657,7 @@
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
       <c r="E105" s="31" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
@@ -44764,7 +44669,7 @@
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
       <c r="E106" s="31" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
@@ -44800,7 +44705,7 @@
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
       <c r="E109" s="31" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
@@ -44848,7 +44753,7 @@
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
       <c r="E113" s="31" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
@@ -44860,7 +44765,7 @@
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
       <c r="E114" s="31" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
@@ -44896,7 +44801,7 @@
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
       <c r="E117" s="34" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
@@ -44908,7 +44813,7 @@
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
       <c r="E118" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="34"/>
@@ -44920,7 +44825,7 @@
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
       <c r="E119" s="34" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="34"/>
@@ -44932,7 +44837,7 @@
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
       <c r="E120" s="34" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
@@ -45000,7 +44905,7 @@
       <c r="C125" s="34"/>
       <c r="D125" s="34"/>
       <c r="E125" s="34" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="34"/>
@@ -45464,7 +45369,7 @@
       <c r="C163" s="34"/>
       <c r="D163" s="34"/>
       <c r="E163" s="34" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F163" s="34"/>
       <c r="G163" s="34"/>
@@ -45476,7 +45381,7 @@
       <c r="C164" s="34"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F164" s="34"/>
       <c r="G164" s="34"/>
@@ -45488,7 +45393,7 @@
       <c r="C165" s="34"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
@@ -45536,7 +45441,7 @@
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>
       <c r="E169" s="34" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F169" s="34"/>
       <c r="G169" s="34"/>
@@ -45548,7 +45453,7 @@
       <c r="C170" s="34"/>
       <c r="D170" s="34"/>
       <c r="E170" s="34" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F170" s="34"/>
       <c r="G170" s="34"/>
@@ -46008,7 +45913,7 @@
       <c r="C207" s="34"/>
       <c r="D207" s="34"/>
       <c r="E207" s="34" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F207" s="34"/>
       <c r="G207" s="34"/>
@@ -46068,7 +45973,7 @@
       <c r="C212" s="34"/>
       <c r="D212" s="34"/>
       <c r="E212" s="34" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F212" s="34"/>
       <c r="G212" s="34"/>
@@ -46080,7 +45985,7 @@
       <c r="C213" s="34"/>
       <c r="D213" s="34"/>
       <c r="E213" s="34" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F213" s="34"/>
       <c r="G213" s="34"/>
@@ -46092,7 +45997,7 @@
       <c r="C214" s="34"/>
       <c r="D214" s="34"/>
       <c r="E214" s="34" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F214" s="34"/>
       <c r="G214" s="34"/>
@@ -46104,7 +46009,7 @@
       <c r="C215" s="34"/>
       <c r="D215" s="34"/>
       <c r="E215" s="34" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F215" s="34"/>
       <c r="G215" s="34"/>
@@ -46537,16 +46442,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="35" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C251" s="35" t="s">
         <v>394</v>
       </c>
       <c r="D251" s="34" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E251" s="34" t="s">
         <v>1342</v>
-      </c>
-      <c r="E251" s="34" t="s">
-        <v>1343</v>
       </c>
       <c r="F251" s="35"/>
       <c r="G251" s="35"/>
@@ -46558,7 +46463,7 @@
       <c r="C252" s="35"/>
       <c r="D252" s="34"/>
       <c r="E252" s="34" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F252" s="35"/>
       <c r="G252" s="35"/>
@@ -46570,7 +46475,7 @@
       <c r="C253" s="35"/>
       <c r="D253" s="34"/>
       <c r="E253" s="34" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F253" s="35"/>
       <c r="G253" s="35"/>
@@ -46582,7 +46487,7 @@
       <c r="C254" s="35"/>
       <c r="D254" s="34"/>
       <c r="E254" s="34" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F254" s="35"/>
       <c r="G254" s="35"/>
@@ -46658,7 +46563,7 @@
         <v>1017</v>
       </c>
       <c r="E259" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F259" s="34"/>
       <c r="G259" s="34"/>
@@ -46670,7 +46575,7 @@
       <c r="C260" s="34"/>
       <c r="D260" s="34"/>
       <c r="E260" s="34" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F260" s="34"/>
       <c r="G260" s="34"/>
@@ -46682,7 +46587,7 @@
       <c r="C261" s="34"/>
       <c r="D261" s="34"/>
       <c r="E261" s="34" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F261" s="34"/>
       <c r="G261" s="34"/>
@@ -46837,7 +46742,7 @@
       <c r="E1" s="138"/>
       <c r="F1" s="141"/>
       <c r="G1" s="142" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H1" s="143"/>
       <c r="I1" s="144"/>
@@ -47211,7 +47116,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="42" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -47229,7 +47134,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="114" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E2" s="115" t="s">
         <v>417</v>
@@ -47240,13 +47145,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="66" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>1367</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="D3" s="34" t="s">
         <v>1368</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>1369</v>
       </c>
       <c r="E3" s="35"/>
     </row>
@@ -47302,7 +47207,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="42" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -47329,34 +47234,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="114" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E2" s="115" t="s">
         <v>1370</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="F2" s="115" t="s">
         <v>1371</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="G2" s="115" t="s">
         <v>1372</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="H2" s="116" t="s">
         <v>1373</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="I2" s="117" t="s">
         <v>1374</v>
       </c>
-      <c r="I2" s="117" t="s">
+      <c r="J2" s="117" t="s">
         <v>1375</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="K2" s="115" t="s">
         <v>1376</v>
       </c>
-      <c r="K2" s="115" t="s">
+      <c r="L2" s="115" t="s">
         <v>1377</v>
       </c>
-      <c r="L2" s="115" t="s">
+      <c r="M2" s="115" t="s">
         <v>1378</v>
-      </c>
-      <c r="M2" s="115" t="s">
-        <v>1379</v>
       </c>
       <c r="N2" s="118" t="s">
         <v>417</v>
@@ -47367,29 +47272,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>1380</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="34" t="s">
         <v>1381</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>1382</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>394</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G3" s="34">
         <v>10</v>
       </c>
       <c r="H3" s="119"/>
       <c r="I3" s="120" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J3" s="120" t="s">
         <v>1384</v>
-      </c>
-      <c r="J3" s="120" t="s">
-        <v>1385</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
@@ -47401,19 +47306,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>1386</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>1387</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>1388</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>1389</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>1390</v>
       </c>
       <c r="G4" s="34">
         <v>100</v>
@@ -47424,7 +47329,7 @@
       <c r="I4" s="120"/>
       <c r="J4" s="120"/>
       <c r="K4" s="34" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="L4" s="121"/>
       <c r="M4" s="34"/>
@@ -47442,13 +47347,13 @@
       <c r="I5" s="120"/>
       <c r="J5" s="120"/>
       <c r="K5" s="34" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L5" s="35" t="s">
         <v>1392</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="M5" s="34" t="s">
         <v>1393</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>1394</v>
       </c>
       <c r="N5" s="122"/>
     </row>
@@ -47464,10 +47369,10 @@
       <c r="I6" s="120"/>
       <c r="J6" s="120"/>
       <c r="K6" s="34" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L6" s="35" t="s">
         <v>1395</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>1396</v>
       </c>
       <c r="M6" s="34"/>
       <c r="N6" s="122"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24937B80-4D52-0D44-BEE7-C5204BE9D5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B43806C-6B13-1B49-A98E-3B3DFDB3F87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="760" windowWidth="30240" windowHeight="17440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -388,10 +388,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Default : 10.244.0.0/16
 </t>
@@ -3927,9 +3926,6 @@
     <t>Shape(10Mbps|100Mbps|400Mbps|8000Mbps|flexible)</t>
   </si>
   <si>
-    <t>Backend ServerComp&amp;ServerName:Port</t>
-  </si>
-  <si>
     <t>Memory In GBs</t>
   </si>
   <si>
@@ -4786,15 +4782,6 @@
   </si>
   <si>
     <t>OCI_VCN_IP_NATIVE</t>
-  </si>
-  <si>
-    <t>AppDev&amp;DNS-Server1-PhxHub:80,&amp;10.111.2.4:80</t>
-  </si>
-  <si>
-    <t>AppDev&amp;EBSInstance:80</t>
-  </si>
-  <si>
-    <t>AppDev&amp;TCCInstance:80</t>
   </si>
   <si>
     <t>prod-vcn-lbr-nsg</t>
@@ -8493,9 +8480,6 @@
     <t>Cluster Type</t>
   </si>
   <si>
-    <t>CompartmentName&amp;Node Pool Name:Node Pool Type</t>
-  </si>
-  <si>
     <t>Fault Domains</t>
   </si>
   <si>
@@ -8511,22 +8495,13 @@
     <t>v1.28.2</t>
   </si>
   <si>
-    <t>AppDev&amp;nodepool1:Managed</t>
-  </si>
-  <si>
     <t>Fault-Domain-1</t>
   </si>
   <si>
-    <t>AppDev&amp;nodepool2:Managed</t>
-  </si>
-  <si>
     <t>Fault-Domain-1,Fault-Domain-2</t>
   </si>
   <si>
     <t>Enhanced_Cluster</t>
-  </si>
-  <si>
-    <t>AppDev&amp;nodepool1:Virtual</t>
   </si>
   <si>
     <t>Taints key,value,effect</t>
@@ -9078,19 +9053,10 @@
     <t>Domain Name</t>
   </si>
   <si>
-    <t>AppDev&amp;Instance1:10,&amp;10.2.2.2:9</t>
-  </si>
-  <si>
-    <t>AppDev&amp;Instance2:10,AppDev&amp;Instance3:10,&amp;10.0.0.144:10</t>
-  </si>
-  <si>
     <t>DNS</t>
   </si>
   <si>
     <t>example.com</t>
-  </si>
-  <si>
-    <t>AppDev&amp;jump-vm:20,AppDev&amp;jump-vm2:20</t>
   </si>
   <si>
     <t>SDDC-1::MANAGEMENT</t>
@@ -12879,6 +12845,39 @@
   </si>
   <si>
     <t>Enable Capabilities</t>
+  </si>
+  <si>
+    <t>Backend ServerComp@ServerName:Port</t>
+  </si>
+  <si>
+    <t>AppDev@DNS-Server1-PhxHub:80,&amp;10.111.2.4:80</t>
+  </si>
+  <si>
+    <t>AppDev@EBSInstance:80</t>
+  </si>
+  <si>
+    <t>AppDev@TCCInstance:80</t>
+  </si>
+  <si>
+    <t>CompartmentName@Node Pool Name:Node Pool Type</t>
+  </si>
+  <si>
+    <t>AppDev@nodepool1:Managed</t>
+  </si>
+  <si>
+    <t>AppDev@nodepool2:Managed</t>
+  </si>
+  <si>
+    <t>AppDev@nodepool1:Virtual</t>
+  </si>
+  <si>
+    <t>AppDev@Instance1:10,&amp;10.2.2.2:9</t>
+  </si>
+  <si>
+    <t>AppDev@Instance2:10,AppDev&amp;Instance3:10,&amp;10.0.0.144:10</t>
+  </si>
+  <si>
+    <t>AppDev@jump-vm:20,AppDev&amp;jump-vm2:20</t>
   </si>
 </sst>
 </file>
@@ -13857,17 +13856,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -13929,11 +13933,6 @@
     <xf numFmtId="0" fontId="34" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -19150,7 +19149,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
-        <v>1474</v>
+        <v>1463</v>
       </c>
     </row>
   </sheetData>
@@ -19187,22 +19186,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="136" t="s">
-        <v>1475</v>
-      </c>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="140"/>
+      <c r="A1" s="141" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="141" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
     </row>
     <row r="2" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -19523,19 +19522,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="144" t="s">
-        <v>1262</v>
-      </c>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
+      <c r="A1" s="137" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="147" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -19551,7 +19550,7 @@
         <v>645</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>646</v>
@@ -19615,13 +19614,13 @@
         <v>579</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -19635,16 +19634,16 @@
         <v>347</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -19707,10 +19706,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="41" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B1" s="143"/>
+      <c r="A1" s="137" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1" s="146"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -19778,16 +19777,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
     </row>
     <row r="2" spans="1:8" s="41" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -20032,30 +20031,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="205" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="145" t="s">
-        <v>1249</v>
-      </c>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
+      <c r="A1" s="141" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="148" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -20071,7 +20070,7 @@
         <v>309</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>11</v>
@@ -20714,13 +20713,13 @@
         <v>581</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>50</v>
@@ -20730,11 +20729,11 @@
       </c>
       <c r="I14" s="54"/>
       <c r="J14" s="54" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="K14" s="54"/>
       <c r="L14" s="55" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="M14" s="55" t="s">
         <v>21</v>
@@ -20769,13 +20768,13 @@
         <v>581</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>50</v>
@@ -20785,7 +20784,7 @@
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="54" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="K15" s="54"/>
       <c r="L15" s="54"/>
@@ -21219,18 +21218,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -21282,7 +21281,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>613</v>
@@ -21346,17 +21345,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -21453,25 +21452,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -21610,28 +21609,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
@@ -22610,17 +22609,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="175" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
+      <c r="A1" s="137" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -22630,22 +22629,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>1155</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>1156</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>1160</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>417</v>
@@ -22672,19 +22671,19 @@
         <v>347</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>1161</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>1165</v>
       </c>
       <c r="H4" s="33">
         <v>3600</v>
@@ -22699,19 +22698,19 @@
         <v>347</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>1162</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>1166</v>
-      </c>
       <c r="F5" s="33" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="H5" s="33">
         <v>300</v>
@@ -22726,19 +22725,19 @@
         <v>347</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="H6" s="33">
         <v>300</v>
@@ -23008,13 +23007,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="41" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -23053,7 +23052,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>551</v>
@@ -23275,19 +23274,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
+      <c r="A1" s="150" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -23303,22 +23302,22 @@
         <v>309</v>
       </c>
       <c r="E2" s="27" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>1173</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>1174</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>1178</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>417</v>
@@ -23353,20 +23352,20 @@
         <v>578</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>791</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="30" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="K4" s="30"/>
     </row>
@@ -23384,16 +23383,16 @@
         <v>580</v>
       </c>
       <c r="E5" s="33" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>1179</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>1183</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>584</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
@@ -23462,15 +23461,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
     </row>
     <row r="2" spans="1:7" s="41" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -23648,32 +23647,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="149" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="136" t="s">
-        <v>1476</v>
-      </c>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="140"/>
+      <c r="A1" s="152" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="141" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="143"/>
       <c r="W1" s="110"/>
     </row>
     <row r="2" spans="1:23" s="41" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -23693,7 +23692,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>89</v>
@@ -23708,19 +23707,19 @@
         <v>82</v>
       </c>
       <c r="K2" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>796</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>797</v>
-      </c>
       <c r="M2" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>800</v>
       </c>
-      <c r="N2" s="28" t="s">
-        <v>801</v>
-      </c>
       <c r="O2" s="28" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>92</v>
@@ -23738,7 +23737,7 @@
         <v>95</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="V2" s="27" t="s">
         <v>417</v>
@@ -23755,19 +23754,19 @@
         <v>55</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>346</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
       <c r="G3" s="34" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>428</v>
@@ -23845,7 +23844,7 @@
         <v>346</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="G5" s="55" t="b">
         <v>0</v>
@@ -23864,7 +23863,7 @@
       </c>
       <c r="N5" s="54"/>
       <c r="O5" s="54" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="P5" s="54" t="s">
         <v>100</v>
@@ -23878,7 +23877,7 @@
         <v>88</v>
       </c>
       <c r="U5" s="55" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="V5" s="54"/>
     </row>
@@ -23899,7 +23898,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="G6" s="55" t="b">
         <v>0</v>
@@ -23928,7 +23927,7 @@
       </c>
       <c r="T6" s="54"/>
       <c r="U6" s="55" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="V6" s="54"/>
     </row>
@@ -23949,7 +23948,7 @@
         <v>346</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="G7" s="55" t="b">
         <v>0</v>
@@ -23991,20 +23990,20 @@
         <v>55</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E8" s="54" t="s">
         <v>98</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="G8" s="55" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="54"/>
       <c r="I8" s="54" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J8" s="97" t="s">
         <v>102</v>
@@ -24128,26 +24127,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="140"/>
+      <c r="A1" s="141" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="143"/>
     </row>
     <row r="2" spans="1:18" s="41" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -24160,7 +24159,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>104</v>
@@ -24175,25 +24174,25 @@
         <v>106</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>427</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>93</v>
@@ -24253,22 +24252,22 @@
         <v>107</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J4" s="106" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="K4" s="106" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="L4" s="106">
         <v>100</v>
       </c>
       <c r="M4" s="106" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="N4" s="106" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="O4" s="87" t="b">
         <v>1</v>
@@ -24286,7 +24285,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="C5" s="54" t="s">
         <v>391</v>
@@ -24387,32 +24386,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="152" t="s">
-        <v>1470</v>
-      </c>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="154"/>
+      <c r="A1" s="141" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="155" t="s">
+        <v>1459</v>
+      </c>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="157"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -24428,7 +24427,7 @@
         <v>108</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>109</v>
@@ -24443,13 +24442,13 @@
         <v>111</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="M2" s="28" t="s">
         <v>112</v>
@@ -24473,10 +24472,10 @@
         <v>118</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="V2" s="28" t="s">
         <v>417</v>
@@ -24490,7 +24489,7 @@
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="33" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -24524,7 +24523,7 @@
         <v>119</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="54" t="s">
@@ -24628,7 +24627,7 @@
         <v>119</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
@@ -24666,7 +24665,7 @@
         <v>127</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
@@ -24708,7 +24707,7 @@
         <v>130</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
@@ -24750,7 +24749,7 @@
         <v>132</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
@@ -24785,10 +24784,10 @@
         <v>87</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>1471</v>
+        <v>1460</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
@@ -24824,7 +24823,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
       <c r="I12" s="54" t="s">
-        <v>1472</v>
+        <v>1461</v>
       </c>
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
@@ -24926,45 +24925,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="140"/>
-      <c r="P1" s="149" t="s">
-        <v>1510</v>
-      </c>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="150"/>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="150"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="150"/>
-      <c r="AH1" s="150"/>
-      <c r="AI1" s="150"/>
+      <c r="A1" s="141" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="152" t="s">
+        <v>1499</v>
+      </c>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="153"/>
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="153"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="153"/>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="153"/>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -24974,82 +24973,82 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>1030</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>1031</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>1032</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="H2" s="28" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>1488</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>1033</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>1498</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>1499</v>
-      </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>1034</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>1035</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>1036</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
+        <v>1511</v>
+      </c>
+      <c r="O2" s="28" t="s">
         <v>1037</v>
       </c>
-      <c r="N2" s="28" t="s">
-        <v>1342</v>
-      </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>1038</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>1039</v>
       </c>
       <c r="Q2" s="28" t="s">
         <v>82</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S2" s="28" t="s">
         <v>427</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>1500</v>
+        <v>1489</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>81</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="Y2" s="28" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Z2" s="28" t="s">
         <v>1041</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="AA2" s="28" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AB2" s="28" t="s">
         <v>1042</v>
-      </c>
-      <c r="AA2" s="28" t="s">
-        <v>1502</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>1043</v>
       </c>
       <c r="AC2" s="28" t="s">
         <v>92</v>
@@ -25058,19 +25057,19 @@
         <v>417</v>
       </c>
       <c r="AE2" s="28" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AF2" s="28" t="s">
         <v>1044</v>
       </c>
-      <c r="AF2" s="28" t="s">
-        <v>1045</v>
-      </c>
       <c r="AG2" s="28" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="AH2" s="28" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25120,76 +25119,76 @@
         <v>548</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D4" s="98" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G4" s="98" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="J4" s="55" t="b">
         <v>0</v>
       </c>
       <c r="K4" s="98" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L4" s="98" t="s">
         <v>1049</v>
       </c>
-      <c r="L4" s="98" t="s">
-        <v>1050</v>
-      </c>
       <c r="M4" s="98" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="N4" s="98" t="s">
-        <v>1348</v>
+        <v>1512</v>
       </c>
       <c r="O4" s="98" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="P4" s="98">
         <v>1</v>
       </c>
       <c r="Q4" s="98" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="R4" s="98">
         <v>32</v>
       </c>
       <c r="S4" s="98" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="T4" s="98">
         <v>32</v>
       </c>
       <c r="U4" s="98" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="V4" s="98" t="s">
-        <v>1501</v>
+        <v>1490</v>
       </c>
       <c r="W4" s="98" t="s">
         <v>96</v>
       </c>
       <c r="X4" s="98" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="Y4" s="98"/>
       <c r="Z4" s="98"/>
       <c r="AA4" s="98"/>
       <c r="AB4" s="99" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AC4" s="98" t="s">
         <v>100</v>
@@ -25218,41 +25217,41 @@
       <c r="L5" s="55"/>
       <c r="M5" s="55"/>
       <c r="N5" s="55" t="s">
-        <v>1350</v>
+        <v>1513</v>
       </c>
       <c r="O5" s="98" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="P5" s="55">
         <v>2</v>
       </c>
       <c r="Q5" s="55" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="R5" s="55">
         <v>16</v>
       </c>
       <c r="S5" s="55" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="T5" s="55">
         <v>32</v>
       </c>
       <c r="U5" s="55"/>
       <c r="V5" s="98" t="s">
-        <v>1501</v>
+        <v>1490</v>
       </c>
       <c r="W5" s="55" t="s">
         <v>87</v>
       </c>
       <c r="X5" s="98" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="Y5" s="55"/>
       <c r="Z5" s="55"/>
       <c r="AA5" s="55"/>
       <c r="AB5" s="54" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AC5" s="55" t="s">
         <v>100</v>
@@ -25272,25 +25271,25 @@
         <v>548</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F6" s="55" t="s">
         <v>1056</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>1057</v>
       </c>
       <c r="G6" s="55" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="98" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="J6" s="55" t="b">
         <v>0</v>
@@ -25299,44 +25298,44 @@
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
       <c r="N6" s="55" t="s">
-        <v>1353</v>
+        <v>1514</v>
       </c>
       <c r="O6" s="98" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="P6" s="55">
         <v>1</v>
       </c>
       <c r="Q6" s="55" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="R6" s="55">
         <v>32</v>
       </c>
       <c r="S6" s="55" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="T6" s="55">
         <v>32</v>
       </c>
       <c r="U6" s="98" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="V6" s="98" t="s">
-        <v>1501</v>
+        <v>1490</v>
       </c>
       <c r="W6" s="55" t="s">
         <v>96</v>
       </c>
       <c r="X6" s="98" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="Y6" s="55">
         <v>2</v>
       </c>
       <c r="Z6" s="55"/>
       <c r="AA6" s="98" t="s">
-        <v>1501</v>
+        <v>1490</v>
       </c>
       <c r="AB6" s="100"/>
       <c r="AC6" s="55" t="s">
@@ -25348,7 +25347,7 @@
       <c r="AG6" s="54"/>
       <c r="AH6" s="54"/>
       <c r="AI6" s="55" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -25418,27 +25417,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -25460,7 +25459,7 @@
         <v>658</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>135</v>
@@ -25469,7 +25468,7 @@
         <v>94</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>136</v>
@@ -25535,7 +25534,7 @@
       <c r="E4" s="54"/>
       <c r="F4" s="54"/>
       <c r="G4" s="55" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="H4" s="55" t="b">
         <v>1</v>
@@ -25609,7 +25608,7 @@
       <c r="E6" s="54"/>
       <c r="F6" s="54"/>
       <c r="G6" s="55" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="H6" s="55" t="b">
         <v>0</v>
@@ -25717,30 +25716,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="140"/>
+      <c r="A1" s="141" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="143"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
@@ -25753,16 +25752,16 @@
         <v>134</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>152</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>795</v>
+        <v>1507</v>
       </c>
       <c r="H2" s="35" t="s">
         <v>153</v>
@@ -25852,7 +25851,7 @@
         <v>163</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>1058</v>
+        <v>1508</v>
       </c>
       <c r="H4" s="54" t="s">
         <v>164</v>
@@ -25912,7 +25911,7 @@
         <v>169</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>1059</v>
+        <v>1509</v>
       </c>
       <c r="H5" s="54" t="s">
         <v>164</v>
@@ -25960,7 +25959,7 @@
         <v>172</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>1060</v>
+        <v>1510</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>164</v>
@@ -26071,25 +26070,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26114,10 +26113,10 @@
         <v>239</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>240</v>
@@ -26346,29 +26345,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="141" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="141" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="144" t="s">
         <v>435</v>
       </c>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="156"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="159"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -26978,7 +26977,7 @@
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
       <c r="J23" s="54" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="K23" s="54"/>
       <c r="L23" s="54"/>
@@ -27073,15 +27072,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="41" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="139"/>
+      <c r="A1" s="138" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="140"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="112" t="s">
@@ -27094,12 +27093,12 @@
         <v>2</v>
       </c>
       <c r="D2" s="114" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="E2" s="114" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F2" s="164" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F2" s="135" t="s">
         <v>422</v>
       </c>
       <c r="G2" s="114" t="s">
@@ -27126,10 +27125,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>836</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>837</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>838</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="34"/>
@@ -27272,15 +27271,15 @@
         <v>5</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>839</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>840</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="7"/>
       <c r="F14" s="33" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G14" s="34"/>
     </row>
@@ -27289,15 +27288,15 @@
         <v>5</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>841</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>842</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>843</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G15" s="34"/>
     </row>
@@ -27306,15 +27305,15 @@
         <v>5</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>845</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>846</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="33" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G16" s="34"/>
     </row>
@@ -27323,15 +27322,15 @@
         <v>5</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>847</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>848</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>849</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="33" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G17" s="34"/>
     </row>
@@ -27369,14 +27368,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="41" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>425</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -27524,12 +27523,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139"/>
+      <c r="A1" s="148" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="140"/>
     </row>
     <row r="2" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -27539,10 +27538,10 @@
         <v>134</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
@@ -27561,10 +27560,10 @@
         <v>392</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>1483</v>
+        <v>1472</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -27575,10 +27574,10 @@
         <v>392</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
     </row>
   </sheetData>
@@ -27620,22 +27619,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>814</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="140"/>
+      <c r="A1" s="141" t="s">
+        <v>813</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
     </row>
     <row r="2" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -27645,13 +27644,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>94</v>
@@ -27663,7 +27662,7 @@
         <v>90</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>240</v>
@@ -27672,7 +27671,7 @@
         <v>152</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M2" s="28" t="s">
         <v>241</v>
@@ -27707,16 +27706,16 @@
         <v>347</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>1503</v>
+        <v>1492</v>
       </c>
       <c r="E4" s="55" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="G4" s="55" t="b">
         <v>1</v>
@@ -27724,13 +27723,13 @@
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
       <c r="J4" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>818</v>
+      </c>
+      <c r="L4" s="55" t="s">
         <v>831</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>819</v>
-      </c>
-      <c r="L4" s="55" t="s">
-        <v>832</v>
       </c>
       <c r="M4" s="55">
         <v>7003</v>
@@ -27745,10 +27744,10 @@
         <v>347</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>1504</v>
+        <v>1493</v>
       </c>
       <c r="E5" s="55" t="b">
         <v>1</v>
@@ -27759,16 +27758,16 @@
       </c>
       <c r="H5" s="55"/>
       <c r="I5" s="55" t="s">
+        <v>832</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>833</v>
       </c>
-      <c r="J5" s="55" t="s">
-        <v>834</v>
-      </c>
       <c r="K5" s="55" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M5" s="55">
         <v>53</v>
@@ -27786,10 +27785,10 @@
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
       <c r="J6" s="55" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L6" s="55" t="s">
         <v>690</v>
@@ -28180,20 +28179,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>814</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
+      <c r="A1" s="141" t="s">
+        <v>813</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
     </row>
     <row r="2" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -28203,22 +28202,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>152</v>
       </c>
       <c r="E2" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>816</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>817</v>
-      </c>
       <c r="G2" s="28" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>155</v>
@@ -28230,7 +28229,7 @@
         <v>438</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>795</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -28257,13 +28256,13 @@
         <v>347</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>818</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="E4" s="55" t="s">
         <v>819</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>820</v>
       </c>
       <c r="F4" s="55" t="b">
         <v>0</v>
@@ -28276,13 +28275,13 @@
         <v>7003</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K4" s="55">
         <v>10000</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>1407</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -28293,19 +28292,19 @@
         <v>347</v>
       </c>
       <c r="C5" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>822</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="E5" s="55" t="s">
         <v>823</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>824</v>
       </c>
       <c r="F5" s="55" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H5" s="55"/>
       <c r="I5" s="55">
@@ -28316,7 +28315,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>1408</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28324,19 +28323,19 @@
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55" t="s">
+        <v>825</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>826</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>827</v>
       </c>
       <c r="F6" s="55" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="I6" s="55">
         <v>53</v>
@@ -28346,7 +28345,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>1411</v>
+        <v>1517</v>
       </c>
     </row>
   </sheetData>
@@ -28404,24 +28403,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
+      <c r="A1" s="141" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -28431,13 +28430,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>1019</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>1492</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>1020</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>310</v>
@@ -28452,10 +28451,10 @@
         <v>721</v>
       </c>
       <c r="J2" s="16" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>1021</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>1022</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>726</v>
@@ -28501,14 +28500,14 @@
         <v>550</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="E4" s="89"/>
       <c r="F4" s="88" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>409</v>
@@ -28632,35 +28631,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="140"/>
+      <c r="A1" s="141" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="143"/>
     </row>
     <row r="2" spans="1:27" s="49" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
@@ -28673,7 +28672,7 @@
         <v>81</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="E2" s="51" t="s">
         <v>719</v>
@@ -28787,7 +28786,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="E4" s="92" t="s">
         <v>751</v>
@@ -28862,7 +28861,7 @@
         <v>87</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>1506</v>
+        <v>1495</v>
       </c>
       <c r="E5" s="102" t="s">
         <v>753</v>
@@ -32025,16 +32024,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
+      <c r="A1" s="141" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="67" t="s">
@@ -32088,7 +32087,7 @@
         <v>55</v>
       </c>
       <c r="E4" s="93" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="F4" s="55">
         <v>2</v>
@@ -32184,29 +32183,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="149" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
+      <c r="A1" s="152" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
       <c r="V1" s="72"/>
       <c r="W1" s="72"/>
       <c r="X1" s="72"/>
@@ -32229,10 +32228,10 @@
         <v>742</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="F2" s="67" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="G2" s="67" t="s">
         <v>721</v>
@@ -32247,16 +32246,16 @@
         <v>743</v>
       </c>
       <c r="K2" s="67" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="M2" s="67" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="N2" s="67" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>744</v>
@@ -32325,10 +32324,10 @@
         <v>763</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="G4" s="54">
         <v>4</v>
@@ -32352,7 +32351,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="93" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="O4" s="93" t="b">
         <v>1</v>
@@ -32374,7 +32373,7 @@
     </row>
     <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -32457,26 +32456,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="159"/>
+      <c r="A1" s="160" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="162"/>
       <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:19" s="49" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32487,46 +32486,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="35" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E2" s="126" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F2" s="126" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H2" s="126" t="s">
         <v>1186</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E2" s="126" t="s">
+      <c r="I2" s="35" t="s">
         <v>1187</v>
       </c>
-      <c r="F2" s="126" t="s">
+      <c r="J2" s="35" t="s">
         <v>1188</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>1189</v>
       </c>
-      <c r="H2" s="126" t="s">
+      <c r="L2" s="127" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M2" s="128" t="s">
+        <v>1278</v>
+      </c>
+      <c r="N2" s="35" t="s">
         <v>1190</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="O2" s="35" t="s">
         <v>1191</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="P2" s="35" t="s">
         <v>1192</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>1193</v>
-      </c>
-      <c r="L2" s="127" t="s">
-        <v>1281</v>
-      </c>
-      <c r="M2" s="128" t="s">
-        <v>1282</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>1194</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>1195</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>1196</v>
       </c>
       <c r="Q2" s="35" t="s">
         <v>92</v>
@@ -32543,49 +32542,49 @@
         <v>548</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
       <c r="K3" s="33">
         <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="M3" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="N3" s="33">
         <v>3</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="P3" s="33" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="R3" s="29"/>
     </row>
@@ -32597,18 +32596,18 @@
         <v>548</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>55</v>
@@ -32625,7 +32624,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
       <c r="P4" s="33" t="b">
         <v>0</v>
@@ -32730,65 +32729,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="149" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
+      <c r="A1" s="152" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
     </row>
     <row r="2" spans="1:15" s="41" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C2" s="126" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="D2" s="35" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>1197</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="I2" s="35" t="s">
         <v>1198</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="J2" s="35" t="s">
         <v>1199</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>1200</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>1201</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="M2" s="35" t="s">
         <v>1202</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="N2" s="35" t="s">
         <v>1203</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>1204</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>1205</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>1206</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>1207</v>
       </c>
       <c r="O2" s="49"/>
     </row>
@@ -32797,43 +32796,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="O3" s="129"/>
     </row>
@@ -32842,41 +32841,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
       <c r="O4" s="129"/>
     </row>
@@ -32962,38 +32961,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="41" customFormat="1" ht="166" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="139"/>
+      <c r="A1" s="137" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="140"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>1515</v>
+        <v>1504</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1516</v>
+        <v>1505</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1517</v>
-      </c>
-      <c r="G2" s="165" t="s">
-        <v>1406</v>
+        <v>1506</v>
+      </c>
+      <c r="G2" s="136" t="s">
+        <v>1398</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>417</v>
@@ -33941,26 +33940,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="281.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="160" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="162"/>
+      <c r="A1" s="163" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
     </row>
     <row r="2" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -33970,49 +33969,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>1208</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>1209</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>1210</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>1211</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="K2" s="28" t="s">
         <v>1212</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>1213</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="M2" s="28" t="s">
         <v>1214</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="N2" s="28" t="s">
         <v>1215</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>1216</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="P2" s="28" t="s">
         <v>1217</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>1218</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>1219</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>1220</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>1221</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>1222</v>
       </c>
       <c r="R2" s="27" t="s">
         <v>417</v>
@@ -34031,43 +34030,43 @@
         <v>548</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>1223</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="I4" s="30" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>1224</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="K4" s="29" t="s">
         <v>1225</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G4" s="34" t="s">
+      <c r="L4" s="29" t="s">
         <v>1226</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>1275</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>1228</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>1229</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>1230</v>
       </c>
       <c r="M4" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
@@ -34080,40 +34079,40 @@
         <v>548</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>1223</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>1226</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>1227</v>
-      </c>
       <c r="I5" s="30" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="M5" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
@@ -34127,22 +34126,22 @@
         <v>548</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="29"/>
@@ -34162,38 +34161,38 @@
         <v>548</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="M7" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -34315,71 +34314,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="145" t="s">
-        <v>1440</v>
-      </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="148" t="s">
+        <v>1429</v>
+      </c>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>1438</v>
+      </c>
+      <c r="J2" s="132" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>1440</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>1441</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="M2" s="133" t="s">
         <v>1442</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="N2" s="16" t="s">
+        <v>1434</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>1443</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>1444</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>1447</v>
-      </c>
-      <c r="H2" s="96" t="s">
-        <v>1448</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>1449</v>
-      </c>
-      <c r="J2" s="132" t="s">
-        <v>1450</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>1451</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>1452</v>
-      </c>
-      <c r="M2" s="133" t="s">
-        <v>1453</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>1445</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -34409,23 +34408,23 @@
         <v>553</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
         <v>553</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="J4" s="134">
         <v>256</v>
@@ -34446,19 +34445,19 @@
         <v>548</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="J5" s="134">
         <v>384</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="134"/>
@@ -34473,10 +34472,10 @@
         <v>553</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>5</v>
@@ -34485,13 +34484,13 @@
         <v>553</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="J6" s="134">
         <v>128</v>
@@ -34516,13 +34515,13 @@
         <v>548</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="J7" s="134">
         <v>3072</v>
@@ -34543,19 +34542,19 @@
         <v>550</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="J8" s="134">
         <v>521</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
       <c r="L8" s="33" t="b">
         <v>1</v>
@@ -35636,7 +35635,7 @@
         <v>720</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="M1" s="45"/>
     </row>
@@ -35735,7 +35734,7 @@
         <v>440</v>
       </c>
       <c r="L4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -35757,7 +35756,7 @@
         <v>441</v>
       </c>
       <c r="L5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -35872,7 +35871,7 @@
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="F12" s="34"/>
       <c r="H12" s="34" t="s">
@@ -35889,7 +35888,7 @@
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="F13" s="34"/>
       <c r="H13" s="34" t="s">
@@ -36775,25 +36774,25 @@
         <v>661</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
       <c r="F1" s="66" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J1" s="66" t="s">
         <v>1239</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>1240</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>1242</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>1243</v>
       </c>
       <c r="K1" s="66" t="s">
         <v>663</v>
@@ -36892,22 +36891,22 @@
         <v>312</v>
       </c>
       <c r="AQ1" s="57" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AR1" s="57" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="AS1" s="57" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="AT1" s="57" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="AU1" s="57" t="s">
         <v>662</v>
       </c>
       <c r="AV1" s="57" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -36953,7 +36952,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="M2" s="60" t="s">
         <v>38</v>
@@ -37050,13 +37049,13 @@
         <v>314</v>
       </c>
       <c r="AQ2" s="59" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AR2" s="59" t="b">
         <v>0</v>
       </c>
       <c r="AS2" s="59" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AT2" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="AT2:AT5" ca="1">_xlfn.UNIQUE(INDIRECT("B2:B"&amp;$G$5),FALSE,FALSE)</f>
@@ -37204,13 +37203,13 @@
         <v>315</v>
       </c>
       <c r="AQ3" s="59" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AR3" s="59" t="b">
         <v>1</v>
       </c>
       <c r="AS3" s="59" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="AT3" s="59" t="str">
         <f ca="1"/>
@@ -37334,7 +37333,7 @@
         <v>32</v>
       </c>
       <c r="AS4" s="59" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AT4" s="59" t="str">
         <f ca="1"/>
@@ -37386,7 +37385,7 @@
       </c>
       <c r="K5" s="60"/>
       <c r="L5" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="M5" s="60"/>
       <c r="N5" s="60" t="s">
@@ -37488,7 +37487,7 @@
       </c>
       <c r="K6" s="60"/>
       <c r="L6" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="M6" s="60"/>
       <c r="N6" s="60"/>
@@ -37826,7 +37825,7 @@
       </c>
       <c r="K10" s="60"/>
       <c r="L10" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
@@ -37910,7 +37909,7 @@
       </c>
       <c r="K11" s="60"/>
       <c r="L11" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="M11" s="60"/>
       <c r="N11" s="60"/>
@@ -37990,7 +37989,7 @@
       </c>
       <c r="K12" s="60"/>
       <c r="L12" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="M12" s="60"/>
       <c r="N12" s="60"/>
@@ -38064,7 +38063,7 @@
       </c>
       <c r="K13" s="60"/>
       <c r="L13" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
@@ -38138,7 +38137,7 @@
       </c>
       <c r="K14" s="60"/>
       <c r="L14" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
@@ -38352,7 +38351,7 @@
       </c>
       <c r="K17" s="60"/>
       <c r="L17" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="M17" s="60"/>
       <c r="N17" s="60"/>
@@ -38422,7 +38421,7 @@
       </c>
       <c r="K18" s="60"/>
       <c r="L18" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="M18" s="60"/>
       <c r="N18" s="60"/>
@@ -38492,7 +38491,7 @@
       </c>
       <c r="K19" s="60"/>
       <c r="L19" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="M19" s="60"/>
       <c r="N19" s="60"/>
@@ -38632,7 +38631,7 @@
       </c>
       <c r="K21" s="60"/>
       <c r="L21" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="M21" s="60"/>
       <c r="N21" s="60"/>
@@ -38702,7 +38701,7 @@
       </c>
       <c r="K22" s="60"/>
       <c r="L22" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="M22" s="60"/>
       <c r="N22" s="60"/>
@@ -38772,7 +38771,7 @@
       </c>
       <c r="K23" s="60"/>
       <c r="L23" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="M23" s="60"/>
       <c r="N23" s="60"/>
@@ -38912,7 +38911,7 @@
       </c>
       <c r="K25" s="60"/>
       <c r="L25" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="M25" s="60"/>
       <c r="N25" s="60"/>
@@ -39192,7 +39191,7 @@
       </c>
       <c r="K29" s="60"/>
       <c r="L29" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="M29" s="60"/>
       <c r="N29" s="60"/>
@@ -39332,7 +39331,7 @@
       </c>
       <c r="K31" s="60"/>
       <c r="L31" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="M31" s="60"/>
       <c r="N31" s="60"/>
@@ -39402,7 +39401,7 @@
       </c>
       <c r="K32" s="60"/>
       <c r="L32" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="M32" s="60"/>
       <c r="N32" s="60"/>
@@ -39542,7 +39541,7 @@
       </c>
       <c r="K34" s="60"/>
       <c r="L34" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="M34" s="60"/>
       <c r="N34" s="60"/>
@@ -39682,7 +39681,7 @@
       </c>
       <c r="K36" s="60"/>
       <c r="L36" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="M36" s="60"/>
       <c r="N36" s="60"/>
@@ -39752,7 +39751,7 @@
       </c>
       <c r="K37" s="60"/>
       <c r="L37" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="M37" s="60"/>
       <c r="N37" s="60"/>
@@ -42828,10 +42827,10 @@
         <v>713</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -43331,14 +43330,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="41" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="139"/>
+      <c r="A1" s="137" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -43351,10 +43350,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>417</v>
@@ -43404,16 +43403,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="41" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
     </row>
     <row r="2" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -43455,7 +43454,7 @@
         <v>635</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -43467,7 +43466,7 @@
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
@@ -43487,7 +43486,7 @@
         <v>568</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -43499,7 +43498,7 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -43511,7 +43510,7 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
@@ -43523,7 +43522,7 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
@@ -43535,7 +43534,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
@@ -43547,7 +43546,7 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -43559,7 +43558,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -43571,7 +43570,7 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -43583,7 +43582,7 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -43595,7 +43594,7 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -43607,7 +43606,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -43619,7 +43618,7 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -43631,7 +43630,7 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -43643,7 +43642,7 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -43655,7 +43654,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -43667,7 +43666,7 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -43679,7 +43678,7 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -43691,7 +43690,7 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -43703,7 +43702,7 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -43715,7 +43714,7 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -43727,7 +43726,7 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -43739,7 +43738,7 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
@@ -43751,7 +43750,7 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -43763,7 +43762,7 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -43775,7 +43774,7 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -43787,7 +43786,7 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -43799,7 +43798,7 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -43811,7 +43810,7 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -43823,7 +43822,7 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -43835,7 +43834,7 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -43847,7 +43846,7 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -43859,7 +43858,7 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -43871,7 +43870,7 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -43883,7 +43882,7 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -43895,7 +43894,7 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -43907,7 +43906,7 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -43919,7 +43918,7 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -43931,7 +43930,7 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -43943,7 +43942,7 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -43955,7 +43954,7 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -43967,7 +43966,7 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -43979,7 +43978,7 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -43999,7 +43998,7 @@
         <v>570</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -44011,7 +44010,7 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -44023,7 +44022,7 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -44035,7 +44034,7 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -44047,7 +44046,7 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -44059,7 +44058,7 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -44071,7 +44070,7 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -44083,7 +44082,7 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -44095,7 +44094,7 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -44107,7 +44106,7 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -44119,7 +44118,7 @@
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -44131,7 +44130,7 @@
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -44143,7 +44142,7 @@
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -44155,7 +44154,7 @@
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -44167,7 +44166,7 @@
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -44179,7 +44178,7 @@
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -44191,7 +44190,7 @@
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -44202,16 +44201,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>394</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -44223,7 +44222,7 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -44235,7 +44234,7 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -44247,7 +44246,7 @@
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -44264,10 +44263,10 @@
         <v>394</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -44279,7 +44278,7 @@
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -44291,7 +44290,7 @@
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="33" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -44303,7 +44302,7 @@
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -44314,16 +44313,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>394</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -44335,7 +44334,7 @@
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -44347,7 +44346,7 @@
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -44359,7 +44358,7 @@
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -44371,7 +44370,7 @@
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -44383,7 +44382,7 @@
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -44395,7 +44394,7 @@
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
       <c r="E78" s="33" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -44407,7 +44406,7 @@
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -44419,7 +44418,7 @@
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="F80" s="111"/>
       <c r="G80" s="33"/>
@@ -44436,10 +44435,10 @@
         <v>394</v>
       </c>
       <c r="D81" s="33" t="s">
+        <v>884</v>
+      </c>
+      <c r="E81" s="33" t="s">
         <v>885</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>886</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -44451,7 +44450,7 @@
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -44463,7 +44462,7 @@
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -44475,7 +44474,7 @@
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="30" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -44487,7 +44486,7 @@
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="30" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -44499,7 +44498,7 @@
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
       <c r="E86" s="30" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -44511,7 +44510,7 @@
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="30" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -44523,7 +44522,7 @@
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
       <c r="E88" s="30" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -44535,7 +44534,7 @@
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
       <c r="E89" s="30" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -44547,7 +44546,7 @@
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
       <c r="E90" s="30" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -44559,7 +44558,7 @@
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
       <c r="E91" s="30" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -44571,7 +44570,7 @@
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
       <c r="E92" s="30" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -44583,7 +44582,7 @@
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
       <c r="E93" s="30" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -44595,7 +44594,7 @@
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
       <c r="E94" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -44607,7 +44606,7 @@
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
       <c r="E95" s="30" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -44619,7 +44618,7 @@
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
       <c r="E96" s="30" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -44631,7 +44630,7 @@
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
       <c r="E97" s="30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -44643,7 +44642,7 @@
       <c r="C98" s="33"/>
       <c r="D98" s="33"/>
       <c r="E98" s="30" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -44655,7 +44654,7 @@
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
       <c r="E99" s="30" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -44667,7 +44666,7 @@
       <c r="C100" s="33"/>
       <c r="D100" s="33"/>
       <c r="E100" s="30" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -44679,7 +44678,7 @@
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
       <c r="E101" s="30" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -44691,7 +44690,7 @@
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
       <c r="E102" s="30" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -44703,7 +44702,7 @@
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
       <c r="E103" s="30" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -44715,7 +44714,7 @@
       <c r="C104" s="33"/>
       <c r="D104" s="33"/>
       <c r="E104" s="30" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -44727,7 +44726,7 @@
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
       <c r="E105" s="30" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -44739,7 +44738,7 @@
       <c r="C106" s="33"/>
       <c r="D106" s="33"/>
       <c r="E106" s="30" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -44751,7 +44750,7 @@
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
       <c r="E107" s="30" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -44763,7 +44762,7 @@
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
       <c r="E108" s="30" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -44775,7 +44774,7 @@
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
       <c r="E109" s="30" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -44787,7 +44786,7 @@
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
       <c r="E110" s="30" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -44799,7 +44798,7 @@
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
       <c r="E111" s="30" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -44811,7 +44810,7 @@
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
       <c r="E112" s="30" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -44823,7 +44822,7 @@
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
       <c r="E113" s="30" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -44835,7 +44834,7 @@
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
       <c r="E114" s="30" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -44847,7 +44846,7 @@
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
       <c r="E115" s="30" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -44859,7 +44858,7 @@
       <c r="C116" s="33"/>
       <c r="D116" s="33"/>
       <c r="E116" s="30" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
@@ -44871,7 +44870,7 @@
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -44883,7 +44882,7 @@
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -44895,7 +44894,7 @@
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -44907,7 +44906,7 @@
       <c r="C120" s="33"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -44919,7 +44918,7 @@
       <c r="C121" s="33"/>
       <c r="D121" s="33"/>
       <c r="E121" s="30" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
@@ -44939,7 +44938,7 @@
         <v>573</v>
       </c>
       <c r="E122" s="77" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
@@ -44951,7 +44950,7 @@
       <c r="C123" s="33"/>
       <c r="D123" s="33"/>
       <c r="E123" s="77" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
@@ -44963,7 +44962,7 @@
       <c r="C124" s="33"/>
       <c r="D124" s="33"/>
       <c r="E124" s="33" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -44975,7 +44974,7 @@
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -44987,7 +44986,7 @@
       <c r="C126" s="33"/>
       <c r="D126" s="33"/>
       <c r="E126" s="33" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
@@ -44999,7 +44998,7 @@
       <c r="C127" s="33"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
@@ -45011,7 +45010,7 @@
       <c r="C128" s="33"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
@@ -45023,7 +45022,7 @@
       <c r="C129" s="33"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
@@ -45035,7 +45034,7 @@
       <c r="C130" s="33"/>
       <c r="D130" s="33"/>
       <c r="E130" s="33" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -45047,7 +45046,7 @@
       <c r="C131" s="33"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -45059,7 +45058,7 @@
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
       <c r="E132" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -45071,7 +45070,7 @@
       <c r="C133" s="33"/>
       <c r="D133" s="33"/>
       <c r="E133" s="33" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -45083,7 +45082,7 @@
       <c r="C134" s="33"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -45095,7 +45094,7 @@
       <c r="C135" s="33"/>
       <c r="D135" s="33"/>
       <c r="E135" s="33" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
@@ -45107,7 +45106,7 @@
       <c r="C136" s="33"/>
       <c r="D136" s="33"/>
       <c r="E136" s="33" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -45119,7 +45118,7 @@
       <c r="C137" s="33"/>
       <c r="D137" s="33"/>
       <c r="E137" s="33" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -45131,7 +45130,7 @@
       <c r="C138" s="33"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
@@ -45143,7 +45142,7 @@
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -45155,7 +45154,7 @@
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
       <c r="E140" s="33" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -45167,7 +45166,7 @@
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
@@ -45187,7 +45186,7 @@
         <v>575</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
@@ -45199,7 +45198,7 @@
       <c r="C143" s="33"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
@@ -45211,7 +45210,7 @@
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
       <c r="E144" s="33" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
@@ -45223,7 +45222,7 @@
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
@@ -45235,7 +45234,7 @@
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
       <c r="E146" s="33" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -45247,7 +45246,7 @@
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
       <c r="E147" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -45259,7 +45258,7 @@
       <c r="C148" s="33"/>
       <c r="D148" s="33"/>
       <c r="E148" s="33" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -45271,7 +45270,7 @@
       <c r="C149" s="33"/>
       <c r="D149" s="33"/>
       <c r="E149" s="33" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -45283,7 +45282,7 @@
       <c r="C150" s="33"/>
       <c r="D150" s="33"/>
       <c r="E150" s="33" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -45295,7 +45294,7 @@
       <c r="C151" s="33"/>
       <c r="D151" s="33"/>
       <c r="E151" s="33" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="33"/>
@@ -45307,7 +45306,7 @@
       <c r="C152" s="33"/>
       <c r="D152" s="33"/>
       <c r="E152" s="33" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
@@ -45319,7 +45318,7 @@
       <c r="C153" s="33"/>
       <c r="D153" s="33"/>
       <c r="E153" s="33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
@@ -45331,7 +45330,7 @@
       <c r="C154" s="33"/>
       <c r="D154" s="33"/>
       <c r="E154" s="33" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
@@ -45343,7 +45342,7 @@
       <c r="C155" s="33"/>
       <c r="D155" s="33"/>
       <c r="E155" s="33" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
@@ -45355,7 +45354,7 @@
       <c r="C156" s="33"/>
       <c r="D156" s="33"/>
       <c r="E156" s="33" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
@@ -45367,7 +45366,7 @@
       <c r="C157" s="33"/>
       <c r="D157" s="33"/>
       <c r="E157" s="33" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
@@ -45379,7 +45378,7 @@
       <c r="C158" s="33"/>
       <c r="D158" s="33"/>
       <c r="E158" s="33" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
@@ -45391,7 +45390,7 @@
       <c r="C159" s="33"/>
       <c r="D159" s="33"/>
       <c r="E159" s="33" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
@@ -45403,7 +45402,7 @@
       <c r="C160" s="33"/>
       <c r="D160" s="33"/>
       <c r="E160" s="33" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
@@ -45415,7 +45414,7 @@
       <c r="C161" s="33"/>
       <c r="D161" s="33"/>
       <c r="E161" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="33"/>
@@ -45427,7 +45426,7 @@
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
       <c r="E162" s="33" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="33"/>
@@ -45439,7 +45438,7 @@
       <c r="C163" s="33"/>
       <c r="D163" s="33"/>
       <c r="E163" s="33" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -45451,7 +45450,7 @@
       <c r="C164" s="33"/>
       <c r="D164" s="33"/>
       <c r="E164" s="33" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
@@ -45463,7 +45462,7 @@
       <c r="C165" s="33"/>
       <c r="D165" s="33"/>
       <c r="E165" s="33" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
@@ -45475,7 +45474,7 @@
       <c r="C166" s="33"/>
       <c r="D166" s="33"/>
       <c r="E166" s="33" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -45487,7 +45486,7 @@
       <c r="C167" s="33"/>
       <c r="D167" s="33"/>
       <c r="E167" s="33" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -45499,7 +45498,7 @@
       <c r="C168" s="33"/>
       <c r="D168" s="33"/>
       <c r="E168" s="33" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -45511,7 +45510,7 @@
       <c r="C169" s="33"/>
       <c r="D169" s="33"/>
       <c r="E169" s="33" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -45523,7 +45522,7 @@
       <c r="C170" s="33"/>
       <c r="D170" s="33"/>
       <c r="E170" s="33" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -45543,7 +45542,7 @@
         <v>747</v>
       </c>
       <c r="E171" s="101" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -45555,7 +45554,7 @@
       <c r="C172" s="33"/>
       <c r="D172" s="33"/>
       <c r="E172" s="33" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -45567,7 +45566,7 @@
       <c r="C173" s="33"/>
       <c r="D173" s="33"/>
       <c r="E173" s="33" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -45579,7 +45578,7 @@
       <c r="C174" s="33"/>
       <c r="D174" s="33"/>
       <c r="E174" s="33" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -45599,7 +45598,7 @@
         <v>577</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -45611,7 +45610,7 @@
       <c r="C176" s="33"/>
       <c r="D176" s="33"/>
       <c r="E176" s="33" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
@@ -45623,7 +45622,7 @@
       <c r="C177" s="33"/>
       <c r="D177" s="33"/>
       <c r="E177" s="33" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
@@ -45635,7 +45634,7 @@
       <c r="C178" s="33"/>
       <c r="D178" s="33"/>
       <c r="E178" s="33" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
@@ -45647,7 +45646,7 @@
       <c r="C179" s="33"/>
       <c r="D179" s="33"/>
       <c r="E179" s="33" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="33"/>
@@ -45659,7 +45658,7 @@
       <c r="C180" s="33"/>
       <c r="D180" s="33"/>
       <c r="E180" s="33" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="33"/>
@@ -45671,7 +45670,7 @@
       <c r="C181" s="33"/>
       <c r="D181" s="33"/>
       <c r="E181" s="33" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="F181" s="33"/>
       <c r="G181" s="33"/>
@@ -45683,7 +45682,7 @@
       <c r="C182" s="33"/>
       <c r="D182" s="33"/>
       <c r="E182" s="33" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="33"/>
@@ -45695,7 +45694,7 @@
       <c r="C183" s="33"/>
       <c r="D183" s="33"/>
       <c r="E183" s="33" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="33"/>
@@ -45707,7 +45706,7 @@
       <c r="C184" s="33"/>
       <c r="D184" s="33"/>
       <c r="E184" s="33" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="33"/>
@@ -45719,7 +45718,7 @@
       <c r="C185" s="33"/>
       <c r="D185" s="33"/>
       <c r="E185" s="33" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F185" s="33"/>
       <c r="G185" s="33"/>
@@ -45731,7 +45730,7 @@
       <c r="C186" s="33"/>
       <c r="D186" s="33"/>
       <c r="E186" s="33" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="33"/>
@@ -45743,7 +45742,7 @@
       <c r="C187" s="33"/>
       <c r="D187" s="33"/>
       <c r="E187" s="33" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33"/>
@@ -45755,7 +45754,7 @@
       <c r="C188" s="33"/>
       <c r="D188" s="33"/>
       <c r="E188" s="33" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
@@ -45767,7 +45766,7 @@
       <c r="C189" s="33"/>
       <c r="D189" s="33"/>
       <c r="E189" s="33" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
@@ -45779,7 +45778,7 @@
       <c r="C190" s="33"/>
       <c r="D190" s="33"/>
       <c r="E190" s="33" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
@@ -45791,7 +45790,7 @@
       <c r="C191" s="33"/>
       <c r="D191" s="33"/>
       <c r="E191" s="33" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
@@ -45803,7 +45802,7 @@
       <c r="C192" s="33"/>
       <c r="D192" s="33"/>
       <c r="E192" s="33" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
@@ -45815,7 +45814,7 @@
       <c r="C193" s="33"/>
       <c r="D193" s="33"/>
       <c r="E193" s="33" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="33"/>
@@ -45827,7 +45826,7 @@
       <c r="C194" s="33"/>
       <c r="D194" s="33"/>
       <c r="E194" s="33" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="33"/>
@@ -45839,7 +45838,7 @@
       <c r="C195" s="33"/>
       <c r="D195" s="33"/>
       <c r="E195" s="33" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="33"/>
@@ -45851,7 +45850,7 @@
       <c r="C196" s="33"/>
       <c r="D196" s="33"/>
       <c r="E196" s="33" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="33"/>
@@ -45863,7 +45862,7 @@
       <c r="C197" s="33"/>
       <c r="D197" s="33"/>
       <c r="E197" s="33" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="33"/>
@@ -45875,7 +45874,7 @@
       <c r="C198" s="33"/>
       <c r="D198" s="33"/>
       <c r="E198" s="33" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="33"/>
@@ -45887,7 +45886,7 @@
       <c r="C199" s="33"/>
       <c r="D199" s="33"/>
       <c r="E199" s="33" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="33"/>
@@ -45899,7 +45898,7 @@
       <c r="C200" s="33"/>
       <c r="D200" s="33"/>
       <c r="E200" s="33" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F200" s="33"/>
       <c r="G200" s="33"/>
@@ -45911,7 +45910,7 @@
       <c r="C201" s="33"/>
       <c r="D201" s="33"/>
       <c r="E201" s="33" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F201" s="33"/>
       <c r="G201" s="33"/>
@@ -45923,7 +45922,7 @@
       <c r="C202" s="33"/>
       <c r="D202" s="33"/>
       <c r="E202" s="33" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="33"/>
@@ -45935,7 +45934,7 @@
       <c r="C203" s="33"/>
       <c r="D203" s="33"/>
       <c r="E203" s="33" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F203" s="33"/>
       <c r="G203" s="33"/>
@@ -45947,7 +45946,7 @@
       <c r="C204" s="33"/>
       <c r="D204" s="33"/>
       <c r="E204" s="33" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="33"/>
@@ -45959,7 +45958,7 @@
       <c r="C205" s="33"/>
       <c r="D205" s="33"/>
       <c r="E205" s="33" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="33"/>
@@ -45971,7 +45970,7 @@
       <c r="C206" s="33"/>
       <c r="D206" s="33"/>
       <c r="E206" s="33" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="33"/>
@@ -45983,7 +45982,7 @@
       <c r="C207" s="33"/>
       <c r="D207" s="33"/>
       <c r="E207" s="33" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="33"/>
@@ -45995,7 +45994,7 @@
       <c r="C208" s="33"/>
       <c r="D208" s="33"/>
       <c r="E208" s="33" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="33"/>
@@ -46007,7 +46006,7 @@
       <c r="C209" s="33"/>
       <c r="D209" s="33"/>
       <c r="E209" s="33" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="33"/>
@@ -46019,7 +46018,7 @@
       <c r="C210" s="33"/>
       <c r="D210" s="33"/>
       <c r="E210" s="33" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="33"/>
@@ -46031,7 +46030,7 @@
       <c r="C211" s="33"/>
       <c r="D211" s="33"/>
       <c r="E211" s="33" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="33"/>
@@ -46043,7 +46042,7 @@
       <c r="C212" s="33"/>
       <c r="D212" s="33"/>
       <c r="E212" s="33" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
@@ -46055,7 +46054,7 @@
       <c r="C213" s="33"/>
       <c r="D213" s="33"/>
       <c r="E213" s="33" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
@@ -46067,7 +46066,7 @@
       <c r="C214" s="33"/>
       <c r="D214" s="33"/>
       <c r="E214" s="33" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
@@ -46079,7 +46078,7 @@
       <c r="C215" s="33"/>
       <c r="D215" s="33"/>
       <c r="E215" s="33" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
@@ -46091,7 +46090,7 @@
       <c r="C216" s="33"/>
       <c r="D216" s="33"/>
       <c r="E216" s="33" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="F216" s="33"/>
       <c r="G216" s="33"/>
@@ -46103,7 +46102,7 @@
       <c r="C217" s="33"/>
       <c r="D217" s="33"/>
       <c r="E217" s="33" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="F217" s="33"/>
       <c r="G217" s="33"/>
@@ -46115,7 +46114,7 @@
       <c r="C218" s="33"/>
       <c r="D218" s="33"/>
       <c r="E218" s="33" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="F218" s="33"/>
       <c r="G218" s="33"/>
@@ -46127,7 +46126,7 @@
       <c r="C219" s="33"/>
       <c r="D219" s="33"/>
       <c r="E219" s="33" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="33"/>
@@ -46139,7 +46138,7 @@
       <c r="C220" s="33"/>
       <c r="D220" s="33"/>
       <c r="E220" s="33" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="F220" s="33"/>
       <c r="G220" s="33"/>
@@ -46151,7 +46150,7 @@
       <c r="C221" s="33"/>
       <c r="D221" s="33"/>
       <c r="E221" s="33" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F221" s="33"/>
       <c r="G221" s="33"/>
@@ -46159,7 +46158,7 @@
     </row>
     <row r="222" spans="1:9" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E222" s="33" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="I222" s="76"/>
     </row>
@@ -46168,16 +46167,16 @@
         <v>5</v>
       </c>
       <c r="B223" s="77" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C223" s="33" t="s">
         <v>394</v>
       </c>
       <c r="D223" s="33" t="s">
+        <v>981</v>
+      </c>
+      <c r="E223" s="33" t="s">
         <v>982</v>
-      </c>
-      <c r="E223" s="33" t="s">
-        <v>983</v>
       </c>
       <c r="F223" s="34"/>
       <c r="G223" s="34"/>
@@ -46189,7 +46188,7 @@
       <c r="C224" s="34"/>
       <c r="D224" s="34"/>
       <c r="E224" s="33" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F224" s="34"/>
       <c r="G224" s="34"/>
@@ -46201,7 +46200,7 @@
       <c r="C225" s="34"/>
       <c r="D225" s="34"/>
       <c r="E225" s="33" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F225" s="34"/>
       <c r="G225" s="34"/>
@@ -46213,7 +46212,7 @@
       <c r="C226" s="34"/>
       <c r="D226" s="34"/>
       <c r="E226" s="33" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F226" s="34"/>
       <c r="G226" s="34"/>
@@ -46225,7 +46224,7 @@
       <c r="C227" s="34"/>
       <c r="D227" s="34"/>
       <c r="E227" s="33" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F227" s="34"/>
       <c r="G227" s="34"/>
@@ -46237,7 +46236,7 @@
       <c r="C228" s="34"/>
       <c r="D228" s="34"/>
       <c r="E228" s="33" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F228" s="34"/>
       <c r="G228" s="34"/>
@@ -46249,7 +46248,7 @@
       <c r="C229" s="34"/>
       <c r="D229" s="34"/>
       <c r="E229" s="33" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F229" s="34"/>
       <c r="G229" s="34"/>
@@ -46261,7 +46260,7 @@
       <c r="C230" s="34"/>
       <c r="D230" s="34"/>
       <c r="E230" s="33" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F230" s="34"/>
       <c r="G230" s="34"/>
@@ -46273,7 +46272,7 @@
       <c r="C231" s="34"/>
       <c r="D231" s="34"/>
       <c r="E231" s="33" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F231" s="34"/>
       <c r="G231" s="34"/>
@@ -46285,7 +46284,7 @@
       <c r="C232" s="34"/>
       <c r="D232" s="34"/>
       <c r="E232" s="33" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F232" s="34"/>
       <c r="G232" s="34"/>
@@ -46297,7 +46296,7 @@
       <c r="C233" s="34"/>
       <c r="D233" s="34"/>
       <c r="E233" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F233" s="34"/>
       <c r="G233" s="34"/>
@@ -46309,7 +46308,7 @@
       <c r="C234" s="34"/>
       <c r="D234" s="34"/>
       <c r="E234" s="33" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F234" s="34"/>
       <c r="G234" s="34"/>
@@ -46321,7 +46320,7 @@
       <c r="C235" s="34"/>
       <c r="D235" s="34"/>
       <c r="E235" s="33" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F235" s="34"/>
       <c r="G235" s="34"/>
@@ -46333,7 +46332,7 @@
       <c r="C236" s="34"/>
       <c r="D236" s="34"/>
       <c r="E236" s="33" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F236" s="34"/>
       <c r="G236" s="34"/>
@@ -46345,7 +46344,7 @@
       <c r="C237" s="34"/>
       <c r="D237" s="34"/>
       <c r="E237" s="33" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F237" s="34"/>
       <c r="G237" s="34"/>
@@ -46357,7 +46356,7 @@
       <c r="C238" s="34"/>
       <c r="D238" s="34"/>
       <c r="E238" s="33" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F238" s="34"/>
       <c r="G238" s="34"/>
@@ -46369,7 +46368,7 @@
       <c r="C239" s="34"/>
       <c r="D239" s="34"/>
       <c r="E239" s="33" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F239" s="34"/>
       <c r="G239" s="34"/>
@@ -46381,7 +46380,7 @@
       <c r="C240" s="34"/>
       <c r="D240" s="34"/>
       <c r="E240" s="33" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F240" s="34"/>
       <c r="G240" s="34"/>
@@ -46393,7 +46392,7 @@
       <c r="C241" s="34"/>
       <c r="D241" s="34"/>
       <c r="E241" s="33" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F241" s="34"/>
       <c r="G241" s="34"/>
@@ -46405,7 +46404,7 @@
       <c r="C242" s="34"/>
       <c r="D242" s="34"/>
       <c r="E242" s="33" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F242" s="34"/>
       <c r="G242" s="34"/>
@@ -46417,7 +46416,7 @@
       <c r="C243" s="34"/>
       <c r="D243" s="34"/>
       <c r="E243" s="33" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F243" s="34"/>
       <c r="G243" s="34"/>
@@ -46429,7 +46428,7 @@
       <c r="C244" s="34"/>
       <c r="D244" s="34"/>
       <c r="E244" s="33" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F244" s="34"/>
       <c r="G244" s="34"/>
@@ -46441,7 +46440,7 @@
       <c r="C245" s="34"/>
       <c r="D245" s="34"/>
       <c r="E245" s="33" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F245" s="34"/>
       <c r="G245" s="34"/>
@@ -46453,7 +46452,7 @@
       <c r="C246" s="34"/>
       <c r="D246" s="34"/>
       <c r="E246" s="33" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F246" s="34"/>
       <c r="G246" s="34"/>
@@ -46465,7 +46464,7 @@
       <c r="C247" s="34"/>
       <c r="D247" s="34"/>
       <c r="E247" s="33" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F247" s="34"/>
       <c r="G247" s="34"/>
@@ -46477,7 +46476,7 @@
       <c r="C248" s="34"/>
       <c r="D248" s="34"/>
       <c r="E248" s="33" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F248" s="34"/>
       <c r="G248" s="34"/>
@@ -46489,7 +46488,7 @@
       <c r="C249" s="34"/>
       <c r="D249" s="34"/>
       <c r="E249" s="33" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F249" s="34"/>
       <c r="G249" s="34"/>
@@ -46501,7 +46500,7 @@
       <c r="C250" s="34"/>
       <c r="D250" s="34"/>
       <c r="E250" s="33" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F250" s="34"/>
       <c r="G250" s="34"/>
@@ -46512,16 +46511,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C251" s="34" t="s">
         <v>394</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="E251" s="33" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="F251" s="34"/>
       <c r="G251" s="34"/>
@@ -46533,7 +46532,7 @@
       <c r="C252" s="34"/>
       <c r="D252" s="33"/>
       <c r="E252" s="33" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="F252" s="34"/>
       <c r="G252" s="34"/>
@@ -46545,7 +46544,7 @@
       <c r="C253" s="34"/>
       <c r="D253" s="33"/>
       <c r="E253" s="33" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="F253" s="34"/>
       <c r="G253" s="34"/>
@@ -46557,7 +46556,7 @@
       <c r="C254" s="34"/>
       <c r="D254" s="33"/>
       <c r="E254" s="33" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="F254" s="34"/>
       <c r="G254" s="34"/>
@@ -46580,16 +46579,16 @@
         <v>5</v>
       </c>
       <c r="B256" s="33" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C256" s="33" t="s">
         <v>394</v>
       </c>
       <c r="D256" s="33" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E256" s="33" t="s">
         <v>1012</v>
-      </c>
-      <c r="E256" s="33" t="s">
-        <v>1013</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="33"/>
@@ -46601,7 +46600,7 @@
       <c r="C257" s="33"/>
       <c r="D257" s="33"/>
       <c r="E257" s="33" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="33"/>
@@ -46613,7 +46612,7 @@
       <c r="C258" s="33"/>
       <c r="D258" s="33"/>
       <c r="E258" s="33" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F258" s="33"/>
       <c r="G258" s="33"/>
@@ -46624,16 +46623,16 @@
         <v>5</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C259" s="33" t="s">
         <v>394</v>
       </c>
       <c r="D259" s="33" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E259" s="33" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="F259" s="33"/>
       <c r="G259" s="33"/>
@@ -46645,7 +46644,7 @@
       <c r="C260" s="33"/>
       <c r="D260" s="33"/>
       <c r="E260" s="33" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="F260" s="33"/>
       <c r="G260" s="33"/>
@@ -46657,7 +46656,7 @@
       <c r="C261" s="33"/>
       <c r="D261" s="33"/>
       <c r="E261" s="33" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="F261" s="33"/>
       <c r="G261" s="33"/>
@@ -46803,19 +46802,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="141" t="s">
         <v>714</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="141" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H1" s="142"/>
-      <c r="I1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="144" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H1" s="145"/>
+      <c r="I1" s="146"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -46843,7 +46842,7 @@
         <v>293</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46883,7 +46882,7 @@
         <v>297</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -47000,7 +46999,7 @@
       </c>
       <c r="H9" s="54"/>
       <c r="I9" s="54" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -47076,7 +47075,7 @@
         <v>394</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D13" s="54" t="s">
         <v>750</v>
@@ -47092,7 +47091,7 @@
       </c>
       <c r="H13" s="54"/>
       <c r="I13" s="54" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -47103,7 +47102,7 @@
         <v>394</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>750</v>
@@ -47119,7 +47118,7 @@
       </c>
       <c r="H14" s="54"/>
       <c r="I14" s="54" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -47185,13 +47184,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="41" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
+      <c r="A1" s="137" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="112" t="s">
@@ -47204,7 +47203,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="E2" s="114" t="s">
         <v>417</v>
@@ -47215,13 +47214,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>1361</v>
+        <v>1353</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1362</v>
+        <v>1354</v>
       </c>
       <c r="E3" s="34"/>
     </row>
@@ -47276,22 +47275,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="41" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="139"/>
+      <c r="A1" s="137" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="112" t="s">
@@ -47304,34 +47303,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="113" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E2" s="114" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F2" s="114" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G2" s="114" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H2" s="115" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I2" s="116" t="s">
+        <v>1360</v>
+      </c>
+      <c r="J2" s="116" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K2" s="114" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L2" s="114" t="s">
         <v>1363</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="M2" s="114" t="s">
         <v>1364</v>
-      </c>
-      <c r="F2" s="114" t="s">
-        <v>1365</v>
-      </c>
-      <c r="G2" s="114" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H2" s="115" t="s">
-        <v>1367</v>
-      </c>
-      <c r="I2" s="116" t="s">
-        <v>1368</v>
-      </c>
-      <c r="J2" s="116" t="s">
-        <v>1369</v>
-      </c>
-      <c r="K2" s="114" t="s">
-        <v>1370</v>
-      </c>
-      <c r="L2" s="114" t="s">
-        <v>1371</v>
-      </c>
-      <c r="M2" s="114" t="s">
-        <v>1372</v>
       </c>
       <c r="N2" s="117" t="s">
         <v>417</v>
@@ -47342,29 +47341,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>394</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="G3" s="33">
         <v>10</v>
       </c>
       <c r="H3" s="118"/>
       <c r="I3" s="119" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="J3" s="119" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -47376,19 +47375,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="G4" s="33">
         <v>100</v>
@@ -47399,7 +47398,7 @@
       <c r="I4" s="119"/>
       <c r="J4" s="119"/>
       <c r="K4" s="33" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="L4" s="120"/>
       <c r="M4" s="33"/>
@@ -47417,13 +47416,13 @@
       <c r="I5" s="119"/>
       <c r="J5" s="119"/>
       <c r="K5" s="33" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="N5" s="121"/>
     </row>
@@ -47439,10 +47438,10 @@
       <c r="I6" s="119"/>
       <c r="J6" s="119"/>
       <c r="K6" s="33" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="121"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49311FF8-1EE8-8847-BB2D-15E1974207BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA19D1E8-7104-F041-9BF7-2C300EAEA8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="760" windowWidth="26380" windowHeight="17520" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10060" yWindow="1300" windowWidth="26380" windowHeight="17360" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -674,7 +674,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1537">
   <si>
     <t>Region</t>
   </si>
@@ -12967,6 +12967,36 @@
       <t xml:space="preserve">
  Updated Region column drop down for all sheets, Modified description for Users, Instances, Policies</t>
     </r>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Namespace for Operations</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>Namespace for Env</t>
+  </si>
+  <si>
+    <t>QA Env</t>
+  </si>
+  <si>
+    <t>Prod Env</t>
+  </si>
+  <si>
+    <t>DR Env</t>
   </si>
 </sst>
 </file>
@@ -47307,12 +47337,12 @@
     <col min="1" max="1" width="8.83203125" style="3"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" customWidth="1"/>
-    <col min="9" max="9" width="41.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="59.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.2">
@@ -47388,7 +47418,9 @@
       <c r="E4" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>1527</v>
+      </c>
       <c r="G4" s="53" t="b">
         <v>0</v>
       </c>
@@ -47399,7 +47431,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
         <v>5</v>
       </c>
@@ -47415,11 +47447,13 @@
       <c r="E5" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="53" t="s">
+        <v>1528</v>
+      </c>
       <c r="G5" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="54" t="s">
         <v>420</v>
       </c>
       <c r="I5" s="53"/>
@@ -47434,11 +47468,15 @@
       <c r="C6" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="53" t="s">
+        <v>1529</v>
+      </c>
       <c r="E6" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="53" t="s">
+        <v>1530</v>
+      </c>
       <c r="G6" s="53" t="b">
         <v>0</v>
       </c>
@@ -47461,7 +47499,9 @@
       <c r="E7" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>1531</v>
+      </c>
       <c r="G7" s="53" t="b">
         <v>0</v>
       </c>
@@ -47484,7 +47524,9 @@
       <c r="E8" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>1532</v>
+      </c>
       <c r="G8" s="53" t="b">
         <v>0</v>
       </c>
@@ -47501,7 +47543,9 @@
       <c r="C9" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="D9" s="53"/>
+      <c r="D9" s="53" t="s">
+        <v>1533</v>
+      </c>
       <c r="E9" s="53" t="s">
         <v>304</v>
       </c>
@@ -47526,11 +47570,15 @@
       <c r="C10" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="53"/>
+      <c r="D10" s="53" t="s">
+        <v>1533</v>
+      </c>
       <c r="E10" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>1534</v>
+      </c>
       <c r="G10" s="53" t="b">
         <v>0</v>
       </c>
@@ -47547,11 +47595,15 @@
       <c r="C11" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="53" t="s">
+        <v>1533</v>
+      </c>
       <c r="E11" s="53" t="s">
         <v>307</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="53" t="s">
+        <v>1535</v>
+      </c>
       <c r="G11" s="53" t="b">
         <v>0</v>
       </c>
@@ -47568,11 +47620,15 @@
       <c r="C12" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="53" t="s">
+        <v>1533</v>
+      </c>
       <c r="E12" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="53" t="s">
+        <v>1536</v>
+      </c>
       <c r="G12" s="53" t="b">
         <v>0</v>
       </c>
@@ -47641,40 +47697,10 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="C3:F1048576 H3:H1048576 A1:I1" xr:uid="{27A3690B-5BDB-E847-AF4D-99B82111B7B6}"/>
+    <dataValidation allowBlank="1" sqref="A1:B2 H1:H1048576 G1:G2 I1:I2 J1:XFD1048576 C1:F1048576" xr:uid="{38FC29DB-3FA9-0B43-A7CA-3120210A0960}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" error="Not a valid option." prompt="Defaults to &quot;FALSE&quot;, if left empty." xr:uid="{7E1D9DB6-6D4F-6C46-90B3-7C8F9B416760}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$AD$2:$AD$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" prompt="Specify Compartment name." xr:uid="{F7550FA5-775F-604B-8D62-109455759D3F}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" prompt="Specify Compartment name." xr:uid="{8EF2A675-1EB7-BA45-8EED-D2D83315641C}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:I502,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>I3:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{BD39666F-8D0D-764C-BB3D-DE0165FF848B}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB71648F-7E2D-2E4C-914B-0DDD7A045823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D227DD-F523-2446-9FB9-56D006CE21D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="760" windowWidth="26380" windowHeight="17300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
     <definedName name="workload_drop" localSheetId="24">[6]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop">[7]Database_Dropdown!$D$2:$D$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -7838,493 +7838,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Vault Display Name(mandatory)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Vault Type(mandatory)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Valid values are</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"virtual_private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Replica Region(optional)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid only for vault type: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"virtual_private"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Can't be same as the primary vault region.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Key details can be left empty if no keys have to be created in the specified vault.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-If a key/keys have to be created, enter below </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fields:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Key Compartment Name" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-  can be same as the Vault compartment or a different compartment.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Key Display Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Protection Mode" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"HSM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"SOFTWARE".</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Algorithm" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"AES", "RSA", "ECDSA". </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Length in bits" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"AES"  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      -  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>128, 192, 256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"RSA" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2048, 3072, 4096</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                          "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ECDSA"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   -  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>256, 384, 521</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Below are the </t>
     </r>
     <r>
@@ -12710,51 +12223,6 @@
       <t xml:space="preserve">
 ** Management and Workload block volumes are needed only if SDDC is of Standard Shape.
 ** Standard shapes aren't compatible with Monthly billing interval commitment and advanced HCX license types.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release - v2024.4.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Modified description for VCNs, DRGs, BlockVolumes, SDDCs Tabs. Added a note in Exa-VMClusters Tab.</t>
     </r>
   </si>
   <si>
@@ -13035,6 +12503,559 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Vault Display Name(mandatory)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Vault Type(mandatory)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Valid values are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"virtual_private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Replica Region(optional)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid for both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"virtual_private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"default"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vault types. Can't be same as the primary vault region.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key details can be left empty if no keys have to be created in the specified vault.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If a key/keys have to be created, enter below </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fields:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Key Compartment Name" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-  can be same as the Vault compartment or a different compartment.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Key Display Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Protection Mode" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"HSM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SOFTWARE".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Algorithm" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AES", "RSA", "ECDSA". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Length in bits" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AES"  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128, 192, 256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"RSA" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2048, 3072, 4096</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                          "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECDSA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>256, 384, 521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.4.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Modified description in KMS sheet, Modified delimiters in ServiceConectors sheet</t>
     </r>
   </si>
 </sst>
@@ -19380,7 +19401,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
   </sheetData>
@@ -19426,7 +19447,7 @@
       <c r="E1" s="157"/>
       <c r="F1" s="158"/>
       <c r="G1" s="156" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="H1" s="157"/>
       <c r="I1" s="157"/>
@@ -19754,7 +19775,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B1" s="149"/>
       <c r="C1" s="149"/>
@@ -23271,7 +23292,7 @@
         <v>548</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>394</v>
@@ -23286,7 +23307,7 @@
         <v>549</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>394</v>
@@ -23301,7 +23322,7 @@
         <v>347</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>394</v>
@@ -23316,7 +23337,7 @@
         <v>550</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>394</v>
@@ -23877,7 +23898,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="167" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B1" s="168"/>
       <c r="C1" s="168"/>
@@ -23887,7 +23908,7 @@
       <c r="G1" s="168"/>
       <c r="H1" s="169"/>
       <c r="I1" s="156" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="J1" s="157"/>
       <c r="K1" s="157"/>
@@ -23921,7 +23942,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>89</v>
@@ -23989,7 +24010,7 @@
         <v>346</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G3" s="33" t="b">
         <v>0</v>
@@ -24073,7 +24094,7 @@
         <v>346</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G5" s="54" t="b">
         <v>0</v>
@@ -24127,7 +24148,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G6" s="54" t="b">
         <v>0</v>
@@ -24177,7 +24198,7 @@
         <v>346</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G7" s="54" t="b">
         <v>0</v>
@@ -24225,7 +24246,7 @@
         <v>98</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G8" s="54" t="b">
         <v>0</v>
@@ -24357,7 +24378,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="156" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
@@ -24616,7 +24637,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="156" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
@@ -24630,7 +24651,7 @@
       <c r="K1" s="157"/>
       <c r="L1" s="158"/>
       <c r="M1" s="170" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="N1" s="171"/>
       <c r="O1" s="171"/>
@@ -24656,7 +24677,7 @@
         <v>108</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>109</v>
@@ -24752,7 +24773,7 @@
         <v>119</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53" t="s">
@@ -24856,7 +24877,7 @@
         <v>119</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -24894,7 +24915,7 @@
         <v>127</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -24936,7 +24957,7 @@
         <v>130</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -24978,7 +24999,7 @@
         <v>132</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -25013,10 +25034,10 @@
         <v>87</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -25052,7 +25073,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
@@ -25155,7 +25176,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="156" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
@@ -25172,7 +25193,7 @@
       <c r="N1" s="157"/>
       <c r="O1" s="158"/>
       <c r="P1" s="167" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Q1" s="168"/>
       <c r="R1" s="168"/>
@@ -25217,10 +25238,10 @@
         <v>859</v>
       </c>
       <c r="H2" s="27" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>1218</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>1219</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>860</v>
@@ -25235,7 +25256,7 @@
         <v>863</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>864</v>
@@ -25259,7 +25280,7 @@
         <v>866</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W2" s="27" t="s">
         <v>81</v>
@@ -25274,7 +25295,7 @@
         <v>868</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AB2" s="27" t="s">
         <v>869</v>
@@ -25363,10 +25384,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="95" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I4" s="95" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J4" s="54" t="b">
         <v>0</v>
@@ -25381,7 +25402,7 @@
         <v>884</v>
       </c>
       <c r="N4" s="95" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="O4" s="95" t="s">
         <v>1077</v>
@@ -25405,7 +25426,7 @@
         <v>886</v>
       </c>
       <c r="V4" s="95" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W4" s="95" t="s">
         <v>96</v>
@@ -25446,7 +25467,7 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
       <c r="N5" s="54" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="O5" s="95" t="s">
         <v>1077</v>
@@ -25468,7 +25489,7 @@
       </c>
       <c r="U5" s="54"/>
       <c r="V5" s="95" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W5" s="54" t="s">
         <v>87</v>
@@ -25515,10 +25536,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="95" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I6" s="95" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J6" s="54" t="b">
         <v>0</v>
@@ -25527,7 +25548,7 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="O6" s="95" t="s">
         <v>1077</v>
@@ -25551,7 +25572,7 @@
         <v>886</v>
       </c>
       <c r="V6" s="95" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W6" s="54" t="s">
         <v>96</v>
@@ -25564,7 +25585,7 @@
       </c>
       <c r="Z6" s="54"/>
       <c r="AA6" s="95" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AB6" s="97"/>
       <c r="AC6" s="54" t="s">
@@ -25647,7 +25668,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B1" s="149"/>
       <c r="C1" s="149"/>
@@ -25688,7 +25709,7 @@
         <v>648</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>135</v>
@@ -25763,7 +25784,7 @@
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
       <c r="G4" s="54" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H4" s="54" t="b">
         <v>1</v>
@@ -25837,7 +25858,7 @@
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="54" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H6" s="54" t="b">
         <v>0</v>
@@ -25946,7 +25967,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="156" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
@@ -25990,7 +26011,7 @@
         <v>152</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>153</v>
@@ -26080,7 +26101,7 @@
         <v>163</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>164</v>
@@ -26140,7 +26161,7 @@
         <v>169</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>164</v>
@@ -26188,7 +26209,7 @@
         <v>172</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>164</v>
@@ -27302,7 +27323,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="40" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="150" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -27325,7 +27346,7 @@
         <v>1132</v>
       </c>
       <c r="E2" s="111" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F2" s="132" t="s">
         <v>422</v>
@@ -27342,7 +27363,7 @@
         <v>551</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
@@ -27357,7 +27378,7 @@
         <v>826</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
@@ -27387,7 +27408,7 @@
         <v>554</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
@@ -27402,7 +27423,7 @@
         <v>555</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="19"/>
@@ -27417,7 +27438,7 @@
         <v>556</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="32"/>
@@ -27432,7 +27453,7 @@
         <v>557</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -27462,7 +27483,7 @@
         <v>642</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -27503,7 +27524,7 @@
         <v>827</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="6"/>
@@ -27520,7 +27541,7 @@
         <v>829</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -27537,7 +27558,7 @@
         <v>831</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -27765,7 +27786,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="163" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -27779,7 +27800,7 @@
         <v>134</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>952</v>
@@ -27801,10 +27822,10 @@
         <v>392</v>
       </c>
       <c r="C4" s="54" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>1203</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -27815,10 +27836,10 @@
         <v>392</v>
       </c>
       <c r="C5" s="54" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>1205</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>1206</v>
       </c>
     </row>
   </sheetData>
@@ -27900,7 +27921,7 @@
         <v>804</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>817</v>
@@ -27962,7 +27983,7 @@
         <v>807</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E4" s="54" t="b">
         <v>0</v>
@@ -28000,7 +28021,7 @@
         <v>811</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E5" s="54" t="b">
         <v>1</v>
@@ -28482,7 +28503,7 @@
         <v>438</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -28534,7 +28555,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -28568,7 +28589,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28598,7 +28619,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
   </sheetData>
@@ -28657,7 +28678,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="156" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
@@ -28686,7 +28707,7 @@
         <v>845</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>846</v>
@@ -28756,7 +28777,7 @@
         <v>849</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E4" s="86"/>
       <c r="F4" s="85" t="s">
@@ -28885,7 +28906,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="156" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
@@ -28925,7 +28946,7 @@
         <v>81</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>709</v>
@@ -29039,7 +29060,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E4" s="89" t="s">
         <v>741</v>
@@ -29114,7 +29135,7 @@
         <v>87</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E5" s="99" t="s">
         <v>743</v>
@@ -32437,7 +32458,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="167" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B1" s="168"/>
       <c r="C1" s="168"/>
@@ -32481,10 +32502,10 @@
         <v>732</v>
       </c>
       <c r="E2" s="66" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F2" s="66" t="s">
         <v>1227</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>1228</v>
       </c>
       <c r="G2" s="66" t="s">
         <v>711</v>
@@ -32577,10 +32598,10 @@
         <v>753</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G4" s="53">
         <v>4</v>
@@ -32712,7 +32733,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="175" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B1" s="176"/>
       <c r="C1" s="176"/>
@@ -32985,7 +33006,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="167" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B1" s="176"/>
       <c r="C1" s="176"/>
@@ -33009,7 +33030,7 @@
         <v>960</v>
       </c>
       <c r="C2" s="123" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>971</v>
@@ -33054,7 +33075,7 @@
         <v>1135</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>1149</v>
@@ -33099,7 +33120,7 @@
         <v>1146</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>1149</v>
@@ -33223,7 +33244,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="40" customFormat="1" ht="166" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -33241,16 +33262,16 @@
         <v>918</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>1235</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1236</v>
       </c>
       <c r="G2" s="133" t="s">
         <v>1132</v>
@@ -34588,7 +34609,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>1162</v>
+        <v>1535</v>
       </c>
       <c r="B1" s="149"/>
       <c r="C1" s="149"/>
@@ -34597,7 +34618,7 @@
       <c r="F1" s="149"/>
       <c r="G1" s="149"/>
       <c r="H1" s="163" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I1" s="149"/>
       <c r="J1" s="149"/>
@@ -34612,46 +34633,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C2" s="128" t="s">
         <v>1164</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="D2" s="15" t="s">
         <v>1165</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>1166</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H2" s="93" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J2" s="129" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M2" s="130" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>1167</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>1171</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>1172</v>
-      </c>
-      <c r="J2" s="129" t="s">
-        <v>1173</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>1174</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>1175</v>
-      </c>
-      <c r="M2" s="130" t="s">
+      <c r="O2" s="15" t="s">
         <v>1176</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>1168</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -34681,23 +34702,23 @@
         <v>550</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>1178</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>1179</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
         <v>550</v>
       </c>
       <c r="G4" s="32" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>1180</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>1181</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>1182</v>
       </c>
       <c r="J4" s="131">
         <v>256</v>
@@ -34718,19 +34739,19 @@
         <v>548</v>
       </c>
       <c r="G5" s="32" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>1183</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="I5" s="32" t="s">
         <v>1184</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>1185</v>
       </c>
       <c r="J5" s="131">
         <v>384</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="131"/>
@@ -34745,10 +34766,10 @@
         <v>550</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>1187</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>1188</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>5</v>
@@ -34757,13 +34778,13 @@
         <v>550</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="J6" s="131">
         <v>128</v>
@@ -34788,13 +34809,13 @@
         <v>548</v>
       </c>
       <c r="G7" s="32" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>1183</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>1184</v>
-      </c>
       <c r="I7" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="J7" s="131">
         <v>3072</v>
@@ -34815,19 +34836,19 @@
         <v>549</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J8" s="131">
         <v>521</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="L8" s="32" t="b">
         <v>1</v>
@@ -37050,7 +37071,7 @@
         <v>1049</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F1" s="65" t="s">
         <v>1013</v>
@@ -37225,7 +37246,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="134" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="M2" s="59" t="s">
         <v>38</v>
@@ -37760,7 +37781,7 @@
       </c>
       <c r="K6" s="59"/>
       <c r="L6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M6" s="59"/>
       <c r="N6" s="59"/>
@@ -38554,7 +38575,7 @@
       </c>
       <c r="K16" s="59"/>
       <c r="L16" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="59"/>
@@ -39044,7 +39065,7 @@
       </c>
       <c r="K23" s="59"/>
       <c r="L23" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -39184,7 +39205,7 @@
       </c>
       <c r="K25" s="59"/>
       <c r="L25" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="M25" s="59"/>
       <c r="N25" s="59"/>
@@ -39534,7 +39555,7 @@
       </c>
       <c r="K30" s="59"/>
       <c r="L30" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="M30" s="59"/>
       <c r="N30" s="59"/>
@@ -40234,7 +40255,7 @@
       </c>
       <c r="K40" s="59"/>
       <c r="L40" s="64" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="M40" s="59"/>
       <c r="N40" s="59"/>
@@ -40432,7 +40453,7 @@
         <v>43</v>
       </c>
       <c r="L44" s="58" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="P44" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"DHCP")))</f>
@@ -40561,7 +40582,7 @@
         <v>46</v>
       </c>
       <c r="L47" s="40" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="P47" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"DHCP")))</f>
@@ -40698,7 +40719,7 @@
       <c r="I51" s="58"/>
       <c r="J51" s="58"/>
       <c r="L51" s="40" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AU51" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -43710,7 +43731,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="40" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="153" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1" s="154"/>
       <c r="C1" s="154"/>
@@ -43762,7 +43783,7 @@
         <v>626</v>
       </c>
       <c r="E3" s="138" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F3" s="138"/>
       <c r="G3" s="138"/>
@@ -43775,7 +43796,7 @@
       <c r="C4" s="140"/>
       <c r="D4" s="140"/>
       <c r="E4" s="140" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="140"/>
@@ -43796,7 +43817,7 @@
         <v>559</v>
       </c>
       <c r="E5" s="140" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F5" s="140"/>
       <c r="G5" s="140"/>
@@ -43809,7 +43830,7 @@
       <c r="C6" s="140"/>
       <c r="D6" s="140"/>
       <c r="E6" s="140" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F6" s="140"/>
       <c r="G6" s="140"/>
@@ -43822,7 +43843,7 @@
       <c r="C7" s="140"/>
       <c r="D7" s="140"/>
       <c r="E7" s="140" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F7" s="140"/>
       <c r="G7" s="140"/>
@@ -43835,7 +43856,7 @@
       <c r="C8" s="140"/>
       <c r="D8" s="140"/>
       <c r="E8" s="140" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F8" s="140"/>
       <c r="G8" s="140"/>
@@ -43848,7 +43869,7 @@
       <c r="C9" s="140"/>
       <c r="D9" s="140"/>
       <c r="E9" s="140" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F9" s="140"/>
       <c r="G9" s="140"/>
@@ -43861,7 +43882,7 @@
       <c r="C10" s="140"/>
       <c r="D10" s="140"/>
       <c r="E10" s="140" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F10" s="140"/>
       <c r="G10" s="140"/>
@@ -43874,7 +43895,7 @@
       <c r="C11" s="140"/>
       <c r="D11" s="140"/>
       <c r="E11" s="140" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F11" s="140"/>
       <c r="G11" s="140"/>
@@ -43887,7 +43908,7 @@
       <c r="C12" s="140"/>
       <c r="D12" s="140"/>
       <c r="E12" s="140" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F12" s="140"/>
       <c r="G12" s="140"/>
@@ -43900,7 +43921,7 @@
       <c r="C13" s="140"/>
       <c r="D13" s="140"/>
       <c r="E13" s="140" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F13" s="140"/>
       <c r="G13" s="140"/>
@@ -43913,7 +43934,7 @@
       <c r="C14" s="140"/>
       <c r="D14" s="140"/>
       <c r="E14" s="140" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F14" s="140"/>
       <c r="G14" s="140"/>
@@ -43926,7 +43947,7 @@
       <c r="C15" s="140"/>
       <c r="D15" s="140"/>
       <c r="E15" s="140" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F15" s="140"/>
       <c r="G15" s="140"/>
@@ -43939,7 +43960,7 @@
       <c r="C16" s="140"/>
       <c r="D16" s="140"/>
       <c r="E16" s="140" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F16" s="140"/>
       <c r="G16" s="140"/>
@@ -43952,7 +43973,7 @@
       <c r="C17" s="140"/>
       <c r="D17" s="140"/>
       <c r="E17" s="140" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F17" s="140"/>
       <c r="G17" s="140"/>
@@ -43965,7 +43986,7 @@
       <c r="C18" s="140"/>
       <c r="D18" s="140"/>
       <c r="E18" s="140" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F18" s="140"/>
       <c r="G18" s="140"/>
@@ -43978,7 +43999,7 @@
       <c r="C19" s="140"/>
       <c r="D19" s="140"/>
       <c r="E19" s="140" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F19" s="140"/>
       <c r="G19" s="140"/>
@@ -43991,7 +44012,7 @@
       <c r="C20" s="140"/>
       <c r="D20" s="140"/>
       <c r="E20" s="140" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F20" s="140"/>
       <c r="G20" s="140"/>
@@ -44004,7 +44025,7 @@
       <c r="C21" s="140"/>
       <c r="D21" s="140"/>
       <c r="E21" s="140" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F21" s="140"/>
       <c r="G21" s="140"/>
@@ -44017,7 +44038,7 @@
       <c r="C22" s="140"/>
       <c r="D22" s="140"/>
       <c r="E22" s="140" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F22" s="140"/>
       <c r="G22" s="140"/>
@@ -44030,7 +44051,7 @@
       <c r="C23" s="140"/>
       <c r="D23" s="140"/>
       <c r="E23" s="140" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F23" s="140"/>
       <c r="G23" s="140"/>
@@ -44043,7 +44064,7 @@
       <c r="C24" s="140"/>
       <c r="D24" s="140"/>
       <c r="E24" s="140" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F24" s="140"/>
       <c r="G24" s="140"/>
@@ -44056,7 +44077,7 @@
       <c r="C25" s="140"/>
       <c r="D25" s="140"/>
       <c r="E25" s="140" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F25" s="140"/>
       <c r="G25" s="140"/>
@@ -44069,7 +44090,7 @@
       <c r="C26" s="140"/>
       <c r="D26" s="140"/>
       <c r="E26" s="140" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F26" s="140"/>
       <c r="G26" s="140"/>
@@ -44082,7 +44103,7 @@
       <c r="C27" s="140"/>
       <c r="D27" s="140"/>
       <c r="E27" s="140" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F27" s="140"/>
       <c r="G27" s="140"/>
@@ -44095,7 +44116,7 @@
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
       <c r="E28" s="140" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F28" s="140"/>
       <c r="G28" s="140"/>
@@ -44108,7 +44129,7 @@
       <c r="C29" s="140"/>
       <c r="D29" s="140"/>
       <c r="E29" s="140" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F29" s="140"/>
       <c r="G29" s="140"/>
@@ -44121,7 +44142,7 @@
       <c r="C30" s="140"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F30" s="140"/>
       <c r="G30" s="140"/>
@@ -44134,7 +44155,7 @@
       <c r="C31" s="140"/>
       <c r="D31" s="140"/>
       <c r="E31" s="140" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F31" s="140"/>
       <c r="G31" s="140"/>
@@ -44147,7 +44168,7 @@
       <c r="C32" s="140"/>
       <c r="D32" s="140"/>
       <c r="E32" s="140" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F32" s="140"/>
       <c r="G32" s="140"/>
@@ -44160,7 +44181,7 @@
       <c r="C33" s="140"/>
       <c r="D33" s="140"/>
       <c r="E33" s="140" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F33" s="140"/>
       <c r="G33" s="140"/>
@@ -44173,7 +44194,7 @@
       <c r="C34" s="140"/>
       <c r="D34" s="140"/>
       <c r="E34" s="140" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F34" s="140"/>
       <c r="G34" s="140"/>
@@ -44186,7 +44207,7 @@
       <c r="C35" s="140"/>
       <c r="D35" s="140"/>
       <c r="E35" s="140" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F35" s="140"/>
       <c r="G35" s="140"/>
@@ -44199,7 +44220,7 @@
       <c r="C36" s="140"/>
       <c r="D36" s="140"/>
       <c r="E36" s="140" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F36" s="140"/>
       <c r="G36" s="140"/>
@@ -44212,7 +44233,7 @@
       <c r="C37" s="140"/>
       <c r="D37" s="140"/>
       <c r="E37" s="140" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F37" s="140"/>
       <c r="G37" s="140"/>
@@ -44225,7 +44246,7 @@
       <c r="C38" s="140"/>
       <c r="D38" s="140"/>
       <c r="E38" s="140" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F38" s="140"/>
       <c r="G38" s="140"/>
@@ -44238,7 +44259,7 @@
       <c r="C39" s="140"/>
       <c r="D39" s="140"/>
       <c r="E39" s="140" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F39" s="140"/>
       <c r="G39" s="140"/>
@@ -44251,7 +44272,7 @@
       <c r="C40" s="140"/>
       <c r="D40" s="140"/>
       <c r="E40" s="140" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F40" s="140"/>
       <c r="G40" s="140"/>
@@ -44264,7 +44285,7 @@
       <c r="C41" s="140"/>
       <c r="D41" s="140"/>
       <c r="E41" s="140" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F41" s="140"/>
       <c r="G41" s="140"/>
@@ -44277,7 +44298,7 @@
       <c r="C42" s="140"/>
       <c r="D42" s="140"/>
       <c r="E42" s="140" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F42" s="140"/>
       <c r="G42" s="140"/>
@@ -44290,7 +44311,7 @@
       <c r="C43" s="140"/>
       <c r="D43" s="140"/>
       <c r="E43" s="140" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F43" s="140"/>
       <c r="G43" s="140"/>
@@ -44303,7 +44324,7 @@
       <c r="C44" s="140"/>
       <c r="D44" s="140"/>
       <c r="E44" s="140" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F44" s="140"/>
       <c r="G44" s="140"/>
@@ -44316,7 +44337,7 @@
       <c r="C45" s="140"/>
       <c r="D45" s="140"/>
       <c r="E45" s="140" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F45" s="140"/>
       <c r="G45" s="140"/>
@@ -44329,7 +44350,7 @@
       <c r="C46" s="140"/>
       <c r="D46" s="140"/>
       <c r="E46" s="140" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F46" s="140"/>
       <c r="G46" s="140"/>
@@ -44350,7 +44371,7 @@
         <v>561</v>
       </c>
       <c r="E47" s="140" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F47" s="140"/>
       <c r="G47" s="140"/>
@@ -44363,7 +44384,7 @@
       <c r="C48" s="140"/>
       <c r="D48" s="140"/>
       <c r="E48" s="140" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F48" s="140"/>
       <c r="G48" s="140"/>
@@ -44376,7 +44397,7 @@
       <c r="C49" s="140"/>
       <c r="D49" s="140"/>
       <c r="E49" s="140" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F49" s="140"/>
       <c r="G49" s="140"/>
@@ -44389,7 +44410,7 @@
       <c r="C50" s="140"/>
       <c r="D50" s="140"/>
       <c r="E50" s="140" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F50" s="140"/>
       <c r="G50" s="140"/>
@@ -44402,7 +44423,7 @@
       <c r="C51" s="140"/>
       <c r="D51" s="140"/>
       <c r="E51" s="140" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F51" s="140"/>
       <c r="G51" s="140"/>
@@ -44415,7 +44436,7 @@
       <c r="C52" s="140"/>
       <c r="D52" s="140"/>
       <c r="E52" s="140" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F52" s="140"/>
       <c r="G52" s="140"/>
@@ -44428,7 +44449,7 @@
       <c r="C53" s="140"/>
       <c r="D53" s="140"/>
       <c r="E53" s="140" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F53" s="140"/>
       <c r="G53" s="140"/>
@@ -44441,7 +44462,7 @@
       <c r="C54" s="140"/>
       <c r="D54" s="140"/>
       <c r="E54" s="140" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F54" s="140"/>
       <c r="G54" s="140"/>
@@ -44454,7 +44475,7 @@
       <c r="C55" s="140"/>
       <c r="D55" s="140"/>
       <c r="E55" s="140" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F55" s="140"/>
       <c r="G55" s="140"/>
@@ -44467,7 +44488,7 @@
       <c r="C56" s="140"/>
       <c r="D56" s="140"/>
       <c r="E56" s="140" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F56" s="140"/>
       <c r="G56" s="140"/>
@@ -44480,7 +44501,7 @@
       <c r="C57" s="140"/>
       <c r="D57" s="140"/>
       <c r="E57" s="140" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F57" s="140"/>
       <c r="G57" s="140"/>
@@ -44493,7 +44514,7 @@
       <c r="C58" s="140"/>
       <c r="D58" s="140"/>
       <c r="E58" s="140" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F58" s="140"/>
       <c r="G58" s="140"/>
@@ -44506,7 +44527,7 @@
       <c r="C59" s="140"/>
       <c r="D59" s="140"/>
       <c r="E59" s="140" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F59" s="140"/>
       <c r="G59" s="140"/>
@@ -44519,7 +44540,7 @@
       <c r="C60" s="140"/>
       <c r="D60" s="140"/>
       <c r="E60" s="140" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F60" s="140"/>
       <c r="G60" s="140"/>
@@ -44532,7 +44553,7 @@
       <c r="C61" s="140"/>
       <c r="D61" s="140"/>
       <c r="E61" s="140" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F61" s="140"/>
       <c r="G61" s="140"/>
@@ -44545,7 +44566,7 @@
       <c r="C62" s="140"/>
       <c r="D62" s="140"/>
       <c r="E62" s="140" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F62" s="140"/>
       <c r="G62" s="140"/>
@@ -44558,7 +44579,7 @@
       <c r="C63" s="140"/>
       <c r="D63" s="140"/>
       <c r="E63" s="140" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F63" s="140"/>
       <c r="G63" s="140"/>
@@ -44579,7 +44600,7 @@
         <v>1069</v>
       </c>
       <c r="E64" s="140" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F64" s="140"/>
       <c r="G64" s="140"/>
@@ -44592,7 +44613,7 @@
       <c r="C65" s="140"/>
       <c r="D65" s="140"/>
       <c r="E65" s="140" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F65" s="140"/>
       <c r="G65" s="140"/>
@@ -44605,7 +44626,7 @@
       <c r="C66" s="140"/>
       <c r="D66" s="140"/>
       <c r="E66" s="140" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F66" s="140"/>
       <c r="G66" s="140"/>
@@ -44618,7 +44639,7 @@
       <c r="C67" s="140"/>
       <c r="D67" s="140"/>
       <c r="E67" s="140" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F67" s="140"/>
       <c r="G67" s="140"/>
@@ -44639,7 +44660,7 @@
         <v>912</v>
       </c>
       <c r="E68" s="140" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F68" s="140"/>
       <c r="G68" s="140"/>
@@ -44652,7 +44673,7 @@
       <c r="C69" s="140"/>
       <c r="D69" s="140"/>
       <c r="E69" s="140" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F69" s="140"/>
       <c r="G69" s="140"/>
@@ -44665,7 +44686,7 @@
       <c r="C70" s="140"/>
       <c r="D70" s="140"/>
       <c r="E70" s="140" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F70" s="140"/>
       <c r="G70" s="140"/>
@@ -44678,7 +44699,7 @@
       <c r="C71" s="140"/>
       <c r="D71" s="140"/>
       <c r="E71" s="140" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F71" s="140"/>
       <c r="G71" s="140"/>
@@ -44699,7 +44720,7 @@
         <v>836</v>
       </c>
       <c r="E72" s="140" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F72" s="140"/>
       <c r="G72" s="140"/>
@@ -44712,7 +44733,7 @@
       <c r="C73" s="140"/>
       <c r="D73" s="140"/>
       <c r="E73" s="140" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F73" s="140"/>
       <c r="G73" s="140"/>
@@ -44790,7 +44811,7 @@
       <c r="C79" s="140"/>
       <c r="D79" s="140"/>
       <c r="E79" s="140" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F79" s="140"/>
       <c r="G79" s="140"/>
@@ -44824,7 +44845,7 @@
         <v>837</v>
       </c>
       <c r="E81" s="140" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F81" s="138"/>
       <c r="G81" s="140"/>
@@ -44837,7 +44858,7 @@
       <c r="C82" s="140"/>
       <c r="D82" s="140"/>
       <c r="E82" s="140" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F82" s="140"/>
       <c r="G82" s="140"/>
@@ -44850,7 +44871,7 @@
       <c r="C83" s="140"/>
       <c r="D83" s="140"/>
       <c r="E83" s="140" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F83" s="140"/>
       <c r="G83" s="140"/>
@@ -44863,7 +44884,7 @@
       <c r="C84" s="140"/>
       <c r="D84" s="140"/>
       <c r="E84" s="143" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F84" s="140"/>
       <c r="G84" s="140"/>
@@ -44876,7 +44897,7 @@
       <c r="C85" s="140"/>
       <c r="D85" s="140"/>
       <c r="E85" s="143" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F85" s="140"/>
       <c r="G85" s="140"/>
@@ -44889,7 +44910,7 @@
       <c r="C86" s="140"/>
       <c r="D86" s="140"/>
       <c r="E86" s="143" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F86" s="140"/>
       <c r="G86" s="140"/>
@@ -44902,7 +44923,7 @@
       <c r="C87" s="140"/>
       <c r="D87" s="140"/>
       <c r="E87" s="143" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F87" s="140"/>
       <c r="G87" s="140"/>
@@ -44915,7 +44936,7 @@
       <c r="C88" s="140"/>
       <c r="D88" s="140"/>
       <c r="E88" s="143" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F88" s="140"/>
       <c r="G88" s="140"/>
@@ -44928,7 +44949,7 @@
       <c r="C89" s="140"/>
       <c r="D89" s="140"/>
       <c r="E89" s="143" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F89" s="140"/>
       <c r="G89" s="140"/>
@@ -44941,7 +44962,7 @@
       <c r="C90" s="140"/>
       <c r="D90" s="140"/>
       <c r="E90" s="143" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F90" s="140"/>
       <c r="G90" s="140"/>
@@ -44954,7 +44975,7 @@
       <c r="C91" s="140"/>
       <c r="D91" s="140"/>
       <c r="E91" s="143" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F91" s="140"/>
       <c r="G91" s="140"/>
@@ -44967,7 +44988,7 @@
       <c r="C92" s="140"/>
       <c r="D92" s="140"/>
       <c r="E92" s="143" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F92" s="140"/>
       <c r="G92" s="140"/>
@@ -44980,7 +45001,7 @@
       <c r="C93" s="140"/>
       <c r="D93" s="140"/>
       <c r="E93" s="143" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F93" s="140"/>
       <c r="G93" s="140"/>
@@ -44993,7 +45014,7 @@
       <c r="C94" s="140"/>
       <c r="D94" s="140"/>
       <c r="E94" s="143" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F94" s="140"/>
       <c r="G94" s="140"/>
@@ -45006,7 +45027,7 @@
       <c r="C95" s="140"/>
       <c r="D95" s="140"/>
       <c r="E95" s="143" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F95" s="140"/>
       <c r="G95" s="140"/>
@@ -45019,7 +45040,7 @@
       <c r="C96" s="140"/>
       <c r="D96" s="140"/>
       <c r="E96" s="143" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F96" s="140"/>
       <c r="G96" s="140"/>
@@ -45032,7 +45053,7 @@
       <c r="C97" s="140"/>
       <c r="D97" s="140"/>
       <c r="E97" s="143" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F97" s="140"/>
       <c r="G97" s="140"/>
@@ -45045,7 +45066,7 @@
       <c r="C98" s="140"/>
       <c r="D98" s="140"/>
       <c r="E98" s="143" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F98" s="140"/>
       <c r="G98" s="140"/>
@@ -45058,7 +45079,7 @@
       <c r="C99" s="140"/>
       <c r="D99" s="140"/>
       <c r="E99" s="143" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F99" s="140"/>
       <c r="G99" s="140"/>
@@ -45071,7 +45092,7 @@
       <c r="C100" s="140"/>
       <c r="D100" s="140"/>
       <c r="E100" s="143" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F100" s="140"/>
       <c r="G100" s="140"/>
@@ -45084,7 +45105,7 @@
       <c r="C101" s="140"/>
       <c r="D101" s="140"/>
       <c r="E101" s="143" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F101" s="140"/>
       <c r="G101" s="140"/>
@@ -45097,7 +45118,7 @@
       <c r="C102" s="140"/>
       <c r="D102" s="140"/>
       <c r="E102" s="143" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F102" s="140"/>
       <c r="G102" s="140"/>
@@ -45110,7 +45131,7 @@
       <c r="C103" s="140"/>
       <c r="D103" s="140"/>
       <c r="E103" s="143" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F103" s="140"/>
       <c r="G103" s="140"/>
@@ -45123,7 +45144,7 @@
       <c r="C104" s="140"/>
       <c r="D104" s="140"/>
       <c r="E104" s="143" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F104" s="140"/>
       <c r="G104" s="140"/>
@@ -45136,7 +45157,7 @@
       <c r="C105" s="140"/>
       <c r="D105" s="140"/>
       <c r="E105" s="143" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F105" s="140"/>
       <c r="G105" s="140"/>
@@ -45149,7 +45170,7 @@
       <c r="C106" s="140"/>
       <c r="D106" s="140"/>
       <c r="E106" s="143" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F106" s="140"/>
       <c r="G106" s="140"/>
@@ -45162,7 +45183,7 @@
       <c r="C107" s="140"/>
       <c r="D107" s="140"/>
       <c r="E107" s="143" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F107" s="140"/>
       <c r="G107" s="140"/>
@@ -45175,7 +45196,7 @@
       <c r="C108" s="140"/>
       <c r="D108" s="140"/>
       <c r="E108" s="143" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F108" s="140"/>
       <c r="G108" s="140"/>
@@ -45188,7 +45209,7 @@
       <c r="C109" s="140"/>
       <c r="D109" s="140"/>
       <c r="E109" s="143" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F109" s="140"/>
       <c r="G109" s="140"/>
@@ -45201,7 +45222,7 @@
       <c r="C110" s="140"/>
       <c r="D110" s="140"/>
       <c r="E110" s="143" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F110" s="140"/>
       <c r="G110" s="140"/>
@@ -45214,7 +45235,7 @@
       <c r="C111" s="140"/>
       <c r="D111" s="140"/>
       <c r="E111" s="143" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F111" s="140"/>
       <c r="G111" s="140"/>
@@ -45227,7 +45248,7 @@
       <c r="C112" s="140"/>
       <c r="D112" s="140"/>
       <c r="E112" s="143" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F112" s="140"/>
       <c r="G112" s="140"/>
@@ -45240,7 +45261,7 @@
       <c r="C113" s="140"/>
       <c r="D113" s="140"/>
       <c r="E113" s="143" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F113" s="140"/>
       <c r="G113" s="140"/>
@@ -45253,7 +45274,7 @@
       <c r="C114" s="140"/>
       <c r="D114" s="140"/>
       <c r="E114" s="143" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F114" s="140"/>
       <c r="G114" s="140"/>
@@ -45266,7 +45287,7 @@
       <c r="C115" s="140"/>
       <c r="D115" s="140"/>
       <c r="E115" s="143" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F115" s="140"/>
       <c r="G115" s="140"/>
@@ -45279,7 +45300,7 @@
       <c r="C116" s="140"/>
       <c r="D116" s="140"/>
       <c r="E116" s="143" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F116" s="140"/>
       <c r="G116" s="140"/>
@@ -45292,7 +45313,7 @@
       <c r="C117" s="140"/>
       <c r="D117" s="140"/>
       <c r="E117" s="140" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F117" s="140"/>
       <c r="G117" s="140"/>
@@ -45305,7 +45326,7 @@
       <c r="C118" s="140"/>
       <c r="D118" s="140"/>
       <c r="E118" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F118" s="140"/>
       <c r="G118" s="140"/>
@@ -45318,7 +45339,7 @@
       <c r="C119" s="140"/>
       <c r="D119" s="140"/>
       <c r="E119" s="140" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F119" s="140"/>
       <c r="G119" s="140"/>
@@ -45331,7 +45352,7 @@
       <c r="C120" s="140"/>
       <c r="D120" s="140"/>
       <c r="E120" s="140" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F120" s="140"/>
       <c r="G120" s="140"/>
@@ -45344,7 +45365,7 @@
       <c r="C121" s="140"/>
       <c r="D121" s="140"/>
       <c r="E121" s="143" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F121" s="140"/>
       <c r="G121" s="140"/>
@@ -45365,7 +45386,7 @@
         <v>564</v>
       </c>
       <c r="E122" s="142" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F122" s="140"/>
       <c r="G122" s="140"/>
@@ -45378,7 +45399,7 @@
       <c r="C123" s="140"/>
       <c r="D123" s="140"/>
       <c r="E123" s="142" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F123" s="140"/>
       <c r="G123" s="140"/>
@@ -45391,7 +45412,7 @@
       <c r="C124" s="140"/>
       <c r="D124" s="140"/>
       <c r="E124" s="140" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F124" s="140"/>
       <c r="G124" s="140"/>
@@ -45404,7 +45425,7 @@
       <c r="C125" s="140"/>
       <c r="D125" s="140"/>
       <c r="E125" s="140" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F125" s="140"/>
       <c r="G125" s="140"/>
@@ -45417,7 +45438,7 @@
       <c r="C126" s="140"/>
       <c r="D126" s="140"/>
       <c r="E126" s="140" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F126" s="140"/>
       <c r="G126" s="140"/>
@@ -45430,7 +45451,7 @@
       <c r="C127" s="140"/>
       <c r="D127" s="140"/>
       <c r="E127" s="140" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F127" s="140"/>
       <c r="G127" s="140"/>
@@ -45443,7 +45464,7 @@
       <c r="C128" s="140"/>
       <c r="D128" s="140"/>
       <c r="E128" s="140" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F128" s="140"/>
       <c r="G128" s="140"/>
@@ -45456,7 +45477,7 @@
       <c r="C129" s="140"/>
       <c r="D129" s="140"/>
       <c r="E129" s="140" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F129" s="140"/>
       <c r="G129" s="140"/>
@@ -45469,7 +45490,7 @@
       <c r="C130" s="140"/>
       <c r="D130" s="140"/>
       <c r="E130" s="140" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F130" s="140"/>
       <c r="G130" s="140"/>
@@ -45482,7 +45503,7 @@
       <c r="C131" s="140"/>
       <c r="D131" s="140"/>
       <c r="E131" s="140" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F131" s="140"/>
       <c r="G131" s="140"/>
@@ -45495,7 +45516,7 @@
       <c r="C132" s="140"/>
       <c r="D132" s="140"/>
       <c r="E132" s="140" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F132" s="140"/>
       <c r="G132" s="140"/>
@@ -45508,7 +45529,7 @@
       <c r="C133" s="140"/>
       <c r="D133" s="140"/>
       <c r="E133" s="140" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F133" s="140"/>
       <c r="G133" s="140"/>
@@ -45521,7 +45542,7 @@
       <c r="C134" s="140"/>
       <c r="D134" s="140"/>
       <c r="E134" s="140" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F134" s="140"/>
       <c r="G134" s="140"/>
@@ -45534,7 +45555,7 @@
       <c r="C135" s="140"/>
       <c r="D135" s="140"/>
       <c r="E135" s="140" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F135" s="140"/>
       <c r="G135" s="140"/>
@@ -45547,7 +45568,7 @@
       <c r="C136" s="140"/>
       <c r="D136" s="140"/>
       <c r="E136" s="140" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F136" s="140"/>
       <c r="G136" s="140"/>
@@ -45560,7 +45581,7 @@
       <c r="C137" s="140"/>
       <c r="D137" s="140"/>
       <c r="E137" s="140" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F137" s="140"/>
       <c r="G137" s="140"/>
@@ -45573,7 +45594,7 @@
       <c r="C138" s="140"/>
       <c r="D138" s="140"/>
       <c r="E138" s="140" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F138" s="140"/>
       <c r="G138" s="140"/>
@@ -45586,7 +45607,7 @@
       <c r="C139" s="140"/>
       <c r="D139" s="140"/>
       <c r="E139" s="140" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F139" s="140"/>
       <c r="G139" s="140"/>
@@ -45599,7 +45620,7 @@
       <c r="C140" s="140"/>
       <c r="D140" s="140"/>
       <c r="E140" s="140" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F140" s="140"/>
       <c r="G140" s="140"/>
@@ -45612,7 +45633,7 @@
       <c r="C141" s="140"/>
       <c r="D141" s="140"/>
       <c r="E141" s="140" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F141" s="140"/>
       <c r="G141" s="140"/>
@@ -45633,7 +45654,7 @@
         <v>566</v>
       </c>
       <c r="E142" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F142" s="140"/>
       <c r="G142" s="140"/>
@@ -45646,7 +45667,7 @@
       <c r="C143" s="140"/>
       <c r="D143" s="140"/>
       <c r="E143" s="140" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F143" s="140"/>
       <c r="G143" s="140"/>
@@ -45659,7 +45680,7 @@
       <c r="C144" s="140"/>
       <c r="D144" s="140"/>
       <c r="E144" s="140" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F144" s="140"/>
       <c r="G144" s="140"/>
@@ -45672,7 +45693,7 @@
       <c r="C145" s="140"/>
       <c r="D145" s="140"/>
       <c r="E145" s="140" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F145" s="140"/>
       <c r="G145" s="140"/>
@@ -45685,7 +45706,7 @@
       <c r="C146" s="140"/>
       <c r="D146" s="140"/>
       <c r="E146" s="140" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F146" s="140"/>
       <c r="G146" s="140"/>
@@ -45698,7 +45719,7 @@
       <c r="C147" s="140"/>
       <c r="D147" s="140"/>
       <c r="E147" s="140" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F147" s="140"/>
       <c r="G147" s="140"/>
@@ -45711,7 +45732,7 @@
       <c r="C148" s="140"/>
       <c r="D148" s="140"/>
       <c r="E148" s="140" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F148" s="140"/>
       <c r="G148" s="140"/>
@@ -45724,7 +45745,7 @@
       <c r="C149" s="140"/>
       <c r="D149" s="140"/>
       <c r="E149" s="140" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F149" s="140"/>
       <c r="G149" s="140"/>
@@ -45737,7 +45758,7 @@
       <c r="C150" s="140"/>
       <c r="D150" s="140"/>
       <c r="E150" s="140" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F150" s="140"/>
       <c r="G150" s="140"/>
@@ -45750,7 +45771,7 @@
       <c r="C151" s="140"/>
       <c r="D151" s="140"/>
       <c r="E151" s="140" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F151" s="140"/>
       <c r="G151" s="140"/>
@@ -45763,7 +45784,7 @@
       <c r="C152" s="140"/>
       <c r="D152" s="140"/>
       <c r="E152" s="140" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F152" s="140"/>
       <c r="G152" s="140"/>
@@ -45776,7 +45797,7 @@
       <c r="C153" s="140"/>
       <c r="D153" s="140"/>
       <c r="E153" s="140" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F153" s="140"/>
       <c r="G153" s="140"/>
@@ -45789,7 +45810,7 @@
       <c r="C154" s="140"/>
       <c r="D154" s="140"/>
       <c r="E154" s="140" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F154" s="140"/>
       <c r="G154" s="140"/>
@@ -45802,7 +45823,7 @@
       <c r="C155" s="140"/>
       <c r="D155" s="140"/>
       <c r="E155" s="140" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F155" s="140"/>
       <c r="G155" s="140"/>
@@ -45815,7 +45836,7 @@
       <c r="C156" s="140"/>
       <c r="D156" s="140"/>
       <c r="E156" s="140" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F156" s="140"/>
       <c r="G156" s="140"/>
@@ -45828,7 +45849,7 @@
       <c r="C157" s="140"/>
       <c r="D157" s="140"/>
       <c r="E157" s="140" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F157" s="140"/>
       <c r="G157" s="140"/>
@@ -45841,7 +45862,7 @@
       <c r="C158" s="140"/>
       <c r="D158" s="140"/>
       <c r="E158" s="140" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F158" s="140"/>
       <c r="G158" s="140"/>
@@ -45854,7 +45875,7 @@
       <c r="C159" s="140"/>
       <c r="D159" s="140"/>
       <c r="E159" s="140" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F159" s="140"/>
       <c r="G159" s="140"/>
@@ -45867,7 +45888,7 @@
       <c r="C160" s="140"/>
       <c r="D160" s="140"/>
       <c r="E160" s="140" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F160" s="140"/>
       <c r="G160" s="140"/>
@@ -45880,7 +45901,7 @@
       <c r="C161" s="140"/>
       <c r="D161" s="140"/>
       <c r="E161" s="140" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F161" s="140"/>
       <c r="G161" s="140"/>
@@ -45893,7 +45914,7 @@
       <c r="C162" s="140"/>
       <c r="D162" s="140"/>
       <c r="E162" s="140" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F162" s="140"/>
       <c r="G162" s="140"/>
@@ -45906,7 +45927,7 @@
       <c r="C163" s="140"/>
       <c r="D163" s="140"/>
       <c r="E163" s="140" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F163" s="140"/>
       <c r="G163" s="140"/>
@@ -45919,7 +45940,7 @@
       <c r="C164" s="140"/>
       <c r="D164" s="140"/>
       <c r="E164" s="140" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F164" s="140"/>
       <c r="G164" s="140"/>
@@ -45932,7 +45953,7 @@
       <c r="C165" s="140"/>
       <c r="D165" s="140"/>
       <c r="E165" s="140" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F165" s="140"/>
       <c r="G165" s="140"/>
@@ -45945,7 +45966,7 @@
       <c r="C166" s="140"/>
       <c r="D166" s="140"/>
       <c r="E166" s="140" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F166" s="140"/>
       <c r="G166" s="140"/>
@@ -45958,7 +45979,7 @@
       <c r="C167" s="140"/>
       <c r="D167" s="140"/>
       <c r="E167" s="140" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F167" s="140"/>
       <c r="G167" s="140"/>
@@ -45971,7 +45992,7 @@
       <c r="C168" s="140"/>
       <c r="D168" s="140"/>
       <c r="E168" s="140" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F168" s="140"/>
       <c r="G168" s="140"/>
@@ -45984,7 +46005,7 @@
       <c r="C169" s="140"/>
       <c r="D169" s="140"/>
       <c r="E169" s="140" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F169" s="140"/>
       <c r="G169" s="140"/>
@@ -45997,7 +46018,7 @@
       <c r="C170" s="140"/>
       <c r="D170" s="140"/>
       <c r="E170" s="140" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F170" s="140"/>
       <c r="G170" s="140"/>
@@ -46044,7 +46065,7 @@
       <c r="C173" s="140"/>
       <c r="D173" s="140"/>
       <c r="E173" s="140" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F173" s="140"/>
       <c r="G173" s="140"/>
@@ -46057,7 +46078,7 @@
       <c r="C174" s="140"/>
       <c r="D174" s="140"/>
       <c r="E174" s="140" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F174" s="140"/>
       <c r="G174" s="140"/>
@@ -46078,7 +46099,7 @@
         <v>568</v>
       </c>
       <c r="E175" s="140" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F175" s="140"/>
       <c r="G175" s="140"/>
@@ -46091,7 +46112,7 @@
       <c r="C176" s="140"/>
       <c r="D176" s="140"/>
       <c r="E176" s="140" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F176" s="140"/>
       <c r="G176" s="140"/>
@@ -46104,7 +46125,7 @@
       <c r="C177" s="140"/>
       <c r="D177" s="140"/>
       <c r="E177" s="140" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F177" s="140"/>
       <c r="G177" s="140"/>
@@ -46117,7 +46138,7 @@
       <c r="C178" s="140"/>
       <c r="D178" s="140"/>
       <c r="E178" s="140" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F178" s="140"/>
       <c r="G178" s="140"/>
@@ -46130,7 +46151,7 @@
       <c r="C179" s="140"/>
       <c r="D179" s="140"/>
       <c r="E179" s="140" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F179" s="140"/>
       <c r="G179" s="140"/>
@@ -46143,7 +46164,7 @@
       <c r="C180" s="140"/>
       <c r="D180" s="140"/>
       <c r="E180" s="140" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F180" s="140"/>
       <c r="G180" s="140"/>
@@ -46156,7 +46177,7 @@
       <c r="C181" s="140"/>
       <c r="D181" s="140"/>
       <c r="E181" s="140" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F181" s="140"/>
       <c r="G181" s="140"/>
@@ -46169,7 +46190,7 @@
       <c r="C182" s="140"/>
       <c r="D182" s="140"/>
       <c r="E182" s="140" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F182" s="140"/>
       <c r="G182" s="140"/>
@@ -46182,7 +46203,7 @@
       <c r="C183" s="140"/>
       <c r="D183" s="140"/>
       <c r="E183" s="140" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F183" s="140"/>
       <c r="G183" s="140"/>
@@ -46195,7 +46216,7 @@
       <c r="C184" s="140"/>
       <c r="D184" s="140"/>
       <c r="E184" s="140" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F184" s="140"/>
       <c r="G184" s="140"/>
@@ -46208,7 +46229,7 @@
       <c r="C185" s="140"/>
       <c r="D185" s="140"/>
       <c r="E185" s="140" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F185" s="140"/>
       <c r="G185" s="140"/>
@@ -46221,7 +46242,7 @@
       <c r="C186" s="140"/>
       <c r="D186" s="140"/>
       <c r="E186" s="140" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F186" s="140"/>
       <c r="G186" s="140"/>
@@ -46234,7 +46255,7 @@
       <c r="C187" s="140"/>
       <c r="D187" s="140"/>
       <c r="E187" s="140" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="F187" s="140"/>
       <c r="G187" s="140"/>
@@ -46247,7 +46268,7 @@
       <c r="C188" s="140"/>
       <c r="D188" s="140"/>
       <c r="E188" s="140" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F188" s="140"/>
       <c r="G188" s="140"/>
@@ -46260,7 +46281,7 @@
       <c r="C189" s="140"/>
       <c r="D189" s="140"/>
       <c r="E189" s="140" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F189" s="140"/>
       <c r="G189" s="140"/>
@@ -46273,7 +46294,7 @@
       <c r="C190" s="140"/>
       <c r="D190" s="140"/>
       <c r="E190" s="140" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F190" s="140"/>
       <c r="G190" s="140"/>
@@ -46286,7 +46307,7 @@
       <c r="C191" s="140"/>
       <c r="D191" s="140"/>
       <c r="E191" s="140" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F191" s="140"/>
       <c r="G191" s="140"/>
@@ -46299,7 +46320,7 @@
       <c r="C192" s="140"/>
       <c r="D192" s="140"/>
       <c r="E192" s="140" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F192" s="140"/>
       <c r="G192" s="140"/>
@@ -46312,7 +46333,7 @@
       <c r="C193" s="140"/>
       <c r="D193" s="140"/>
       <c r="E193" s="140" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F193" s="140"/>
       <c r="G193" s="140"/>
@@ -46325,7 +46346,7 @@
       <c r="C194" s="140"/>
       <c r="D194" s="140"/>
       <c r="E194" s="140" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F194" s="140"/>
       <c r="G194" s="140"/>
@@ -46338,7 +46359,7 @@
       <c r="C195" s="140"/>
       <c r="D195" s="140"/>
       <c r="E195" s="140" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F195" s="140"/>
       <c r="G195" s="140"/>
@@ -46351,7 +46372,7 @@
       <c r="C196" s="140"/>
       <c r="D196" s="140"/>
       <c r="E196" s="140" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F196" s="140"/>
       <c r="G196" s="140"/>
@@ -46364,7 +46385,7 @@
       <c r="C197" s="140"/>
       <c r="D197" s="140"/>
       <c r="E197" s="140" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F197" s="140"/>
       <c r="G197" s="140"/>
@@ -46377,7 +46398,7 @@
       <c r="C198" s="140"/>
       <c r="D198" s="140"/>
       <c r="E198" s="140" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="F198" s="140"/>
       <c r="G198" s="140"/>
@@ -46390,7 +46411,7 @@
       <c r="C199" s="140"/>
       <c r="D199" s="140"/>
       <c r="E199" s="140" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F199" s="140"/>
       <c r="G199" s="140"/>
@@ -46403,7 +46424,7 @@
       <c r="C200" s="140"/>
       <c r="D200" s="140"/>
       <c r="E200" s="140" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F200" s="140"/>
       <c r="G200" s="140"/>
@@ -46416,7 +46437,7 @@
       <c r="C201" s="140"/>
       <c r="D201" s="140"/>
       <c r="E201" s="140" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F201" s="140"/>
       <c r="G201" s="140"/>
@@ -46429,7 +46450,7 @@
       <c r="C202" s="140"/>
       <c r="D202" s="140"/>
       <c r="E202" s="140" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F202" s="140"/>
       <c r="G202" s="140"/>
@@ -46442,7 +46463,7 @@
       <c r="C203" s="140"/>
       <c r="D203" s="140"/>
       <c r="E203" s="140" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F203" s="140"/>
       <c r="G203" s="140"/>
@@ -46455,7 +46476,7 @@
       <c r="C204" s="140"/>
       <c r="D204" s="140"/>
       <c r="E204" s="140" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="F204" s="140"/>
       <c r="G204" s="140"/>
@@ -46468,7 +46489,7 @@
       <c r="C205" s="140"/>
       <c r="D205" s="140"/>
       <c r="E205" s="140" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="F205" s="140"/>
       <c r="G205" s="140"/>
@@ -46481,7 +46502,7 @@
       <c r="C206" s="140"/>
       <c r="D206" s="140"/>
       <c r="E206" s="140" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F206" s="140"/>
       <c r="G206" s="140"/>
@@ -46494,7 +46515,7 @@
       <c r="C207" s="140"/>
       <c r="D207" s="140"/>
       <c r="E207" s="140" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F207" s="140"/>
       <c r="G207" s="140"/>
@@ -46507,7 +46528,7 @@
       <c r="C208" s="140"/>
       <c r="D208" s="140"/>
       <c r="E208" s="140" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="F208" s="140"/>
       <c r="G208" s="140"/>
@@ -46520,7 +46541,7 @@
       <c r="C209" s="140"/>
       <c r="D209" s="140"/>
       <c r="E209" s="140" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F209" s="140"/>
       <c r="G209" s="140"/>
@@ -46533,7 +46554,7 @@
       <c r="C210" s="140"/>
       <c r="D210" s="140"/>
       <c r="E210" s="140" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F210" s="140"/>
       <c r="G210" s="140"/>
@@ -46546,7 +46567,7 @@
       <c r="C211" s="140"/>
       <c r="D211" s="140"/>
       <c r="E211" s="140" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F211" s="140"/>
       <c r="G211" s="140"/>
@@ -46559,7 +46580,7 @@
       <c r="C212" s="140"/>
       <c r="D212" s="140"/>
       <c r="E212" s="140" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F212" s="140"/>
       <c r="G212" s="140"/>
@@ -46572,7 +46593,7 @@
       <c r="C213" s="140"/>
       <c r="D213" s="140"/>
       <c r="E213" s="140" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F213" s="140"/>
       <c r="G213" s="140"/>
@@ -46585,7 +46606,7 @@
       <c r="C214" s="140"/>
       <c r="D214" s="140"/>
       <c r="E214" s="140" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F214" s="140"/>
       <c r="G214" s="140"/>
@@ -46598,7 +46619,7 @@
       <c r="C215" s="140"/>
       <c r="D215" s="140"/>
       <c r="E215" s="140" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F215" s="140"/>
       <c r="G215" s="140"/>
@@ -46611,7 +46632,7 @@
       <c r="C216" s="140"/>
       <c r="D216" s="140"/>
       <c r="E216" s="140" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F216" s="140"/>
       <c r="G216" s="140"/>
@@ -46624,7 +46645,7 @@
       <c r="C217" s="140"/>
       <c r="D217" s="140"/>
       <c r="E217" s="140" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F217" s="140"/>
       <c r="G217" s="140"/>
@@ -46637,7 +46658,7 @@
       <c r="C218" s="140"/>
       <c r="D218" s="140"/>
       <c r="E218" s="140" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F218" s="140"/>
       <c r="G218" s="140"/>
@@ -46650,7 +46671,7 @@
       <c r="C219" s="140"/>
       <c r="D219" s="140"/>
       <c r="E219" s="140" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F219" s="140"/>
       <c r="G219" s="140"/>
@@ -46663,7 +46684,7 @@
       <c r="C220" s="140"/>
       <c r="D220" s="140"/>
       <c r="E220" s="140" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F220" s="140"/>
       <c r="G220" s="140"/>
@@ -46676,7 +46697,7 @@
       <c r="C221" s="140"/>
       <c r="D221" s="140"/>
       <c r="E221" s="140" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F221" s="140"/>
       <c r="G221" s="140"/>
@@ -46689,7 +46710,7 @@
       <c r="C222" s="146"/>
       <c r="D222" s="146"/>
       <c r="E222" s="140" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F222" s="146"/>
       <c r="G222" s="146"/>
@@ -46710,7 +46731,7 @@
         <v>840</v>
       </c>
       <c r="E223" s="140" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F223" s="146"/>
       <c r="G223" s="146"/>
@@ -46723,7 +46744,7 @@
       <c r="C224" s="146"/>
       <c r="D224" s="146"/>
       <c r="E224" s="140" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="F224" s="146"/>
       <c r="G224" s="146"/>
@@ -46736,7 +46757,7 @@
       <c r="C225" s="146"/>
       <c r="D225" s="146"/>
       <c r="E225" s="140" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F225" s="146"/>
       <c r="G225" s="146"/>
@@ -46749,7 +46770,7 @@
       <c r="C226" s="146"/>
       <c r="D226" s="146"/>
       <c r="E226" s="140" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F226" s="146"/>
       <c r="G226" s="146"/>
@@ -46762,7 +46783,7 @@
       <c r="C227" s="146"/>
       <c r="D227" s="146"/>
       <c r="E227" s="140" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F227" s="146"/>
       <c r="G227" s="146"/>
@@ -46775,7 +46796,7 @@
       <c r="C228" s="146"/>
       <c r="D228" s="146"/>
       <c r="E228" s="140" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F228" s="146"/>
       <c r="G228" s="146"/>
@@ -46788,7 +46809,7 @@
       <c r="C229" s="146"/>
       <c r="D229" s="146"/>
       <c r="E229" s="140" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F229" s="146"/>
       <c r="G229" s="146"/>
@@ -46801,7 +46822,7 @@
       <c r="C230" s="146"/>
       <c r="D230" s="146"/>
       <c r="E230" s="140" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F230" s="146"/>
       <c r="G230" s="146"/>
@@ -46814,7 +46835,7 @@
       <c r="C231" s="146"/>
       <c r="D231" s="146"/>
       <c r="E231" s="140" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F231" s="146"/>
       <c r="G231" s="146"/>
@@ -46827,7 +46848,7 @@
       <c r="C232" s="146"/>
       <c r="D232" s="146"/>
       <c r="E232" s="140" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F232" s="146"/>
       <c r="G232" s="146"/>
@@ -46840,7 +46861,7 @@
       <c r="C233" s="146"/>
       <c r="D233" s="146"/>
       <c r="E233" s="140" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F233" s="146"/>
       <c r="G233" s="146"/>
@@ -46853,7 +46874,7 @@
       <c r="C234" s="146"/>
       <c r="D234" s="146"/>
       <c r="E234" s="140" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F234" s="146"/>
       <c r="G234" s="146"/>
@@ -46866,7 +46887,7 @@
       <c r="C235" s="146"/>
       <c r="D235" s="146"/>
       <c r="E235" s="140" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F235" s="146"/>
       <c r="G235" s="146"/>
@@ -46879,7 +46900,7 @@
       <c r="C236" s="146"/>
       <c r="D236" s="146"/>
       <c r="E236" s="140" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F236" s="146"/>
       <c r="G236" s="146"/>
@@ -46892,7 +46913,7 @@
       <c r="C237" s="146"/>
       <c r="D237" s="146"/>
       <c r="E237" s="140" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F237" s="146"/>
       <c r="G237" s="146"/>
@@ -46905,7 +46926,7 @@
       <c r="C238" s="146"/>
       <c r="D238" s="146"/>
       <c r="E238" s="140" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F238" s="146"/>
       <c r="G238" s="146"/>
@@ -46918,7 +46939,7 @@
       <c r="C239" s="146"/>
       <c r="D239" s="146"/>
       <c r="E239" s="140" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F239" s="146"/>
       <c r="G239" s="146"/>
@@ -46931,7 +46952,7 @@
       <c r="C240" s="146"/>
       <c r="D240" s="146"/>
       <c r="E240" s="140" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F240" s="146"/>
       <c r="G240" s="146"/>
@@ -46944,7 +46965,7 @@
       <c r="C241" s="146"/>
       <c r="D241" s="146"/>
       <c r="E241" s="140" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F241" s="146"/>
       <c r="G241" s="146"/>
@@ -46957,7 +46978,7 @@
       <c r="C242" s="146"/>
       <c r="D242" s="146"/>
       <c r="E242" s="140" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F242" s="146"/>
       <c r="G242" s="146"/>
@@ -46970,7 +46991,7 @@
       <c r="C243" s="146"/>
       <c r="D243" s="146"/>
       <c r="E243" s="140" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F243" s="146"/>
       <c r="G243" s="146"/>
@@ -46983,7 +47004,7 @@
       <c r="C244" s="146"/>
       <c r="D244" s="146"/>
       <c r="E244" s="140" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="F244" s="146"/>
       <c r="G244" s="146"/>
@@ -46996,7 +47017,7 @@
       <c r="C245" s="146"/>
       <c r="D245" s="146"/>
       <c r="E245" s="140" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F245" s="146"/>
       <c r="G245" s="146"/>
@@ -47009,7 +47030,7 @@
       <c r="C246" s="146"/>
       <c r="D246" s="146"/>
       <c r="E246" s="140" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F246" s="146"/>
       <c r="G246" s="146"/>
@@ -47022,7 +47043,7 @@
       <c r="C247" s="146"/>
       <c r="D247" s="146"/>
       <c r="E247" s="140" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F247" s="146"/>
       <c r="G247" s="146"/>
@@ -47035,7 +47056,7 @@
       <c r="C248" s="146"/>
       <c r="D248" s="146"/>
       <c r="E248" s="140" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F248" s="146"/>
       <c r="G248" s="146"/>
@@ -47048,7 +47069,7 @@
       <c r="C249" s="146"/>
       <c r="D249" s="146"/>
       <c r="E249" s="140" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F249" s="146"/>
       <c r="G249" s="146"/>
@@ -47061,7 +47082,7 @@
       <c r="C250" s="146"/>
       <c r="D250" s="146"/>
       <c r="E250" s="140" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F250" s="146"/>
       <c r="G250" s="146"/>
@@ -47082,7 +47103,7 @@
         <v>1071</v>
       </c>
       <c r="E251" s="140" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F251" s="146"/>
       <c r="G251" s="146"/>
@@ -47095,7 +47116,7 @@
       <c r="C252" s="146"/>
       <c r="D252" s="140"/>
       <c r="E252" s="140" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F252" s="146"/>
       <c r="G252" s="146"/>
@@ -47108,7 +47129,7 @@
       <c r="C253" s="146"/>
       <c r="D253" s="140"/>
       <c r="E253" s="140" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F253" s="146"/>
       <c r="G253" s="146"/>
@@ -47121,7 +47142,7 @@
       <c r="C254" s="146"/>
       <c r="D254" s="140"/>
       <c r="E254" s="140" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F254" s="146"/>
       <c r="G254" s="146"/>
@@ -47155,7 +47176,7 @@
         <v>842</v>
       </c>
       <c r="E256" s="140" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F256" s="140"/>
       <c r="G256" s="140"/>
@@ -47168,7 +47189,7 @@
       <c r="C257" s="140"/>
       <c r="D257" s="140"/>
       <c r="E257" s="140" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F257" s="140"/>
       <c r="G257" s="140"/>
@@ -47181,7 +47202,7 @@
       <c r="C258" s="140"/>
       <c r="D258" s="140"/>
       <c r="E258" s="140" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F258" s="140"/>
       <c r="G258" s="140"/>
@@ -47202,7 +47223,7 @@
         <v>844</v>
       </c>
       <c r="E259" s="140" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F259" s="140"/>
       <c r="G259" s="140"/>
@@ -47215,7 +47236,7 @@
       <c r="C260" s="140"/>
       <c r="D260" s="140"/>
       <c r="E260" s="140" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F260" s="140"/>
       <c r="G260" s="140"/>
@@ -47228,7 +47249,7 @@
       <c r="C261" s="140"/>
       <c r="D261" s="140"/>
       <c r="E261" s="140" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F261" s="140"/>
       <c r="G261" s="140"/>
@@ -47467,7 +47488,7 @@
         <v>296</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G4" s="53" t="b">
         <v>0</v>
@@ -47496,7 +47517,7 @@
         <v>298</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G5" s="53" t="b">
         <v>0</v>
@@ -47517,13 +47538,13 @@
         <v>299</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>300</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G6" s="53" t="b">
         <v>0</v>
@@ -47548,7 +47569,7 @@
         <v>301</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G7" s="53" t="b">
         <v>0</v>
@@ -47573,7 +47594,7 @@
         <v>302</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G8" s="53" t="b">
         <v>0</v>
@@ -47592,7 +47613,7 @@
         <v>303</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E9" s="53" t="s">
         <v>304</v>
@@ -47619,13 +47640,13 @@
         <v>303</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>306</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G10" s="53" t="b">
         <v>0</v>
@@ -47644,13 +47665,13 @@
         <v>303</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>307</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G11" s="53" t="b">
         <v>0</v>
@@ -47669,13 +47690,13 @@
         <v>303</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>308</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G12" s="53" t="b">
         <v>0</v>
@@ -47864,7 +47885,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="40" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C748D9C-4D2E-4A40-AABF-9A11DDA33488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A482983-B543-F74D-AD49-45E5A735117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="780" windowWidth="30020" windowHeight="17400" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="780" windowWidth="30020" windowHeight="17400" tabRatio="1000" firstSheet="33" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -803,7 +803,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="1591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1592">
   <si>
     <t>Region</t>
   </si>
@@ -4398,9 +4398,6 @@
     <t>Saopaulo</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>Stockholm</t>
   </si>
   <si>
@@ -13716,6 +13713,12 @@
   </si>
   <si>
     <t>BEFORE</t>
+  </si>
+  <si>
+    <t>Singapore-1</t>
+  </si>
+  <si>
+    <t>Singapore-2</t>
   </si>
 </sst>
 </file>
@@ -20077,7 +20080,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20089,7 +20092,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
   </sheetData>
@@ -20131,7 +20134,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -20139,7 +20142,7 @@
       <c r="E1" s="159"/>
       <c r="F1" s="160"/>
       <c r="G1" s="158" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1" s="159"/>
       <c r="I1" s="159"/>
@@ -20434,7 +20437,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{C02492EE-80C6-2D4B-B2A8-1F73E4CDE4B2}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -20471,7 +20474,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -20479,7 +20482,7 @@
       <c r="E1" s="151"/>
       <c r="F1" s="151"/>
       <c r="G1" s="164" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1" s="164"/>
       <c r="I1" s="164"/>
@@ -20498,7 +20501,7 @@
         <v>636</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>637</v>
@@ -20562,13 +20565,13 @@
         <v>570</v>
       </c>
       <c r="D5" s="32" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>1036</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>1037</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>1038</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -20582,16 +20585,16 @@
         <v>347</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>1039</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="33" t="s">
         <v>1040</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>1041</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>1042</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -20629,7 +20632,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{75073129-8483-1742-8343-D3643E2450C7}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -20659,7 +20662,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="40" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B1" s="163"/>
     </row>
@@ -20734,7 +20737,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -20948,7 +20951,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{FEF11C53-D335-2B47-BD49-25BB4075EA23}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -20992,7 +20995,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -21003,7 +21006,7 @@
       <c r="H1" s="159"/>
       <c r="I1" s="160"/>
       <c r="J1" s="165" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="K1" s="165"/>
       <c r="L1" s="165"/>
@@ -21030,7 +21033,7 @@
         <v>309</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>11</v>
@@ -21673,13 +21676,13 @@
         <v>572</v>
       </c>
       <c r="D14" s="53" t="s">
+        <v>923</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>921</v>
+      </c>
+      <c r="F14" s="53" t="s">
         <v>924</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>922</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>925</v>
       </c>
       <c r="G14" s="53" t="s">
         <v>50</v>
@@ -21689,7 +21692,7 @@
       </c>
       <c r="I14" s="53"/>
       <c r="J14" s="53" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K14" s="53"/>
       <c r="L14" s="54" t="s">
@@ -21728,13 +21731,13 @@
         <v>572</v>
       </c>
       <c r="D15" s="53" t="s">
+        <v>926</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>922</v>
+      </c>
+      <c r="F15" s="53" t="s">
         <v>927</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>923</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>928</v>
       </c>
       <c r="G15" s="53" t="s">
         <v>50</v>
@@ -21744,7 +21747,7 @@
       </c>
       <c r="I15" s="53"/>
       <c r="J15" s="53" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
@@ -22146,7 +22149,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{F6B5FF64-79EB-F647-AF58-3ACD2D3ECF4C}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -22183,7 +22186,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -22278,7 +22281,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{02C917AD-965F-CE44-B391-61CA00EAD3C5}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -22314,7 +22317,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -22390,7 +22393,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{4851D205-AFF7-C64A-AC55-3B46FB8F2369}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -22425,7 +22428,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -22545,7 +22548,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{0C6D03CE-0472-0649-919E-DE038BC6238F}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -22586,7 +22589,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -23554,7 +23557,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{247318D2-2019-9549-BBB2-E8CAC8C37C98}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -23590,7 +23593,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
@@ -23609,22 +23612,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>930</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>931</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>932</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>933</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>934</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>417</v>
@@ -23651,19 +23654,19 @@
         <v>347</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>934</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>935</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>936</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>937</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>938</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>939</v>
       </c>
       <c r="H4" s="32">
         <v>3600</v>
@@ -23678,19 +23681,19 @@
         <v>347</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>934</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>935</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>936</v>
-      </c>
       <c r="E5" s="32" t="s">
+        <v>939</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>940</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>941</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>942</v>
       </c>
       <c r="H5" s="32">
         <v>300</v>
@@ -23705,19 +23708,19 @@
         <v>347</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>942</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>943</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="32" t="s">
         <v>944</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="32" t="s">
+        <v>937</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>945</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>938</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>946</v>
       </c>
       <c r="H6" s="32">
         <v>300</v>
@@ -23960,7 +23963,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{A40D579E-39BC-9B40-8694-216E163C1AA1}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -23992,7 +23995,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -24024,7 +24027,7 @@
         <v>548</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>394</v>
@@ -24039,7 +24042,7 @@
         <v>549</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>394</v>
@@ -24054,7 +24057,7 @@
         <v>347</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>394</v>
@@ -24069,7 +24072,7 @@
         <v>550</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>394</v>
@@ -24222,7 +24225,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{56247D25-907C-B746-BC88-69FDA2C38A8E}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -24260,7 +24263,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="167" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B1" s="168"/>
       <c r="C1" s="168"/>
@@ -24287,22 +24290,22 @@
         <v>309</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>946</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>947</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>948</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>949</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>950</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>951</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>952</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>417</v>
@@ -24337,20 +24340,20 @@
         <v>569</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>952</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>953</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>954</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>781</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -24368,16 +24371,16 @@
         <v>571</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>575</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
@@ -24419,7 +24422,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{6E8CD9F5-A255-A445-8615-7B428E03B37F}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -24452,7 +24455,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -24595,7 +24598,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{2CB5ADBE-BDE1-E649-84D6-7AD00826107C}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -24642,7 +24645,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="169" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B1" s="170"/>
       <c r="C1" s="170"/>
@@ -24652,7 +24655,7 @@
       <c r="G1" s="170"/>
       <c r="H1" s="171"/>
       <c r="I1" s="158" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J1" s="159"/>
       <c r="K1" s="159"/>
@@ -24686,7 +24689,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>89</v>
@@ -24713,7 +24716,7 @@
         <v>790</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="P2" s="26" t="s">
         <v>92</v>
@@ -24731,7 +24734,7 @@
         <v>95</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="V2" s="26" t="s">
         <v>417</v>
@@ -24754,7 +24757,7 @@
         <v>346</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G3" s="33" t="b">
         <v>0</v>
@@ -24838,7 +24841,7 @@
         <v>346</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G5" s="54" t="b">
         <v>0</v>
@@ -24857,7 +24860,7 @@
       </c>
       <c r="N5" s="53"/>
       <c r="O5" s="53" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P5" s="53" t="s">
         <v>100</v>
@@ -24871,7 +24874,7 @@
         <v>88</v>
       </c>
       <c r="U5" s="54" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V5" s="53"/>
     </row>
@@ -24892,7 +24895,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G6" s="54" t="b">
         <v>0</v>
@@ -24921,7 +24924,7 @@
       </c>
       <c r="T6" s="53"/>
       <c r="U6" s="54" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="V6" s="53"/>
     </row>
@@ -24942,7 +24945,7 @@
         <v>346</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G7" s="54" t="b">
         <v>0</v>
@@ -24990,7 +24993,7 @@
         <v>98</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G8" s="54" t="b">
         <v>0</v>
@@ -25082,7 +25085,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{187ABB21-3DEE-AD41-AA2C-B74D35F320DB}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -25126,7 +25129,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -25157,7 +25160,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>104</v>
@@ -25178,16 +25181,16 @@
         <v>427</v>
       </c>
       <c r="K2" s="27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>1117</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>1118</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>1119</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>1120</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>791</v>
@@ -25253,19 +25256,19 @@
         <v>793</v>
       </c>
       <c r="J4" s="103" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K4" s="103" t="s">
         <v>1121</v>
-      </c>
-      <c r="K4" s="103" t="s">
-        <v>1122</v>
       </c>
       <c r="L4" s="103">
         <v>100</v>
       </c>
       <c r="M4" s="103" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N4" s="103" t="s">
         <v>1123</v>
-      </c>
-      <c r="N4" s="103" t="s">
-        <v>1124</v>
       </c>
       <c r="O4" s="84" t="b">
         <v>1</v>
@@ -25283,7 +25286,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>391</v>
@@ -25344,7 +25347,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{49246BF5-3287-CB49-B325-C1BAA30D602F}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -25389,7 +25392,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -25403,7 +25406,7 @@
       <c r="K1" s="159"/>
       <c r="L1" s="160"/>
       <c r="M1" s="172" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="N1" s="173"/>
       <c r="O1" s="173"/>
@@ -25429,7 +25432,7 @@
         <v>108</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>109</v>
@@ -25444,13 +25447,13 @@
         <v>111</v>
       </c>
       <c r="J2" s="27" t="s">
+        <v>1125</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>1126</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>1127</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>1128</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>112</v>
@@ -25474,10 +25477,10 @@
         <v>118</v>
       </c>
       <c r="T2" s="27" t="s">
+        <v>1128</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>1129</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>1130</v>
       </c>
       <c r="V2" s="27" t="s">
         <v>417</v>
@@ -25491,7 +25494,7 @@
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -25525,7 +25528,7 @@
         <v>119</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53" t="s">
@@ -25629,7 +25632,7 @@
         <v>119</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -25667,7 +25670,7 @@
         <v>127</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -25709,7 +25712,7 @@
         <v>130</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -25751,7 +25754,7 @@
         <v>132</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -25786,10 +25789,10 @@
         <v>87</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -25825,7 +25828,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
@@ -25873,7 +25876,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{7DE404B7-0E26-3942-950A-9C93DC3C072C}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -25932,7 +25935,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -25949,7 +25952,7 @@
       <c r="N1" s="159"/>
       <c r="O1" s="160"/>
       <c r="P1" s="169" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Q1" s="170"/>
       <c r="R1" s="170"/>
@@ -25982,7 +25985,7 @@
         <v>856</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>857</v>
@@ -25994,10 +25997,10 @@
         <v>859</v>
       </c>
       <c r="H2" s="27" t="s">
+        <v>1216</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>1217</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>1218</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>860</v>
@@ -26012,7 +26015,7 @@
         <v>863</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>864</v>
@@ -26036,13 +26039,13 @@
         <v>866</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="W2" s="27" t="s">
         <v>81</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Y2" s="27" t="s">
         <v>867</v>
@@ -26051,7 +26054,7 @@
         <v>868</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AB2" s="27" t="s">
         <v>869</v>
@@ -26069,13 +26072,13 @@
         <v>871</v>
       </c>
       <c r="AG2" s="27" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AH2" s="27" t="s">
         <v>1074</v>
       </c>
-      <c r="AH2" s="27" t="s">
-        <v>1075</v>
-      </c>
       <c r="AI2" s="27" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26128,10 +26131,10 @@
         <v>872</v>
       </c>
       <c r="D4" s="95" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E4" s="95" t="s">
         <v>1076</v>
-      </c>
-      <c r="E4" s="95" t="s">
-        <v>1077</v>
       </c>
       <c r="F4" s="95" t="s">
         <v>874</v>
@@ -26140,10 +26143,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="95" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I4" s="95" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="J4" s="54" t="b">
         <v>0</v>
@@ -26158,10 +26161,10 @@
         <v>884</v>
       </c>
       <c r="N4" s="95" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="O4" s="95" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="P4" s="95">
         <v>1</v>
@@ -26182,13 +26185,13 @@
         <v>886</v>
       </c>
       <c r="V4" s="95" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W4" s="95" t="s">
         <v>96</v>
       </c>
       <c r="X4" s="95" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Y4" s="95"/>
       <c r="Z4" s="95"/>
@@ -26223,10 +26226,10 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
       <c r="N5" s="54" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="O5" s="95" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="P5" s="54">
         <v>2</v>
@@ -26245,13 +26248,13 @@
       </c>
       <c r="U5" s="54"/>
       <c r="V5" s="95" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W5" s="54" t="s">
         <v>87</v>
       </c>
       <c r="X5" s="95" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Y5" s="54"/>
       <c r="Z5" s="54"/>
@@ -26280,10 +26283,10 @@
         <v>882</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>883</v>
@@ -26292,10 +26295,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="95" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I6" s="95" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="J6" s="54" t="b">
         <v>0</v>
@@ -26304,10 +26307,10 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="O6" s="95" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="P6" s="54">
         <v>1</v>
@@ -26328,20 +26331,20 @@
         <v>886</v>
       </c>
       <c r="V6" s="95" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="W6" s="54" t="s">
         <v>96</v>
       </c>
       <c r="X6" s="95" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Y6" s="54">
         <v>2</v>
       </c>
       <c r="Z6" s="54"/>
       <c r="AA6" s="95" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AB6" s="97"/>
       <c r="AC6" s="54" t="s">
@@ -26353,7 +26356,7 @@
       <c r="AG6" s="53"/>
       <c r="AH6" s="53"/>
       <c r="AI6" s="54" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
   </sheetData>
@@ -26389,7 +26392,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{134FA7BA-8974-C84E-A301-6D079F07E6E9}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -26428,7 +26431,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -26469,7 +26472,7 @@
         <v>648</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>135</v>
@@ -26544,7 +26547,7 @@
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
       <c r="G4" s="54" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H4" s="54" t="b">
         <v>1</v>
@@ -26618,7 +26621,7 @@
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="54" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H6" s="54" t="b">
         <v>0</v>
@@ -26691,7 +26694,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{52273FF6-9C05-5845-9080-386F622896EB}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -26731,7 +26734,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -26775,7 +26778,7 @@
         <v>152</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>153</v>
@@ -26865,7 +26868,7 @@
         <v>163</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>164</v>
@@ -26925,7 +26928,7 @@
         <v>169</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>164</v>
@@ -26973,7 +26976,7 @@
         <v>172</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>164</v>
@@ -27053,7 +27056,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{DC59DF1B-EE6D-E349-B471-DC6BEA4554A4}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -27089,7 +27092,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -27316,7 +27319,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI Region" xr:uid="{968E9180-0B46-4543-A4CA-C12485448737}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$43</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$44</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
@@ -27328,7 +27331,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{745B86F0-C782-EE4F-A610-AA5A83A9C20C}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -27999,7 +28002,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
       <c r="J23" s="53" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K23" s="53"/>
       <c r="L23" s="53"/>
@@ -28065,7 +28068,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{46843318-60DB-4543-8631-3AA01DCBD7B8}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -28099,7 +28102,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="40" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="152" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B1" s="153"/>
       <c r="C1" s="153"/>
@@ -28119,10 +28122,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="111" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E2" s="111" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F2" s="132" t="s">
         <v>422</v>
@@ -28139,7 +28142,7 @@
         <v>551</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
@@ -28154,7 +28157,7 @@
         <v>826</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
@@ -28184,7 +28187,7 @@
         <v>554</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
@@ -28199,7 +28202,7 @@
         <v>555</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="19"/>
@@ -28214,7 +28217,7 @@
         <v>556</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="32"/>
@@ -28229,7 +28232,7 @@
         <v>557</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -28259,7 +28262,7 @@
         <v>642</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -28300,7 +28303,7 @@
         <v>827</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="6"/>
@@ -28317,7 +28320,7 @@
         <v>829</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -28334,7 +28337,7 @@
         <v>831</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -28380,7 +28383,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{B0487BCD-D4CA-1442-B82F-DD1A846539F7}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -28542,7 +28545,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{0C5598D6-15C8-7D4D-95D2-ABF4E0DEE547}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -28570,7 +28573,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="165" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B1" s="153"/>
       <c r="C1" s="153"/>
@@ -28584,10 +28587,10 @@
         <v>134</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
@@ -28606,10 +28609,10 @@
         <v>392</v>
       </c>
       <c r="C4" s="54" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>1202</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -28620,10 +28623,10 @@
         <v>392</v>
       </c>
       <c r="C5" s="54" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>1204</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>1205</v>
       </c>
     </row>
   </sheetData>
@@ -28643,7 +28646,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{0F367800-FC26-754D-911E-B484E24E4E26}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -28709,7 +28712,7 @@
         <v>804</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>817</v>
@@ -28771,13 +28774,13 @@
         <v>807</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E4" s="54" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G4" s="54" t="b">
         <v>1</v>
@@ -28809,7 +28812,7 @@
         <v>811</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E5" s="54" t="b">
         <v>1</v>
@@ -29211,7 +29214,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{2131AD39-DE5F-2240-9D65-64F1B3085586}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -29280,10 +29283,10 @@
         <v>806</v>
       </c>
       <c r="G2" s="27" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>1131</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>1132</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>155</v>
@@ -29295,7 +29298,7 @@
         <v>438</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -29347,7 +29350,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -29381,7 +29384,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -29398,10 +29401,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="54" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>1133</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>1134</v>
       </c>
       <c r="I6" s="54">
         <v>53</v>
@@ -29411,7 +29414,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
@@ -29437,7 +29440,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{84ED8240-5EAB-9E4F-8552-DC93E6E0A0D1}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -29474,7 +29477,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -29503,7 +29506,7 @@
         <v>845</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>846</v>
@@ -29573,7 +29576,7 @@
         <v>849</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E4" s="86"/>
       <c r="F4" s="85" t="s">
@@ -29662,7 +29665,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{E5D57868-C9F9-7148-A51E-DE3261171F79}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -29706,7 +29709,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -29746,7 +29749,7 @@
         <v>81</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>709</v>
@@ -29860,7 +29863,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E4" s="89" t="s">
         <v>741</v>
@@ -29935,7 +29938,7 @@
         <v>87</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E5" s="99" t="s">
         <v>743</v>
@@ -33062,17 +33065,17 @@
           </x14:formula1>
           <xm:sqref>D3:D1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{078EDE65-3349-6448-8945-1137FDA3311B}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{DE248157-A181-134D-82D9-615D0DF6BE0D}">
           <x14:formula1>
             <xm:f>Database_Dropdown!$F$2:F$3</xm:f>
           </x14:formula1>
           <xm:sqref>M3:M1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{078EDE65-3349-6448-8945-1137FDA3311B}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -33103,7 +33106,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -33165,7 +33168,7 @@
         <v>55</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F4" s="54">
         <v>2</v>
@@ -33210,7 +33213,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{F5C6227C-F9EE-614B-BEC7-8DE2C2F88743}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -33266,7 +33269,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="169" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B1" s="170"/>
       <c r="C1" s="170"/>
@@ -33310,10 +33313,10 @@
         <v>732</v>
       </c>
       <c r="E2" s="66" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F2" s="66" t="s">
         <v>1226</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>1227</v>
       </c>
       <c r="G2" s="66" t="s">
         <v>711</v>
@@ -33328,16 +33331,16 @@
         <v>733</v>
       </c>
       <c r="K2" s="66" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L2" s="66" t="s">
         <v>1055</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="M2" s="66" t="s">
         <v>1056</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="N2" s="66" t="s">
         <v>1057</v>
-      </c>
-      <c r="N2" s="66" t="s">
-        <v>1058</v>
       </c>
       <c r="O2" s="66" t="s">
         <v>734</v>
@@ -33406,10 +33409,10 @@
         <v>753</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G4" s="53">
         <v>4</v>
@@ -33433,7 +33436,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="90" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="O4" s="90" t="b">
         <v>1</v>
@@ -33455,7 +33458,7 @@
     </row>
     <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -33504,7 +33507,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{FCBDCA8A-5145-3D4B-A0FB-B8F6963E4EDC}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -33545,7 +33548,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="177" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B1" s="178"/>
       <c r="C1" s="178"/>
@@ -33574,46 +33577,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="34" t="s">
+        <v>959</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E2" s="123" t="s">
         <v>960</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E2" s="123" t="s">
+      <c r="F2" s="123" t="s">
         <v>961</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="G2" s="34" t="s">
         <v>962</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="123" t="s">
         <v>963</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="I2" s="34" t="s">
         <v>964</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>965</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>966</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="124" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M2" s="125" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N2" s="34" t="s">
         <v>967</v>
       </c>
-      <c r="L2" s="124" t="s">
-        <v>1053</v>
-      </c>
-      <c r="M2" s="125" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>968</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>969</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>970</v>
       </c>
       <c r="Q2" s="34" t="s">
         <v>92</v>
@@ -33630,49 +33633,49 @@
         <v>548</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>1135</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>1136</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>1137</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>1138</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>1139</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>1140</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K3" s="32">
         <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M3" t="s">
         <v>1142</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1143</v>
       </c>
       <c r="N3" s="32">
         <v>3</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="P3" s="32" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R3" s="28"/>
     </row>
@@ -33684,18 +33687,18 @@
         <v>548</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>1146</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>1147</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>1139</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>1140</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>55</v>
@@ -33712,7 +33715,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="P4" s="32" t="b">
         <v>0</v>
@@ -33780,7 +33783,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{AB039DDF-1F03-1646-BE29-9FD28FC8B15A}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -33822,7 +33825,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="169" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B1" s="178"/>
       <c r="C1" s="178"/>
@@ -33843,43 +33846,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C2" s="123" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>970</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>971</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>972</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="34" t="s">
         <v>973</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="34" t="s">
         <v>974</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="34" t="s">
         <v>975</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>976</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>977</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>978</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>979</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>980</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>981</v>
       </c>
       <c r="O2" s="48"/>
     </row>
@@ -33888,43 +33891,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D3" s="32" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>1149</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>1150</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>1151</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>1152</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>1153</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>1154</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>1155</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="L3" s="32" t="s">
         <v>1156</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="M3" s="32" t="s">
         <v>1157</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="N3" s="32" t="s">
         <v>1158</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>1159</v>
       </c>
       <c r="O3" s="126"/>
     </row>
@@ -33933,41 +33936,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>1151</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="H4" s="32" t="s">
         <v>1152</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>1153</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="J4" s="32" t="s">
         <v>1154</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="K4" s="32" t="s">
         <v>1155</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="L4" s="32" t="s">
         <v>1156</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="M4" s="32" t="s">
         <v>1157</v>
       </c>
-      <c r="M4" s="32" t="s">
-        <v>1158</v>
-      </c>
       <c r="N4" s="32" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="O4" s="126"/>
     </row>
@@ -34030,7 +34033,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{EA4E0C74-8FC0-854D-A06B-5044A442CE1F}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -34064,7 +34067,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="40" customFormat="1" ht="166" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1" s="153"/>
       <c r="C1" s="153"/>
@@ -34079,22 +34082,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>1234</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1235</v>
-      </c>
       <c r="G2" s="133" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>417</v>
@@ -35013,7 +35016,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{9A74CEB6-9D08-984C-BFE9-B77FF6428DE0}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -35059,7 +35062,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="281.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="180" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1" s="181"/>
       <c r="C1" s="181"/>
@@ -35087,49 +35090,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>981</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>982</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>984</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>985</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>986</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>988</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>989</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="27" t="s">
         <v>991</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>992</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>993</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>994</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>995</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>996</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>417</v>
@@ -35148,43 +35151,43 @@
         <v>548</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>996</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>997</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>998</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
+        <v>998</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>999</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>999</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>1000</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="29" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>1001</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>1002</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="L4" s="28" t="s">
         <v>1003</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>1004</v>
       </c>
       <c r="M4" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="29" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O4" s="28" t="s">
         <v>1005</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>1006</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
@@ -35197,40 +35200,40 @@
         <v>548</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>996</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>997</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="E5" s="33" t="s">
         <v>998</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="33" t="s">
+        <v>998</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>999</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>999</v>
-      </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" s="33" t="s">
         <v>1000</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>1001</v>
-      </c>
       <c r="I5" s="29" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="K5" s="28" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L5" s="28" t="s">
         <v>1007</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>1008</v>
       </c>
       <c r="M5" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
@@ -35244,22 +35247,22 @@
         <v>548</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D6" s="33" t="s">
+        <v>997</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>998</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="33" t="s">
+        <v>998</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>999</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>999</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="H6" s="33" t="s">
         <v>1000</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>1001</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="28"/>
@@ -35279,38 +35282,38 @@
         <v>548</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>997</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>998</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>998</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>999</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="29" t="s">
         <v>1043</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>998</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>999</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>999</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>1044</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M7" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
@@ -35396,7 +35399,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{144F38CB-5405-5948-887D-D7460E0C8C77}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -35437,7 +35440,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -35446,7 +35449,7 @@
       <c r="F1" s="151"/>
       <c r="G1" s="151"/>
       <c r="H1" s="165" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I1" s="151"/>
       <c r="J1" s="151"/>
@@ -35461,46 +35464,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C2" s="128" t="s">
         <v>1163</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="D2" s="15" t="s">
         <v>1164</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>1165</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H2" s="93" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J2" s="129" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M2" s="130" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>1166</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>1168</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>1170</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J2" s="129" t="s">
-        <v>1172</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>1173</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>1174</v>
-      </c>
-      <c r="M2" s="130" t="s">
+      <c r="O2" s="15" t="s">
         <v>1175</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>1167</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -35530,23 +35533,23 @@
         <v>550</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>1177</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>1178</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
         <v>550</v>
       </c>
       <c r="G4" s="32" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>1179</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>1180</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>1181</v>
       </c>
       <c r="J4" s="131">
         <v>256</v>
@@ -35567,19 +35570,19 @@
         <v>548</v>
       </c>
       <c r="G5" s="32" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>1182</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="I5" s="32" t="s">
         <v>1183</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>1184</v>
       </c>
       <c r="J5" s="131">
         <v>384</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="131"/>
@@ -35594,10 +35597,10 @@
         <v>550</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>1186</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>1187</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>5</v>
@@ -35606,13 +35609,13 @@
         <v>550</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="J6" s="131">
         <v>128</v>
@@ -35637,13 +35640,13 @@
         <v>548</v>
       </c>
       <c r="G7" s="32" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>1182</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>1183</v>
-      </c>
       <c r="I7" s="32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="J7" s="131">
         <v>3072</v>
@@ -35664,19 +35667,19 @@
         <v>549</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="J8" s="131">
         <v>521</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="L8" s="32" t="b">
         <v>1</v>
@@ -36692,7 +36695,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{B12BFBE8-05BA-DC44-9412-0468DA470336}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576 E3:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -36747,7 +36750,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="183" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B1" s="178"/>
       <c r="C1" s="178"/>
@@ -36757,7 +36760,7 @@
       <c r="G1" s="178"/>
       <c r="H1" s="179"/>
       <c r="I1" s="169" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="J1" s="170"/>
       <c r="K1" s="170"/>
@@ -36794,10 +36797,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>1539</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>1540</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>81</v>
@@ -36806,64 +36809,64 @@
         <v>83</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>82</v>
       </c>
       <c r="K2" s="35" t="s">
+        <v>1540</v>
+      </c>
+      <c r="L2" s="35" t="s">
         <v>1541</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>1542</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="34" t="s">
+        <v>1542</v>
+      </c>
+      <c r="O2" s="34" t="s">
         <v>1543</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>1544</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>1545</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>1546</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>1547</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="T2" s="34" t="s">
         <v>1548</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="U2" s="34" t="s">
         <v>1549</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>1550</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>1551</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>1552</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="Y2" s="34" t="s">
         <v>1553</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Z2" s="34" t="s">
         <v>1554</v>
-      </c>
-      <c r="Z2" s="34" t="s">
-        <v>1555</v>
       </c>
       <c r="AA2" s="34" t="s">
         <v>75</v>
       </c>
       <c r="AB2" s="34" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="AC2" s="35" t="s">
         <v>417</v>
@@ -36910,16 +36913,16 @@
         <v>549</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>1557</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>1558</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>1559</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1560</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>55</v>
@@ -36928,58 +36931,58 @@
         <v>346</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="33" t="s">
+        <v>1561</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>1562</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="O4" s="18" t="s">
+        <v>1562</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>1563</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>1563</v>
-      </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>1564</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>1565</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="S4" s="18" t="s">
         <v>1566</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>1567</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>1568</v>
       </c>
       <c r="U4" s="18" t="s">
         <v>190</v>
       </c>
       <c r="V4" s="18" t="s">
+        <v>1568</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>1559</v>
+      </c>
+      <c r="X4" s="149" t="s">
         <v>1569</v>
       </c>
-      <c r="W4" s="18" t="s">
-        <v>1560</v>
-      </c>
-      <c r="X4" s="149" t="s">
+      <c r="Y4" s="18" t="s">
         <v>1570</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>1571</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>1572</v>
       </c>
       <c r="AA4" s="18"/>
       <c r="AB4" s="6" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="AC4" s="18"/>
     </row>
@@ -36991,16 +36994,16 @@
         <v>549</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>1574</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>1575</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>1576</v>
-      </c>
       <c r="F5" s="32" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>87</v>
@@ -37009,56 +37012,56 @@
         <v>101</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
       <c r="N5" s="32" t="s">
+        <v>1562</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>1562</v>
+      </c>
+      <c r="P5" s="32" t="s">
         <v>1563</v>
       </c>
-      <c r="O5" s="32" t="s">
-        <v>1563</v>
-      </c>
-      <c r="P5" s="32" t="s">
+      <c r="Q5" s="32" t="s">
         <v>1564</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>1565</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
         <v>1566</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="T5" s="32" t="s">
         <v>1567</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>1568</v>
       </c>
       <c r="U5" s="32" t="s">
         <v>190</v>
       </c>
       <c r="V5" s="32" t="s">
+        <v>1568</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>1559</v>
+      </c>
+      <c r="X5" s="32" t="s">
         <v>1569</v>
       </c>
-      <c r="W5" s="32" t="s">
-        <v>1560</v>
-      </c>
-      <c r="X5" s="32" t="s">
+      <c r="Y5" s="32" t="s">
         <v>1570</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Z5" s="32" t="s">
         <v>1571</v>
-      </c>
-      <c r="Z5" s="32" t="s">
-        <v>1572</v>
       </c>
       <c r="AA5" s="32"/>
       <c r="AB5" s="33" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="AC5" s="32"/>
     </row>
@@ -42961,7 +42964,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{BA9FE1E1-62DA-F142-90AF-9F81FA40CA0A}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -42990,7 +42993,7 @@
   </sheetPr>
   <dimension ref="A1:CC137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -43027,7 +43030,7 @@
   <sheetData>
     <row r="1" spans="1:81" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -43053,13 +43056,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>1579</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>1580</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>1581</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>417</v>
@@ -43082,23 +43085,23 @@
     </row>
     <row r="4" spans="1:81" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>549</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F4" s="32" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>1583</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>1584</v>
       </c>
       <c r="H4" s="32"/>
     </row>
@@ -43109,32 +43112,32 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>1585</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>1586</v>
       </c>
       <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:81" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>549</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F6" s="32" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>1583</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>1584</v>
       </c>
       <c r="H6" s="32"/>
     </row>
@@ -43145,10 +43148,10 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>1587</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>1588</v>
       </c>
       <c r="H7" s="32"/>
     </row>
@@ -43159,10 +43162,10 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>1589</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>1590</v>
       </c>
       <c r="H8" s="32"/>
     </row>
@@ -44350,7 +44353,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{421688BD-4F29-1842-B73F-AED57B2D8AB5}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -44661,7 +44664,7 @@
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F12" s="33"/>
       <c r="H12" s="33" t="s">
@@ -44678,7 +44681,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F13" s="33"/>
       <c r="H13" s="33" t="s">
@@ -45511,9 +45514,11 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:AV201"/>
+  <dimension ref="A1:AV202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -45572,25 +45577,25 @@
         <v>651</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F1" s="65" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>1013</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="H1" s="65" t="s">
         <v>1014</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="I1" s="65" t="s">
         <v>1015</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="J1" s="65" t="s">
         <v>1016</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>1017</v>
       </c>
       <c r="K1" s="65" t="s">
         <v>653</v>
@@ -45698,13 +45703,13 @@
         <v>888</v>
       </c>
       <c r="AT1" s="56" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AU1" s="56" t="s">
         <v>652</v>
       </c>
       <c r="AV1" s="56" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="58" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -45750,7 +45755,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="134" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="M2" s="59" t="s">
         <v>38</v>
@@ -45889,11 +45894,11 @@
         <v>Network@hub-vcn::pub-infra</v>
       </c>
       <c r="F3" s="58" t="str">
-        <f t="shared" ref="F3:F66" ca="1" si="0">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ref="F3:F67" ca="1" si="0">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="G3" s="58">
-        <f ca="1">COUNTIF($I$2:$I$100,"*")</f>
+        <f ca="1">COUNTIF($I$2:$I$101,"*")</f>
         <v>10</v>
       </c>
       <c r="H3" s="58">
@@ -46014,7 +46019,7 @@
         <v>VCN::prod-vcn</v>
       </c>
       <c r="AU3" s="106" t="str">
-        <f t="shared" ref="AU3:AU66" ca="1" si="1">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ref="AU3:AU67" ca="1" si="1">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v>pub-infra</v>
       </c>
       <c r="AV3" s="58" t="str">
@@ -46047,7 +46052,7 @@
         <v/>
       </c>
       <c r="G4" s="58">
-        <f ca="1">COUNTIF($J$2:$J$100,"*")</f>
+        <f ca="1">COUNTIF($J$2:$J$101,"*")</f>
         <v>1</v>
       </c>
       <c r="H4" s="58">
@@ -46273,7 +46278,7 @@
         <v/>
       </c>
       <c r="G6" s="58">
-        <f ca="1">COUNTIF($D$2:$D$100,"*")</f>
+        <f ca="1">COUNTIF($D$2:$D$101,"*")</f>
         <v>4</v>
       </c>
       <c r="H6" s="58">
@@ -46285,7 +46290,7 @@
       </c>
       <c r="K6" s="59"/>
       <c r="L6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="M6" s="59"/>
       <c r="N6" s="59"/>
@@ -47079,7 +47084,7 @@
       </c>
       <c r="K16" s="59"/>
       <c r="L16" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="59"/>
@@ -47569,7 +47574,7 @@
       </c>
       <c r="K23" s="59"/>
       <c r="L23" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -47709,7 +47714,7 @@
       </c>
       <c r="K25" s="59"/>
       <c r="L25" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="M25" s="59"/>
       <c r="N25" s="59"/>
@@ -48059,7 +48064,7 @@
       </c>
       <c r="K30" s="59"/>
       <c r="L30" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="M30" s="59"/>
       <c r="N30" s="59"/>
@@ -48409,7 +48414,7 @@
       </c>
       <c r="K35" s="59"/>
       <c r="L35" t="s">
-        <v>909</v>
+        <v>1590</v>
       </c>
       <c r="M35" s="59"/>
       <c r="N35" s="59"/>
@@ -48459,54 +48464,24 @@
       </c>
     </row>
     <row r="36" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58">
-        <v>37</v>
-      </c>
-      <c r="B36" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="B36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C36" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="C36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="F36" s="58" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="H36" s="58">
-        <v>35</v>
-      </c>
       <c r="K36" s="59"/>
       <c r="L36" t="s">
-        <v>910</v>
+        <v>1591</v>
       </c>
       <c r="M36" s="59"/>
       <c r="N36" s="59"/>
       <c r="O36" s="59"/>
-      <c r="P36" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="P36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
+      <c r="P36" s="59"/>
       <c r="Q36" s="59"/>
-      <c r="R36" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="R36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
+      <c r="R36" s="59"/>
       <c r="S36" s="59"/>
       <c r="T36" s="59"/>
       <c r="U36" s="59"/>
       <c r="V36" s="59"/>
       <c r="W36" s="59"/>
       <c r="X36" s="59"/>
-      <c r="Y36" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="Y36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="Z36" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="Z36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A36,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A36,4,4,1,"instances")))</f>
-        <v/>
-      </c>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
       <c r="AA36" s="59"/>
       <c r="AB36" s="59"/>
       <c r="AC36" s="59"/>
@@ -48516,21 +48491,16 @@
       <c r="AG36" s="59"/>
       <c r="AH36" s="59"/>
       <c r="AI36" s="59"/>
-      <c r="AJ36" s="59" t="s">
-        <v>191</v>
-      </c>
+      <c r="AJ36" s="59"/>
       <c r="AK36" s="62"/>
       <c r="AL36" s="59"/>
       <c r="AM36" s="59"/>
       <c r="AN36" s="59"/>
-      <c r="AU36" s="106" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
+      <c r="AU36" s="106"/>
     </row>
     <row r="37" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="58">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
@@ -48545,11 +48515,11 @@
         <v/>
       </c>
       <c r="H37" s="58">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K37" s="59"/>
       <c r="L37" t="s">
-        <v>698</v>
+        <v>909</v>
       </c>
       <c r="M37" s="59"/>
       <c r="N37" s="59"/>
@@ -48587,7 +48557,7 @@
       <c r="AH37" s="59"/>
       <c r="AI37" s="59"/>
       <c r="AJ37" s="59" t="s">
-        <v>285</v>
+        <v>191</v>
       </c>
       <c r="AK37" s="62"/>
       <c r="AL37" s="59"/>
@@ -48600,7 +48570,7 @@
     </row>
     <row r="38" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="58">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
@@ -48615,11 +48585,11 @@
         <v/>
       </c>
       <c r="H38" s="58">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K38" s="59"/>
       <c r="L38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M38" s="59"/>
       <c r="N38" s="59"/>
@@ -48657,7 +48627,7 @@
       <c r="AH38" s="59"/>
       <c r="AI38" s="59"/>
       <c r="AJ38" s="59" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="AK38" s="62"/>
       <c r="AL38" s="59"/>
@@ -48670,7 +48640,7 @@
     </row>
     <row r="39" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="58">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
@@ -48685,11 +48655,11 @@
         <v/>
       </c>
       <c r="H39" s="58">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K39" s="59"/>
       <c r="L39" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M39" s="59"/>
       <c r="N39" s="59"/>
@@ -48727,7 +48697,7 @@
       <c r="AH39" s="59"/>
       <c r="AI39" s="59"/>
       <c r="AJ39" s="59" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="AK39" s="62"/>
       <c r="AL39" s="59"/>
@@ -48740,7 +48710,7 @@
     </row>
     <row r="40" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="58">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
@@ -48755,11 +48725,11 @@
         <v/>
       </c>
       <c r="H40" s="58">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K40" s="59"/>
-      <c r="L40" s="64" t="s">
-        <v>1253</v>
+      <c r="L40" t="s">
+        <v>700</v>
       </c>
       <c r="M40" s="59"/>
       <c r="N40" s="59"/>
@@ -48793,10 +48763,11 @@
       <c r="AD40" s="59"/>
       <c r="AE40" s="59"/>
       <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
       <c r="AH40" s="59"/>
       <c r="AI40" s="59"/>
       <c r="AJ40" s="59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AK40" s="62"/>
       <c r="AL40" s="59"/>
@@ -48809,7 +48780,7 @@
     </row>
     <row r="41" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="58">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
@@ -48824,19 +48795,30 @@
         <v/>
       </c>
       <c r="H41" s="58">
-        <v>40</v>
-      </c>
-      <c r="L41" t="s">
-        <v>701</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="K41" s="59"/>
+      <c r="L41" s="64" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
       <c r="P41" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"DHCP")))</f>
         <v/>
       </c>
+      <c r="Q41" s="59"/>
       <c r="R41" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="R41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DRGs")))</f>
         <v/>
       </c>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
       <c r="Y41" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="Y41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DedicatedVMHosts")))</f>
         <v/>
@@ -48845,7 +48827,21 @@
         <f t="array" aca="1" ref="Z41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AK41" s="63"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK41" s="62"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
       <c r="AU41" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -48853,7 +48849,7 @@
     </row>
     <row r="42" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="58">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
@@ -48868,10 +48864,10 @@
         <v/>
       </c>
       <c r="H42" s="58">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L42" t="s">
-        <v>906</v>
+        <v>701</v>
       </c>
       <c r="P42" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"DHCP")))</f>
@@ -48889,6 +48885,7 @@
         <f t="array" aca="1" ref="Z42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"instances")))</f>
         <v/>
       </c>
+      <c r="AK42" s="63"/>
       <c r="AU42" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -48896,7 +48893,7 @@
     </row>
     <row r="43" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="58">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
@@ -48911,10 +48908,10 @@
         <v/>
       </c>
       <c r="H43" s="58">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L43" t="s">
-        <v>702</v>
+        <v>906</v>
       </c>
       <c r="P43" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"DHCP")))</f>
@@ -48939,7 +48936,7 @@
     </row>
     <row r="44" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="58">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
@@ -48954,10 +48951,10 @@
         <v/>
       </c>
       <c r="H44" s="58">
-        <v>43</v>
-      </c>
-      <c r="L44" s="58" t="s">
-        <v>1254</v>
+        <v>42</v>
+      </c>
+      <c r="L44" t="s">
+        <v>702</v>
       </c>
       <c r="P44" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"DHCP")))</f>
@@ -48982,7 +48979,7 @@
     </row>
     <row r="45" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="58">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
@@ -48997,10 +48994,10 @@
         <v/>
       </c>
       <c r="H45" s="58">
-        <v>44</v>
-      </c>
-      <c r="L45" t="s">
-        <v>900</v>
+        <v>43</v>
+      </c>
+      <c r="L45" s="58" t="s">
+        <v>1253</v>
       </c>
       <c r="P45" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"DHCP")))</f>
@@ -49025,7 +49022,7 @@
     </row>
     <row r="46" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="58">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
@@ -49040,10 +49037,10 @@
         <v/>
       </c>
       <c r="H46" s="58">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L46" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P46" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"DHCP")))</f>
@@ -49068,7 +49065,7 @@
     </row>
     <row r="47" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="58">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
@@ -49083,10 +49080,10 @@
         <v/>
       </c>
       <c r="H47" s="58">
-        <v>46</v>
-      </c>
-      <c r="L47" s="40" t="s">
-        <v>1255</v>
+        <v>45</v>
+      </c>
+      <c r="L47" t="s">
+        <v>901</v>
       </c>
       <c r="P47" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"DHCP")))</f>
@@ -49111,7 +49108,7 @@
     </row>
     <row r="48" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="58">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
@@ -49126,10 +49123,10 @@
         <v/>
       </c>
       <c r="H48" s="58">
-        <v>47</v>
-      </c>
-      <c r="L48" t="s">
-        <v>893</v>
+        <v>46</v>
+      </c>
+      <c r="L48" s="40" t="s">
+        <v>1254</v>
       </c>
       <c r="P48" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"DHCP")))</f>
@@ -49154,7 +49151,7 @@
     </row>
     <row r="49" spans="1:48" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="58">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
@@ -49169,10 +49166,10 @@
         <v/>
       </c>
       <c r="H49" s="58">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="P49" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"DHCP")))</f>
@@ -49196,40 +49193,64 @@
       </c>
     </row>
     <row r="50" spans="1:48" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="58">
+        <v>50</v>
+      </c>
+      <c r="B50" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A50,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A50,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C50" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A50,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A50,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
       <c r="F50" s="58" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H50" s="58">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L50" t="s">
-        <v>897</v>
-      </c>
-      <c r="AG50" s="64"/>
+        <v>895</v>
+      </c>
+      <c r="P50" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="P50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A50,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A50,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="R50" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="R50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A50,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A50,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="Y50" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="Y50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A50,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A50,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="Z50" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="Z50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A50,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A50,4,4,1,"instances")))</f>
+        <v/>
+      </c>
       <c r="AU50" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:48" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F51" s="58" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H51" s="58">
-        <v>50</v>
-      </c>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="L51" s="40" t="s">
-        <v>1256</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="L51" t="s">
+        <v>897</v>
+      </c>
+      <c r="AG51" s="64"/>
       <c r="AU51" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="AV51" s="58"/>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="F52" s="58" t="str">
@@ -49237,12 +49258,12 @@
         <v/>
       </c>
       <c r="H52" s="58">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I52" s="58"/>
       <c r="J52" s="58"/>
-      <c r="L52" t="s">
-        <v>896</v>
+      <c r="L52" s="40" t="s">
+        <v>1255</v>
       </c>
       <c r="AU52" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -49256,12 +49277,12 @@
         <v/>
       </c>
       <c r="H53" s="58">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I53" s="58"/>
       <c r="J53" s="58"/>
       <c r="L53" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="AU53" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -49275,12 +49296,12 @@
         <v/>
       </c>
       <c r="H54" s="58">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I54" s="58"/>
       <c r="J54" s="58"/>
-      <c r="L54" s="64" t="s">
-        <v>4</v>
+      <c r="L54" t="s">
+        <v>894</v>
       </c>
       <c r="AU54" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -49294,10 +49315,13 @@
         <v/>
       </c>
       <c r="H55" s="58">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I55" s="58"/>
       <c r="J55" s="58"/>
+      <c r="L55" s="64" t="s">
+        <v>4</v>
+      </c>
       <c r="AU55" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -49310,7 +49334,7 @@
         <v/>
       </c>
       <c r="H56" s="58">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I56" s="58"/>
       <c r="J56" s="58"/>
@@ -49326,7 +49350,7 @@
         <v/>
       </c>
       <c r="H57" s="58">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I57" s="58"/>
       <c r="J57" s="58"/>
@@ -49342,7 +49366,7 @@
         <v/>
       </c>
       <c r="H58" s="58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I58" s="58"/>
       <c r="J58" s="58"/>
@@ -49358,7 +49382,7 @@
         <v/>
       </c>
       <c r="H59" s="58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I59" s="58"/>
       <c r="J59" s="58"/>
@@ -49374,7 +49398,7 @@
         <v/>
       </c>
       <c r="H60" s="58">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I60" s="58"/>
       <c r="J60" s="58"/>
@@ -49390,7 +49414,7 @@
         <v/>
       </c>
       <c r="H61" s="58">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I61" s="58"/>
       <c r="J61" s="58"/>
@@ -49406,7 +49430,7 @@
         <v/>
       </c>
       <c r="H62" s="58">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I62" s="58"/>
       <c r="J62" s="58"/>
@@ -49422,7 +49446,7 @@
         <v/>
       </c>
       <c r="H63" s="58">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I63" s="58"/>
       <c r="J63" s="58"/>
@@ -49438,7 +49462,7 @@
         <v/>
       </c>
       <c r="H64" s="58">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I64" s="58"/>
       <c r="J64" s="58"/>
@@ -49454,7 +49478,7 @@
         <v/>
       </c>
       <c r="H65" s="58">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I65" s="58"/>
       <c r="J65" s="58"/>
@@ -49470,7 +49494,7 @@
         <v/>
       </c>
       <c r="H66" s="58">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I66" s="58"/>
       <c r="J66" s="58"/>
@@ -49482,32 +49506,32 @@
     </row>
     <row r="67" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F67" s="58" t="str">
-        <f t="shared" ref="F67:F130" ca="1" si="2">_xlfn.IFNA(IF($H67+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H67+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H67+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H67" s="58">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I67" s="58"/>
       <c r="J67" s="58"/>
       <c r="AU67" s="106" t="str">
-        <f t="shared" ref="AU67:AU130" ca="1" si="3">_xlfn.IFNA(IF($H67+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H67+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H67+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AV67" s="58"/>
     </row>
     <row r="68" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F68" s="58" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="F68:F131" ca="1" si="2">_xlfn.IFNA(IF($H68+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H68+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H68+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="H68" s="58">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I68" s="58"/>
       <c r="J68" s="58"/>
       <c r="AU68" s="106" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="AU68:AU131" ca="1" si="3">_xlfn.IFNA(IF($H68+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H68+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H68+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="AV68" s="58"/>
@@ -49518,7 +49542,7 @@
         <v/>
       </c>
       <c r="H69" s="58">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I69" s="58"/>
       <c r="J69" s="58"/>
@@ -49534,7 +49558,7 @@
         <v/>
       </c>
       <c r="H70" s="58">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I70" s="58"/>
       <c r="J70" s="58"/>
@@ -49550,7 +49574,7 @@
         <v/>
       </c>
       <c r="H71" s="58">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I71" s="58"/>
       <c r="J71" s="58"/>
@@ -49566,7 +49590,7 @@
         <v/>
       </c>
       <c r="H72" s="58">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I72" s="58"/>
       <c r="J72" s="58"/>
@@ -49582,7 +49606,7 @@
         <v/>
       </c>
       <c r="H73" s="58">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I73" s="58"/>
       <c r="J73" s="58"/>
@@ -49598,7 +49622,7 @@
         <v/>
       </c>
       <c r="H74" s="58">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I74" s="58"/>
       <c r="J74" s="58"/>
@@ -49614,7 +49638,7 @@
         <v/>
       </c>
       <c r="H75" s="58">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I75" s="58"/>
       <c r="J75" s="58"/>
@@ -49630,7 +49654,7 @@
         <v/>
       </c>
       <c r="H76" s="58">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I76" s="58"/>
       <c r="J76" s="58"/>
@@ -49646,7 +49670,7 @@
         <v/>
       </c>
       <c r="H77" s="58">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I77" s="58"/>
       <c r="J77" s="58"/>
@@ -49662,7 +49686,7 @@
         <v/>
       </c>
       <c r="H78" s="58">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I78" s="58"/>
       <c r="J78" s="58"/>
@@ -49678,7 +49702,7 @@
         <v/>
       </c>
       <c r="H79" s="58">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I79" s="58"/>
       <c r="J79" s="58"/>
@@ -49694,7 +49718,7 @@
         <v/>
       </c>
       <c r="H80" s="58">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I80" s="58"/>
       <c r="J80" s="58"/>
@@ -49710,7 +49734,7 @@
         <v/>
       </c>
       <c r="H81" s="58">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I81" s="58"/>
       <c r="J81" s="58"/>
@@ -49726,7 +49750,7 @@
         <v/>
       </c>
       <c r="H82" s="58">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I82" s="58"/>
       <c r="J82" s="58"/>
@@ -49742,7 +49766,7 @@
         <v/>
       </c>
       <c r="H83" s="58">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I83" s="58"/>
       <c r="J83" s="58"/>
@@ -49758,7 +49782,7 @@
         <v/>
       </c>
       <c r="H84" s="58">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I84" s="58"/>
       <c r="J84" s="58"/>
@@ -49774,7 +49798,7 @@
         <v/>
       </c>
       <c r="H85" s="58">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I85" s="58"/>
       <c r="J85" s="58"/>
@@ -49790,7 +49814,7 @@
         <v/>
       </c>
       <c r="H86" s="58">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I86" s="58"/>
       <c r="J86" s="58"/>
@@ -49806,7 +49830,7 @@
         <v/>
       </c>
       <c r="H87" s="58">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I87" s="58"/>
       <c r="J87" s="58"/>
@@ -49822,7 +49846,7 @@
         <v/>
       </c>
       <c r="H88" s="58">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I88" s="58"/>
       <c r="J88" s="58"/>
@@ -49838,7 +49862,7 @@
         <v/>
       </c>
       <c r="H89" s="58">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I89" s="58"/>
       <c r="J89" s="58"/>
@@ -49854,7 +49878,7 @@
         <v/>
       </c>
       <c r="H90" s="58">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I90" s="58"/>
       <c r="J90" s="58"/>
@@ -49870,7 +49894,7 @@
         <v/>
       </c>
       <c r="H91" s="58">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I91" s="58"/>
       <c r="J91" s="58"/>
@@ -49886,7 +49910,7 @@
         <v/>
       </c>
       <c r="H92" s="58">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I92" s="58"/>
       <c r="J92" s="58"/>
@@ -49902,7 +49926,7 @@
         <v/>
       </c>
       <c r="H93" s="58">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="58"/>
       <c r="J93" s="58"/>
@@ -49918,7 +49942,7 @@
         <v/>
       </c>
       <c r="H94" s="58">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I94" s="58"/>
       <c r="J94" s="58"/>
@@ -49934,7 +49958,7 @@
         <v/>
       </c>
       <c r="H95" s="58">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I95" s="58"/>
       <c r="J95" s="58"/>
@@ -49950,7 +49974,7 @@
         <v/>
       </c>
       <c r="H96" s="58">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I96" s="58"/>
       <c r="J96" s="58"/>
@@ -49966,7 +49990,7 @@
         <v/>
       </c>
       <c r="H97" s="58">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I97" s="58"/>
       <c r="J97" s="58"/>
@@ -49982,7 +50006,7 @@
         <v/>
       </c>
       <c r="H98" s="58">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I98" s="58"/>
       <c r="J98" s="58"/>
@@ -49998,7 +50022,7 @@
         <v/>
       </c>
       <c r="H99" s="58">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I99" s="58"/>
       <c r="J99" s="58"/>
@@ -50014,7 +50038,7 @@
         <v/>
       </c>
       <c r="H100" s="58">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I100" s="58"/>
       <c r="J100" s="58"/>
@@ -50030,7 +50054,7 @@
         <v/>
       </c>
       <c r="H101" s="58">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I101" s="58"/>
       <c r="J101" s="58"/>
@@ -50046,7 +50070,7 @@
         <v/>
       </c>
       <c r="H102" s="58">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I102" s="58"/>
       <c r="J102" s="58"/>
@@ -50062,7 +50086,7 @@
         <v/>
       </c>
       <c r="H103" s="58">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I103" s="58"/>
       <c r="J103" s="58"/>
@@ -50078,7 +50102,7 @@
         <v/>
       </c>
       <c r="H104" s="58">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I104" s="58"/>
       <c r="J104" s="58"/>
@@ -50094,7 +50118,7 @@
         <v/>
       </c>
       <c r="H105" s="58">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I105" s="58"/>
       <c r="J105" s="58"/>
@@ -50110,7 +50134,7 @@
         <v/>
       </c>
       <c r="H106" s="58">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I106" s="58"/>
       <c r="J106" s="58"/>
@@ -50126,7 +50150,7 @@
         <v/>
       </c>
       <c r="H107" s="58">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I107" s="58"/>
       <c r="J107" s="58"/>
@@ -50142,7 +50166,7 @@
         <v/>
       </c>
       <c r="H108" s="58">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I108" s="58"/>
       <c r="J108" s="58"/>
@@ -50158,7 +50182,7 @@
         <v/>
       </c>
       <c r="H109" s="58">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I109" s="58"/>
       <c r="J109" s="58"/>
@@ -50174,7 +50198,7 @@
         <v/>
       </c>
       <c r="H110" s="58">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I110" s="58"/>
       <c r="J110" s="58"/>
@@ -50190,7 +50214,7 @@
         <v/>
       </c>
       <c r="H111" s="58">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I111" s="58"/>
       <c r="J111" s="58"/>
@@ -50206,7 +50230,7 @@
         <v/>
       </c>
       <c r="H112" s="58">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I112" s="58"/>
       <c r="J112" s="58"/>
@@ -50222,7 +50246,7 @@
         <v/>
       </c>
       <c r="H113" s="58">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I113" s="58"/>
       <c r="J113" s="58"/>
@@ -50238,7 +50262,7 @@
         <v/>
       </c>
       <c r="H114" s="58">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I114" s="58"/>
       <c r="J114" s="58"/>
@@ -50254,7 +50278,7 @@
         <v/>
       </c>
       <c r="H115" s="58">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I115" s="58"/>
       <c r="J115" s="58"/>
@@ -50270,7 +50294,7 @@
         <v/>
       </c>
       <c r="H116" s="58">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I116" s="58"/>
       <c r="J116" s="58"/>
@@ -50286,7 +50310,7 @@
         <v/>
       </c>
       <c r="H117" s="58">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I117" s="58"/>
       <c r="J117" s="58"/>
@@ -50302,7 +50326,7 @@
         <v/>
       </c>
       <c r="H118" s="58">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I118" s="58"/>
       <c r="J118" s="58"/>
@@ -50318,7 +50342,7 @@
         <v/>
       </c>
       <c r="H119" s="58">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I119" s="58"/>
       <c r="J119" s="58"/>
@@ -50334,7 +50358,7 @@
         <v/>
       </c>
       <c r="H120" s="58">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I120" s="58"/>
       <c r="J120" s="58"/>
@@ -50350,7 +50374,7 @@
         <v/>
       </c>
       <c r="H121" s="58">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I121" s="58"/>
       <c r="J121" s="58"/>
@@ -50366,7 +50390,7 @@
         <v/>
       </c>
       <c r="H122" s="58">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I122" s="58"/>
       <c r="J122" s="58"/>
@@ -50382,7 +50406,7 @@
         <v/>
       </c>
       <c r="H123" s="58">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I123" s="58"/>
       <c r="J123" s="58"/>
@@ -50398,7 +50422,7 @@
         <v/>
       </c>
       <c r="H124" s="58">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I124" s="58"/>
       <c r="J124" s="58"/>
@@ -50414,7 +50438,7 @@
         <v/>
       </c>
       <c r="H125" s="58">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I125" s="58"/>
       <c r="J125" s="58"/>
@@ -50430,7 +50454,7 @@
         <v/>
       </c>
       <c r="H126" s="58">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" s="58"/>
       <c r="J126" s="58"/>
@@ -50446,7 +50470,7 @@
         <v/>
       </c>
       <c r="H127" s="58">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I127" s="58"/>
       <c r="J127" s="58"/>
@@ -50462,7 +50486,7 @@
         <v/>
       </c>
       <c r="H128" s="58">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I128" s="58"/>
       <c r="J128" s="58"/>
@@ -50478,7 +50502,7 @@
         <v/>
       </c>
       <c r="H129" s="58">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I129" s="58"/>
       <c r="J129" s="58"/>
@@ -50494,7 +50518,7 @@
         <v/>
       </c>
       <c r="H130" s="58">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I130" s="58"/>
       <c r="J130" s="58"/>
@@ -50506,32 +50530,32 @@
     </row>
     <row r="131" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F131" s="58" t="str">
-        <f t="shared" ref="F131:F194" ca="1" si="4">_xlfn.IFNA(IF($H131+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H131+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H131+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="H131" s="58">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I131" s="58"/>
       <c r="J131" s="58"/>
       <c r="AU131" s="106" t="str">
-        <f t="shared" ref="AU131:AU194" ca="1" si="5">_xlfn.IFNA(IF($H131+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H131+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H131+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AV131" s="58"/>
     </row>
     <row r="132" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F132" s="58" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="F132:F195" ca="1" si="4">_xlfn.IFNA(IF($H132+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H132+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H132+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="H132" s="58">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I132" s="58"/>
       <c r="J132" s="58"/>
       <c r="AU132" s="106" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="AU132:AU195" ca="1" si="5">_xlfn.IFNA(IF($H132+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H132+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H132+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="AV132" s="58"/>
@@ -50542,7 +50566,7 @@
         <v/>
       </c>
       <c r="H133" s="58">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I133" s="58"/>
       <c r="J133" s="58"/>
@@ -50558,7 +50582,7 @@
         <v/>
       </c>
       <c r="H134" s="58">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I134" s="58"/>
       <c r="J134" s="58"/>
@@ -50574,7 +50598,7 @@
         <v/>
       </c>
       <c r="H135" s="58">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I135" s="58"/>
       <c r="J135" s="58"/>
@@ -50590,7 +50614,7 @@
         <v/>
       </c>
       <c r="H136" s="58">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I136" s="58"/>
       <c r="J136" s="58"/>
@@ -50606,7 +50630,7 @@
         <v/>
       </c>
       <c r="H137" s="58">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I137" s="58"/>
       <c r="J137" s="58"/>
@@ -50622,7 +50646,7 @@
         <v/>
       </c>
       <c r="H138" s="58">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I138" s="58"/>
       <c r="J138" s="58"/>
@@ -50638,7 +50662,7 @@
         <v/>
       </c>
       <c r="H139" s="58">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I139" s="58"/>
       <c r="J139" s="58"/>
@@ -50654,7 +50678,7 @@
         <v/>
       </c>
       <c r="H140" s="58">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I140" s="58"/>
       <c r="J140" s="58"/>
@@ -50670,7 +50694,7 @@
         <v/>
       </c>
       <c r="H141" s="58">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I141" s="58"/>
       <c r="J141" s="58"/>
@@ -50686,7 +50710,7 @@
         <v/>
       </c>
       <c r="H142" s="58">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I142" s="58"/>
       <c r="J142" s="58"/>
@@ -50702,7 +50726,7 @@
         <v/>
       </c>
       <c r="H143" s="58">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I143" s="58"/>
       <c r="J143" s="58"/>
@@ -50718,7 +50742,7 @@
         <v/>
       </c>
       <c r="H144" s="58">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I144" s="58"/>
       <c r="J144" s="58"/>
@@ -50734,7 +50758,7 @@
         <v/>
       </c>
       <c r="H145" s="58">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I145" s="58"/>
       <c r="J145" s="58"/>
@@ -50750,7 +50774,7 @@
         <v/>
       </c>
       <c r="H146" s="58">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I146" s="58"/>
       <c r="J146" s="58"/>
@@ -50766,7 +50790,7 @@
         <v/>
       </c>
       <c r="H147" s="58">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I147" s="58"/>
       <c r="J147" s="58"/>
@@ -50782,7 +50806,7 @@
         <v/>
       </c>
       <c r="H148" s="58">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I148" s="58"/>
       <c r="J148" s="58"/>
@@ -50798,7 +50822,7 @@
         <v/>
       </c>
       <c r="H149" s="58">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I149" s="58"/>
       <c r="J149" s="58"/>
@@ -50814,7 +50838,7 @@
         <v/>
       </c>
       <c r="H150" s="58">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I150" s="58"/>
       <c r="J150" s="58"/>
@@ -50830,7 +50854,7 @@
         <v/>
       </c>
       <c r="H151" s="58">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I151" s="58"/>
       <c r="J151" s="58"/>
@@ -50846,7 +50870,7 @@
         <v/>
       </c>
       <c r="H152" s="58">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I152" s="58"/>
       <c r="J152" s="58"/>
@@ -50862,7 +50886,7 @@
         <v/>
       </c>
       <c r="H153" s="58">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I153" s="58"/>
       <c r="J153" s="58"/>
@@ -50878,7 +50902,7 @@
         <v/>
       </c>
       <c r="H154" s="58">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I154" s="58"/>
       <c r="J154" s="58"/>
@@ -50894,7 +50918,7 @@
         <v/>
       </c>
       <c r="H155" s="58">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I155" s="58"/>
       <c r="J155" s="58"/>
@@ -50910,7 +50934,7 @@
         <v/>
       </c>
       <c r="H156" s="58">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I156" s="58"/>
       <c r="J156" s="58"/>
@@ -50926,7 +50950,7 @@
         <v/>
       </c>
       <c r="H157" s="58">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I157" s="58"/>
       <c r="J157" s="58"/>
@@ -50942,7 +50966,7 @@
         <v/>
       </c>
       <c r="H158" s="58">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I158" s="58"/>
       <c r="J158" s="58"/>
@@ -50958,7 +50982,7 @@
         <v/>
       </c>
       <c r="H159" s="58">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I159" s="58"/>
       <c r="J159" s="58"/>
@@ -50974,7 +50998,7 @@
         <v/>
       </c>
       <c r="H160" s="58">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I160" s="58"/>
       <c r="J160" s="58"/>
@@ -50990,7 +51014,7 @@
         <v/>
       </c>
       <c r="H161" s="58">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I161" s="58"/>
       <c r="J161" s="58"/>
@@ -51006,7 +51030,7 @@
         <v/>
       </c>
       <c r="H162" s="58">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I162" s="58"/>
       <c r="J162" s="58"/>
@@ -51022,7 +51046,7 @@
         <v/>
       </c>
       <c r="H163" s="58">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I163" s="58"/>
       <c r="J163" s="58"/>
@@ -51038,7 +51062,7 @@
         <v/>
       </c>
       <c r="H164" s="58">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I164" s="58"/>
       <c r="J164" s="58"/>
@@ -51054,7 +51078,7 @@
         <v/>
       </c>
       <c r="H165" s="58">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I165" s="58"/>
       <c r="J165" s="58"/>
@@ -51070,7 +51094,7 @@
         <v/>
       </c>
       <c r="H166" s="58">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I166" s="58"/>
       <c r="J166" s="58"/>
@@ -51086,7 +51110,7 @@
         <v/>
       </c>
       <c r="H167" s="58">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I167" s="58"/>
       <c r="J167" s="58"/>
@@ -51102,7 +51126,7 @@
         <v/>
       </c>
       <c r="H168" s="58">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I168" s="58"/>
       <c r="J168" s="58"/>
@@ -51118,7 +51142,7 @@
         <v/>
       </c>
       <c r="H169" s="58">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I169" s="58"/>
       <c r="J169" s="58"/>
@@ -51134,7 +51158,7 @@
         <v/>
       </c>
       <c r="H170" s="58">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I170" s="58"/>
       <c r="J170" s="58"/>
@@ -51150,7 +51174,7 @@
         <v/>
       </c>
       <c r="H171" s="58">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I171" s="58"/>
       <c r="J171" s="58"/>
@@ -51166,7 +51190,7 @@
         <v/>
       </c>
       <c r="H172" s="58">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I172" s="58"/>
       <c r="J172" s="58"/>
@@ -51182,7 +51206,7 @@
         <v/>
       </c>
       <c r="H173" s="58">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I173" s="58"/>
       <c r="J173" s="58"/>
@@ -51198,7 +51222,7 @@
         <v/>
       </c>
       <c r="H174" s="58">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I174" s="58"/>
       <c r="J174" s="58"/>
@@ -51214,7 +51238,7 @@
         <v/>
       </c>
       <c r="H175" s="58">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I175" s="58"/>
       <c r="J175" s="58"/>
@@ -51230,7 +51254,7 @@
         <v/>
       </c>
       <c r="H176" s="58">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I176" s="58"/>
       <c r="J176" s="58"/>
@@ -51246,7 +51270,7 @@
         <v/>
       </c>
       <c r="H177" s="58">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I177" s="58"/>
       <c r="J177" s="58"/>
@@ -51262,7 +51286,7 @@
         <v/>
       </c>
       <c r="H178" s="58">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I178" s="58"/>
       <c r="J178" s="58"/>
@@ -51278,7 +51302,7 @@
         <v/>
       </c>
       <c r="H179" s="58">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I179" s="58"/>
       <c r="J179" s="58"/>
@@ -51294,7 +51318,7 @@
         <v/>
       </c>
       <c r="H180" s="58">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I180" s="58"/>
       <c r="J180" s="58"/>
@@ -51310,7 +51334,7 @@
         <v/>
       </c>
       <c r="H181" s="58">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I181" s="58"/>
       <c r="J181" s="58"/>
@@ -51326,7 +51350,7 @@
         <v/>
       </c>
       <c r="H182" s="58">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I182" s="58"/>
       <c r="J182" s="58"/>
@@ -51342,7 +51366,7 @@
         <v/>
       </c>
       <c r="H183" s="58">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I183" s="58"/>
       <c r="J183" s="58"/>
@@ -51358,7 +51382,7 @@
         <v/>
       </c>
       <c r="H184" s="58">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I184" s="58"/>
       <c r="J184" s="58"/>
@@ -51374,7 +51398,7 @@
         <v/>
       </c>
       <c r="H185" s="58">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I185" s="58"/>
       <c r="J185" s="58"/>
@@ -51390,7 +51414,7 @@
         <v/>
       </c>
       <c r="H186" s="58">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I186" s="58"/>
       <c r="J186" s="58"/>
@@ -51406,7 +51430,7 @@
         <v/>
       </c>
       <c r="H187" s="58">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I187" s="58"/>
       <c r="J187" s="58"/>
@@ -51422,7 +51446,7 @@
         <v/>
       </c>
       <c r="H188" s="58">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I188" s="58"/>
       <c r="J188" s="58"/>
@@ -51438,7 +51462,7 @@
         <v/>
       </c>
       <c r="H189" s="58">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I189" s="58"/>
       <c r="J189" s="58"/>
@@ -51454,7 +51478,7 @@
         <v/>
       </c>
       <c r="H190" s="58">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I190" s="58"/>
       <c r="J190" s="58"/>
@@ -51470,7 +51494,7 @@
         <v/>
       </c>
       <c r="H191" s="58">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I191" s="58"/>
       <c r="J191" s="58"/>
@@ -51486,7 +51510,7 @@
         <v/>
       </c>
       <c r="H192" s="58">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I192" s="58"/>
       <c r="J192" s="58"/>
@@ -51502,7 +51526,7 @@
         <v/>
       </c>
       <c r="H193" s="58">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I193" s="58"/>
       <c r="J193" s="58"/>
@@ -51518,7 +51542,7 @@
         <v/>
       </c>
       <c r="H194" s="58">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I194" s="58"/>
       <c r="J194" s="58"/>
@@ -51530,32 +51554,32 @@
     </row>
     <row r="195" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F195" s="58" t="str">
-        <f t="shared" ref="F195:F200" ca="1" si="6">_xlfn.IFNA(IF($H195+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H195+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H195+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="H195" s="58">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I195" s="58"/>
       <c r="J195" s="58"/>
       <c r="AU195" s="106" t="str">
-        <f t="shared" ref="AU195:AU200" ca="1" si="7">_xlfn.IFNA(IF($H195+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H195+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H195+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AV195" s="58"/>
     </row>
     <row r="196" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F196" s="58" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="F196:F201" ca="1" si="6">_xlfn.IFNA(IF($H196+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H196+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H196+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="H196" s="58">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I196" s="58"/>
       <c r="J196" s="58"/>
       <c r="AU196" s="106" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="AU196:AU201" ca="1" si="7">_xlfn.IFNA(IF($H196+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H196+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H196+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="AV196" s="58"/>
@@ -51566,7 +51590,7 @@
         <v/>
       </c>
       <c r="H197" s="58">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I197" s="58"/>
       <c r="J197" s="58"/>
@@ -51582,7 +51606,7 @@
         <v/>
       </c>
       <c r="H198" s="58">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I198" s="58"/>
       <c r="J198" s="58"/>
@@ -51598,7 +51622,7 @@
         <v/>
       </c>
       <c r="H199" s="58">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I199" s="58"/>
       <c r="J199" s="58"/>
@@ -51614,7 +51638,7 @@
         <v/>
       </c>
       <c r="H200" s="58">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I200" s="58"/>
       <c r="J200" s="58"/>
@@ -51625,11 +51649,27 @@
       <c r="AV200" s="58"/>
     </row>
     <row r="201" spans="6:48" x14ac:dyDescent="0.2">
+      <c r="F201" s="58" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
       <c r="H201" s="58">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I201" s="58"/>
       <c r="J201" s="58"/>
+      <c r="AU201" s="106" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AV201" s="58"/>
+    </row>
+    <row r="202" spans="6:48" x14ac:dyDescent="0.2">
+      <c r="H202" s="58">
+        <v>200</v>
+      </c>
+      <c r="I202" s="58"/>
+      <c r="J202" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51662,10 +51702,10 @@
         <v>703</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -52170,7 +52210,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="40" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B1" s="153"/>
       <c r="C1" s="153"/>
@@ -52189,10 +52229,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>918</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>919</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>920</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>417</v>
@@ -52213,7 +52253,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{20694388-44F2-2A4E-B6CA-815A8878D810}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -52247,7 +52287,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="40" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="155" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
@@ -52299,7 +52339,7 @@
         <v>626</v>
       </c>
       <c r="E3" s="138" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F3" s="138"/>
       <c r="G3" s="138"/>
@@ -52312,7 +52352,7 @@
       <c r="C4" s="140"/>
       <c r="D4" s="140"/>
       <c r="E4" s="140" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="140"/>
@@ -52333,7 +52373,7 @@
         <v>559</v>
       </c>
       <c r="E5" s="140" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F5" s="140"/>
       <c r="G5" s="140"/>
@@ -52346,7 +52386,7 @@
       <c r="C6" s="140"/>
       <c r="D6" s="140"/>
       <c r="E6" s="140" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F6" s="140"/>
       <c r="G6" s="140"/>
@@ -52359,7 +52399,7 @@
       <c r="C7" s="140"/>
       <c r="D7" s="140"/>
       <c r="E7" s="140" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F7" s="140"/>
       <c r="G7" s="140"/>
@@ -52372,7 +52412,7 @@
       <c r="C8" s="140"/>
       <c r="D8" s="140"/>
       <c r="E8" s="140" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F8" s="140"/>
       <c r="G8" s="140"/>
@@ -52385,7 +52425,7 @@
       <c r="C9" s="140"/>
       <c r="D9" s="140"/>
       <c r="E9" s="140" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F9" s="140"/>
       <c r="G9" s="140"/>
@@ -52398,7 +52438,7 @@
       <c r="C10" s="140"/>
       <c r="D10" s="140"/>
       <c r="E10" s="140" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F10" s="140"/>
       <c r="G10" s="140"/>
@@ -52411,7 +52451,7 @@
       <c r="C11" s="140"/>
       <c r="D11" s="140"/>
       <c r="E11" s="140" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F11" s="140"/>
       <c r="G11" s="140"/>
@@ -52424,7 +52464,7 @@
       <c r="C12" s="140"/>
       <c r="D12" s="140"/>
       <c r="E12" s="140" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F12" s="140"/>
       <c r="G12" s="140"/>
@@ -52437,7 +52477,7 @@
       <c r="C13" s="140"/>
       <c r="D13" s="140"/>
       <c r="E13" s="140" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F13" s="140"/>
       <c r="G13" s="140"/>
@@ -52450,7 +52490,7 @@
       <c r="C14" s="140"/>
       <c r="D14" s="140"/>
       <c r="E14" s="140" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F14" s="140"/>
       <c r="G14" s="140"/>
@@ -52463,7 +52503,7 @@
       <c r="C15" s="140"/>
       <c r="D15" s="140"/>
       <c r="E15" s="140" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F15" s="140"/>
       <c r="G15" s="140"/>
@@ -52476,7 +52516,7 @@
       <c r="C16" s="140"/>
       <c r="D16" s="140"/>
       <c r="E16" s="140" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F16" s="140"/>
       <c r="G16" s="140"/>
@@ -52489,7 +52529,7 @@
       <c r="C17" s="140"/>
       <c r="D17" s="140"/>
       <c r="E17" s="140" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F17" s="140"/>
       <c r="G17" s="140"/>
@@ -52502,7 +52542,7 @@
       <c r="C18" s="140"/>
       <c r="D18" s="140"/>
       <c r="E18" s="140" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F18" s="140"/>
       <c r="G18" s="140"/>
@@ -52515,7 +52555,7 @@
       <c r="C19" s="140"/>
       <c r="D19" s="140"/>
       <c r="E19" s="140" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F19" s="140"/>
       <c r="G19" s="140"/>
@@ -52528,7 +52568,7 @@
       <c r="C20" s="140"/>
       <c r="D20" s="140"/>
       <c r="E20" s="140" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F20" s="140"/>
       <c r="G20" s="140"/>
@@ -52541,7 +52581,7 @@
       <c r="C21" s="140"/>
       <c r="D21" s="140"/>
       <c r="E21" s="140" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F21" s="140"/>
       <c r="G21" s="140"/>
@@ -52554,7 +52594,7 @@
       <c r="C22" s="140"/>
       <c r="D22" s="140"/>
       <c r="E22" s="140" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F22" s="140"/>
       <c r="G22" s="140"/>
@@ -52567,7 +52607,7 @@
       <c r="C23" s="140"/>
       <c r="D23" s="140"/>
       <c r="E23" s="140" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F23" s="140"/>
       <c r="G23" s="140"/>
@@ -52580,7 +52620,7 @@
       <c r="C24" s="140"/>
       <c r="D24" s="140"/>
       <c r="E24" s="140" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F24" s="140"/>
       <c r="G24" s="140"/>
@@ -52593,7 +52633,7 @@
       <c r="C25" s="140"/>
       <c r="D25" s="140"/>
       <c r="E25" s="140" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F25" s="140"/>
       <c r="G25" s="140"/>
@@ -52606,7 +52646,7 @@
       <c r="C26" s="140"/>
       <c r="D26" s="140"/>
       <c r="E26" s="140" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F26" s="140"/>
       <c r="G26" s="140"/>
@@ -52619,7 +52659,7 @@
       <c r="C27" s="140"/>
       <c r="D27" s="140"/>
       <c r="E27" s="140" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F27" s="140"/>
       <c r="G27" s="140"/>
@@ -52632,7 +52672,7 @@
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
       <c r="E28" s="140" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F28" s="140"/>
       <c r="G28" s="140"/>
@@ -52645,7 +52685,7 @@
       <c r="C29" s="140"/>
       <c r="D29" s="140"/>
       <c r="E29" s="140" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F29" s="140"/>
       <c r="G29" s="140"/>
@@ -52658,7 +52698,7 @@
       <c r="C30" s="140"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F30" s="140"/>
       <c r="G30" s="140"/>
@@ -52671,7 +52711,7 @@
       <c r="C31" s="140"/>
       <c r="D31" s="140"/>
       <c r="E31" s="140" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F31" s="140"/>
       <c r="G31" s="140"/>
@@ -52684,7 +52724,7 @@
       <c r="C32" s="140"/>
       <c r="D32" s="140"/>
       <c r="E32" s="140" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F32" s="140"/>
       <c r="G32" s="140"/>
@@ -52697,7 +52737,7 @@
       <c r="C33" s="140"/>
       <c r="D33" s="140"/>
       <c r="E33" s="140" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F33" s="140"/>
       <c r="G33" s="140"/>
@@ -52710,7 +52750,7 @@
       <c r="C34" s="140"/>
       <c r="D34" s="140"/>
       <c r="E34" s="140" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F34" s="140"/>
       <c r="G34" s="140"/>
@@ -52723,7 +52763,7 @@
       <c r="C35" s="140"/>
       <c r="D35" s="140"/>
       <c r="E35" s="140" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F35" s="140"/>
       <c r="G35" s="140"/>
@@ -52736,7 +52776,7 @@
       <c r="C36" s="140"/>
       <c r="D36" s="140"/>
       <c r="E36" s="140" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F36" s="140"/>
       <c r="G36" s="140"/>
@@ -52749,7 +52789,7 @@
       <c r="C37" s="140"/>
       <c r="D37" s="140"/>
       <c r="E37" s="140" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F37" s="140"/>
       <c r="G37" s="140"/>
@@ -52762,7 +52802,7 @@
       <c r="C38" s="140"/>
       <c r="D38" s="140"/>
       <c r="E38" s="140" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F38" s="140"/>
       <c r="G38" s="140"/>
@@ -52775,7 +52815,7 @@
       <c r="C39" s="140"/>
       <c r="D39" s="140"/>
       <c r="E39" s="140" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F39" s="140"/>
       <c r="G39" s="140"/>
@@ -52788,7 +52828,7 @@
       <c r="C40" s="140"/>
       <c r="D40" s="140"/>
       <c r="E40" s="140" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F40" s="140"/>
       <c r="G40" s="140"/>
@@ -52801,7 +52841,7 @@
       <c r="C41" s="140"/>
       <c r="D41" s="140"/>
       <c r="E41" s="140" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F41" s="140"/>
       <c r="G41" s="140"/>
@@ -52814,7 +52854,7 @@
       <c r="C42" s="140"/>
       <c r="D42" s="140"/>
       <c r="E42" s="140" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F42" s="140"/>
       <c r="G42" s="140"/>
@@ -52827,7 +52867,7 @@
       <c r="C43" s="140"/>
       <c r="D43" s="140"/>
       <c r="E43" s="140" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F43" s="140"/>
       <c r="G43" s="140"/>
@@ -52840,7 +52880,7 @@
       <c r="C44" s="140"/>
       <c r="D44" s="140"/>
       <c r="E44" s="140" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F44" s="140"/>
       <c r="G44" s="140"/>
@@ -52853,7 +52893,7 @@
       <c r="C45" s="140"/>
       <c r="D45" s="140"/>
       <c r="E45" s="140" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F45" s="140"/>
       <c r="G45" s="140"/>
@@ -52866,7 +52906,7 @@
       <c r="C46" s="140"/>
       <c r="D46" s="140"/>
       <c r="E46" s="140" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F46" s="140"/>
       <c r="G46" s="140"/>
@@ -52887,7 +52927,7 @@
         <v>561</v>
       </c>
       <c r="E47" s="140" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F47" s="140"/>
       <c r="G47" s="140"/>
@@ -52900,7 +52940,7 @@
       <c r="C48" s="140"/>
       <c r="D48" s="140"/>
       <c r="E48" s="140" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F48" s="140"/>
       <c r="G48" s="140"/>
@@ -52913,7 +52953,7 @@
       <c r="C49" s="140"/>
       <c r="D49" s="140"/>
       <c r="E49" s="140" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F49" s="140"/>
       <c r="G49" s="140"/>
@@ -52926,7 +52966,7 @@
       <c r="C50" s="140"/>
       <c r="D50" s="140"/>
       <c r="E50" s="140" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F50" s="140"/>
       <c r="G50" s="140"/>
@@ -52939,7 +52979,7 @@
       <c r="C51" s="140"/>
       <c r="D51" s="140"/>
       <c r="E51" s="140" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F51" s="140"/>
       <c r="G51" s="140"/>
@@ -52952,7 +52992,7 @@
       <c r="C52" s="140"/>
       <c r="D52" s="140"/>
       <c r="E52" s="140" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F52" s="140"/>
       <c r="G52" s="140"/>
@@ -52965,7 +53005,7 @@
       <c r="C53" s="140"/>
       <c r="D53" s="140"/>
       <c r="E53" s="140" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F53" s="140"/>
       <c r="G53" s="140"/>
@@ -52978,7 +53018,7 @@
       <c r="C54" s="140"/>
       <c r="D54" s="140"/>
       <c r="E54" s="140" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F54" s="140"/>
       <c r="G54" s="140"/>
@@ -52991,7 +53031,7 @@
       <c r="C55" s="140"/>
       <c r="D55" s="140"/>
       <c r="E55" s="140" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F55" s="140"/>
       <c r="G55" s="140"/>
@@ -53004,7 +53044,7 @@
       <c r="C56" s="140"/>
       <c r="D56" s="140"/>
       <c r="E56" s="140" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F56" s="140"/>
       <c r="G56" s="140"/>
@@ -53017,7 +53057,7 @@
       <c r="C57" s="140"/>
       <c r="D57" s="140"/>
       <c r="E57" s="140" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F57" s="140"/>
       <c r="G57" s="140"/>
@@ -53030,7 +53070,7 @@
       <c r="C58" s="140"/>
       <c r="D58" s="140"/>
       <c r="E58" s="140" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F58" s="140"/>
       <c r="G58" s="140"/>
@@ -53043,7 +53083,7 @@
       <c r="C59" s="140"/>
       <c r="D59" s="140"/>
       <c r="E59" s="140" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F59" s="140"/>
       <c r="G59" s="140"/>
@@ -53056,7 +53096,7 @@
       <c r="C60" s="140"/>
       <c r="D60" s="140"/>
       <c r="E60" s="140" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F60" s="140"/>
       <c r="G60" s="140"/>
@@ -53069,7 +53109,7 @@
       <c r="C61" s="140"/>
       <c r="D61" s="140"/>
       <c r="E61" s="140" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F61" s="140"/>
       <c r="G61" s="140"/>
@@ -53082,7 +53122,7 @@
       <c r="C62" s="140"/>
       <c r="D62" s="140"/>
       <c r="E62" s="140" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F62" s="140"/>
       <c r="G62" s="140"/>
@@ -53095,7 +53135,7 @@
       <c r="C63" s="140"/>
       <c r="D63" s="140"/>
       <c r="E63" s="140" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F63" s="140"/>
       <c r="G63" s="140"/>
@@ -53107,16 +53147,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="140" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C64" s="140" t="s">
         <v>394</v>
       </c>
       <c r="D64" s="140" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E64" s="140" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F64" s="140"/>
       <c r="G64" s="140"/>
@@ -53129,7 +53169,7 @@
       <c r="C65" s="140"/>
       <c r="D65" s="140"/>
       <c r="E65" s="140" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F65" s="140"/>
       <c r="G65" s="140"/>
@@ -53142,7 +53182,7 @@
       <c r="C66" s="140"/>
       <c r="D66" s="140"/>
       <c r="E66" s="140" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F66" s="140"/>
       <c r="G66" s="140"/>
@@ -53155,7 +53195,7 @@
       <c r="C67" s="140"/>
       <c r="D67" s="140"/>
       <c r="E67" s="140" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F67" s="140"/>
       <c r="G67" s="140"/>
@@ -53173,10 +53213,10 @@
         <v>394</v>
       </c>
       <c r="D68" s="140" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E68" s="140" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F68" s="140"/>
       <c r="G68" s="140"/>
@@ -53189,7 +53229,7 @@
       <c r="C69" s="140"/>
       <c r="D69" s="140"/>
       <c r="E69" s="140" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F69" s="140"/>
       <c r="G69" s="140"/>
@@ -53202,7 +53242,7 @@
       <c r="C70" s="140"/>
       <c r="D70" s="140"/>
       <c r="E70" s="140" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F70" s="140"/>
       <c r="G70" s="140"/>
@@ -53215,7 +53255,7 @@
       <c r="C71" s="140"/>
       <c r="D71" s="140"/>
       <c r="E71" s="140" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F71" s="140"/>
       <c r="G71" s="140"/>
@@ -53227,7 +53267,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="140" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C72" s="140" t="s">
         <v>394</v>
@@ -53236,7 +53276,7 @@
         <v>836</v>
       </c>
       <c r="E72" s="140" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F72" s="140"/>
       <c r="G72" s="140"/>
@@ -53249,7 +53289,7 @@
       <c r="C73" s="140"/>
       <c r="D73" s="140"/>
       <c r="E73" s="140" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F73" s="140"/>
       <c r="G73" s="140"/>
@@ -53262,7 +53302,7 @@
       <c r="C74" s="140"/>
       <c r="D74" s="140"/>
       <c r="E74" s="140" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F74" s="140"/>
       <c r="G74" s="140"/>
@@ -53275,7 +53315,7 @@
       <c r="C75" s="140"/>
       <c r="D75" s="140"/>
       <c r="E75" s="140" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F75" s="140"/>
       <c r="G75" s="140"/>
@@ -53288,7 +53328,7 @@
       <c r="C76" s="140"/>
       <c r="D76" s="140"/>
       <c r="E76" s="140" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F76" s="140"/>
       <c r="G76" s="140"/>
@@ -53301,7 +53341,7 @@
       <c r="C77" s="140"/>
       <c r="D77" s="140"/>
       <c r="E77" s="140" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F77" s="140"/>
       <c r="G77" s="140"/>
@@ -53314,7 +53354,7 @@
       <c r="C78" s="140"/>
       <c r="D78" s="140"/>
       <c r="E78" s="140" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F78" s="140"/>
       <c r="G78" s="140"/>
@@ -53327,7 +53367,7 @@
       <c r="C79" s="140"/>
       <c r="D79" s="140"/>
       <c r="E79" s="140" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F79" s="140"/>
       <c r="G79" s="140"/>
@@ -53340,7 +53380,7 @@
       <c r="C80" s="140"/>
       <c r="D80" s="140"/>
       <c r="E80" s="140" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F80" s="108"/>
       <c r="G80" s="141"/>
@@ -53361,7 +53401,7 @@
         <v>837</v>
       </c>
       <c r="E81" s="140" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F81" s="138"/>
       <c r="G81" s="140"/>
@@ -53374,7 +53414,7 @@
       <c r="C82" s="140"/>
       <c r="D82" s="140"/>
       <c r="E82" s="140" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F82" s="140"/>
       <c r="G82" s="140"/>
@@ -53387,7 +53427,7 @@
       <c r="C83" s="140"/>
       <c r="D83" s="140"/>
       <c r="E83" s="140" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F83" s="140"/>
       <c r="G83" s="140"/>
@@ -53400,7 +53440,7 @@
       <c r="C84" s="140"/>
       <c r="D84" s="140"/>
       <c r="E84" s="143" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F84" s="140"/>
       <c r="G84" s="140"/>
@@ -53413,7 +53453,7 @@
       <c r="C85" s="140"/>
       <c r="D85" s="140"/>
       <c r="E85" s="143" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F85" s="140"/>
       <c r="G85" s="140"/>
@@ -53426,7 +53466,7 @@
       <c r="C86" s="140"/>
       <c r="D86" s="140"/>
       <c r="E86" s="143" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F86" s="140"/>
       <c r="G86" s="140"/>
@@ -53439,7 +53479,7 @@
       <c r="C87" s="140"/>
       <c r="D87" s="140"/>
       <c r="E87" s="143" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F87" s="140"/>
       <c r="G87" s="140"/>
@@ -53452,7 +53492,7 @@
       <c r="C88" s="140"/>
       <c r="D88" s="140"/>
       <c r="E88" s="143" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F88" s="140"/>
       <c r="G88" s="140"/>
@@ -53465,7 +53505,7 @@
       <c r="C89" s="140"/>
       <c r="D89" s="140"/>
       <c r="E89" s="143" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F89" s="140"/>
       <c r="G89" s="140"/>
@@ -53478,7 +53518,7 @@
       <c r="C90" s="140"/>
       <c r="D90" s="140"/>
       <c r="E90" s="143" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F90" s="140"/>
       <c r="G90" s="140"/>
@@ -53491,7 +53531,7 @@
       <c r="C91" s="140"/>
       <c r="D91" s="140"/>
       <c r="E91" s="143" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F91" s="140"/>
       <c r="G91" s="140"/>
@@ -53504,7 +53544,7 @@
       <c r="C92" s="140"/>
       <c r="D92" s="140"/>
       <c r="E92" s="143" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F92" s="140"/>
       <c r="G92" s="140"/>
@@ -53517,7 +53557,7 @@
       <c r="C93" s="140"/>
       <c r="D93" s="140"/>
       <c r="E93" s="143" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F93" s="140"/>
       <c r="G93" s="140"/>
@@ -53530,7 +53570,7 @@
       <c r="C94" s="140"/>
       <c r="D94" s="140"/>
       <c r="E94" s="143" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F94" s="140"/>
       <c r="G94" s="140"/>
@@ -53543,7 +53583,7 @@
       <c r="C95" s="140"/>
       <c r="D95" s="140"/>
       <c r="E95" s="143" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F95" s="140"/>
       <c r="G95" s="140"/>
@@ -53556,7 +53596,7 @@
       <c r="C96" s="140"/>
       <c r="D96" s="140"/>
       <c r="E96" s="143" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F96" s="140"/>
       <c r="G96" s="140"/>
@@ -53569,7 +53609,7 @@
       <c r="C97" s="140"/>
       <c r="D97" s="140"/>
       <c r="E97" s="143" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F97" s="140"/>
       <c r="G97" s="140"/>
@@ -53582,7 +53622,7 @@
       <c r="C98" s="140"/>
       <c r="D98" s="140"/>
       <c r="E98" s="143" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F98" s="140"/>
       <c r="G98" s="140"/>
@@ -53595,7 +53635,7 @@
       <c r="C99" s="140"/>
       <c r="D99" s="140"/>
       <c r="E99" s="143" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F99" s="140"/>
       <c r="G99" s="140"/>
@@ -53608,7 +53648,7 @@
       <c r="C100" s="140"/>
       <c r="D100" s="140"/>
       <c r="E100" s="143" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F100" s="140"/>
       <c r="G100" s="140"/>
@@ -53621,7 +53661,7 @@
       <c r="C101" s="140"/>
       <c r="D101" s="140"/>
       <c r="E101" s="143" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F101" s="140"/>
       <c r="G101" s="140"/>
@@ -53634,7 +53674,7 @@
       <c r="C102" s="140"/>
       <c r="D102" s="140"/>
       <c r="E102" s="143" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F102" s="140"/>
       <c r="G102" s="140"/>
@@ -53647,7 +53687,7 @@
       <c r="C103" s="140"/>
       <c r="D103" s="140"/>
       <c r="E103" s="143" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F103" s="140"/>
       <c r="G103" s="140"/>
@@ -53660,7 +53700,7 @@
       <c r="C104" s="140"/>
       <c r="D104" s="140"/>
       <c r="E104" s="143" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F104" s="140"/>
       <c r="G104" s="140"/>
@@ -53673,7 +53713,7 @@
       <c r="C105" s="140"/>
       <c r="D105" s="140"/>
       <c r="E105" s="143" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F105" s="140"/>
       <c r="G105" s="140"/>
@@ -53686,7 +53726,7 @@
       <c r="C106" s="140"/>
       <c r="D106" s="140"/>
       <c r="E106" s="143" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F106" s="140"/>
       <c r="G106" s="140"/>
@@ -53699,7 +53739,7 @@
       <c r="C107" s="140"/>
       <c r="D107" s="140"/>
       <c r="E107" s="143" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F107" s="140"/>
       <c r="G107" s="140"/>
@@ -53712,7 +53752,7 @@
       <c r="C108" s="140"/>
       <c r="D108" s="140"/>
       <c r="E108" s="143" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F108" s="140"/>
       <c r="G108" s="140"/>
@@ -53725,7 +53765,7 @@
       <c r="C109" s="140"/>
       <c r="D109" s="140"/>
       <c r="E109" s="143" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F109" s="140"/>
       <c r="G109" s="140"/>
@@ -53738,7 +53778,7 @@
       <c r="C110" s="140"/>
       <c r="D110" s="140"/>
       <c r="E110" s="143" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F110" s="140"/>
       <c r="G110" s="140"/>
@@ -53751,7 +53791,7 @@
       <c r="C111" s="140"/>
       <c r="D111" s="140"/>
       <c r="E111" s="143" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F111" s="140"/>
       <c r="G111" s="140"/>
@@ -53764,7 +53804,7 @@
       <c r="C112" s="140"/>
       <c r="D112" s="140"/>
       <c r="E112" s="143" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F112" s="140"/>
       <c r="G112" s="140"/>
@@ -53777,7 +53817,7 @@
       <c r="C113" s="140"/>
       <c r="D113" s="140"/>
       <c r="E113" s="143" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F113" s="140"/>
       <c r="G113" s="140"/>
@@ -53790,7 +53830,7 @@
       <c r="C114" s="140"/>
       <c r="D114" s="140"/>
       <c r="E114" s="143" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F114" s="140"/>
       <c r="G114" s="140"/>
@@ -53803,7 +53843,7 @@
       <c r="C115" s="140"/>
       <c r="D115" s="140"/>
       <c r="E115" s="143" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F115" s="140"/>
       <c r="G115" s="140"/>
@@ -53816,7 +53856,7 @@
       <c r="C116" s="140"/>
       <c r="D116" s="140"/>
       <c r="E116" s="143" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F116" s="140"/>
       <c r="G116" s="140"/>
@@ -53829,7 +53869,7 @@
       <c r="C117" s="140"/>
       <c r="D117" s="140"/>
       <c r="E117" s="140" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F117" s="140"/>
       <c r="G117" s="140"/>
@@ -53842,7 +53882,7 @@
       <c r="C118" s="140"/>
       <c r="D118" s="140"/>
       <c r="E118" s="140" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F118" s="140"/>
       <c r="G118" s="140"/>
@@ -53855,7 +53895,7 @@
       <c r="C119" s="140"/>
       <c r="D119" s="140"/>
       <c r="E119" s="140" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F119" s="140"/>
       <c r="G119" s="140"/>
@@ -53868,7 +53908,7 @@
       <c r="C120" s="140"/>
       <c r="D120" s="140"/>
       <c r="E120" s="140" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F120" s="140"/>
       <c r="G120" s="140"/>
@@ -53881,7 +53921,7 @@
       <c r="C121" s="140"/>
       <c r="D121" s="140"/>
       <c r="E121" s="143" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F121" s="140"/>
       <c r="G121" s="140"/>
@@ -53902,7 +53942,7 @@
         <v>564</v>
       </c>
       <c r="E122" s="142" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F122" s="140"/>
       <c r="G122" s="140"/>
@@ -53915,7 +53955,7 @@
       <c r="C123" s="140"/>
       <c r="D123" s="140"/>
       <c r="E123" s="142" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F123" s="140"/>
       <c r="G123" s="140"/>
@@ -53928,7 +53968,7 @@
       <c r="C124" s="140"/>
       <c r="D124" s="140"/>
       <c r="E124" s="140" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F124" s="140"/>
       <c r="G124" s="140"/>
@@ -53941,7 +53981,7 @@
       <c r="C125" s="140"/>
       <c r="D125" s="140"/>
       <c r="E125" s="140" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F125" s="140"/>
       <c r="G125" s="140"/>
@@ -53954,7 +53994,7 @@
       <c r="C126" s="140"/>
       <c r="D126" s="140"/>
       <c r="E126" s="140" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F126" s="140"/>
       <c r="G126" s="140"/>
@@ -53967,7 +54007,7 @@
       <c r="C127" s="140"/>
       <c r="D127" s="140"/>
       <c r="E127" s="140" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F127" s="140"/>
       <c r="G127" s="140"/>
@@ -53980,7 +54020,7 @@
       <c r="C128" s="140"/>
       <c r="D128" s="140"/>
       <c r="E128" s="140" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F128" s="140"/>
       <c r="G128" s="140"/>
@@ -53993,7 +54033,7 @@
       <c r="C129" s="140"/>
       <c r="D129" s="140"/>
       <c r="E129" s="140" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F129" s="140"/>
       <c r="G129" s="140"/>
@@ -54006,7 +54046,7 @@
       <c r="C130" s="140"/>
       <c r="D130" s="140"/>
       <c r="E130" s="140" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F130" s="140"/>
       <c r="G130" s="140"/>
@@ -54019,7 +54059,7 @@
       <c r="C131" s="140"/>
       <c r="D131" s="140"/>
       <c r="E131" s="140" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F131" s="140"/>
       <c r="G131" s="140"/>
@@ -54032,7 +54072,7 @@
       <c r="C132" s="140"/>
       <c r="D132" s="140"/>
       <c r="E132" s="140" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F132" s="140"/>
       <c r="G132" s="140"/>
@@ -54045,7 +54085,7 @@
       <c r="C133" s="140"/>
       <c r="D133" s="140"/>
       <c r="E133" s="140" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F133" s="140"/>
       <c r="G133" s="140"/>
@@ -54058,7 +54098,7 @@
       <c r="C134" s="140"/>
       <c r="D134" s="140"/>
       <c r="E134" s="140" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F134" s="140"/>
       <c r="G134" s="140"/>
@@ -54071,7 +54111,7 @@
       <c r="C135" s="140"/>
       <c r="D135" s="140"/>
       <c r="E135" s="140" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F135" s="140"/>
       <c r="G135" s="140"/>
@@ -54084,7 +54124,7 @@
       <c r="C136" s="140"/>
       <c r="D136" s="140"/>
       <c r="E136" s="140" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F136" s="140"/>
       <c r="G136" s="140"/>
@@ -54097,7 +54137,7 @@
       <c r="C137" s="140"/>
       <c r="D137" s="140"/>
       <c r="E137" s="140" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F137" s="140"/>
       <c r="G137" s="140"/>
@@ -54110,7 +54150,7 @@
       <c r="C138" s="140"/>
       <c r="D138" s="140"/>
       <c r="E138" s="140" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F138" s="140"/>
       <c r="G138" s="140"/>
@@ -54123,7 +54163,7 @@
       <c r="C139" s="140"/>
       <c r="D139" s="140"/>
       <c r="E139" s="140" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F139" s="140"/>
       <c r="G139" s="140"/>
@@ -54136,7 +54176,7 @@
       <c r="C140" s="140"/>
       <c r="D140" s="140"/>
       <c r="E140" s="140" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F140" s="140"/>
       <c r="G140" s="140"/>
@@ -54149,7 +54189,7 @@
       <c r="C141" s="140"/>
       <c r="D141" s="140"/>
       <c r="E141" s="140" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F141" s="140"/>
       <c r="G141" s="140"/>
@@ -54170,7 +54210,7 @@
         <v>566</v>
       </c>
       <c r="E142" s="140" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F142" s="140"/>
       <c r="G142" s="140"/>
@@ -54183,7 +54223,7 @@
       <c r="C143" s="140"/>
       <c r="D143" s="140"/>
       <c r="E143" s="140" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F143" s="140"/>
       <c r="G143" s="140"/>
@@ -54196,7 +54236,7 @@
       <c r="C144" s="140"/>
       <c r="D144" s="140"/>
       <c r="E144" s="140" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F144" s="140"/>
       <c r="G144" s="140"/>
@@ -54209,7 +54249,7 @@
       <c r="C145" s="140"/>
       <c r="D145" s="140"/>
       <c r="E145" s="140" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F145" s="140"/>
       <c r="G145" s="140"/>
@@ -54222,7 +54262,7 @@
       <c r="C146" s="140"/>
       <c r="D146" s="140"/>
       <c r="E146" s="140" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F146" s="140"/>
       <c r="G146" s="140"/>
@@ -54235,7 +54275,7 @@
       <c r="C147" s="140"/>
       <c r="D147" s="140"/>
       <c r="E147" s="140" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F147" s="140"/>
       <c r="G147" s="140"/>
@@ -54248,7 +54288,7 @@
       <c r="C148" s="140"/>
       <c r="D148" s="140"/>
       <c r="E148" s="140" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F148" s="140"/>
       <c r="G148" s="140"/>
@@ -54261,7 +54301,7 @@
       <c r="C149" s="140"/>
       <c r="D149" s="140"/>
       <c r="E149" s="140" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F149" s="140"/>
       <c r="G149" s="140"/>
@@ -54274,7 +54314,7 @@
       <c r="C150" s="140"/>
       <c r="D150" s="140"/>
       <c r="E150" s="140" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F150" s="140"/>
       <c r="G150" s="140"/>
@@ -54287,7 +54327,7 @@
       <c r="C151" s="140"/>
       <c r="D151" s="140"/>
       <c r="E151" s="140" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F151" s="140"/>
       <c r="G151" s="140"/>
@@ -54300,7 +54340,7 @@
       <c r="C152" s="140"/>
       <c r="D152" s="140"/>
       <c r="E152" s="140" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F152" s="140"/>
       <c r="G152" s="140"/>
@@ -54313,7 +54353,7 @@
       <c r="C153" s="140"/>
       <c r="D153" s="140"/>
       <c r="E153" s="140" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F153" s="140"/>
       <c r="G153" s="140"/>
@@ -54326,7 +54366,7 @@
       <c r="C154" s="140"/>
       <c r="D154" s="140"/>
       <c r="E154" s="140" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F154" s="140"/>
       <c r="G154" s="140"/>
@@ -54339,7 +54379,7 @@
       <c r="C155" s="140"/>
       <c r="D155" s="140"/>
       <c r="E155" s="140" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F155" s="140"/>
       <c r="G155" s="140"/>
@@ -54352,7 +54392,7 @@
       <c r="C156" s="140"/>
       <c r="D156" s="140"/>
       <c r="E156" s="140" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F156" s="140"/>
       <c r="G156" s="140"/>
@@ -54365,7 +54405,7 @@
       <c r="C157" s="140"/>
       <c r="D157" s="140"/>
       <c r="E157" s="140" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F157" s="140"/>
       <c r="G157" s="140"/>
@@ -54378,7 +54418,7 @@
       <c r="C158" s="140"/>
       <c r="D158" s="140"/>
       <c r="E158" s="140" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F158" s="140"/>
       <c r="G158" s="140"/>
@@ -54391,7 +54431,7 @@
       <c r="C159" s="140"/>
       <c r="D159" s="140"/>
       <c r="E159" s="140" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F159" s="140"/>
       <c r="G159" s="140"/>
@@ -54404,7 +54444,7 @@
       <c r="C160" s="140"/>
       <c r="D160" s="140"/>
       <c r="E160" s="140" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F160" s="140"/>
       <c r="G160" s="140"/>
@@ -54417,7 +54457,7 @@
       <c r="C161" s="140"/>
       <c r="D161" s="140"/>
       <c r="E161" s="140" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F161" s="140"/>
       <c r="G161" s="140"/>
@@ -54430,7 +54470,7 @@
       <c r="C162" s="140"/>
       <c r="D162" s="140"/>
       <c r="E162" s="140" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F162" s="140"/>
       <c r="G162" s="140"/>
@@ -54443,7 +54483,7 @@
       <c r="C163" s="140"/>
       <c r="D163" s="140"/>
       <c r="E163" s="140" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F163" s="140"/>
       <c r="G163" s="140"/>
@@ -54456,7 +54496,7 @@
       <c r="C164" s="140"/>
       <c r="D164" s="140"/>
       <c r="E164" s="140" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F164" s="140"/>
       <c r="G164" s="140"/>
@@ -54469,7 +54509,7 @@
       <c r="C165" s="140"/>
       <c r="D165" s="140"/>
       <c r="E165" s="140" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F165" s="140"/>
       <c r="G165" s="140"/>
@@ -54482,7 +54522,7 @@
       <c r="C166" s="140"/>
       <c r="D166" s="140"/>
       <c r="E166" s="140" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F166" s="140"/>
       <c r="G166" s="140"/>
@@ -54495,7 +54535,7 @@
       <c r="C167" s="140"/>
       <c r="D167" s="140"/>
       <c r="E167" s="140" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F167" s="140"/>
       <c r="G167" s="140"/>
@@ -54508,7 +54548,7 @@
       <c r="C168" s="140"/>
       <c r="D168" s="140"/>
       <c r="E168" s="140" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F168" s="140"/>
       <c r="G168" s="140"/>
@@ -54521,7 +54561,7 @@
       <c r="C169" s="140"/>
       <c r="D169" s="140"/>
       <c r="E169" s="140" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F169" s="140"/>
       <c r="G169" s="140"/>
@@ -54534,7 +54574,7 @@
       <c r="C170" s="140"/>
       <c r="D170" s="140"/>
       <c r="E170" s="140" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F170" s="140"/>
       <c r="G170" s="140"/>
@@ -54555,7 +54595,7 @@
         <v>737</v>
       </c>
       <c r="E171" s="144" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F171" s="141"/>
       <c r="G171" s="140"/>
@@ -54581,7 +54621,7 @@
       <c r="C173" s="140"/>
       <c r="D173" s="140"/>
       <c r="E173" s="140" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F173" s="140"/>
       <c r="G173" s="140"/>
@@ -54594,7 +54634,7 @@
       <c r="C174" s="140"/>
       <c r="D174" s="140"/>
       <c r="E174" s="140" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F174" s="140"/>
       <c r="G174" s="140"/>
@@ -54615,7 +54655,7 @@
         <v>568</v>
       </c>
       <c r="E175" s="140" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F175" s="140"/>
       <c r="G175" s="140"/>
@@ -54628,7 +54668,7 @@
       <c r="C176" s="140"/>
       <c r="D176" s="140"/>
       <c r="E176" s="140" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F176" s="140"/>
       <c r="G176" s="140"/>
@@ -54641,7 +54681,7 @@
       <c r="C177" s="140"/>
       <c r="D177" s="140"/>
       <c r="E177" s="140" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F177" s="140"/>
       <c r="G177" s="140"/>
@@ -54654,7 +54694,7 @@
       <c r="C178" s="140"/>
       <c r="D178" s="140"/>
       <c r="E178" s="140" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F178" s="140"/>
       <c r="G178" s="140"/>
@@ -54667,7 +54707,7 @@
       <c r="C179" s="140"/>
       <c r="D179" s="140"/>
       <c r="E179" s="140" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F179" s="140"/>
       <c r="G179" s="140"/>
@@ -54680,7 +54720,7 @@
       <c r="C180" s="140"/>
       <c r="D180" s="140"/>
       <c r="E180" s="140" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F180" s="140"/>
       <c r="G180" s="140"/>
@@ -54693,7 +54733,7 @@
       <c r="C181" s="140"/>
       <c r="D181" s="140"/>
       <c r="E181" s="140" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F181" s="140"/>
       <c r="G181" s="140"/>
@@ -54706,7 +54746,7 @@
       <c r="C182" s="140"/>
       <c r="D182" s="140"/>
       <c r="E182" s="140" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F182" s="140"/>
       <c r="G182" s="140"/>
@@ -54719,7 +54759,7 @@
       <c r="C183" s="140"/>
       <c r="D183" s="140"/>
       <c r="E183" s="140" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F183" s="140"/>
       <c r="G183" s="140"/>
@@ -54732,7 +54772,7 @@
       <c r="C184" s="140"/>
       <c r="D184" s="140"/>
       <c r="E184" s="140" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F184" s="140"/>
       <c r="G184" s="140"/>
@@ -54745,7 +54785,7 @@
       <c r="C185" s="140"/>
       <c r="D185" s="140"/>
       <c r="E185" s="140" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F185" s="140"/>
       <c r="G185" s="140"/>
@@ -54758,7 +54798,7 @@
       <c r="C186" s="140"/>
       <c r="D186" s="140"/>
       <c r="E186" s="140" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F186" s="140"/>
       <c r="G186" s="140"/>
@@ -54771,7 +54811,7 @@
       <c r="C187" s="140"/>
       <c r="D187" s="140"/>
       <c r="E187" s="140" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F187" s="140"/>
       <c r="G187" s="140"/>
@@ -54784,7 +54824,7 @@
       <c r="C188" s="140"/>
       <c r="D188" s="140"/>
       <c r="E188" s="140" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="F188" s="140"/>
       <c r="G188" s="140"/>
@@ -54797,7 +54837,7 @@
       <c r="C189" s="140"/>
       <c r="D189" s="140"/>
       <c r="E189" s="140" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F189" s="140"/>
       <c r="G189" s="140"/>
@@ -54810,7 +54850,7 @@
       <c r="C190" s="140"/>
       <c r="D190" s="140"/>
       <c r="E190" s="140" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F190" s="140"/>
       <c r="G190" s="140"/>
@@ -54823,7 +54863,7 @@
       <c r="C191" s="140"/>
       <c r="D191" s="140"/>
       <c r="E191" s="140" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F191" s="140"/>
       <c r="G191" s="140"/>
@@ -54836,7 +54876,7 @@
       <c r="C192" s="140"/>
       <c r="D192" s="140"/>
       <c r="E192" s="140" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F192" s="140"/>
       <c r="G192" s="140"/>
@@ -54849,7 +54889,7 @@
       <c r="C193" s="140"/>
       <c r="D193" s="140"/>
       <c r="E193" s="140" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F193" s="140"/>
       <c r="G193" s="140"/>
@@ -54862,7 +54902,7 @@
       <c r="C194" s="140"/>
       <c r="D194" s="140"/>
       <c r="E194" s="140" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F194" s="140"/>
       <c r="G194" s="140"/>
@@ -54875,7 +54915,7 @@
       <c r="C195" s="140"/>
       <c r="D195" s="140"/>
       <c r="E195" s="140" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F195" s="140"/>
       <c r="G195" s="140"/>
@@ -54888,7 +54928,7 @@
       <c r="C196" s="140"/>
       <c r="D196" s="140"/>
       <c r="E196" s="140" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F196" s="140"/>
       <c r="G196" s="140"/>
@@ -54901,7 +54941,7 @@
       <c r="C197" s="140"/>
       <c r="D197" s="140"/>
       <c r="E197" s="140" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F197" s="140"/>
       <c r="G197" s="140"/>
@@ -54914,7 +54954,7 @@
       <c r="C198" s="140"/>
       <c r="D198" s="140"/>
       <c r="E198" s="140" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F198" s="140"/>
       <c r="G198" s="140"/>
@@ -54927,7 +54967,7 @@
       <c r="C199" s="140"/>
       <c r="D199" s="140"/>
       <c r="E199" s="140" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="F199" s="140"/>
       <c r="G199" s="140"/>
@@ -54940,7 +54980,7 @@
       <c r="C200" s="140"/>
       <c r="D200" s="140"/>
       <c r="E200" s="140" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F200" s="140"/>
       <c r="G200" s="140"/>
@@ -54953,7 +54993,7 @@
       <c r="C201" s="140"/>
       <c r="D201" s="140"/>
       <c r="E201" s="140" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F201" s="140"/>
       <c r="G201" s="140"/>
@@ -54966,7 +55006,7 @@
       <c r="C202" s="140"/>
       <c r="D202" s="140"/>
       <c r="E202" s="140" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="F202" s="140"/>
       <c r="G202" s="140"/>
@@ -54979,7 +55019,7 @@
       <c r="C203" s="140"/>
       <c r="D203" s="140"/>
       <c r="E203" s="140" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="F203" s="140"/>
       <c r="G203" s="140"/>
@@ -54992,7 +55032,7 @@
       <c r="C204" s="140"/>
       <c r="D204" s="140"/>
       <c r="E204" s="140" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F204" s="140"/>
       <c r="G204" s="140"/>
@@ -55005,7 +55045,7 @@
       <c r="C205" s="140"/>
       <c r="D205" s="140"/>
       <c r="E205" s="140" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="F205" s="140"/>
       <c r="G205" s="140"/>
@@ -55018,7 +55058,7 @@
       <c r="C206" s="140"/>
       <c r="D206" s="140"/>
       <c r="E206" s="140" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="F206" s="140"/>
       <c r="G206" s="140"/>
@@ -55031,7 +55071,7 @@
       <c r="C207" s="140"/>
       <c r="D207" s="140"/>
       <c r="E207" s="140" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F207" s="140"/>
       <c r="G207" s="140"/>
@@ -55044,7 +55084,7 @@
       <c r="C208" s="140"/>
       <c r="D208" s="140"/>
       <c r="E208" s="140" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F208" s="140"/>
       <c r="G208" s="140"/>
@@ -55057,7 +55097,7 @@
       <c r="C209" s="140"/>
       <c r="D209" s="140"/>
       <c r="E209" s="140" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="F209" s="140"/>
       <c r="G209" s="140"/>
@@ -55070,7 +55110,7 @@
       <c r="C210" s="140"/>
       <c r="D210" s="140"/>
       <c r="E210" s="140" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F210" s="140"/>
       <c r="G210" s="140"/>
@@ -55083,7 +55123,7 @@
       <c r="C211" s="140"/>
       <c r="D211" s="140"/>
       <c r="E211" s="140" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F211" s="140"/>
       <c r="G211" s="140"/>
@@ -55096,7 +55136,7 @@
       <c r="C212" s="140"/>
       <c r="D212" s="140"/>
       <c r="E212" s="140" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="F212" s="140"/>
       <c r="G212" s="140"/>
@@ -55109,7 +55149,7 @@
       <c r="C213" s="140"/>
       <c r="D213" s="140"/>
       <c r="E213" s="140" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F213" s="140"/>
       <c r="G213" s="140"/>
@@ -55122,7 +55162,7 @@
       <c r="C214" s="140"/>
       <c r="D214" s="140"/>
       <c r="E214" s="140" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F214" s="140"/>
       <c r="G214" s="140"/>
@@ -55135,7 +55175,7 @@
       <c r="C215" s="140"/>
       <c r="D215" s="140"/>
       <c r="E215" s="140" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F215" s="140"/>
       <c r="G215" s="140"/>
@@ -55148,7 +55188,7 @@
       <c r="C216" s="140"/>
       <c r="D216" s="140"/>
       <c r="E216" s="140" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="F216" s="140"/>
       <c r="G216" s="140"/>
@@ -55161,7 +55201,7 @@
       <c r="C217" s="140"/>
       <c r="D217" s="140"/>
       <c r="E217" s="140" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="F217" s="140"/>
       <c r="G217" s="140"/>
@@ -55174,7 +55214,7 @@
       <c r="C218" s="140"/>
       <c r="D218" s="140"/>
       <c r="E218" s="140" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F218" s="140"/>
       <c r="G218" s="140"/>
@@ -55187,7 +55227,7 @@
       <c r="C219" s="140"/>
       <c r="D219" s="140"/>
       <c r="E219" s="140" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F219" s="140"/>
       <c r="G219" s="140"/>
@@ -55200,7 +55240,7 @@
       <c r="C220" s="140"/>
       <c r="D220" s="140"/>
       <c r="E220" s="140" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F220" s="140"/>
       <c r="G220" s="140"/>
@@ -55213,7 +55253,7 @@
       <c r="C221" s="140"/>
       <c r="D221" s="140"/>
       <c r="E221" s="140" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F221" s="140"/>
       <c r="G221" s="140"/>
@@ -55226,7 +55266,7 @@
       <c r="C222" s="146"/>
       <c r="D222" s="146"/>
       <c r="E222" s="140" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F222" s="146"/>
       <c r="G222" s="146"/>
@@ -55247,7 +55287,7 @@
         <v>840</v>
       </c>
       <c r="E223" s="140" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F223" s="146"/>
       <c r="G223" s="146"/>
@@ -55260,7 +55300,7 @@
       <c r="C224" s="146"/>
       <c r="D224" s="146"/>
       <c r="E224" s="140" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F224" s="146"/>
       <c r="G224" s="146"/>
@@ -55273,7 +55313,7 @@
       <c r="C225" s="146"/>
       <c r="D225" s="146"/>
       <c r="E225" s="140" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="F225" s="146"/>
       <c r="G225" s="146"/>
@@ -55286,7 +55326,7 @@
       <c r="C226" s="146"/>
       <c r="D226" s="146"/>
       <c r="E226" s="140" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F226" s="146"/>
       <c r="G226" s="146"/>
@@ -55299,7 +55339,7 @@
       <c r="C227" s="146"/>
       <c r="D227" s="146"/>
       <c r="E227" s="140" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F227" s="146"/>
       <c r="G227" s="146"/>
@@ -55312,7 +55352,7 @@
       <c r="C228" s="146"/>
       <c r="D228" s="146"/>
       <c r="E228" s="140" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F228" s="146"/>
       <c r="G228" s="146"/>
@@ -55325,7 +55365,7 @@
       <c r="C229" s="146"/>
       <c r="D229" s="146"/>
       <c r="E229" s="140" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F229" s="146"/>
       <c r="G229" s="146"/>
@@ -55338,7 +55378,7 @@
       <c r="C230" s="146"/>
       <c r="D230" s="146"/>
       <c r="E230" s="140" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F230" s="146"/>
       <c r="G230" s="146"/>
@@ -55351,7 +55391,7 @@
       <c r="C231" s="146"/>
       <c r="D231" s="146"/>
       <c r="E231" s="140" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F231" s="146"/>
       <c r="G231" s="146"/>
@@ -55364,7 +55404,7 @@
       <c r="C232" s="146"/>
       <c r="D232" s="146"/>
       <c r="E232" s="140" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F232" s="146"/>
       <c r="G232" s="146"/>
@@ -55377,7 +55417,7 @@
       <c r="C233" s="146"/>
       <c r="D233" s="146"/>
       <c r="E233" s="140" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F233" s="146"/>
       <c r="G233" s="146"/>
@@ -55390,7 +55430,7 @@
       <c r="C234" s="146"/>
       <c r="D234" s="146"/>
       <c r="E234" s="140" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F234" s="146"/>
       <c r="G234" s="146"/>
@@ -55403,7 +55443,7 @@
       <c r="C235" s="146"/>
       <c r="D235" s="146"/>
       <c r="E235" s="140" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F235" s="146"/>
       <c r="G235" s="146"/>
@@ -55416,7 +55456,7 @@
       <c r="C236" s="146"/>
       <c r="D236" s="146"/>
       <c r="E236" s="140" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F236" s="146"/>
       <c r="G236" s="146"/>
@@ -55429,7 +55469,7 @@
       <c r="C237" s="146"/>
       <c r="D237" s="146"/>
       <c r="E237" s="140" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F237" s="146"/>
       <c r="G237" s="146"/>
@@ -55442,7 +55482,7 @@
       <c r="C238" s="146"/>
       <c r="D238" s="146"/>
       <c r="E238" s="140" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F238" s="146"/>
       <c r="G238" s="146"/>
@@ -55455,7 +55495,7 @@
       <c r="C239" s="146"/>
       <c r="D239" s="146"/>
       <c r="E239" s="140" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F239" s="146"/>
       <c r="G239" s="146"/>
@@ -55468,7 +55508,7 @@
       <c r="C240" s="146"/>
       <c r="D240" s="146"/>
       <c r="E240" s="140" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="F240" s="146"/>
       <c r="G240" s="146"/>
@@ -55481,7 +55521,7 @@
       <c r="C241" s="146"/>
       <c r="D241" s="146"/>
       <c r="E241" s="140" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="F241" s="146"/>
       <c r="G241" s="146"/>
@@ -55494,7 +55534,7 @@
       <c r="C242" s="146"/>
       <c r="D242" s="146"/>
       <c r="E242" s="140" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F242" s="146"/>
       <c r="G242" s="146"/>
@@ -55507,7 +55547,7 @@
       <c r="C243" s="146"/>
       <c r="D243" s="146"/>
       <c r="E243" s="140" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F243" s="146"/>
       <c r="G243" s="146"/>
@@ -55520,7 +55560,7 @@
       <c r="C244" s="146"/>
       <c r="D244" s="146"/>
       <c r="E244" s="140" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F244" s="146"/>
       <c r="G244" s="146"/>
@@ -55533,7 +55573,7 @@
       <c r="C245" s="146"/>
       <c r="D245" s="146"/>
       <c r="E245" s="140" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="F245" s="146"/>
       <c r="G245" s="146"/>
@@ -55546,7 +55586,7 @@
       <c r="C246" s="146"/>
       <c r="D246" s="146"/>
       <c r="E246" s="140" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F246" s="146"/>
       <c r="G246" s="146"/>
@@ -55559,7 +55599,7 @@
       <c r="C247" s="146"/>
       <c r="D247" s="146"/>
       <c r="E247" s="140" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F247" s="146"/>
       <c r="G247" s="146"/>
@@ -55572,7 +55612,7 @@
       <c r="C248" s="146"/>
       <c r="D248" s="146"/>
       <c r="E248" s="140" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F248" s="146"/>
       <c r="G248" s="146"/>
@@ -55585,7 +55625,7 @@
       <c r="C249" s="146"/>
       <c r="D249" s="146"/>
       <c r="E249" s="140" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="F249" s="146"/>
       <c r="G249" s="146"/>
@@ -55598,7 +55638,7 @@
       <c r="C250" s="146"/>
       <c r="D250" s="146"/>
       <c r="E250" s="140" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F250" s="146"/>
       <c r="G250" s="146"/>
@@ -55610,16 +55650,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="146" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C251" s="146" t="s">
         <v>394</v>
       </c>
       <c r="D251" s="140" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E251" s="140" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F251" s="146"/>
       <c r="G251" s="146"/>
@@ -55632,7 +55672,7 @@
       <c r="C252" s="146"/>
       <c r="D252" s="140"/>
       <c r="E252" s="140" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F252" s="146"/>
       <c r="G252" s="146"/>
@@ -55645,7 +55685,7 @@
       <c r="C253" s="146"/>
       <c r="D253" s="140"/>
       <c r="E253" s="140" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F253" s="146"/>
       <c r="G253" s="146"/>
@@ -55658,7 +55698,7 @@
       <c r="C254" s="146"/>
       <c r="D254" s="140"/>
       <c r="E254" s="140" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F254" s="146"/>
       <c r="G254" s="146"/>
@@ -55692,7 +55732,7 @@
         <v>842</v>
       </c>
       <c r="E256" s="140" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F256" s="140"/>
       <c r="G256" s="140"/>
@@ -55705,7 +55745,7 @@
       <c r="C257" s="140"/>
       <c r="D257" s="140"/>
       <c r="E257" s="140" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F257" s="140"/>
       <c r="G257" s="140"/>
@@ -55718,7 +55758,7 @@
       <c r="C258" s="140"/>
       <c r="D258" s="140"/>
       <c r="E258" s="140" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F258" s="140"/>
       <c r="G258" s="140"/>
@@ -55739,7 +55779,7 @@
         <v>844</v>
       </c>
       <c r="E259" s="140" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F259" s="140"/>
       <c r="G259" s="140"/>
@@ -55752,7 +55792,7 @@
       <c r="C260" s="140"/>
       <c r="D260" s="140"/>
       <c r="E260" s="140" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F260" s="140"/>
       <c r="G260" s="140"/>
@@ -55765,7 +55805,7 @@
       <c r="C261" s="140"/>
       <c r="D261" s="140"/>
       <c r="E261" s="140" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F261" s="140"/>
       <c r="G261" s="140"/>
@@ -55900,7 +55940,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{3DFC6BA6-6633-C54A-AFCF-F151C78EEF5C}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -55944,7 +55984,7 @@
       <c r="E1" s="159"/>
       <c r="F1" s="160"/>
       <c r="G1" s="161" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1" s="162"/>
       <c r="I1" s="163"/>
@@ -56008,7 +56048,7 @@
         <v>296</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G4" s="53" t="b">
         <v>0</v>
@@ -56037,7 +56077,7 @@
         <v>298</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G5" s="53" t="b">
         <v>0</v>
@@ -56058,13 +56098,13 @@
         <v>299</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>300</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G6" s="53" t="b">
         <v>0</v>
@@ -56089,7 +56129,7 @@
         <v>301</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="G7" s="53" t="b">
         <v>0</v>
@@ -56114,7 +56154,7 @@
         <v>302</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G8" s="53" t="b">
         <v>0</v>
@@ -56133,7 +56173,7 @@
         <v>303</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E9" s="53" t="s">
         <v>304</v>
@@ -56160,13 +56200,13 @@
         <v>303</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>306</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G10" s="53" t="b">
         <v>0</v>
@@ -56185,13 +56225,13 @@
         <v>303</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>307</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G11" s="53" t="b">
         <v>0</v>
@@ -56210,13 +56250,13 @@
         <v>303</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>308</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G12" s="53" t="b">
         <v>0</v>
@@ -56318,7 +56358,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -56336,7 +56376,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>417</v>
@@ -56347,13 +56387,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="64" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C3" s="64" t="s">
         <v>1086</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="32" t="s">
         <v>1087</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>1088</v>
       </c>
       <c r="E3" s="33"/>
     </row>
@@ -56374,7 +56414,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{5CF0E760-5243-094E-9A60-604A92F71052}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -56413,7 +56453,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="40" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B1" s="153"/>
       <c r="C1" s="153"/>
@@ -56440,34 +56480,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="110" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E2" s="111" t="s">
         <v>1089</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="F2" s="111" t="s">
         <v>1090</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="G2" s="111" t="s">
         <v>1091</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="H2" s="112" t="s">
         <v>1092</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="I2" s="113" t="s">
         <v>1093</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="J2" s="113" t="s">
         <v>1094</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="K2" s="111" t="s">
         <v>1095</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="L2" s="111" t="s">
         <v>1096</v>
       </c>
-      <c r="L2" s="111" t="s">
+      <c r="M2" s="111" t="s">
         <v>1097</v>
-      </c>
-      <c r="M2" s="111" t="s">
-        <v>1098</v>
       </c>
       <c r="N2" s="114" t="s">
         <v>417</v>
@@ -56478,29 +56518,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>1099</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>1100</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>1101</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>394</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G3" s="32">
         <v>10</v>
       </c>
       <c r="H3" s="115"/>
       <c r="I3" s="116" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J3" s="116" t="s">
         <v>1103</v>
-      </c>
-      <c r="J3" s="116" t="s">
-        <v>1104</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -56512,19 +56552,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>1105</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="32" t="s">
         <v>1106</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>1107</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>1108</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>1109</v>
       </c>
       <c r="G4" s="32">
         <v>100</v>
@@ -56535,7 +56575,7 @@
       <c r="I4" s="116"/>
       <c r="J4" s="116"/>
       <c r="K4" s="32" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="L4" s="117"/>
       <c r="M4" s="32"/>
@@ -56553,13 +56593,13 @@
       <c r="I5" s="116"/>
       <c r="J5" s="116"/>
       <c r="K5" s="32" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>1111</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="M5" s="32" t="s">
         <v>1112</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>1113</v>
       </c>
       <c r="N5" s="118"/>
     </row>
@@ -56575,10 +56615,10 @@
       <c r="I6" s="116"/>
       <c r="J6" s="116"/>
       <c r="K6" s="32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L6" s="33" t="s">
         <v>1114</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>1115</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="118"/>
@@ -56640,7 +56680,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{8DFD51CE-0BE6-F04D-9311-B4EB0DB97A27}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A482983-B543-F74D-AD49-45E5A735117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5815FF-8090-5E41-8022-7A22592AF277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="780" windowWidth="30020" windowHeight="17400" tabRatio="1000" firstSheet="33" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -12813,51 +12813,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release - v2025.1.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Added MySQL sheets,  Added Firewall-Policy-TunnelInspect sheet for tunnel inspection</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 </t>
     </r>
@@ -13719,6 +13674,51 @@
   </si>
   <si>
     <t>Singapore-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2025.1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Updated Region column - added support for multiple data centers in one region like Singapore</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -20080,7 +20080,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20092,7 +20092,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
-        <v>1534</v>
+        <v>1591</v>
       </c>
     </row>
   </sheetData>
@@ -23981,7 +23981,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24051,7 +24051,7 @@
     </row>
     <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>5</v>
+        <v>1589</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>347</v>
@@ -24645,7 +24645,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="169" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B1" s="170"/>
       <c r="C1" s="170"/>
@@ -36750,7 +36750,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="183" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B1" s="178"/>
       <c r="C1" s="178"/>
@@ -36760,7 +36760,7 @@
       <c r="G1" s="178"/>
       <c r="H1" s="179"/>
       <c r="I1" s="169" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="J1" s="170"/>
       <c r="K1" s="170"/>
@@ -36797,10 +36797,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>1538</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>1539</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>81</v>
@@ -36815,58 +36815,58 @@
         <v>82</v>
       </c>
       <c r="K2" s="35" t="s">
+        <v>1539</v>
+      </c>
+      <c r="L2" s="35" t="s">
         <v>1540</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>1541</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="34" t="s">
+        <v>1541</v>
+      </c>
+      <c r="O2" s="34" t="s">
         <v>1542</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>1543</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>1544</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>1545</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>1546</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="T2" s="34" t="s">
         <v>1547</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="U2" s="34" t="s">
         <v>1548</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>1549</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>1550</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>1551</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="Y2" s="34" t="s">
         <v>1552</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Z2" s="34" t="s">
         <v>1553</v>
-      </c>
-      <c r="Z2" s="34" t="s">
-        <v>1554</v>
       </c>
       <c r="AA2" s="34" t="s">
         <v>75</v>
       </c>
       <c r="AB2" s="34" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="AC2" s="35" t="s">
         <v>417</v>
@@ -36913,16 +36913,16 @@
         <v>549</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>1556</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>1557</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>1558</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1559</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>55</v>
@@ -36934,55 +36934,55 @@
         <v>1224</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="33" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>1561</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="O4" s="18" t="s">
+        <v>1561</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>1562</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>1562</v>
-      </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>1563</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>1564</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="S4" s="18" t="s">
         <v>1565</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>1566</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>1567</v>
       </c>
       <c r="U4" s="18" t="s">
         <v>190</v>
       </c>
       <c r="V4" s="18" t="s">
+        <v>1567</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>1558</v>
+      </c>
+      <c r="X4" s="149" t="s">
         <v>1568</v>
       </c>
-      <c r="W4" s="18" t="s">
-        <v>1559</v>
-      </c>
-      <c r="X4" s="149" t="s">
+      <c r="Y4" s="18" t="s">
         <v>1569</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>1570</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>1571</v>
       </c>
       <c r="AA4" s="18"/>
       <c r="AB4" s="6" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="AC4" s="18"/>
     </row>
@@ -36994,16 +36994,16 @@
         <v>549</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>1573</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>1574</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>1575</v>
-      </c>
       <c r="F5" s="32" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>87</v>
@@ -37015,53 +37015,53 @@
         <v>1223</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
       <c r="N5" s="32" t="s">
+        <v>1561</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>1561</v>
+      </c>
+      <c r="P5" s="32" t="s">
         <v>1562</v>
       </c>
-      <c r="O5" s="32" t="s">
-        <v>1562</v>
-      </c>
-      <c r="P5" s="32" t="s">
+      <c r="Q5" s="32" t="s">
         <v>1563</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>1564</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
         <v>1565</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="T5" s="32" t="s">
         <v>1566</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>1567</v>
       </c>
       <c r="U5" s="32" t="s">
         <v>190</v>
       </c>
       <c r="V5" s="32" t="s">
+        <v>1567</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>1558</v>
+      </c>
+      <c r="X5" s="32" t="s">
         <v>1568</v>
       </c>
-      <c r="W5" s="32" t="s">
-        <v>1559</v>
-      </c>
-      <c r="X5" s="32" t="s">
+      <c r="Y5" s="32" t="s">
         <v>1569</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Z5" s="32" t="s">
         <v>1570</v>
-      </c>
-      <c r="Z5" s="32" t="s">
-        <v>1571</v>
       </c>
       <c r="AA5" s="32"/>
       <c r="AB5" s="33" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="AC5" s="32"/>
     </row>
@@ -42993,7 +42993,7 @@
   </sheetPr>
   <dimension ref="A1:CC137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -43030,7 +43030,7 @@
   <sheetData>
     <row r="1" spans="1:81" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -43056,13 +43056,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>1578</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>1579</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>1580</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>417</v>
@@ -43085,23 +43085,23 @@
     </row>
     <row r="4" spans="1:81" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>549</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F4" s="32" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>1582</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>1583</v>
       </c>
       <c r="H4" s="32"/>
     </row>
@@ -43112,32 +43112,32 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>1584</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>1585</v>
       </c>
       <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:81" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>549</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F6" s="32" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>1582</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>1583</v>
       </c>
       <c r="H6" s="32"/>
     </row>
@@ -43148,10 +43148,10 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>1586</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>1587</v>
       </c>
       <c r="H7" s="32"/>
     </row>
@@ -43162,10 +43162,10 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>1588</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>1589</v>
       </c>
       <c r="H8" s="32"/>
     </row>
@@ -48414,7 +48414,7 @@
       </c>
       <c r="K35" s="59"/>
       <c r="L35" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="M35" s="59"/>
       <c r="N35" s="59"/>
@@ -48466,7 +48466,7 @@
     <row r="36" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K36" s="59"/>
       <c r="L36" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="M36" s="59"/>
       <c r="N36" s="59"/>

--- a/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop1/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5815FF-8090-5E41-8022-7A22592AF277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55709697-1970-B949-993A-B5945353AA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="760" windowWidth="30240" windowHeight="17480" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -803,7 +803,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2971" uniqueCount="1613">
   <si>
     <t>Region</t>
   </si>
@@ -4212,9 +4212,6 @@
     <t>Whitelisted IP Addresses</t>
   </si>
   <si>
-    <t>Data Storage Size in TB</t>
-  </si>
-  <si>
     <t>Database Workload</t>
   </si>
   <si>
@@ -9643,190 +9640,6 @@
   </si>
   <si>
     <r>
-      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"DB Name" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Should Not be more than 14 character and should contain only Alpha-Numeric Characters.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Admin Password" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Password must be 9 to 30 characters and contain at least 2 uppercase, 2 lowercase, 2 special, and 2 numeric 
-                                  characters. The special characters must be _, #, or -.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Database Edition"-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This field should be provided only for BYOL license model. Leave empty for License_Included
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Whitelisted IP Addresses" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Provide comma seperated IP addresses to restrict access to specified IP addresses
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Network Details" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Provide this detail to restrict access to a private endpoint within an OCI VCN in the format &lt;network-compartment-name&gt;@&lt;vcn-name&gt;::&lt;subnet-name&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Network Details" and "NSGs"- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">These fields should only be provided for private access
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                            </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 </t>
     </r>
@@ -13677,6 +13490,21 @@
   </si>
   <si>
     <r>
+      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"DB Name" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Should Not be more than 14 character and should contain only Alpha-Numeric Characters.
+</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -13685,6 +13513,267 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>"Admin Password" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Password must be 9 to 30 characters and contain at least 2 uppercase, 2 lowercase, 2 special, and 2 numeric 
+                                  characters. The special characters must be _, #, or -. You can also provide vault secret ocid in case password is stored in a vault.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Database Edition"-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This field should be provided only for BYOL license model. Leave empty for License_Included
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Whitelisted IP Addresses" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provide comma seperated IP addresses to restrict access to specified IP addresses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Network Details" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Provide this detail to restrict access to a private endpoint within an OCI VCN in the format &lt;network-compartment-name&gt;@&lt;vcn-name&gt;::&lt;subnet-name&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Network Details" and "NSGs"- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">These fields should only be provided for private access
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"CPU Detail" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;model&gt;::&lt;core_count&gt; eg ECPU::1 or OCPU::1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Data Storage Size" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> eg TB::1 or GB::1045
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>CPU Detail</t>
+  </si>
+  <si>
+    <t>Private Endpoint IP</t>
+  </si>
+  <si>
+    <t>Is Auto Scaling Enabled</t>
+  </si>
+  <si>
+    <t>Data Storage Size</t>
+  </si>
+  <si>
+    <t>ECPU::1</t>
+  </si>
+  <si>
+    <t>GB::1045</t>
+  </si>
+  <si>
+    <t>19c</t>
+  </si>
+  <si>
+    <t>ADW01</t>
+  </si>
+  <si>
+    <t>ocid1.autonomousdatabase.oc1.phx.anyhqljtmijay74sfjdzmt2nktrkigpga</t>
+  </si>
+  <si>
+    <t>adw01</t>
+  </si>
+  <si>
+    <t>ocid1.vaultsecret.oc1.phx.amaaaaaamzfegqzhgjjtxz7igf5rl5mlddqq</t>
+  </si>
+  <si>
+    <t>ECPU::2</t>
+  </si>
+  <si>
+    <t>10.0.1.241</t>
+  </si>
+  <si>
+    <t>TB::1</t>
+  </si>
+  <si>
+    <t>adw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>CD3 Automation Toolkit</t>
     </r>
     <r>
@@ -13706,7 +13795,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2025.1.2</t>
+      <t>Release - v2025.2.0</t>
     </r>
     <r>
       <rPr>
@@ -13717,8 +13806,26 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Updated Region column - added support for multiple data centers in one region like Singapore</t>
-    </r>
+Updated ADB sheet, VCNs sheet</t>
+    </r>
+  </si>
+  <si>
+    <t>Oracle GUA IPv6 Enabled</t>
+  </si>
+  <si>
+    <t>ULA IPv6 CIDR</t>
+  </si>
+  <si>
+    <t>BYOIP IPv6 Details</t>
+  </si>
+  <si>
+    <t>2620:10d:c0a8:20a8::/61</t>
+  </si>
+  <si>
+    <t>IPv6CIDR Block</t>
+  </si>
+  <si>
+    <t>2620:10d:c0a8:20a9::/64</t>
   </si>
 </sst>
 </file>
@@ -14426,7 +14533,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14872,6 +14979,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -20092,7 +20203,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
-        <v>1591</v>
+        <v>1606</v>
       </c>
     </row>
   </sheetData>
@@ -20110,10 +20221,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20121,36 +20232,40 @@
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="26.5" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="4" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
+    <col min="14" max="14" width="26.5" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
       <c r="D1" s="159"/>
       <c r="E1" s="159"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="158" t="s">
-        <v>1531</v>
-      </c>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
       <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="158" t="s">
+        <v>1529</v>
+      </c>
       <c r="K1" s="159"/>
-      <c r="L1" s="160"/>
-    </row>
-    <row r="2" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="160"/>
+    </row>
+    <row r="2" spans="1:15" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -20163,32 +20278,41 @@
       <c r="D2" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="15" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>313</v>
       </c>
@@ -20201,28 +20325,35 @@
       <c r="D3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="I3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="J3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="K3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="L3" s="33" t="s">
         <v>761</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="M3" s="33" t="s">
         <v>760</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32"/>
-    </row>
-    <row r="4" spans="1:12" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="N3" s="33"/>
+      <c r="O3" s="32"/>
+    </row>
+    <row r="4" spans="1:15" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>313</v>
       </c>
@@ -20235,28 +20366,31 @@
       <c r="D4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="I4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="L4" s="33" t="s">
         <v>765</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="M4" s="33" t="s">
         <v>763</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="28"/>
-    </row>
-    <row r="5" spans="1:12" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="N4" s="33"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>313</v>
       </c>
@@ -20269,28 +20403,31 @@
       <c r="D5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="I5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="J5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="K5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="L5" s="33" t="s">
         <v>764</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="M5" s="33" t="s">
         <v>763</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="28"/>
-    </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="33"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>4</v>
       </c>
@@ -20304,9 +20441,12 @@
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:15" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
         <v>5</v>
       </c>
@@ -20319,32 +20459,35 @@
       <c r="D7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53" t="s">
         <v>762</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="I7" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="J7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="K7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="L7" s="53" t="s">
         <v>761</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="M7" s="53" t="s">
         <v>760</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="N7" s="53" t="s">
         <v>759</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="O7" s="54" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="53" t="s">
         <v>5</v>
       </c>
@@ -20357,28 +20500,31 @@
       <c r="D8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="I8" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="J8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="K8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="L8" s="53" t="s">
         <v>758</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="M8" s="53" t="s">
         <v>756</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-    </row>
-    <row r="9" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+    </row>
+    <row r="9" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
         <v>5</v>
       </c>
@@ -20391,34 +20537,38 @@
       <c r="D9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="I9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="J9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="K9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="L9" s="53" t="s">
         <v>757</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="M9" s="53" t="s">
         <v>756</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="C3:L1048576 A1:L1" xr:uid="{57CF421B-A3EF-034B-9098-0E624EFE056C}"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" sqref="A1:O1 C3:D1048576 G3:O1048576 E4:F1048576" xr:uid="{57CF421B-A3EF-034B-9098-0E624EFE056C}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E3:F3" xr:uid="{3F549C00-7E7B-644A-B762-5AFB52040A18}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20474,7 +20624,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -20482,7 +20632,7 @@
       <c r="E1" s="151"/>
       <c r="F1" s="151"/>
       <c r="G1" s="164" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1" s="164"/>
       <c r="I1" s="164"/>
@@ -20501,7 +20651,7 @@
         <v>636</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>637</v>
@@ -20565,13 +20715,13 @@
         <v>570</v>
       </c>
       <c r="D5" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>1035</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>1036</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>1037</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -20585,16 +20735,16 @@
         <v>347</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>1038</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="33" t="s">
         <v>1039</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>1040</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>1041</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -20662,7 +20812,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="40" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B1" s="163"/>
     </row>
@@ -20737,7 +20887,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -20966,10 +21116,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20979,23 +21129,23 @@
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="24.1640625" customWidth="1"/>
+    <col min="6" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5" customWidth="1"/>
+    <col min="12" max="13" width="11.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -21004,11 +21154,11 @@
       <c r="F1" s="159"/>
       <c r="G1" s="159"/>
       <c r="H1" s="159"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="165" t="s">
-        <v>1022</v>
-      </c>
-      <c r="K1" s="165"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="165" t="s">
+        <v>1021</v>
+      </c>
       <c r="L1" s="165"/>
       <c r="M1" s="165"/>
       <c r="N1" s="165"/>
@@ -21018,8 +21168,9 @@
       <c r="R1" s="165"/>
       <c r="S1" s="165"/>
       <c r="T1" s="165"/>
-    </row>
-    <row r="2" spans="1:20" s="40" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="165"/>
+    </row>
+    <row r="2" spans="1:21" s="40" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -21033,55 +21184,58 @@
         <v>309</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="R2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="U2" s="27" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="30" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="30" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>313</v>
       </c>
@@ -21100,44 +21254,47 @@
       <c r="F3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="I3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="J3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="K3" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="L3" s="32" t="s">
         <v>779</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="O3" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="P3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="Q3" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="Q3" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="R3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="28"/>
-    </row>
-    <row r="4" spans="1:20" s="30" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="33"/>
+      <c r="U3" s="28"/>
+    </row>
+    <row r="4" spans="1:21" s="30" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>313</v>
       </c>
@@ -21156,33 +21313,31 @@
       <c r="F4" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="I4" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>777</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="L4" s="32" t="s">
         <v>776</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="32"/>
+      <c r="N4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="P4" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="Q4" s="33" t="s">
         <v>21</v>
@@ -21190,10 +21345,13 @@
       <c r="R4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="28"/>
-    </row>
-    <row r="5" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="33"/>
+      <c r="U4" s="28"/>
+    </row>
+    <row r="5" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>313</v>
       </c>
@@ -21212,33 +21370,31 @@
       <c r="F5" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="I5" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="J5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="K5" s="33" t="s">
         <v>774</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="L5" s="32" t="s">
         <v>773</v>
       </c>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="32"/>
+      <c r="N5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="O5" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="P5" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="Q5" s="33" t="s">
         <v>21</v>
@@ -21246,10 +21402,13 @@
       <c r="R5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="33"/>
+      <c r="S5" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="T5" s="33"/>
-    </row>
-    <row r="6" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="33"/>
+    </row>
+    <row r="6" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>313</v>
       </c>
@@ -21268,44 +21427,45 @@
       <c r="F6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="J6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="K6" s="33" t="s">
         <v>576</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="L6" s="32" t="s">
         <v>577</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="33" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="O6" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="P6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="Q6" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="R6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="33"/>
+      <c r="S6" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="T6" s="33"/>
-    </row>
-    <row r="7" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U6" s="33"/>
+    </row>
+    <row r="7" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>313</v>
       </c>
@@ -21324,44 +21484,45 @@
       <c r="F7" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="I7" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="J7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="K7" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="O7" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="P7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="Q7" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="R7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="33"/>
+      <c r="S7" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="T7" s="33"/>
-    </row>
-    <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U7" s="33"/>
+    </row>
+    <row r="8" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>313</v>
       </c>
@@ -21380,44 +21541,45 @@
       <c r="F8" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="I8" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="J8" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="K8" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="L8" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="O8" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="P8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="Q8" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="R8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="33"/>
+      <c r="S8" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="T8" s="33"/>
-    </row>
-    <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U8" s="33"/>
+    </row>
+    <row r="9" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>313</v>
       </c>
@@ -21436,33 +21598,31 @@
       <c r="F9" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="I9" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="J9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="K9" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="L9" s="32" t="s">
         <v>588</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="32"/>
+      <c r="N9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="O9" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="P9" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="Q9" s="33" t="s">
         <v>21</v>
@@ -21470,10 +21630,13 @@
       <c r="R9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="33"/>
+      <c r="S9" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="T9" s="33"/>
-    </row>
-    <row r="10" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U9" s="33"/>
+    </row>
+    <row r="10" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>313</v>
       </c>
@@ -21492,44 +21655,45 @@
       <c r="F10" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="I10" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="J10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="K10" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="L10" s="32" t="s">
         <v>591</v>
       </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="32"/>
+      <c r="N10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="33" t="s">
+      <c r="O10" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="O10" s="33" t="s">
+      <c r="P10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="33" t="s">
+      <c r="Q10" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="R10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="33"/>
+      <c r="S10" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="T10" s="33"/>
-    </row>
-    <row r="11" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="33"/>
+    </row>
+    <row r="11" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>313</v>
       </c>
@@ -21548,44 +21712,45 @@
       <c r="F11" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="I11" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="J11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="K11" s="33" t="s">
         <v>593</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="L11" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="32"/>
+      <c r="N11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="33" t="s">
+      <c r="O11" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="O11" s="33" t="s">
+      <c r="P11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="Q11" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="R11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="33"/>
+      <c r="S11" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="T11" s="33"/>
-    </row>
-    <row r="12" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U11" s="33"/>
+    </row>
+    <row r="12" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>313</v>
       </c>
@@ -21604,44 +21769,45 @@
       <c r="F12" s="33" t="s">
         <v>596</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="I12" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="J12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="K12" s="33" t="s">
         <v>597</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="L12" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="32"/>
+      <c r="N12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="O12" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="O12" s="33" t="s">
+      <c r="P12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="Q12" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>21</v>
       </c>
       <c r="R12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="33"/>
+      <c r="S12" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="T12" s="33"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="33"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
         <v>4</v>
       </c>
@@ -21664,8 +21830,9 @@
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
       <c r="T13" s="33"/>
-    </row>
-    <row r="14" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="U13" s="33"/>
+    </row>
+    <row r="14" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>5</v>
       </c>
@@ -21676,51 +21843,52 @@
         <v>572</v>
       </c>
       <c r="D14" s="53" t="s">
+        <v>922</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>920</v>
+      </c>
+      <c r="F14" s="53" t="s">
         <v>923</v>
       </c>
-      <c r="E14" s="53" t="s">
-        <v>921</v>
-      </c>
-      <c r="F14" s="53" t="s">
+      <c r="G14" s="53"/>
+      <c r="H14" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53" t="s">
         <v>924</v>
       </c>
-      <c r="G14" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53" t="s">
-        <v>925</v>
-      </c>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54" t="s">
-        <v>886</v>
-      </c>
+      <c r="L14" s="53"/>
       <c r="M14" s="54" t="s">
+        <v>885</v>
+      </c>
+      <c r="N14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="53" t="s">
+      <c r="O14" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="O14" s="53" t="s">
+      <c r="P14" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="53" t="s">
+      <c r="Q14" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="53" t="str">
-        <f t="shared" ref="Q14" si="0">IF(H14="public","y",IF(H14="private","n",""))</f>
+      <c r="R14" s="53" t="str">
+        <f t="shared" ref="R14" si="0">IF(I14="public","y",IF(I14="private","n",""))</f>
         <v>n</v>
       </c>
-      <c r="R14" s="53" t="s">
+      <c r="S14" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="S14" s="53"/>
       <c r="T14" s="53"/>
-    </row>
-    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="U14" s="53"/>
+    </row>
+    <row r="15" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
         <v>5</v>
       </c>
@@ -21731,48 +21899,49 @@
         <v>572</v>
       </c>
       <c r="D15" s="53" t="s">
+        <v>925</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>921</v>
+      </c>
+      <c r="F15" s="53" t="s">
         <v>926</v>
       </c>
-      <c r="E15" s="53" t="s">
-        <v>922</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>927</v>
-      </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="53"/>
+      <c r="H15" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="I15" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53" t="s">
-        <v>925</v>
-      </c>
-      <c r="K15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53" t="s">
+        <v>924</v>
+      </c>
       <c r="L15" s="53"/>
-      <c r="M15" s="54" t="s">
+      <c r="M15" s="53"/>
+      <c r="N15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="53" t="s">
+      <c r="O15" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="O15" s="53" t="s">
+      <c r="P15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="53" t="s">
+      <c r="Q15" s="53" t="s">
         <v>23</v>
-      </c>
-      <c r="Q15" s="53" t="s">
-        <v>21</v>
       </c>
       <c r="R15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="53"/>
+      <c r="S15" s="53" t="s">
+        <v>21</v>
+      </c>
       <c r="T15" s="53"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="53"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
         <v>4</v>
       </c>
@@ -21787,16 +21956,17 @@
       <c r="J16" s="53"/>
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
       <c r="R16" s="53"/>
       <c r="S16" s="53"/>
       <c r="T16" s="53"/>
-    </row>
-    <row r="17" spans="1:20" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="53"/>
+    </row>
+    <row r="17" spans="1:21" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
         <v>5</v>
       </c>
@@ -21813,44 +21983,45 @@
       <c r="F17" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="I17" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="J17" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="53" t="s">
+      <c r="K17" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="53"/>
       <c r="L17" s="53"/>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="53"/>
+      <c r="N17" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="O17" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="O17" s="53" t="s">
+      <c r="P17" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="Q17" s="53" t="s">
         <v>23</v>
-      </c>
-      <c r="Q17" s="53" t="s">
-        <v>21</v>
       </c>
       <c r="R17" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="53"/>
-      <c r="T17" s="54" t="s">
+      <c r="S17" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="53"/>
+      <c r="U17" s="54" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
         <v>5</v>
       </c>
@@ -21867,40 +22038,41 @@
       <c r="F18" s="53" t="s">
         <v>372</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="53"/>
+      <c r="H18" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="I18" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="J18" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="53"/>
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
-      <c r="M18" s="53" t="s">
+      <c r="M18" s="53"/>
+      <c r="N18" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="53" t="s">
+      <c r="O18" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="O18" s="53" t="s">
+      <c r="P18" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="53" t="s">
+      <c r="Q18" s="53" t="s">
         <v>23</v>
-      </c>
-      <c r="Q18" s="53" t="s">
-        <v>21</v>
       </c>
       <c r="R18" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="53"/>
+      <c r="S18" s="53" t="s">
+        <v>21</v>
+      </c>
       <c r="T18" s="53"/>
-    </row>
-    <row r="19" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="53"/>
+    </row>
+    <row r="19" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
         <v>5</v>
       </c>
@@ -21917,40 +22089,41 @@
       <c r="F19" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="53"/>
+      <c r="H19" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="I19" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="J19" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="53"/>
       <c r="K19" s="53"/>
       <c r="L19" s="53"/>
-      <c r="M19" s="53" t="s">
+      <c r="M19" s="53"/>
+      <c r="N19" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="53" t="s">
+      <c r="O19" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="O19" s="53" t="s">
+      <c r="P19" s="53" t="s">
         <v>21</v>
-      </c>
-      <c r="P19" s="53" t="s">
-        <v>23</v>
       </c>
       <c r="Q19" s="53" t="s">
         <v>23</v>
       </c>
       <c r="R19" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="S19" s="53"/>
       <c r="T19" s="53"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="53"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="53" t="s">
         <v>5</v>
       </c>
@@ -21967,23 +22140,21 @@
       <c r="F20" s="53" t="s">
         <v>374</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="I20" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="J20" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53" t="s">
+      <c r="K20" s="53"/>
+      <c r="L20" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53" t="s">
-        <v>23</v>
-      </c>
+      <c r="M20" s="53"/>
       <c r="N20" s="53" t="s">
         <v>23</v>
       </c>
@@ -21994,15 +22165,18 @@
         <v>23</v>
       </c>
       <c r="Q20" s="53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R20" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="53"/>
+      <c r="S20" s="53" t="s">
+        <v>21</v>
+      </c>
       <c r="T20" s="53"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="53"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="53" t="s">
         <v>5</v>
       </c>
@@ -22019,23 +22193,21 @@
       <c r="F21" s="53" t="s">
         <v>375</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="I21" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="J21" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53" t="s">
+      <c r="K21" s="53"/>
+      <c r="L21" s="53" t="s">
         <v>376</v>
       </c>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53" t="s">
-        <v>23</v>
-      </c>
+      <c r="M21" s="53"/>
       <c r="N21" s="53" t="s">
         <v>23</v>
       </c>
@@ -22049,12 +22221,15 @@
         <v>23</v>
       </c>
       <c r="R21" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="53"/>
       <c r="T21" s="53"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="53"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
         <v>5</v>
       </c>
@@ -22071,28 +22246,26 @@
       <c r="F22" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="G22" s="53"/>
+      <c r="H22" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="53" t="s">
+      <c r="I22" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="J22" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53" t="s">
+      <c r="K22" s="53"/>
+      <c r="L22" s="53" t="s">
         <v>379</v>
       </c>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53" t="s">
+      <c r="M22" s="53"/>
+      <c r="N22" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="53" t="s">
+      <c r="O22" s="53" t="s">
         <v>370</v>
-      </c>
-      <c r="O22" s="53" t="s">
-        <v>23</v>
       </c>
       <c r="P22" s="53" t="s">
         <v>23</v>
@@ -22103,16 +22276,20 @@
       <c r="R22" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="53"/>
+      <c r="S22" s="53" t="s">
+        <v>23</v>
+      </c>
       <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:T1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:U1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="D3:D12 F3:F12 D13:F1048576 W15:XFD16 E2:E12 H3:I1048576 K3:T1048576 A1:T1" xr:uid="{13C73E43-FDE4-484D-842E-A152BE4DA4BE}"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" sqref="D3:D12 A1:U1 D13:G1048576 X15:XFD16 E2:E12 I3:J1048576 L3:U1048576 F3:F12 G4:G12" xr:uid="{13C73E43-FDE4-484D-842E-A152BE4DA4BE}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{DB53B1BE-9B8E-F84E-83BA-8DA3551E3E2D}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -22127,7 +22304,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$N$2:$N$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G1048576</xm:sqref>
+          <xm:sqref>H3:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" prompt="Specify Compartment name." xr:uid="{ACCFD3B9-16DD-E14A-9A12-E91316B4C0C7}">
           <x14:formula1>
@@ -22145,7 +22322,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J1048576</xm:sqref>
+          <xm:sqref>K3:K1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{F6B5FF64-79EB-F647-AF58-3ACD2D3ECF4C}">
           <x14:formula1>
@@ -22186,7 +22363,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -22317,7 +22494,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -22428,7 +22605,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -22589,7 +22766,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -23593,7 +23770,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
@@ -23612,22 +23789,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>928</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>930</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>931</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>932</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>933</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>417</v>
@@ -23654,19 +23831,19 @@
         <v>347</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>933</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>934</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>935</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>936</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>937</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>938</v>
       </c>
       <c r="H4" s="32">
         <v>3600</v>
@@ -23681,19 +23858,19 @@
         <v>347</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>933</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>934</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>935</v>
-      </c>
       <c r="E5" s="32" t="s">
+        <v>938</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>939</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>940</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>941</v>
       </c>
       <c r="H5" s="32">
         <v>300</v>
@@ -23708,19 +23885,19 @@
         <v>347</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>941</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>942</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="32" t="s">
         <v>943</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="32" t="s">
+        <v>936</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>944</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>937</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>945</v>
       </c>
       <c r="H6" s="32">
         <v>300</v>
@@ -23995,7 +24172,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -24027,7 +24204,7 @@
         <v>548</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>394</v>
@@ -24042,7 +24219,7 @@
         <v>549</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>394</v>
@@ -24051,13 +24228,13 @@
     </row>
     <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>347</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>394</v>
@@ -24072,7 +24249,7 @@
         <v>550</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>394</v>
@@ -24263,7 +24440,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="167" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="168"/>
       <c r="C1" s="168"/>
@@ -24290,22 +24467,22 @@
         <v>309</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>945</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>946</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>947</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>948</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>949</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>950</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>951</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>417</v>
@@ -24340,20 +24517,20 @@
         <v>569</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>951</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>952</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>953</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>781</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="29" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -24371,16 +24548,16 @@
         <v>571</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>575</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
@@ -24455,7 +24632,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -24645,7 +24822,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="169" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B1" s="170"/>
       <c r="C1" s="170"/>
@@ -24655,7 +24832,7 @@
       <c r="G1" s="170"/>
       <c r="H1" s="171"/>
       <c r="I1" s="158" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="J1" s="159"/>
       <c r="K1" s="159"/>
@@ -24689,7 +24866,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>89</v>
@@ -24716,7 +24893,7 @@
         <v>790</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="P2" s="26" t="s">
         <v>92</v>
@@ -24734,7 +24911,7 @@
         <v>95</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="V2" s="26" t="s">
         <v>417</v>
@@ -24757,7 +24934,7 @@
         <v>346</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="G3" s="33" t="b">
         <v>0</v>
@@ -24841,7 +25018,7 @@
         <v>346</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G5" s="54" t="b">
         <v>0</v>
@@ -24860,7 +25037,7 @@
       </c>
       <c r="N5" s="53"/>
       <c r="O5" s="53" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="P5" s="53" t="s">
         <v>100</v>
@@ -24874,7 +25051,7 @@
         <v>88</v>
       </c>
       <c r="U5" s="54" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="V5" s="53"/>
     </row>
@@ -24895,7 +25072,7 @@
         <v>101</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G6" s="54" t="b">
         <v>0</v>
@@ -24924,7 +25101,7 @@
       </c>
       <c r="T6" s="53"/>
       <c r="U6" s="54" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V6" s="53"/>
     </row>
@@ -24945,7 +25122,7 @@
         <v>346</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="G7" s="54" t="b">
         <v>0</v>
@@ -24987,20 +25164,20 @@
         <v>55</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E8" s="53" t="s">
         <v>98</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G8" s="54" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="53"/>
       <c r="I8" s="53" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J8" s="94" t="s">
         <v>102</v>
@@ -25129,7 +25306,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -25160,7 +25337,7 @@
         <v>103</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>104</v>
@@ -25181,16 +25358,16 @@
         <v>427</v>
       </c>
       <c r="K2" s="27" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>1116</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>1117</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>1118</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>1119</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>791</v>
@@ -25256,19 +25433,19 @@
         <v>793</v>
       </c>
       <c r="J4" s="103" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K4" s="103" t="s">
         <v>1120</v>
-      </c>
-      <c r="K4" s="103" t="s">
-        <v>1121</v>
       </c>
       <c r="L4" s="103">
         <v>100</v>
       </c>
       <c r="M4" s="103" t="s">
+        <v>1121</v>
+      </c>
+      <c r="N4" s="103" t="s">
         <v>1122</v>
-      </c>
-      <c r="N4" s="103" t="s">
-        <v>1123</v>
       </c>
       <c r="O4" s="84" t="b">
         <v>1</v>
@@ -25286,7 +25463,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>391</v>
@@ -25392,7 +25569,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -25406,7 +25583,7 @@
       <c r="K1" s="159"/>
       <c r="L1" s="160"/>
       <c r="M1" s="172" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="N1" s="173"/>
       <c r="O1" s="173"/>
@@ -25432,7 +25609,7 @@
         <v>108</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>109</v>
@@ -25447,13 +25624,13 @@
         <v>111</v>
       </c>
       <c r="J2" s="27" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>1125</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>1126</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>1127</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>112</v>
@@ -25477,10 +25654,10 @@
         <v>118</v>
       </c>
       <c r="T2" s="27" t="s">
+        <v>1127</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>1128</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>1129</v>
       </c>
       <c r="V2" s="27" t="s">
         <v>417</v>
@@ -25494,7 +25671,7 @@
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="32" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -25528,7 +25705,7 @@
         <v>119</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53" t="s">
@@ -25632,7 +25809,7 @@
         <v>119</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -25670,7 +25847,7 @@
         <v>127</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -25712,7 +25889,7 @@
         <v>130</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -25754,7 +25931,7 @@
         <v>132</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -25789,10 +25966,10 @@
         <v>87</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -25828,7 +26005,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
@@ -25935,7 +26112,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -25952,7 +26129,7 @@
       <c r="N1" s="159"/>
       <c r="O1" s="160"/>
       <c r="P1" s="169" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="Q1" s="170"/>
       <c r="R1" s="170"/>
@@ -25982,46 +26159,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>856</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>858</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>859</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>1216</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>1217</v>
-      </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>860</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>861</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>862</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O2" s="27" t="s">
         <v>863</v>
       </c>
-      <c r="N2" s="27" t="s">
-        <v>1239</v>
-      </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>864</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>865</v>
       </c>
       <c r="Q2" s="27" t="s">
         <v>82</v>
@@ -26036,28 +26213,28 @@
         <v>786</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="W2" s="27" t="s">
         <v>81</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Y2" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="Z2" s="27" t="s">
         <v>867</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="AA2" s="27" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AB2" s="27" t="s">
         <v>868</v>
-      </c>
-      <c r="AA2" s="27" t="s">
-        <v>1220</v>
-      </c>
-      <c r="AB2" s="27" t="s">
-        <v>869</v>
       </c>
       <c r="AC2" s="27" t="s">
         <v>92</v>
@@ -26066,19 +26243,19 @@
         <v>417</v>
       </c>
       <c r="AE2" s="27" t="s">
+        <v>869</v>
+      </c>
+      <c r="AF2" s="27" t="s">
         <v>870</v>
       </c>
-      <c r="AF2" s="27" t="s">
-        <v>871</v>
-      </c>
       <c r="AG2" s="27" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AH2" s="27" t="s">
         <v>1073</v>
       </c>
-      <c r="AH2" s="27" t="s">
-        <v>1074</v>
-      </c>
       <c r="AI2" s="27" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26128,76 +26305,76 @@
         <v>548</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D4" s="95" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E4" s="95" t="s">
         <v>1075</v>
       </c>
-      <c r="E4" s="95" t="s">
-        <v>1076</v>
-      </c>
       <c r="F4" s="95" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G4" s="95" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="95" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I4" s="95" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="J4" s="54" t="b">
         <v>0</v>
       </c>
       <c r="K4" s="95" t="s">
+        <v>874</v>
+      </c>
+      <c r="L4" s="95" t="s">
         <v>875</v>
       </c>
-      <c r="L4" s="95" t="s">
-        <v>876</v>
-      </c>
       <c r="M4" s="95" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="N4" s="95" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="O4" s="95" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="P4" s="95">
         <v>1</v>
       </c>
       <c r="Q4" s="95" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R4" s="95">
         <v>32</v>
       </c>
       <c r="S4" s="95" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="T4" s="95">
         <v>32</v>
       </c>
       <c r="U4" s="95" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="V4" s="95" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="W4" s="95" t="s">
         <v>96</v>
       </c>
       <c r="X4" s="95" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="Y4" s="95"/>
       <c r="Z4" s="95"/>
       <c r="AA4" s="95"/>
       <c r="AB4" s="96" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AC4" s="95" t="s">
         <v>100</v>
@@ -26226,41 +26403,41 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
       <c r="N5" s="54" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="O5" s="95" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="P5" s="54">
         <v>2</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="R5" s="54">
         <v>16</v>
       </c>
       <c r="S5" s="54" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="T5" s="54">
         <v>32</v>
       </c>
       <c r="U5" s="54"/>
       <c r="V5" s="95" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="W5" s="54" t="s">
         <v>87</v>
       </c>
       <c r="X5" s="95" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Y5" s="54"/>
       <c r="Z5" s="54"/>
       <c r="AA5" s="54"/>
       <c r="AB5" s="53" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AC5" s="54" t="s">
         <v>100</v>
@@ -26280,25 +26457,25 @@
         <v>548</v>
       </c>
       <c r="C6" s="54" t="s">
+        <v>881</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F6" s="54" t="s">
         <v>882</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>883</v>
       </c>
       <c r="G6" s="54" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="95" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="I6" s="95" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="J6" s="54" t="b">
         <v>0</v>
@@ -26307,44 +26484,44 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="O6" s="95" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="P6" s="54">
         <v>1</v>
       </c>
       <c r="Q6" s="54" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R6" s="54">
         <v>32</v>
       </c>
       <c r="S6" s="54" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="T6" s="54">
         <v>32</v>
       </c>
       <c r="U6" s="95" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="V6" s="95" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="W6" s="54" t="s">
         <v>96</v>
       </c>
       <c r="X6" s="95" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Y6" s="54">
         <v>2</v>
       </c>
       <c r="Z6" s="54"/>
       <c r="AA6" s="95" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="AB6" s="97"/>
       <c r="AC6" s="54" t="s">
@@ -26356,7 +26533,7 @@
       <c r="AG6" s="53"/>
       <c r="AH6" s="53"/>
       <c r="AI6" s="54" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -26431,7 +26608,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -26472,7 +26649,7 @@
         <v>648</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>135</v>
@@ -26547,7 +26724,7 @@
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
       <c r="G4" s="54" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H4" s="54" t="b">
         <v>1</v>
@@ -26621,7 +26798,7 @@
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="54" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H6" s="54" t="b">
         <v>0</v>
@@ -26734,7 +26911,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -26778,7 +26955,7 @@
         <v>152</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>153</v>
@@ -26868,7 +27045,7 @@
         <v>163</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>164</v>
@@ -26928,7 +27105,7 @@
         <v>169</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>164</v>
@@ -26976,7 +27153,7 @@
         <v>172</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>164</v>
@@ -27092,7 +27269,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -28002,7 +28179,7 @@
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
       <c r="J23" s="53" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K23" s="53"/>
       <c r="L23" s="53"/>
@@ -28102,7 +28279,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="40" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="152" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B1" s="153"/>
       <c r="C1" s="153"/>
@@ -28122,10 +28299,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="111" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E2" s="111" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F2" s="132" t="s">
         <v>422</v>
@@ -28142,7 +28319,7 @@
         <v>551</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="33"/>
@@ -28157,7 +28334,7 @@
         <v>826</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
@@ -28187,7 +28364,7 @@
         <v>554</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
@@ -28202,7 +28379,7 @@
         <v>555</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="19"/>
@@ -28217,7 +28394,7 @@
         <v>556</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="32"/>
@@ -28232,7 +28409,7 @@
         <v>557</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -28262,7 +28439,7 @@
         <v>642</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -28303,7 +28480,7 @@
         <v>827</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="6"/>
@@ -28320,7 +28497,7 @@
         <v>829</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -28337,7 +28514,7 @@
         <v>831</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -28573,7 +28750,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="165" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B1" s="153"/>
       <c r="C1" s="153"/>
@@ -28587,10 +28764,10 @@
         <v>134</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
@@ -28609,10 +28786,10 @@
         <v>392</v>
       </c>
       <c r="C4" s="54" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>1201</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -28623,10 +28800,10 @@
         <v>392</v>
       </c>
       <c r="C5" s="54" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>1203</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -28712,7 +28889,7 @@
         <v>804</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>817</v>
@@ -28774,13 +28951,13 @@
         <v>807</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E4" s="54" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G4" s="54" t="b">
         <v>1</v>
@@ -28812,7 +28989,7 @@
         <v>811</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E5" s="54" t="b">
         <v>1</v>
@@ -29283,10 +29460,10 @@
         <v>806</v>
       </c>
       <c r="G2" s="27" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>1130</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>1131</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>155</v>
@@ -29298,7 +29475,7 @@
         <v>438</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -29350,7 +29527,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -29384,7 +29561,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -29401,10 +29578,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="54" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>1132</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>1133</v>
       </c>
       <c r="I6" s="54">
         <v>53</v>
@@ -29414,7 +29591,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
   </sheetData>
@@ -29455,47 +29632,56 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:T158"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-    </row>
-    <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="151" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+    </row>
+    <row r="2" spans="1:20" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -29505,112 +29691,332 @@
       <c r="C2" s="50" t="s">
         <v>845</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>1210</v>
+      <c r="D2" s="50" t="s">
+        <v>1590</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>846</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>712</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="I2" s="93" t="s">
         <v>311</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>711</v>
-      </c>
       <c r="J2" s="15" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1592</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>1593</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>1594</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>847</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>848</v>
-      </c>
-      <c r="L2" s="50" t="s">
+      <c r="O2" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="P2" s="50" t="s">
         <v>716</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="Q2" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="R2" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="S2" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
-      <c r="D3" s="19"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="19"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
     </row>
-    <row r="4" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
         <v>313</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="53" t="s">
+        <v>848</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53" t="s">
         <v>849</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="85" t="s">
-        <v>850</v>
-      </c>
-      <c r="G4" s="53" t="s">
+      <c r="H4" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="I4" s="89" t="s">
         <v>326</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85" t="s">
+      <c r="J4" s="53" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>1596</v>
+      </c>
+      <c r="N4" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="O4" s="54" t="s">
+        <v>1597</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+    </row>
+    <row r="5" spans="1:20" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>549</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H5" s="54"/>
+      <c r="I5" s="184" t="s">
+        <v>1601</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>1602</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L5" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>1604</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>1605</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>1597</v>
+      </c>
+      <c r="P5" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="Q5" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="R5" s="54" t="s">
         <v>329</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-    </row>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="E1:F1048576 G1:G2 H1:J1048576 K1:N2 A1:B2 C1:C1048576 O1:XFD1048576 D1:D2" xr:uid="{6148E925-70D2-6A49-81A4-F66075EC8309}"/>
+    <dataValidation allowBlank="1" sqref="O6:O1048576 G4 E3 A1:A2 U1:XFD2 B2:T2 H3 F6:F1048576 I6:J1048576 L4:M4 S3:XFD1048576 I3:J4 F3:F4 O3:R3 C3:C4 C6:C1048576 C5:D5 F5:G5 I5:M5" xr:uid="{E298D3F2-9029-EA4C-B031-22DC4FCE495D}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29618,60 +30024,6 @@
     <oddHeader>&amp;L&amp;"Calibri"&amp;10&amp;K000000 Confidential - Oracle Restricted&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential - Oracle Restricted</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{B215F52A-4F95-D548-AB47-6C520655D930}">
-          <x14:formula1>
-            <xm:f>Database_Dropdown!$B$2:$B$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{554D116C-13E1-1943-9359-864772035F6E}">
-          <x14:formula1>
-            <xm:f>Database_Dropdown!$L$2:$L$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>K3:K1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{02C9FCA8-9822-BD42-80C8-D00C6528B896}">
-          <x14:formula1>
-            <xm:f>Database_Dropdown!$F$2:$F$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>L3:L1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{256E9507-61AE-3944-8296-602F65A673CD}">
-          <x14:formula1>
-            <xm:f>Database_Dropdown!$H$2:$H$108</xm:f>
-          </x14:formula1>
-          <xm:sqref>M3:M1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{7FA2D3A7-0C66-144A-8A01-86B9B4C4C651}">
-          <x14:formula1>
-            <xm:f>Database_Dropdown!$G$2:$G$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>N3:N1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" prompt="Specify Compartment name." xr:uid="{D211965E-8420-5D43-BF17-EEE1BAECBBE9}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{E09CFEC6-B538-D740-90C4-ABC1500CC692}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$I$2:$I$"&amp;drop_down_rule_set!$G$3+1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{E5D57868-C9F9-7148-A51E-DE3261171F79}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -29709,7 +30061,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -29749,7 +30101,7 @@
         <v>81</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>709</v>
@@ -29863,7 +30215,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E4" s="89" t="s">
         <v>741</v>
@@ -29938,7 +30290,7 @@
         <v>87</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E5" s="99" t="s">
         <v>743</v>
@@ -33106,7 +33458,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="159"/>
@@ -33168,7 +33520,7 @@
         <v>55</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F4" s="54">
         <v>2</v>
@@ -33269,7 +33621,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="169" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B1" s="170"/>
       <c r="C1" s="170"/>
@@ -33313,10 +33665,10 @@
         <v>732</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G2" s="66" t="s">
         <v>711</v>
@@ -33331,16 +33683,16 @@
         <v>733</v>
       </c>
       <c r="K2" s="66" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L2" s="66" t="s">
         <v>1054</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="M2" s="66" t="s">
         <v>1055</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="N2" s="66" t="s">
         <v>1056</v>
-      </c>
-      <c r="N2" s="66" t="s">
-        <v>1057</v>
       </c>
       <c r="O2" s="66" t="s">
         <v>734</v>
@@ -33409,10 +33761,10 @@
         <v>753</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="G4" s="53">
         <v>4</v>
@@ -33436,7 +33788,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="90" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O4" s="90" t="b">
         <v>1</v>
@@ -33458,7 +33810,7 @@
     </row>
     <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -33548,7 +33900,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="177" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B1" s="178"/>
       <c r="C1" s="178"/>
@@ -33577,46 +33929,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="34" t="s">
+        <v>958</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E2" s="123" t="s">
         <v>959</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E2" s="123" t="s">
+      <c r="F2" s="123" t="s">
         <v>960</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="G2" s="34" t="s">
         <v>961</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="123" t="s">
         <v>962</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="I2" s="34" t="s">
         <v>963</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>964</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>965</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="124" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M2" s="125" t="s">
+        <v>1052</v>
+      </c>
+      <c r="N2" s="34" t="s">
         <v>966</v>
       </c>
-      <c r="L2" s="124" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M2" s="125" t="s">
-        <v>1053</v>
-      </c>
-      <c r="N2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>967</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>968</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>969</v>
       </c>
       <c r="Q2" s="34" t="s">
         <v>92</v>
@@ -33633,49 +33985,49 @@
         <v>548</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>1134</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>1135</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>1136</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>1137</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>1138</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>1139</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="K3" s="32">
         <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M3" t="s">
         <v>1141</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1142</v>
       </c>
       <c r="N3" s="32">
         <v>3</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="P3" s="32" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="R3" s="28"/>
     </row>
@@ -33687,18 +34039,18 @@
         <v>548</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>1145</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>1146</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>1138</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>1139</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>55</v>
@@ -33715,7 +34067,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="P4" s="32" t="b">
         <v>0</v>
@@ -33825,7 +34177,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="169" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B1" s="178"/>
       <c r="C1" s="178"/>
@@ -33846,43 +34198,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C2" s="123" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>969</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>970</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>971</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="34" t="s">
         <v>972</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="34" t="s">
         <v>973</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="34" t="s">
         <v>974</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>975</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>976</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>977</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>978</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>979</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>980</v>
       </c>
       <c r="O2" s="48"/>
     </row>
@@ -33891,43 +34243,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D3" s="32" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>1148</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>1149</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>1150</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>1151</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>1152</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>1153</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>1154</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="L3" s="32" t="s">
         <v>1155</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="M3" s="32" t="s">
         <v>1156</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="N3" s="32" t="s">
         <v>1157</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>1158</v>
       </c>
       <c r="O3" s="126"/>
     </row>
@@ -33936,41 +34288,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>1150</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="H4" s="32" t="s">
         <v>1151</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>1152</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="J4" s="32" t="s">
         <v>1153</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="K4" s="32" t="s">
         <v>1154</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="L4" s="32" t="s">
         <v>1155</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="M4" s="32" t="s">
         <v>1156</v>
       </c>
-      <c r="M4" s="32" t="s">
-        <v>1157</v>
-      </c>
       <c r="N4" s="32" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O4" s="126"/>
     </row>
@@ -34067,7 +34419,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="40" customFormat="1" ht="166" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B1" s="153"/>
       <c r="C1" s="153"/>
@@ -34082,22 +34434,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G2" s="133" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>417</v>
@@ -35062,7 +35414,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="281.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="180" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1" s="181"/>
       <c r="C1" s="181"/>
@@ -35090,49 +35442,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>981</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>982</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>984</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>985</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>986</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>988</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="26" t="s">
         <v>989</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="27" t="s">
         <v>990</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>991</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>992</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>993</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>994</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>995</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>417</v>
@@ -35151,43 +35503,43 @@
         <v>548</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>995</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>996</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>997</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
+        <v>997</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>998</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>998</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>999</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="29" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>1000</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>1046</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>1001</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="L4" s="28" t="s">
         <v>1002</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>1003</v>
       </c>
       <c r="M4" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="O4" s="28" t="s">
         <v>1004</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>1005</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
@@ -35200,40 +35552,40 @@
         <v>548</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>995</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>996</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="E5" s="33" t="s">
         <v>997</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="33" t="s">
+        <v>997</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>998</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>998</v>
-      </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" s="33" t="s">
         <v>999</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>1000</v>
-      </c>
       <c r="I5" s="29" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K5" s="28" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L5" s="28" t="s">
         <v>1006</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>1007</v>
       </c>
       <c r="M5" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
@@ -35247,22 +35599,22 @@
         <v>548</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D6" s="33" t="s">
+        <v>996</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>997</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="33" t="s">
+        <v>997</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>998</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>998</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="H6" s="33" t="s">
         <v>999</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>1000</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="28"/>
@@ -35282,38 +35634,38 @@
         <v>548</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>996</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>997</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>997</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>998</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>999</v>
+      </c>
+      <c r="I7" s="29" t="s">
         <v>1042</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>997</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>998</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>998</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>999</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>1043</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M7" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
@@ -35440,7 +35792,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -35449,7 +35801,7 @@
       <c r="F1" s="151"/>
       <c r="G1" s="151"/>
       <c r="H1" s="165" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I1" s="151"/>
       <c r="J1" s="151"/>
@@ -35464,46 +35816,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C2" s="128" t="s">
         <v>1162</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="D2" s="15" t="s">
         <v>1163</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>1164</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H2" s="93" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J2" s="129" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M2" s="130" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>1165</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>1169</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>1170</v>
-      </c>
-      <c r="J2" s="129" t="s">
-        <v>1171</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>1172</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>1173</v>
-      </c>
-      <c r="M2" s="130" t="s">
+      <c r="O2" s="15" t="s">
         <v>1174</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>1166</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -35533,23 +35885,23 @@
         <v>550</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>1176</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>1177</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
         <v>550</v>
       </c>
       <c r="G4" s="32" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>1178</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>1179</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>1180</v>
       </c>
       <c r="J4" s="131">
         <v>256</v>
@@ -35570,19 +35922,19 @@
         <v>548</v>
       </c>
       <c r="G5" s="32" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>1181</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="I5" s="32" t="s">
         <v>1182</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>1183</v>
       </c>
       <c r="J5" s="131">
         <v>384</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="131"/>
@@ -35597,10 +35949,10 @@
         <v>550</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>1185</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>1186</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>5</v>
@@ -35609,13 +35961,13 @@
         <v>550</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="J6" s="131">
         <v>128</v>
@@ -35640,13 +35992,13 @@
         <v>548</v>
       </c>
       <c r="G7" s="32" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>1181</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>1182</v>
-      </c>
       <c r="I7" s="32" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="J7" s="131">
         <v>3072</v>
@@ -35667,19 +36019,19 @@
         <v>549</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="J8" s="131">
         <v>521</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L8" s="32" t="b">
         <v>1</v>
@@ -36750,7 +37102,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="183" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B1" s="178"/>
       <c r="C1" s="178"/>
@@ -36760,7 +37112,7 @@
       <c r="G1" s="178"/>
       <c r="H1" s="179"/>
       <c r="I1" s="169" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="J1" s="170"/>
       <c r="K1" s="170"/>
@@ -36797,10 +37149,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>81</v>
@@ -36809,64 +37161,64 @@
         <v>83</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>82</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="34" t="s">
+        <v>1539</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>1540</v>
+      </c>
+      <c r="P2" s="34" t="s">
         <v>1541</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>1542</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>1543</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>1544</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="T2" s="34" t="s">
         <v>1545</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="U2" s="34" t="s">
         <v>1546</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>1547</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>1548</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>1549</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="Y2" s="34" t="s">
         <v>1550</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="Z2" s="34" t="s">
         <v>1551</v>
-      </c>
-      <c r="Y2" s="34" t="s">
-        <v>1552</v>
-      </c>
-      <c r="Z2" s="34" t="s">
-        <v>1553</v>
       </c>
       <c r="AA2" s="34" t="s">
         <v>75</v>
       </c>
       <c r="AB2" s="34" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="AC2" s="35" t="s">
         <v>417</v>
@@ -36913,16 +37265,16 @@
         <v>549</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>1555</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>1556</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>1557</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1558</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>55</v>
@@ -36931,58 +37283,58 @@
         <v>346</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="33" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>1559</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>1560</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>1561</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>1561</v>
-      </c>
-      <c r="P4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>1562</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="S4" s="18" t="s">
         <v>1563</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>1564</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>1565</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>1566</v>
       </c>
       <c r="U4" s="18" t="s">
         <v>190</v>
       </c>
       <c r="V4" s="18" t="s">
+        <v>1565</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>1556</v>
+      </c>
+      <c r="X4" s="149" t="s">
+        <v>1566</v>
+      </c>
+      <c r="Y4" s="18" t="s">
         <v>1567</v>
       </c>
-      <c r="W4" s="18" t="s">
-        <v>1558</v>
-      </c>
-      <c r="X4" s="149" t="s">
+      <c r="Z4" s="18" t="s">
         <v>1568</v>
-      </c>
-      <c r="Y4" s="18" t="s">
-        <v>1569</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>1570</v>
       </c>
       <c r="AA4" s="18"/>
       <c r="AB4" s="6" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="AC4" s="18"/>
     </row>
@@ -36994,16 +37346,16 @@
         <v>549</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>1572</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>1574</v>
-      </c>
       <c r="F5" s="32" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>87</v>
@@ -37012,56 +37364,56 @@
         <v>101</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
       <c r="N5" s="32" t="s">
+        <v>1559</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>1560</v>
+      </c>
+      <c r="Q5" s="32" t="s">
         <v>1561</v>
       </c>
-      <c r="O5" s="32" t="s">
-        <v>1561</v>
-      </c>
-      <c r="P5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>1562</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="S5" s="32" t="s">
         <v>1563</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="T5" s="32" t="s">
         <v>1564</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>1565</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>1566</v>
       </c>
       <c r="U5" s="32" t="s">
         <v>190</v>
       </c>
       <c r="V5" s="32" t="s">
+        <v>1565</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>1556</v>
+      </c>
+      <c r="X5" s="32" t="s">
+        <v>1566</v>
+      </c>
+      <c r="Y5" s="32" t="s">
         <v>1567</v>
       </c>
-      <c r="W5" s="32" t="s">
-        <v>1558</v>
-      </c>
-      <c r="X5" s="32" t="s">
+      <c r="Z5" s="32" t="s">
         <v>1568</v>
-      </c>
-      <c r="Y5" s="32" t="s">
-        <v>1569</v>
-      </c>
-      <c r="Z5" s="32" t="s">
-        <v>1570</v>
       </c>
       <c r="AA5" s="32"/>
       <c r="AB5" s="33" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="AC5" s="32"/>
     </row>
@@ -43030,7 +43382,7 @@
   <sheetData>
     <row r="1" spans="1:81" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -43056,13 +43408,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>1577</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>1578</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>1579</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>417</v>
@@ -43085,23 +43437,23 @@
     </row>
     <row r="4" spans="1:81" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>549</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="H4" s="32"/>
     </row>
@@ -43112,32 +43464,32 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:81" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>549</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="H6" s="32"/>
     </row>
@@ -43148,10 +43500,10 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="H7" s="32"/>
     </row>
@@ -43162,10 +43514,10 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="H8" s="32"/>
     </row>
@@ -44428,7 +44780,7 @@
         <v>710</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="M1" s="44"/>
     </row>
@@ -44527,7 +44879,7 @@
         <v>440</v>
       </c>
       <c r="L4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -44549,7 +44901,7 @@
         <v>441</v>
       </c>
       <c r="L5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -44664,7 +45016,7 @@
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F12" s="33"/>
       <c r="H12" s="33" t="s">
@@ -44681,7 +45033,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F13" s="33"/>
       <c r="H13" s="33" t="s">
@@ -45577,25 +45929,25 @@
         <v>651</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F1" s="65" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G1" s="65" t="s">
         <v>1012</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="H1" s="65" t="s">
         <v>1013</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="I1" s="65" t="s">
         <v>1014</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="J1" s="65" t="s">
         <v>1015</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>1016</v>
       </c>
       <c r="K1" s="65" t="s">
         <v>653</v>
@@ -45694,22 +46046,22 @@
         <v>312</v>
       </c>
       <c r="AQ1" s="56" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AR1" s="56" t="s">
+        <v>886</v>
+      </c>
+      <c r="AS1" s="56" t="s">
         <v>887</v>
       </c>
-      <c r="AS1" s="56" t="s">
-        <v>888</v>
-      </c>
       <c r="AT1" s="56" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AU1" s="56" t="s">
         <v>652</v>
       </c>
       <c r="AV1" s="56" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="58" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -45755,7 +46107,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="134" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="M2" s="59" t="s">
         <v>38</v>
@@ -45852,13 +46204,13 @@
         <v>314</v>
       </c>
       <c r="AQ2" s="58" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AR2" s="58" t="b">
         <v>0</v>
       </c>
       <c r="AS2" s="58" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AT2" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="AT2:AT5" ca="1">_xlfn.UNIQUE(INDIRECT("B2:B"&amp;$G$5),FALSE,FALSE)</f>
@@ -45912,7 +46264,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M3" s="59" t="s">
         <v>36</v>
@@ -46006,13 +46358,13 @@
         <v>315</v>
       </c>
       <c r="AQ3" s="58" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AR3" s="58" t="b">
         <v>1</v>
       </c>
       <c r="AS3" s="58" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AT3" s="58" t="str">
         <f ca="1"/>
@@ -46136,7 +46488,7 @@
         <v>32</v>
       </c>
       <c r="AS4" s="58" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AT4" s="58" t="str">
         <f ca="1"/>
@@ -46290,7 +46642,7 @@
       </c>
       <c r="K6" s="59"/>
       <c r="L6" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="M6" s="59"/>
       <c r="N6" s="59"/>
@@ -46376,7 +46728,7 @@
       </c>
       <c r="K7" s="59"/>
       <c r="L7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M7" s="59"/>
       <c r="N7" s="59"/>
@@ -46460,7 +46812,7 @@
       </c>
       <c r="K8" s="59"/>
       <c r="L8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M8" s="59"/>
       <c r="N8" s="59"/>
@@ -46940,7 +47292,7 @@
       </c>
       <c r="K14" s="59"/>
       <c r="L14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M14" s="59"/>
       <c r="N14" s="59"/>
@@ -47014,7 +47366,7 @@
       </c>
       <c r="K15" s="59"/>
       <c r="L15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M15" s="59"/>
       <c r="N15" s="59"/>
@@ -47084,7 +47436,7 @@
       </c>
       <c r="K16" s="59"/>
       <c r="L16" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="M16" s="59"/>
       <c r="N16" s="59"/>
@@ -47224,7 +47576,7 @@
       </c>
       <c r="K18" s="59"/>
       <c r="L18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M18" s="59"/>
       <c r="N18" s="59"/>
@@ -47294,7 +47646,7 @@
       </c>
       <c r="K19" s="59"/>
       <c r="L19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M19" s="59"/>
       <c r="N19" s="59"/>
@@ -47434,7 +47786,7 @@
       </c>
       <c r="K21" s="59"/>
       <c r="L21" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M21" s="59"/>
       <c r="N21" s="59"/>
@@ -47574,7 +47926,7 @@
       </c>
       <c r="K23" s="59"/>
       <c r="L23" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
@@ -47714,7 +48066,7 @@
       </c>
       <c r="K25" s="59"/>
       <c r="L25" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="M25" s="59"/>
       <c r="N25" s="59"/>
@@ -47854,7 +48206,7 @@
       </c>
       <c r="K27" s="59"/>
       <c r="L27" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M27" s="59"/>
       <c r="N27" s="59"/>
@@ -47994,7 +48346,7 @@
       </c>
       <c r="K29" s="59"/>
       <c r="L29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="59"/>
@@ -48064,7 +48416,7 @@
       </c>
       <c r="K30" s="59"/>
       <c r="L30" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="M30" s="59"/>
       <c r="N30" s="59"/>
@@ -48134,7 +48486,7 @@
       </c>
       <c r="K31" s="59"/>
       <c r="L31" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M31" s="59"/>
       <c r="N31" s="59"/>
@@ -48274,7 +48626,7 @@
       </c>
       <c r="K33" s="59"/>
       <c r="L33" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M33" s="59"/>
       <c r="N33" s="59"/>
@@ -48414,7 +48766,7 @@
       </c>
       <c r="K35" s="59"/>
       <c r="L35" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="M35" s="59"/>
       <c r="N35" s="59"/>
@@ -48466,7 +48818,7 @@
     <row r="36" spans="1:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K36" s="59"/>
       <c r="L36" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="M36" s="59"/>
       <c r="N36" s="59"/>
@@ -48519,7 +48871,7 @@
       </c>
       <c r="K37" s="59"/>
       <c r="L37" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M37" s="59"/>
       <c r="N37" s="59"/>
@@ -48799,7 +49151,7 @@
       </c>
       <c r="K41" s="59"/>
       <c r="L41" s="64" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="M41" s="59"/>
       <c r="N41" s="59"/>
@@ -48911,7 +49263,7 @@
         <v>41</v>
       </c>
       <c r="L43" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="P43" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"DHCP")))</f>
@@ -48997,7 +49349,7 @@
         <v>43</v>
       </c>
       <c r="L45" s="58" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="P45" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"DHCP")))</f>
@@ -49040,7 +49392,7 @@
         <v>44</v>
       </c>
       <c r="L46" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="P46" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"DHCP")))</f>
@@ -49083,7 +49435,7 @@
         <v>45</v>
       </c>
       <c r="L47" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P47" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"DHCP")))</f>
@@ -49126,7 +49478,7 @@
         <v>46</v>
       </c>
       <c r="L48" s="40" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="P48" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"DHCP")))</f>
@@ -49169,7 +49521,7 @@
         <v>47</v>
       </c>
       <c r="L49" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="P49" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"DHCP")))</f>
@@ -49212,7 +49564,7 @@
         <v>48</v>
       </c>
       <c r="L50" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="P50" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="P50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A50,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A50,4,4,1,"DHCP")))</f>
@@ -49244,7 +49596,7 @@
         <v>49</v>
       </c>
       <c r="L51" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AG51" s="64"/>
       <c r="AU51" s="106" t="str">
@@ -49263,7 +49615,7 @@
       <c r="I52" s="58"/>
       <c r="J52" s="58"/>
       <c r="L52" s="40" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="AU52" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -49282,7 +49634,7 @@
       <c r="I53" s="58"/>
       <c r="J53" s="58"/>
       <c r="L53" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AU53" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -49301,7 +49653,7 @@
       <c r="I54" s="58"/>
       <c r="J54" s="58"/>
       <c r="L54" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AU54" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -51702,10 +52054,10 @@
         <v>703</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -52210,7 +52562,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="40" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B1" s="153"/>
       <c r="C1" s="153"/>
@@ -52229,10 +52581,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>917</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>918</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>919</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>417</v>
@@ -52287,7 +52639,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="40" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="155" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
@@ -52339,7 +52691,7 @@
         <v>626</v>
       </c>
       <c r="E3" s="138" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="F3" s="138"/>
       <c r="G3" s="138"/>
@@ -52352,7 +52704,7 @@
       <c r="C4" s="140"/>
       <c r="D4" s="140"/>
       <c r="E4" s="140" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="140"/>
@@ -52373,7 +52725,7 @@
         <v>559</v>
       </c>
       <c r="E5" s="140" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="F5" s="140"/>
       <c r="G5" s="140"/>
@@ -52386,7 +52738,7 @@
       <c r="C6" s="140"/>
       <c r="D6" s="140"/>
       <c r="E6" s="140" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F6" s="140"/>
       <c r="G6" s="140"/>
@@ -52399,7 +52751,7 @@
       <c r="C7" s="140"/>
       <c r="D7" s="140"/>
       <c r="E7" s="140" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F7" s="140"/>
       <c r="G7" s="140"/>
@@ -52412,7 +52764,7 @@
       <c r="C8" s="140"/>
       <c r="D8" s="140"/>
       <c r="E8" s="140" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F8" s="140"/>
       <c r="G8" s="140"/>
@@ -52425,7 +52777,7 @@
       <c r="C9" s="140"/>
       <c r="D9" s="140"/>
       <c r="E9" s="140" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F9" s="140"/>
       <c r="G9" s="140"/>
@@ -52438,7 +52790,7 @@
       <c r="C10" s="140"/>
       <c r="D10" s="140"/>
       <c r="E10" s="140" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="F10" s="140"/>
       <c r="G10" s="140"/>
@@ -52451,7 +52803,7 @@
       <c r="C11" s="140"/>
       <c r="D11" s="140"/>
       <c r="E11" s="140" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F11" s="140"/>
       <c r="G11" s="140"/>
@@ -52464,7 +52816,7 @@
       <c r="C12" s="140"/>
       <c r="D12" s="140"/>
       <c r="E12" s="140" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F12" s="140"/>
       <c r="G12" s="140"/>
@@ -52477,7 +52829,7 @@
       <c r="C13" s="140"/>
       <c r="D13" s="140"/>
       <c r="E13" s="140" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F13" s="140"/>
       <c r="G13" s="140"/>
@@ -52490,7 +52842,7 @@
       <c r="C14" s="140"/>
       <c r="D14" s="140"/>
       <c r="E14" s="140" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F14" s="140"/>
       <c r="G14" s="140"/>
@@ -52503,7 +52855,7 @@
       <c r="C15" s="140"/>
       <c r="D15" s="140"/>
       <c r="E15" s="140" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F15" s="140"/>
       <c r="G15" s="140"/>
@@ -52516,7 +52868,7 @@
       <c r="C16" s="140"/>
       <c r="D16" s="140"/>
       <c r="E16" s="140" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F16" s="140"/>
       <c r="G16" s="140"/>
@@ -52529,7 +52881,7 @@
       <c r="C17" s="140"/>
       <c r="D17" s="140"/>
       <c r="E17" s="140" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F17" s="140"/>
       <c r="G17" s="140"/>
@@ -52542,7 +52894,7 @@
       <c r="C18" s="140"/>
       <c r="D18" s="140"/>
       <c r="E18" s="140" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F18" s="140"/>
       <c r="G18" s="140"/>
@@ -52555,7 +52907,7 @@
       <c r="C19" s="140"/>
       <c r="D19" s="140"/>
       <c r="E19" s="140" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F19" s="140"/>
       <c r="G19" s="140"/>
@@ -52568,7 +52920,7 @@
       <c r="C20" s="140"/>
       <c r="D20" s="140"/>
       <c r="E20" s="140" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F20" s="140"/>
       <c r="G20" s="140"/>
@@ -52581,7 +52933,7 @@
       <c r="C21" s="140"/>
       <c r="D21" s="140"/>
       <c r="E21" s="140" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F21" s="140"/>
       <c r="G21" s="140"/>
@@ -52594,7 +52946,7 @@
       <c r="C22" s="140"/>
       <c r="D22" s="140"/>
       <c r="E22" s="140" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F22" s="140"/>
       <c r="G22" s="140"/>
@@ -52607,7 +52959,7 @@
       <c r="C23" s="140"/>
       <c r="D23" s="140"/>
       <c r="E23" s="140" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="F23" s="140"/>
       <c r="G23" s="140"/>
@@ -52620,7 +52972,7 @@
       <c r="C24" s="140"/>
       <c r="D24" s="140"/>
       <c r="E24" s="140" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F24" s="140"/>
       <c r="G24" s="140"/>
@@ -52633,7 +52985,7 @@
       <c r="C25" s="140"/>
       <c r="D25" s="140"/>
       <c r="E25" s="140" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F25" s="140"/>
       <c r="G25" s="140"/>
@@ -52646,7 +52998,7 @@
       <c r="C26" s="140"/>
       <c r="D26" s="140"/>
       <c r="E26" s="140" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F26" s="140"/>
       <c r="G26" s="140"/>
@@ -52659,7 +53011,7 @@
       <c r="C27" s="140"/>
       <c r="D27" s="140"/>
       <c r="E27" s="140" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F27" s="140"/>
       <c r="G27" s="140"/>
@@ -52672,7 +53024,7 @@
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
       <c r="E28" s="140" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F28" s="140"/>
       <c r="G28" s="140"/>
@@ -52685,7 +53037,7 @@
       <c r="C29" s="140"/>
       <c r="D29" s="140"/>
       <c r="E29" s="140" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F29" s="140"/>
       <c r="G29" s="140"/>
@@ -52698,7 +53050,7 @@
       <c r="C30" s="140"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F30" s="140"/>
       <c r="G30" s="140"/>
@@ -52711,7 +53063,7 @@
       <c r="C31" s="140"/>
       <c r="D31" s="140"/>
       <c r="E31" s="140" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F31" s="140"/>
       <c r="G31" s="140"/>
@@ -52724,7 +53076,7 @@
       <c r="C32" s="140"/>
       <c r="D32" s="140"/>
       <c r="E32" s="140" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F32" s="140"/>
       <c r="G32" s="140"/>
@@ -52737,7 +53089,7 @@
       <c r="C33" s="140"/>
       <c r="D33" s="140"/>
       <c r="E33" s="140" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F33" s="140"/>
       <c r="G33" s="140"/>
@@ -52750,7 +53102,7 @@
       <c r="C34" s="140"/>
       <c r="D34" s="140"/>
       <c r="E34" s="140" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F34" s="140"/>
       <c r="G34" s="140"/>
@@ -52763,7 +53115,7 @@
       <c r="C35" s="140"/>
       <c r="D35" s="140"/>
       <c r="E35" s="140" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="F35" s="140"/>
       <c r="G35" s="140"/>
@@ -52776,7 +53128,7 @@
       <c r="C36" s="140"/>
       <c r="D36" s="140"/>
       <c r="E36" s="140" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F36" s="140"/>
       <c r="G36" s="140"/>
@@ -52789,7 +53141,7 @@
       <c r="C37" s="140"/>
       <c r="D37" s="140"/>
       <c r="E37" s="140" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F37" s="140"/>
       <c r="G37" s="140"/>
@@ -52802,7 +53154,7 @@
       <c r="C38" s="140"/>
       <c r="D38" s="140"/>
       <c r="E38" s="140" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="F38" s="140"/>
       <c r="G38" s="140"/>
@@ -52815,7 +53167,7 @@
       <c r="C39" s="140"/>
       <c r="D39" s="140"/>
       <c r="E39" s="140" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F39" s="140"/>
       <c r="G39" s="140"/>
@@ -52828,7 +53180,7 @@
       <c r="C40" s="140"/>
       <c r="D40" s="140"/>
       <c r="E40" s="140" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F40" s="140"/>
       <c r="G40" s="140"/>
@@ -52841,7 +53193,7 @@
       <c r="C41" s="140"/>
       <c r="D41" s="140"/>
       <c r="E41" s="140" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F41" s="140"/>
       <c r="G41" s="140"/>
@@ -52854,7 +53206,7 @@
       <c r="C42" s="140"/>
       <c r="D42" s="140"/>
       <c r="E42" s="140" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F42" s="140"/>
       <c r="G42" s="140"/>
@@ -52867,7 +53219,7 @@
       <c r="C43" s="140"/>
       <c r="D43" s="140"/>
       <c r="E43" s="140" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F43" s="140"/>
       <c r="G43" s="140"/>
@@ -52880,20 +53232,20 @@
       <c r="C44" s="140"/>
       <c r="D44" s="140"/>
       <c r="E44" s="140" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F44" s="140"/>
       <c r="G44" s="140"/>
       <c r="H44" s="140"/>
       <c r="I44" s="139"/>
     </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="141"/>
       <c r="B45" s="140"/>
       <c r="C45" s="140"/>
       <c r="D45" s="140"/>
       <c r="E45" s="140" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F45" s="140"/>
       <c r="G45" s="140"/>
@@ -52906,7 +53258,7 @@
       <c r="C46" s="140"/>
       <c r="D46" s="140"/>
       <c r="E46" s="140" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F46" s="140"/>
       <c r="G46" s="140"/>
@@ -52927,7 +53279,7 @@
         <v>561</v>
       </c>
       <c r="E47" s="140" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F47" s="140"/>
       <c r="G47" s="140"/>
@@ -52940,7 +53292,7 @@
       <c r="C48" s="140"/>
       <c r="D48" s="140"/>
       <c r="E48" s="140" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F48" s="140"/>
       <c r="G48" s="140"/>
@@ -52953,7 +53305,7 @@
       <c r="C49" s="140"/>
       <c r="D49" s="140"/>
       <c r="E49" s="140" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F49" s="140"/>
       <c r="G49" s="140"/>
@@ -52966,7 +53318,7 @@
       <c r="C50" s="140"/>
       <c r="D50" s="140"/>
       <c r="E50" s="140" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F50" s="140"/>
       <c r="G50" s="140"/>
@@ -52979,7 +53331,7 @@
       <c r="C51" s="140"/>
       <c r="D51" s="140"/>
       <c r="E51" s="140" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F51" s="140"/>
       <c r="G51" s="140"/>
@@ -52992,7 +53344,7 @@
       <c r="C52" s="140"/>
       <c r="D52" s="140"/>
       <c r="E52" s="140" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F52" s="140"/>
       <c r="G52" s="140"/>
@@ -53005,7 +53357,7 @@
       <c r="C53" s="140"/>
       <c r="D53" s="140"/>
       <c r="E53" s="140" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F53" s="140"/>
       <c r="G53" s="140"/>
@@ -53018,7 +53370,7 @@
       <c r="C54" s="140"/>
       <c r="D54" s="140"/>
       <c r="E54" s="140" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F54" s="140"/>
       <c r="G54" s="140"/>
@@ -53031,7 +53383,7 @@
       <c r="C55" s="140"/>
       <c r="D55" s="140"/>
       <c r="E55" s="140" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F55" s="140"/>
       <c r="G55" s="140"/>
@@ -53044,7 +53396,7 @@
       <c r="C56" s="140"/>
       <c r="D56" s="140"/>
       <c r="E56" s="140" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F56" s="140"/>
       <c r="G56" s="140"/>
@@ -53057,7 +53409,7 @@
       <c r="C57" s="140"/>
       <c r="D57" s="140"/>
       <c r="E57" s="140" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="F57" s="140"/>
       <c r="G57" s="140"/>
@@ -53070,7 +53422,7 @@
       <c r="C58" s="140"/>
       <c r="D58" s="140"/>
       <c r="E58" s="140" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F58" s="140"/>
       <c r="G58" s="140"/>
@@ -53083,7 +53435,7 @@
       <c r="C59" s="140"/>
       <c r="D59" s="140"/>
       <c r="E59" s="140" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F59" s="140"/>
       <c r="G59" s="140"/>
@@ -53096,7 +53448,7 @@
       <c r="C60" s="140"/>
       <c r="D60" s="140"/>
       <c r="E60" s="140" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F60" s="140"/>
       <c r="G60" s="140"/>
@@ -53109,7 +53461,7 @@
       <c r="C61" s="140"/>
       <c r="D61" s="140"/>
       <c r="E61" s="140" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F61" s="140"/>
       <c r="G61" s="140"/>
@@ -53122,7 +53474,7 @@
       <c r="C62" s="140"/>
       <c r="D62" s="140"/>
       <c r="E62" s="140" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F62" s="140"/>
       <c r="G62" s="140"/>
@@ -53135,7 +53487,7 @@
       <c r="C63" s="140"/>
       <c r="D63" s="140"/>
       <c r="E63" s="140" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F63" s="140"/>
       <c r="G63" s="140"/>
@@ -53147,16 +53499,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="140" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C64" s="140" t="s">
         <v>394</v>
       </c>
       <c r="D64" s="140" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E64" s="140" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F64" s="140"/>
       <c r="G64" s="140"/>
@@ -53169,7 +53521,7 @@
       <c r="C65" s="140"/>
       <c r="D65" s="140"/>
       <c r="E65" s="140" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F65" s="140"/>
       <c r="G65" s="140"/>
@@ -53182,7 +53534,7 @@
       <c r="C66" s="140"/>
       <c r="D66" s="140"/>
       <c r="E66" s="140" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F66" s="140"/>
       <c r="G66" s="140"/>
@@ -53195,7 +53547,7 @@
       <c r="C67" s="140"/>
       <c r="D67" s="140"/>
       <c r="E67" s="140" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="F67" s="140"/>
       <c r="G67" s="140"/>
@@ -53213,10 +53565,10 @@
         <v>394</v>
       </c>
       <c r="D68" s="140" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E68" s="140" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F68" s="140"/>
       <c r="G68" s="140"/>
@@ -53229,7 +53581,7 @@
       <c r="C69" s="140"/>
       <c r="D69" s="140"/>
       <c r="E69" s="140" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F69" s="140"/>
       <c r="G69" s="140"/>
@@ -53242,7 +53594,7 @@
       <c r="C70" s="140"/>
       <c r="D70" s="140"/>
       <c r="E70" s="140" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F70" s="140"/>
       <c r="G70" s="140"/>
@@ -53255,7 +53607,7 @@
       <c r="C71" s="140"/>
       <c r="D71" s="140"/>
       <c r="E71" s="140" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F71" s="140"/>
       <c r="G71" s="140"/>
@@ -53267,7 +53619,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="140" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C72" s="140" t="s">
         <v>394</v>
@@ -53276,7 +53628,7 @@
         <v>836</v>
       </c>
       <c r="E72" s="140" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F72" s="140"/>
       <c r="G72" s="140"/>
@@ -53289,7 +53641,7 @@
       <c r="C73" s="140"/>
       <c r="D73" s="140"/>
       <c r="E73" s="140" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="F73" s="140"/>
       <c r="G73" s="140"/>
@@ -53302,7 +53654,7 @@
       <c r="C74" s="140"/>
       <c r="D74" s="140"/>
       <c r="E74" s="140" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F74" s="140"/>
       <c r="G74" s="140"/>
@@ -53315,7 +53667,7 @@
       <c r="C75" s="140"/>
       <c r="D75" s="140"/>
       <c r="E75" s="140" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F75" s="140"/>
       <c r="G75" s="140"/>
@@ -53328,7 +53680,7 @@
       <c r="C76" s="140"/>
       <c r="D76" s="140"/>
       <c r="E76" s="140" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F76" s="140"/>
       <c r="G76" s="140"/>
@@ -53341,7 +53693,7 @@
       <c r="C77" s="140"/>
       <c r="D77" s="140"/>
       <c r="E77" s="140" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F77" s="140"/>
       <c r="G77" s="140"/>
@@ -53354,7 +53706,7 @@
       <c r="C78" s="140"/>
       <c r="D78" s="140"/>
       <c r="E78" s="140" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F78" s="140"/>
       <c r="G78" s="140"/>
@@ -53367,7 +53719,7 @@
       <c r="C79" s="140"/>
       <c r="D79" s="140"/>
       <c r="E79" s="140" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F79" s="140"/>
       <c r="G79" s="140"/>
@@ -53380,7 +53732,7 @@
       <c r="C80" s="140"/>
       <c r="D80" s="140"/>
       <c r="E80" s="140" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F80" s="108"/>
       <c r="G80" s="141"/>
@@ -53401,7 +53753,7 @@
         <v>837</v>
       </c>
       <c r="E81" s="140" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F81" s="138"/>
       <c r="G81" s="140"/>
@@ -53414,7 +53766,7 @@
       <c r="C82" s="140"/>
       <c r="D82" s="140"/>
       <c r="E82" s="140" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F82" s="140"/>
       <c r="G82" s="140"/>
@@ -53427,7 +53779,7 @@
       <c r="C83" s="140"/>
       <c r="D83" s="140"/>
       <c r="E83" s="140" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="F83" s="140"/>
       <c r="G83" s="140"/>
@@ -53440,7 +53792,7 @@
       <c r="C84" s="140"/>
       <c r="D84" s="140"/>
       <c r="E84" s="143" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F84" s="140"/>
       <c r="G84" s="140"/>
@@ -53453,7 +53805,7 @@
       <c r="C85" s="140"/>
       <c r="D85" s="140"/>
       <c r="E85" s="143" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="F85" s="140"/>
       <c r="G85" s="140"/>
@@ -53466,7 +53818,7 @@
       <c r="C86" s="140"/>
       <c r="D86" s="140"/>
       <c r="E86" s="143" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F86" s="140"/>
       <c r="G86" s="140"/>
@@ -53479,7 +53831,7 @@
       <c r="C87" s="140"/>
       <c r="D87" s="140"/>
       <c r="E87" s="143" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F87" s="140"/>
       <c r="G87" s="140"/>
@@ -53492,7 +53844,7 @@
       <c r="C88" s="140"/>
       <c r="D88" s="140"/>
       <c r="E88" s="143" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F88" s="140"/>
       <c r="G88" s="140"/>
@@ -53505,7 +53857,7 @@
       <c r="C89" s="140"/>
       <c r="D89" s="140"/>
       <c r="E89" s="143" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F89" s="140"/>
       <c r="G89" s="140"/>
@@ -53518,7 +53870,7 @@
       <c r="C90" s="140"/>
       <c r="D90" s="140"/>
       <c r="E90" s="143" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F90" s="140"/>
       <c r="G90" s="140"/>
@@ -53531,7 +53883,7 @@
       <c r="C91" s="140"/>
       <c r="D91" s="140"/>
       <c r="E91" s="143" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F91" s="140"/>
       <c r="G91" s="140"/>
@@ -53544,7 +53896,7 @@
       <c r="C92" s="140"/>
       <c r="D92" s="140"/>
       <c r="E92" s="143" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F92" s="140"/>
       <c r="G92" s="140"/>
@@ -53557,7 +53909,7 @@
       <c r="C93" s="140"/>
       <c r="D93" s="140"/>
       <c r="E93" s="143" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F93" s="140"/>
       <c r="G93" s="140"/>
@@ -53570,7 +53922,7 @@
       <c r="C94" s="140"/>
       <c r="D94" s="140"/>
       <c r="E94" s="143" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F94" s="140"/>
       <c r="G94" s="140"/>
@@ -53583,7 +53935,7 @@
       <c r="C95" s="140"/>
       <c r="D95" s="140"/>
       <c r="E95" s="143" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="F95" s="140"/>
       <c r="G95" s="140"/>
@@ -53596,7 +53948,7 @@
       <c r="C96" s="140"/>
       <c r="D96" s="140"/>
       <c r="E96" s="143" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F96" s="140"/>
       <c r="G96" s="140"/>
@@ -53609,7 +53961,7 @@
       <c r="C97" s="140"/>
       <c r="D97" s="140"/>
       <c r="E97" s="143" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="F97" s="140"/>
       <c r="G97" s="140"/>
@@ -53622,7 +53974,7 @@
       <c r="C98" s="140"/>
       <c r="D98" s="140"/>
       <c r="E98" s="143" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F98" s="140"/>
       <c r="G98" s="140"/>
@@ -53635,7 +53987,7 @@
       <c r="C99" s="140"/>
       <c r="D99" s="140"/>
       <c r="E99" s="143" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F99" s="140"/>
       <c r="G99" s="140"/>
@@ -53648,7 +54000,7 @@
       <c r="C100" s="140"/>
       <c r="D100" s="140"/>
       <c r="E100" s="143" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F100" s="140"/>
       <c r="G100" s="140"/>
@@ -53661,7 +54013,7 @@
       <c r="C101" s="140"/>
       <c r="D101" s="140"/>
       <c r="E101" s="143" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F101" s="140"/>
       <c r="G101" s="140"/>
@@ -53674,7 +54026,7 @@
       <c r="C102" s="140"/>
       <c r="D102" s="140"/>
       <c r="E102" s="143" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F102" s="140"/>
       <c r="G102" s="140"/>
@@ -53687,7 +54039,7 @@
       <c r="C103" s="140"/>
       <c r="D103" s="140"/>
       <c r="E103" s="143" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="F103" s="140"/>
       <c r="G103" s="140"/>
@@ -53700,7 +54052,7 @@
       <c r="C104" s="140"/>
       <c r="D104" s="140"/>
       <c r="E104" s="143" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F104" s="140"/>
       <c r="G104" s="140"/>
@@ -53713,7 +54065,7 @@
       <c r="C105" s="140"/>
       <c r="D105" s="140"/>
       <c r="E105" s="143" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="F105" s="140"/>
       <c r="G105" s="140"/>
@@ -53726,7 +54078,7 @@
       <c r="C106" s="140"/>
       <c r="D106" s="140"/>
       <c r="E106" s="143" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F106" s="140"/>
       <c r="G106" s="140"/>
@@ -53739,7 +54091,7 @@
       <c r="C107" s="140"/>
       <c r="D107" s="140"/>
       <c r="E107" s="143" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F107" s="140"/>
       <c r="G107" s="140"/>
@@ -53752,7 +54104,7 @@
       <c r="C108" s="140"/>
       <c r="D108" s="140"/>
       <c r="E108" s="143" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F108" s="140"/>
       <c r="G108" s="140"/>
@@ -53765,7 +54117,7 @@
       <c r="C109" s="140"/>
       <c r="D109" s="140"/>
       <c r="E109" s="143" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F109" s="140"/>
       <c r="G109" s="140"/>
@@ -53778,7 +54130,7 @@
       <c r="C110" s="140"/>
       <c r="D110" s="140"/>
       <c r="E110" s="143" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F110" s="140"/>
       <c r="G110" s="140"/>
@@ -53791,7 +54143,7 @@
       <c r="C111" s="140"/>
       <c r="D111" s="140"/>
       <c r="E111" s="143" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F111" s="140"/>
       <c r="G111" s="140"/>
@@ -53804,7 +54156,7 @@
       <c r="C112" s="140"/>
       <c r="D112" s="140"/>
       <c r="E112" s="143" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F112" s="140"/>
       <c r="G112" s="140"/>
@@ -53817,7 +54169,7 @@
       <c r="C113" s="140"/>
       <c r="D113" s="140"/>
       <c r="E113" s="143" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F113" s="140"/>
       <c r="G113" s="140"/>
@@ -53830,7 +54182,7 @@
       <c r="C114" s="140"/>
       <c r="D114" s="140"/>
       <c r="E114" s="143" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F114" s="140"/>
       <c r="G114" s="140"/>
@@ -53843,7 +54195,7 @@
       <c r="C115" s="140"/>
       <c r="D115" s="140"/>
       <c r="E115" s="143" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="F115" s="140"/>
       <c r="G115" s="140"/>
@@ -53856,7 +54208,7 @@
       <c r="C116" s="140"/>
       <c r="D116" s="140"/>
       <c r="E116" s="143" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F116" s="140"/>
       <c r="G116" s="140"/>
@@ -53869,7 +54221,7 @@
       <c r="C117" s="140"/>
       <c r="D117" s="140"/>
       <c r="E117" s="140" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F117" s="140"/>
       <c r="G117" s="140"/>
@@ -53882,7 +54234,7 @@
       <c r="C118" s="140"/>
       <c r="D118" s="140"/>
       <c r="E118" s="140" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F118" s="140"/>
       <c r="G118" s="140"/>
@@ -53895,7 +54247,7 @@
       <c r="C119" s="140"/>
       <c r="D119" s="140"/>
       <c r="E119" s="140" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F119" s="140"/>
       <c r="G119" s="140"/>
@@ -53908,7 +54260,7 @@
       <c r="C120" s="140"/>
       <c r="D120" s="140"/>
       <c r="E120" s="140" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F120" s="140"/>
       <c r="G120" s="140"/>
@@ -53921,7 +54273,7 @@
       <c r="C121" s="140"/>
       <c r="D121" s="140"/>
       <c r="E121" s="143" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F121" s="140"/>
       <c r="G121" s="140"/>
@@ -53942,7 +54294,7 @@
         <v>564</v>
       </c>
       <c r="E122" s="142" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F122" s="140"/>
       <c r="G122" s="140"/>
@@ -53955,7 +54307,7 @@
       <c r="C123" s="140"/>
       <c r="D123" s="140"/>
       <c r="E123" s="142" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F123" s="140"/>
       <c r="G123" s="140"/>
@@ -53968,7 +54320,7 @@
       <c r="C124" s="140"/>
       <c r="D124" s="140"/>
       <c r="E124" s="140" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F124" s="140"/>
       <c r="G124" s="140"/>
@@ -53981,7 +54333,7 @@
       <c r="C125" s="140"/>
       <c r="D125" s="140"/>
       <c r="E125" s="140" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F125" s="140"/>
       <c r="G125" s="140"/>
@@ -53994,7 +54346,7 @@
       <c r="C126" s="140"/>
       <c r="D126" s="140"/>
       <c r="E126" s="140" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="F126" s="140"/>
       <c r="G126" s="140"/>
@@ -54007,7 +54359,7 @@
       <c r="C127" s="140"/>
       <c r="D127" s="140"/>
       <c r="E127" s="140" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F127" s="140"/>
       <c r="G127" s="140"/>
@@ -54020,7 +54372,7 @@
       <c r="C128" s="140"/>
       <c r="D128" s="140"/>
       <c r="E128" s="140" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F128" s="140"/>
       <c r="G128" s="140"/>
@@ -54033,7 +54385,7 @@
       <c r="C129" s="140"/>
       <c r="D129" s="140"/>
       <c r="E129" s="140" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F129" s="140"/>
       <c r="G129" s="140"/>
@@ -54046,7 +54398,7 @@
       <c r="C130" s="140"/>
       <c r="D130" s="140"/>
       <c r="E130" s="140" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F130" s="140"/>
       <c r="G130" s="140"/>
@@ -54059,7 +54411,7 @@
       <c r="C131" s="140"/>
       <c r="D131" s="140"/>
       <c r="E131" s="140" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F131" s="140"/>
       <c r="G131" s="140"/>
@@ -54072,7 +54424,7 @@
       <c r="C132" s="140"/>
       <c r="D132" s="140"/>
       <c r="E132" s="140" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F132" s="140"/>
       <c r="G132" s="140"/>
@@ -54085,7 +54437,7 @@
       <c r="C133" s="140"/>
       <c r="D133" s="140"/>
       <c r="E133" s="140" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F133" s="140"/>
       <c r="G133" s="140"/>
@@ -54098,7 +54450,7 @@
       <c r="C134" s="140"/>
       <c r="D134" s="140"/>
       <c r="E134" s="140" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F134" s="140"/>
       <c r="G134" s="140"/>
@@ -54111,7 +54463,7 @@
       <c r="C135" s="140"/>
       <c r="D135" s="140"/>
       <c r="E135" s="140" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F135" s="140"/>
       <c r="G135" s="140"/>
@@ -54124,7 +54476,7 @@
       <c r="C136" s="140"/>
       <c r="D136" s="140"/>
       <c r="E136" s="140" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F136" s="140"/>
       <c r="G136" s="140"/>
@@ -54137,7 +54489,7 @@
       <c r="C137" s="140"/>
       <c r="D137" s="140"/>
       <c r="E137" s="140" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F137" s="140"/>
       <c r="G137" s="140"/>
@@ -54150,7 +54502,7 @@
       <c r="C138" s="140"/>
       <c r="D138" s="140"/>
       <c r="E138" s="140" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F138" s="140"/>
       <c r="G138" s="140"/>
@@ -54163,7 +54515,7 @@
       <c r="C139" s="140"/>
       <c r="D139" s="140"/>
       <c r="E139" s="140" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F139" s="140"/>
       <c r="G139" s="140"/>
@@ -54176,7 +54528,7 @@
       <c r="C140" s="140"/>
       <c r="D140" s="140"/>
       <c r="E140" s="140" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="F140" s="140"/>
       <c r="G140" s="140"/>
@@ -54189,7 +54541,7 @@
       <c r="C141" s="140"/>
       <c r="D141" s="140"/>
       <c r="E141" s="140" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F141" s="140"/>
       <c r="G141" s="140"/>
@@ -54210,7 +54562,7 @@
         <v>566</v>
       </c>
       <c r="E142" s="140" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="F142" s="140"/>
       <c r="G142" s="140"/>
@@ -54223,7 +54575,7 @@
       <c r="C143" s="140"/>
       <c r="D143" s="140"/>
       <c r="E143" s="140" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F143" s="140"/>
       <c r="G143" s="140"/>
@@ -54236,7 +54588,7 @@
       <c r="C144" s="140"/>
       <c r="D144" s="140"/>
       <c r="E144" s="140" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="F144" s="140"/>
       <c r="G144" s="140"/>
@@ -54249,7 +54601,7 @@
       <c r="C145" s="140"/>
       <c r="D145" s="140"/>
       <c r="E145" s="140" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F145" s="140"/>
       <c r="G145" s="140"/>
@@ -54262,7 +54614,7 @@
       <c r="C146" s="140"/>
       <c r="D146" s="140"/>
       <c r="E146" s="140" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="F146" s="140"/>
       <c r="G146" s="140"/>
@@ -54275,7 +54627,7 @@
       <c r="C147" s="140"/>
       <c r="D147" s="140"/>
       <c r="E147" s="140" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F147" s="140"/>
       <c r="G147" s="140"/>
@@ -54288,7 +54640,7 @@
       <c r="C148" s="140"/>
       <c r="D148" s="140"/>
       <c r="E148" s="140" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="F148" s="140"/>
       <c r="G148" s="140"/>
@@ -54301,7 +54653,7 @@
       <c r="C149" s="140"/>
       <c r="D149" s="140"/>
       <c r="E149" s="140" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F149" s="140"/>
       <c r="G149" s="140"/>
@@ -54314,7 +54666,7 @@
       <c r="C150" s="140"/>
       <c r="D150" s="140"/>
       <c r="E150" s="140" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F150" s="140"/>
       <c r="G150" s="140"/>
@@ -54327,7 +54679,7 @@
       <c r="C151" s="140"/>
       <c r="D151" s="140"/>
       <c r="E151" s="140" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="F151" s="140"/>
       <c r="G151" s="140"/>
@@ -54340,7 +54692,7 @@
       <c r="C152" s="140"/>
       <c r="D152" s="140"/>
       <c r="E152" s="140" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="F152" s="140"/>
       <c r="G152" s="140"/>
@@ -54353,7 +54705,7 @@
       <c r="C153" s="140"/>
       <c r="D153" s="140"/>
       <c r="E153" s="140" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="F153" s="140"/>
       <c r="G153" s="140"/>
@@ -54366,7 +54718,7 @@
       <c r="C154" s="140"/>
       <c r="D154" s="140"/>
       <c r="E154" s="140" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="F154" s="140"/>
       <c r="G154" s="140"/>
@@ -54379,7 +54731,7 @@
       <c r="C155" s="140"/>
       <c r="D155" s="140"/>
       <c r="E155" s="140" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="F155" s="140"/>
       <c r="G155" s="140"/>
@@ -54392,7 +54744,7 @@
       <c r="C156" s="140"/>
       <c r="D156" s="140"/>
       <c r="E156" s="140" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="F156" s="140"/>
       <c r="G156" s="140"/>
@@ -54405,7 +54757,7 @@
       <c r="C157" s="140"/>
       <c r="D157" s="140"/>
       <c r="E157" s="140" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="F157" s="140"/>
       <c r="G157" s="140"/>
@@ -54418,7 +54770,7 @@
       <c r="C158" s="140"/>
       <c r="D158" s="140"/>
       <c r="E158" s="140" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="F158" s="140"/>
       <c r="G158" s="140"/>
@@ -54431,7 +54783,7 @@
       <c r="C159" s="140"/>
       <c r="D159" s="140"/>
       <c r="E159" s="140" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F159" s="140"/>
       <c r="G159" s="140"/>
@@ -54444,7 +54796,7 @@
       <c r="C160" s="140"/>
       <c r="D160" s="140"/>
       <c r="E160" s="140" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="F160" s="140"/>
       <c r="G160" s="140"/>
@@ -54457,7 +54809,7 @@
       <c r="C161" s="140"/>
       <c r="D161" s="140"/>
       <c r="E161" s="140" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F161" s="140"/>
       <c r="G161" s="140"/>
@@ -54470,7 +54822,7 @@
       <c r="C162" s="140"/>
       <c r="D162" s="140"/>
       <c r="E162" s="140" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="F162" s="140"/>
       <c r="G162" s="140"/>
@@ -54483,7 +54835,7 @@
       <c r="C163" s="140"/>
       <c r="D163" s="140"/>
       <c r="E163" s="140" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="F163" s="140"/>
       <c r="G163" s="140"/>
@@ -54496,7 +54848,7 @@
       <c r="C164" s="140"/>
       <c r="D164" s="140"/>
       <c r="E164" s="140" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="F164" s="140"/>
       <c r="G164" s="140"/>
@@ -54509,7 +54861,7 @@
       <c r="C165" s="140"/>
       <c r="D165" s="140"/>
       <c r="E165" s="140" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="F165" s="140"/>
       <c r="G165" s="140"/>
@@ -54522,7 +54874,7 @@
       <c r="C166" s="140"/>
       <c r="D166" s="140"/>
       <c r="E166" s="140" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="F166" s="140"/>
       <c r="G166" s="140"/>
@@ -54535,7 +54887,7 @@
       <c r="C167" s="140"/>
       <c r="D167" s="140"/>
       <c r="E167" s="140" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="F167" s="140"/>
       <c r="G167" s="140"/>
@@ -54548,7 +54900,7 @@
       <c r="C168" s="140"/>
       <c r="D168" s="140"/>
       <c r="E168" s="140" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="F168" s="140"/>
       <c r="G168" s="140"/>
@@ -54561,7 +54913,7 @@
       <c r="C169" s="140"/>
       <c r="D169" s="140"/>
       <c r="E169" s="140" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="F169" s="140"/>
       <c r="G169" s="140"/>
@@ -54574,7 +54926,7 @@
       <c r="C170" s="140"/>
       <c r="D170" s="140"/>
       <c r="E170" s="140" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="F170" s="140"/>
       <c r="G170" s="140"/>
@@ -54595,7 +54947,7 @@
         <v>737</v>
       </c>
       <c r="E171" s="144" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F171" s="141"/>
       <c r="G171" s="140"/>
@@ -54621,7 +54973,7 @@
       <c r="C173" s="140"/>
       <c r="D173" s="140"/>
       <c r="E173" s="140" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="F173" s="140"/>
       <c r="G173" s="140"/>
@@ -54634,7 +54986,7 @@
       <c r="C174" s="140"/>
       <c r="D174" s="140"/>
       <c r="E174" s="140" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="F174" s="140"/>
       <c r="G174" s="140"/>
@@ -54655,7 +55007,7 @@
         <v>568</v>
       </c>
       <c r="E175" s="140" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F175" s="140"/>
       <c r="G175" s="140"/>
@@ -54668,7 +55020,7 @@
       <c r="C176" s="140"/>
       <c r="D176" s="140"/>
       <c r="E176" s="140" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="F176" s="140"/>
       <c r="G176" s="140"/>
@@ -54681,7 +55033,7 @@
       <c r="C177" s="140"/>
       <c r="D177" s="140"/>
       <c r="E177" s="140" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F177" s="140"/>
       <c r="G177" s="140"/>
@@ -54694,7 +55046,7 @@
       <c r="C178" s="140"/>
       <c r="D178" s="140"/>
       <c r="E178" s="140" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="F178" s="140"/>
       <c r="G178" s="140"/>
@@ -54707,7 +55059,7 @@
       <c r="C179" s="140"/>
       <c r="D179" s="140"/>
       <c r="E179" s="140" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F179" s="140"/>
       <c r="G179" s="140"/>
@@ -54720,7 +55072,7 @@
       <c r="C180" s="140"/>
       <c r="D180" s="140"/>
       <c r="E180" s="140" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="F180" s="140"/>
       <c r="G180" s="140"/>
@@ -54733,7 +55085,7 @@
       <c r="C181" s="140"/>
       <c r="D181" s="140"/>
       <c r="E181" s="140" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F181" s="140"/>
       <c r="G181" s="140"/>
@@ -54746,7 +55098,7 @@
       <c r="C182" s="140"/>
       <c r="D182" s="140"/>
       <c r="E182" s="140" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="F182" s="140"/>
       <c r="G182" s="140"/>
@@ -54759,7 +55111,7 @@
       <c r="C183" s="140"/>
       <c r="D183" s="140"/>
       <c r="E183" s="140" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F183" s="140"/>
       <c r="G183" s="140"/>
@@ -54772,7 +55124,7 @@
       <c r="C184" s="140"/>
       <c r="D184" s="140"/>
       <c r="E184" s="140" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="F184" s="140"/>
       <c r="G184" s="140"/>
@@ -54785,7 +55137,7 @@
       <c r="C185" s="140"/>
       <c r="D185" s="140"/>
       <c r="E185" s="140" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="F185" s="140"/>
       <c r="G185" s="140"/>
@@ -54798,7 +55150,7 @@
       <c r="C186" s="140"/>
       <c r="D186" s="140"/>
       <c r="E186" s="140" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="F186" s="140"/>
       <c r="G186" s="140"/>
@@ -54811,7 +55163,7 @@
       <c r="C187" s="140"/>
       <c r="D187" s="140"/>
       <c r="E187" s="140" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="F187" s="140"/>
       <c r="G187" s="140"/>
@@ -54824,7 +55176,7 @@
       <c r="C188" s="140"/>
       <c r="D188" s="140"/>
       <c r="E188" s="140" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F188" s="140"/>
       <c r="G188" s="140"/>
@@ -54837,7 +55189,7 @@
       <c r="C189" s="140"/>
       <c r="D189" s="140"/>
       <c r="E189" s="140" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="F189" s="140"/>
       <c r="G189" s="140"/>
@@ -54850,7 +55202,7 @@
       <c r="C190" s="140"/>
       <c r="D190" s="140"/>
       <c r="E190" s="140" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="F190" s="140"/>
       <c r="G190" s="140"/>
@@ -54863,7 +55215,7 @@
       <c r="C191" s="140"/>
       <c r="D191" s="140"/>
       <c r="E191" s="140" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="F191" s="140"/>
       <c r="G191" s="140"/>
@@ -54876,7 +55228,7 @@
       <c r="C192" s="140"/>
       <c r="D192" s="140"/>
       <c r="E192" s="140" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="F192" s="140"/>
       <c r="G192" s="140"/>
@@ -54889,7 +55241,7 @@
       <c r="C193" s="140"/>
       <c r="D193" s="140"/>
       <c r="E193" s="140" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="F193" s="140"/>
       <c r="G193" s="140"/>
@@ -54902,7 +55254,7 @@
       <c r="C194" s="140"/>
       <c r="D194" s="140"/>
       <c r="E194" s="140" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="F194" s="140"/>
       <c r="G194" s="140"/>
@@ -54915,7 +55267,7 @@
       <c r="C195" s="140"/>
       <c r="D195" s="140"/>
       <c r="E195" s="140" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="F195" s="140"/>
       <c r="G195" s="140"/>
@@ -54928,7 +55280,7 @@
       <c r="C196" s="140"/>
       <c r="D196" s="140"/>
       <c r="E196" s="140" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="F196" s="140"/>
       <c r="G196" s="140"/>
@@ -54941,7 +55293,7 @@
       <c r="C197" s="140"/>
       <c r="D197" s="140"/>
       <c r="E197" s="140" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F197" s="140"/>
       <c r="G197" s="140"/>
@@ -54954,7 +55306,7 @@
       <c r="C198" s="140"/>
       <c r="D198" s="140"/>
       <c r="E198" s="140" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="F198" s="140"/>
       <c r="G198" s="140"/>
@@ -54967,7 +55319,7 @@
       <c r="C199" s="140"/>
       <c r="D199" s="140"/>
       <c r="E199" s="140" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="F199" s="140"/>
       <c r="G199" s="140"/>
@@ -54980,7 +55332,7 @@
       <c r="C200" s="140"/>
       <c r="D200" s="140"/>
       <c r="E200" s="140" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="F200" s="140"/>
       <c r="G200" s="140"/>
@@ -54993,7 +55345,7 @@
       <c r="C201" s="140"/>
       <c r="D201" s="140"/>
       <c r="E201" s="140" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="F201" s="140"/>
       <c r="G201" s="140"/>
@@ -55006,7 +55358,7 @@
       <c r="C202" s="140"/>
       <c r="D202" s="140"/>
       <c r="E202" s="140" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="F202" s="140"/>
       <c r="G202" s="140"/>
@@ -55019,7 +55371,7 @@
       <c r="C203" s="140"/>
       <c r="D203" s="140"/>
       <c r="E203" s="140" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="F203" s="140"/>
       <c r="G203" s="140"/>
@@ -55032,7 +55384,7 @@
       <c r="C204" s="140"/>
       <c r="D204" s="140"/>
       <c r="E204" s="140" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F204" s="140"/>
       <c r="G204" s="140"/>
@@ -55045,7 +55397,7 @@
       <c r="C205" s="140"/>
       <c r="D205" s="140"/>
       <c r="E205" s="140" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="F205" s="140"/>
       <c r="G205" s="140"/>
@@ -55058,7 +55410,7 @@
       <c r="C206" s="140"/>
       <c r="D206" s="140"/>
       <c r="E206" s="140" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="F206" s="140"/>
       <c r="G206" s="140"/>
@@ -55071,7 +55423,7 @@
       <c r="C207" s="140"/>
       <c r="D207" s="140"/>
       <c r="E207" s="140" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="F207" s="140"/>
       <c r="G207" s="140"/>
@@ -55084,7 +55436,7 @@
       <c r="C208" s="140"/>
       <c r="D208" s="140"/>
       <c r="E208" s="140" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="F208" s="140"/>
       <c r="G208" s="140"/>
@@ -55097,7 +55449,7 @@
       <c r="C209" s="140"/>
       <c r="D209" s="140"/>
       <c r="E209" s="140" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="F209" s="140"/>
       <c r="G209" s="140"/>
@@ -55110,7 +55462,7 @@
       <c r="C210" s="140"/>
       <c r="D210" s="140"/>
       <c r="E210" s="140" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="F210" s="140"/>
       <c r="G210" s="140"/>
@@ -55123,7 +55475,7 @@
       <c r="C211" s="140"/>
       <c r="D211" s="140"/>
       <c r="E211" s="140" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="F211" s="140"/>
       <c r="G211" s="140"/>
@@ -55136,7 +55488,7 @@
       <c r="C212" s="140"/>
       <c r="D212" s="140"/>
       <c r="E212" s="140" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="F212" s="140"/>
       <c r="G212" s="140"/>
@@ -55149,7 +55501,7 @@
       <c r="C213" s="140"/>
       <c r="D213" s="140"/>
       <c r="E213" s="140" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="F213" s="140"/>
       <c r="G213" s="140"/>
@@ -55162,7 +55514,7 @@
       <c r="C214" s="140"/>
       <c r="D214" s="140"/>
       <c r="E214" s="140" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="F214" s="140"/>
       <c r="G214" s="140"/>
@@ -55175,7 +55527,7 @@
       <c r="C215" s="140"/>
       <c r="D215" s="140"/>
       <c r="E215" s="140" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="F215" s="140"/>
       <c r="G215" s="140"/>
@@ -55188,7 +55540,7 @@
       <c r="C216" s="140"/>
       <c r="D216" s="140"/>
       <c r="E216" s="140" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="F216" s="140"/>
       <c r="G216" s="140"/>
@@ -55201,7 +55553,7 @@
       <c r="C217" s="140"/>
       <c r="D217" s="140"/>
       <c r="E217" s="140" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F217" s="140"/>
       <c r="G217" s="140"/>
@@ -55214,7 +55566,7 @@
       <c r="C218" s="140"/>
       <c r="D218" s="140"/>
       <c r="E218" s="140" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="F218" s="140"/>
       <c r="G218" s="140"/>
@@ -55227,7 +55579,7 @@
       <c r="C219" s="140"/>
       <c r="D219" s="140"/>
       <c r="E219" s="140" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F219" s="140"/>
       <c r="G219" s="140"/>
@@ -55240,7 +55592,7 @@
       <c r="C220" s="140"/>
       <c r="D220" s="140"/>
       <c r="E220" s="140" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="F220" s="140"/>
       <c r="G220" s="140"/>
@@ -55253,7 +55605,7 @@
       <c r="C221" s="140"/>
       <c r="D221" s="140"/>
       <c r="E221" s="140" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="F221" s="140"/>
       <c r="G221" s="140"/>
@@ -55266,7 +55618,7 @@
       <c r="C222" s="146"/>
       <c r="D222" s="146"/>
       <c r="E222" s="140" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="F222" s="146"/>
       <c r="G222" s="146"/>
@@ -55287,7 +55639,7 @@
         <v>840</v>
       </c>
       <c r="E223" s="140" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="F223" s="146"/>
       <c r="G223" s="146"/>
@@ -55300,7 +55652,7 @@
       <c r="C224" s="146"/>
       <c r="D224" s="146"/>
       <c r="E224" s="140" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="F224" s="146"/>
       <c r="G224" s="146"/>
@@ -55313,7 +55665,7 @@
       <c r="C225" s="146"/>
       <c r="D225" s="146"/>
       <c r="E225" s="140" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="F225" s="146"/>
       <c r="G225" s="146"/>
@@ -55326,7 +55678,7 @@
       <c r="C226" s="146"/>
       <c r="D226" s="146"/>
       <c r="E226" s="140" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="F226" s="146"/>
       <c r="G226" s="146"/>
@@ -55339,7 +55691,7 @@
       <c r="C227" s="146"/>
       <c r="D227" s="146"/>
       <c r="E227" s="140" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="F227" s="146"/>
       <c r="G227" s="146"/>
@@ -55352,7 +55704,7 @@
       <c r="C228" s="146"/>
       <c r="D228" s="146"/>
       <c r="E228" s="140" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="F228" s="146"/>
       <c r="G228" s="146"/>
@@ -55365,7 +55717,7 @@
       <c r="C229" s="146"/>
       <c r="D229" s="146"/>
       <c r="E229" s="140" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="F229" s="146"/>
       <c r="G229" s="146"/>
@@ -55378,7 +55730,7 @@
       <c r="C230" s="146"/>
       <c r="D230" s="146"/>
       <c r="E230" s="140" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="F230" s="146"/>
       <c r="G230" s="146"/>
@@ -55391,7 +55743,7 @@
       <c r="C231" s="146"/>
       <c r="D231" s="146"/>
       <c r="E231" s="140" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F231" s="146"/>
       <c r="G231" s="146"/>
@@ -55404,7 +55756,7 @@
       <c r="C232" s="146"/>
       <c r="D232" s="146"/>
       <c r="E232" s="140" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="F232" s="146"/>
       <c r="G232" s="146"/>
@@ -55417,7 +55769,7 @@
       <c r="C233" s="146"/>
       <c r="D233" s="146"/>
       <c r="E233" s="140" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F233" s="146"/>
       <c r="G233" s="146"/>
@@ -55430,7 +55782,7 @@
       <c r="C234" s="146"/>
       <c r="D234" s="146"/>
       <c r="E234" s="140" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="F234" s="146"/>
       <c r="G234" s="146"/>
@@ -55443,7 +55795,7 @@
       <c r="C235" s="146"/>
       <c r="D235" s="146"/>
       <c r="E235" s="140" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F235" s="146"/>
       <c r="G235" s="146"/>
@@ -55456,7 +55808,7 @@
       <c r="C236" s="146"/>
       <c r="D236" s="146"/>
       <c r="E236" s="140" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="F236" s="146"/>
       <c r="G236" s="146"/>
@@ -55469,7 +55821,7 @@
       <c r="C237" s="146"/>
       <c r="D237" s="146"/>
       <c r="E237" s="140" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="F237" s="146"/>
       <c r="G237" s="146"/>
@@ -55482,7 +55834,7 @@
       <c r="C238" s="146"/>
       <c r="D238" s="146"/>
       <c r="E238" s="140" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="F238" s="146"/>
       <c r="G238" s="146"/>
@@ -55495,7 +55847,7 @@
       <c r="C239" s="146"/>
       <c r="D239" s="146"/>
       <c r="E239" s="140" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="F239" s="146"/>
       <c r="G239" s="146"/>
@@ -55508,7 +55860,7 @@
       <c r="C240" s="146"/>
       <c r="D240" s="146"/>
       <c r="E240" s="140" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="F240" s="146"/>
       <c r="G240" s="146"/>
@@ -55521,7 +55873,7 @@
       <c r="C241" s="146"/>
       <c r="D241" s="146"/>
       <c r="E241" s="140" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="F241" s="146"/>
       <c r="G241" s="146"/>
@@ -55534,7 +55886,7 @@
       <c r="C242" s="146"/>
       <c r="D242" s="146"/>
       <c r="E242" s="140" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F242" s="146"/>
       <c r="G242" s="146"/>
@@ -55547,7 +55899,7 @@
       <c r="C243" s="146"/>
       <c r="D243" s="146"/>
       <c r="E243" s="140" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="F243" s="146"/>
       <c r="G243" s="146"/>
@@ -55560,7 +55912,7 @@
       <c r="C244" s="146"/>
       <c r="D244" s="146"/>
       <c r="E244" s="140" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F244" s="146"/>
       <c r="G244" s="146"/>
@@ -55573,7 +55925,7 @@
       <c r="C245" s="146"/>
       <c r="D245" s="146"/>
       <c r="E245" s="140" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F245" s="146"/>
       <c r="G245" s="146"/>
@@ -55586,7 +55938,7 @@
       <c r="C246" s="146"/>
       <c r="D246" s="146"/>
       <c r="E246" s="140" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="F246" s="146"/>
       <c r="G246" s="146"/>
@@ -55599,7 +55951,7 @@
       <c r="C247" s="146"/>
       <c r="D247" s="146"/>
       <c r="E247" s="140" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F247" s="146"/>
       <c r="G247" s="146"/>
@@ -55612,7 +55964,7 @@
       <c r="C248" s="146"/>
       <c r="D248" s="146"/>
       <c r="E248" s="140" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="F248" s="146"/>
       <c r="G248" s="146"/>
@@ -55625,20 +55977,20 @@
       <c r="C249" s="146"/>
       <c r="D249" s="146"/>
       <c r="E249" s="140" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="F249" s="146"/>
       <c r="G249" s="146"/>
       <c r="H249" s="146"/>
       <c r="I249" s="139"/>
     </row>
-    <row r="250" spans="1:9" ht="192" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="208" x14ac:dyDescent="0.2">
       <c r="A250" s="145"/>
       <c r="B250" s="146"/>
       <c r="C250" s="146"/>
       <c r="D250" s="146"/>
       <c r="E250" s="140" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="F250" s="146"/>
       <c r="G250" s="146"/>
@@ -55650,16 +56002,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="146" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C251" s="146" t="s">
         <v>394</v>
       </c>
       <c r="D251" s="140" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E251" s="140" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="F251" s="146"/>
       <c r="G251" s="146"/>
@@ -55672,7 +56024,7 @@
       <c r="C252" s="146"/>
       <c r="D252" s="140"/>
       <c r="E252" s="140" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F252" s="146"/>
       <c r="G252" s="146"/>
@@ -55685,7 +56037,7 @@
       <c r="C253" s="146"/>
       <c r="D253" s="140"/>
       <c r="E253" s="140" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="F253" s="146"/>
       <c r="G253" s="146"/>
@@ -55698,7 +56050,7 @@
       <c r="C254" s="146"/>
       <c r="D254" s="140"/>
       <c r="E254" s="140" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="F254" s="146"/>
       <c r="G254" s="146"/>
@@ -55732,7 +56084,7 @@
         <v>842</v>
       </c>
       <c r="E256" s="140" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F256" s="140"/>
       <c r="G256" s="140"/>
@@ -55745,7 +56097,7 @@
       <c r="C257" s="140"/>
       <c r="D257" s="140"/>
       <c r="E257" s="140" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="F257" s="140"/>
       <c r="G257" s="140"/>
@@ -55758,7 +56110,7 @@
       <c r="C258" s="140"/>
       <c r="D258" s="140"/>
       <c r="E258" s="140" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="F258" s="140"/>
       <c r="G258" s="140"/>
@@ -55779,7 +56131,7 @@
         <v>844</v>
       </c>
       <c r="E259" s="140" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="F259" s="140"/>
       <c r="G259" s="140"/>
@@ -55792,7 +56144,7 @@
       <c r="C260" s="140"/>
       <c r="D260" s="140"/>
       <c r="E260" s="140" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="F260" s="140"/>
       <c r="G260" s="140"/>
@@ -55805,7 +56157,7 @@
       <c r="C261" s="140"/>
       <c r="D261" s="140"/>
       <c r="E261" s="140" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F261" s="140"/>
       <c r="G261" s="140"/>
@@ -55984,7 +56336,7 @@
       <c r="E1" s="159"/>
       <c r="F1" s="160"/>
       <c r="G1" s="161" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1" s="162"/>
       <c r="I1" s="163"/>
@@ -56048,7 +56400,7 @@
         <v>296</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="G4" s="53" t="b">
         <v>0</v>
@@ -56077,7 +56429,7 @@
         <v>298</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="G5" s="53" t="b">
         <v>0</v>
@@ -56098,13 +56450,13 @@
         <v>299</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>300</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="G6" s="53" t="b">
         <v>0</v>
@@ -56129,7 +56481,7 @@
         <v>301</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="G7" s="53" t="b">
         <v>0</v>
@@ -56154,7 +56506,7 @@
         <v>302</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="G8" s="53" t="b">
         <v>0</v>
@@ -56173,7 +56525,7 @@
         <v>303</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E9" s="53" t="s">
         <v>304</v>
@@ -56200,13 +56552,13 @@
         <v>303</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>306</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="G10" s="53" t="b">
         <v>0</v>
@@ -56225,13 +56577,13 @@
         <v>303</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>307</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="G11" s="53" t="b">
         <v>0</v>
@@ -56250,13 +56602,13 @@
         <v>303</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>308</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="G12" s="53" t="b">
         <v>0</v>
@@ -56358,7 +56710,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -56376,7 +56728,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>417</v>
@@ -56387,13 +56739,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="64" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C3" s="64" t="s">
         <v>1085</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="32" t="s">
         <v>1086</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>1087</v>
       </c>
       <c r="E3" s="33"/>
     </row>
@@ -56453,7 +56805,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="40" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="151" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B1" s="153"/>
       <c r="C1" s="153"/>
@@ -56480,34 +56832,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="110" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E2" s="111" t="s">
         <v>1088</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="F2" s="111" t="s">
         <v>1089</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="G2" s="111" t="s">
         <v>1090</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="H2" s="112" t="s">
         <v>1091</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="I2" s="113" t="s">
         <v>1092</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="J2" s="113" t="s">
         <v>1093</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="K2" s="111" t="s">
         <v>1094</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="L2" s="111" t="s">
         <v>1095</v>
       </c>
-      <c r="L2" s="111" t="s">
+      <c r="M2" s="111" t="s">
         <v>1096</v>
-      </c>
-      <c r="M2" s="111" t="s">
-        <v>1097</v>
       </c>
       <c r="N2" s="114" t="s">
         <v>417</v>
@@ -56518,29 +56870,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>1098</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>1099</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>1100</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>394</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G3" s="32">
         <v>10</v>
       </c>
       <c r="H3" s="115"/>
       <c r="I3" s="116" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J3" s="116" t="s">
         <v>1102</v>
-      </c>
-      <c r="J3" s="116" t="s">
-        <v>1103</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -56552,19 +56904,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>1104</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="32" t="s">
         <v>1105</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>1106</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>1107</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>1108</v>
       </c>
       <c r="G4" s="32">
         <v>100</v>
@@ -56575,7 +56927,7 @@
       <c r="I4" s="116"/>
       <c r="J4" s="116"/>
       <c r="K4" s="32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="L4" s="117"/>
       <c r="M4" s="32"/>
@@ -56593,13 +56945,13 @@
       <c r="I5" s="116"/>
       <c r="J5" s="116"/>
       <c r="K5" s="32" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>1110</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="M5" s="32" t="s">
         <v>1111</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>1112</v>
       </c>
       <c r="N5" s="118"/>
     </row>
@@ -56615,10 +56967,10 @@
       <c r="I6" s="116"/>
       <c r="J6" s="116"/>
       <c r="K6" s="32" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L6" s="33" t="s">
         <v>1113</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>1114</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="118"/>
